--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1047A9-3D4E-4CAF-BBEB-C28E5A887B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137AED5B-B63C-4CEA-9C6D-402FE01E9AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,14 +968,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
@@ -991,7 +991,7 @@
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" ref="D9:D58" si="0">D8*10</f>
+        <f t="shared" ref="D9:D61" si="0">D8*10</f>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="E9">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3427,12 +3427,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B58" si="1">B49</f>
+        <f t="shared" ref="B50:B61" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -3478,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3883,6 +3883,159 @@
       </c>
       <c r="M58">
         <f>VLOOKUP(A58,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4</v>
+      </c>
+      <c r="D59" s="26">
+        <f t="shared" si="0"/>
+        <v>1E+129</v>
+      </c>
+      <c r="E59" s="2">
+        <v>13400</v>
+      </c>
+      <c r="F59" s="10">
+        <f>VLOOKUP(A59,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.15969999999999973</v>
+      </c>
+      <c r="G59" s="10">
+        <f>VLOOKUP(A59,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="H59" s="10">
+        <f>VLOOKUP(A59,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.14000000000000007</v>
+      </c>
+      <c r="I59" s="10">
+        <f>VLOOKUP(A59,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.8500000000000006E-2</v>
+      </c>
+      <c r="J59" s="10">
+        <f>VLOOKUP(A59,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.8000000000000006E-3</v>
+      </c>
+      <c r="K59" s="9">
+        <f>VLOOKUP(A59,Balance1!$B:$J,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="L59" s="1">
+        <f>VLOOKUP(A59,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M59">
+        <f>VLOOKUP(A59,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4</v>
+      </c>
+      <c r="D60" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="E60">
+        <v>13600</v>
+      </c>
+      <c r="F60" s="10">
+        <f>VLOOKUP(A60,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.14409999999999978</v>
+      </c>
+      <c r="G60" s="10">
+        <f>VLOOKUP(A60,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.69000000000000017</v>
+      </c>
+      <c r="H60" s="10">
+        <f>VLOOKUP(A60,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.14500000000000007</v>
+      </c>
+      <c r="I60" s="10">
+        <f>VLOOKUP(A60,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.9000000000000006E-2</v>
+      </c>
+      <c r="J60" s="10">
+        <f>VLOOKUP(A60,Balance1!$B:$J,6,FALSE)</f>
+        <v>1.9000000000000006E-3</v>
+      </c>
+      <c r="K60" s="9">
+        <f>VLOOKUP(A60,Balance1!$B:$J,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="L60" s="1">
+        <f>VLOOKUP(A60,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M60">
+        <f>VLOOKUP(A60,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="26">
+        <f>D60*10</f>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="E61">
+        <v>13800</v>
+      </c>
+      <c r="F61" s="10">
+        <f>VLOOKUP(A61,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.12849999999999973</v>
+      </c>
+      <c r="G61" s="10">
+        <f>VLOOKUP(A61,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="H61" s="10">
+        <f>VLOOKUP(A61,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.15000000000000008</v>
+      </c>
+      <c r="I61" s="10">
+        <f>VLOOKUP(A61,Balance1!$B:$J,5,FALSE)</f>
+        <v>1.9500000000000007E-2</v>
+      </c>
+      <c r="J61" s="10">
+        <f>VLOOKUP(A61,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="K61" s="9">
+        <f>VLOOKUP(A61,Balance1!$B:$J,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="L61" s="1">
+        <f>VLOOKUP(A61,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M61">
+        <f>VLOOKUP(A61,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -3893,7 +4046,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E58">
+  <conditionalFormatting sqref="D2:E61">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3911,7 +4064,7 @@
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
@@ -3925,7 +4078,7 @@
     <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>51</v>
       </c>
@@ -3948,7 +4101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -3982,7 +4135,7 @@
       <c r="K3" s="8"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -4021,7 +4174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4061,7 +4214,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -4097,7 +4250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -4133,7 +4286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -4169,7 +4322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -4203,7 +4356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -4236,7 +4389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -4302,7 +4455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -4376,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="17.25" thickBot="1">
+    <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -4451,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -4527,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
@@ -4603,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
@@ -4679,7 +4832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
@@ -4751,7 +4904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
@@ -4789,7 +4942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>
@@ -4820,7 +4973,7 @@
       </c>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>16</v>
       </c>
@@ -4857,7 +5010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>17</v>
       </c>
@@ -4924,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18</v>
       </c>
@@ -5005,7 +5158,7 @@
         <v>8.8635505584236281E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="17.25" thickBot="1">
+    <row r="23" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -5086,7 +5239,7 @@
         <v>0.14181680893477805</v>
       </c>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20</v>
       </c>
@@ -5167,7 +5320,7 @@
         <v>2.2690689429564488</v>
       </c>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>21</v>
       </c>
@@ -5248,7 +5401,7 @@
         <v>36.305103087303181</v>
       </c>
     </row>
-    <row r="26" spans="2:26">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>22</v>
       </c>
@@ -5329,7 +5482,7 @@
         <v>580.88164939685089</v>
       </c>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>23</v>
       </c>
@@ -5410,7 +5563,7 @@
         <v>9294.1063903496142</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>24</v>
       </c>
@@ -5452,7 +5605,7 @@
         <v>902.57284000000004</v>
       </c>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>25</v>
       </c>
@@ -5487,7 +5640,7 @@
       </c>
       <c r="R29" s="22"/>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>26</v>
       </c>
@@ -5518,7 +5671,7 @@
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>27</v>
       </c>
@@ -5549,7 +5702,7 @@
       </c>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>28</v>
       </c>
@@ -5580,7 +5733,7 @@
       </c>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:25" ht="17.25" thickBot="1">
+    <row r="33" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <v>29</v>
       </c>
@@ -5611,7 +5764,7 @@
       </c>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>30</v>
       </c>
@@ -5642,7 +5795,7 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>31</v>
       </c>
@@ -5673,7 +5826,7 @@
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>32</v>
       </c>
@@ -5704,7 +5857,7 @@
       </c>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>33</v>
       </c>
@@ -5735,7 +5888,7 @@
       </c>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>34</v>
       </c>
@@ -5766,7 +5919,7 @@
       </c>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>35</v>
       </c>
@@ -5797,7 +5950,7 @@
       </c>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>36</v>
       </c>
@@ -5828,7 +5981,7 @@
       </c>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>37</v>
       </c>
@@ -5865,7 +6018,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="17.25" thickBot="1">
+    <row r="42" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.0000000000000002E+110</v>
       </c>
@@ -5908,7 +6061,7 @@
       <c r="O42" s="4"/>
       <c r="R42" s="22"/>
     </row>
-    <row r="43" spans="1:25" ht="18" thickTop="1" thickBot="1">
+    <row r="43" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.0000000000000002E+111</v>
       </c>
@@ -5957,7 +6110,7 @@
       </c>
       <c r="R43" s="22"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>A43*10</f>
         <v>1.0000000000000001E+112</v>
@@ -6010,7 +6163,7 @@
       </c>
       <c r="R44" s="22"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" ref="A45:A103" si="24">A44*10</f>
         <v>1.0000000000000002E+113</v>
@@ -6019,11 +6172,11 @@
         <v>41</v>
       </c>
       <c r="C45" s="23">
-        <f t="shared" ref="C45:C72" si="25">100%-(D45+E45+F45+G45)</f>
+        <f t="shared" ref="C45:C71" si="25">100%-(D45+E45+F45+G45)</f>
         <v>0.4093</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" ref="D45:D72" si="26">D44+0.01</f>
+        <f t="shared" ref="D45:D71" si="26">D44+0.01</f>
         <v>0.52</v>
       </c>
       <c r="E45" s="7">
@@ -6065,7 +6218,7 @@
       </c>
       <c r="R45" s="22"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+114</v>
@@ -6120,7 +6273,7 @@
       </c>
       <c r="R46" s="22"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+115</v>
@@ -6175,7 +6328,7 @@
       </c>
       <c r="R47" s="22"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+116</v>
@@ -6234,7 +6387,7 @@
       <c r="X48" s="22"/>
       <c r="Y48" s="22"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+117</v>
@@ -6289,7 +6442,7 @@
       </c>
       <c r="R49" s="22"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+118</v>
@@ -6343,7 +6496,7 @@
         <v>1E+32</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+119</v>
@@ -6397,7 +6550,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+120</v>
@@ -6451,7 +6604,7 @@
         <v>1E+40</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="17.25" thickBot="1">
+    <row r="53" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+121</v>
@@ -6505,7 +6658,7 @@
         <v>1E+44</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+122</v>
@@ -6559,7 +6712,7 @@
         <v>1E+48</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+123</v>
@@ -6613,7 +6766,7 @@
         <v>1E+52</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+124</v>
@@ -6667,7 +6820,7 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+125</v>
@@ -6721,7 +6874,7 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+126</v>
@@ -6775,7 +6928,7 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+127</v>
@@ -6829,7 +6982,7 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+128</v>
@@ -6883,7 +7036,7 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="24"/>
         <v>1E+129</v>
@@ -6937,7 +7090,7 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+130</v>
@@ -6991,7 +7144,7 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="17.25" thickBot="1">
+    <row r="63" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+131</v>
@@ -7045,7 +7198,7 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+132</v>
@@ -7099,7 +7252,7 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+133</v>
@@ -7153,7 +7306,7 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+134</v>
@@ -7207,7 +7360,7 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+135</v>
@@ -7261,7 +7414,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+136</v>
@@ -7315,7 +7468,7 @@
         <v>1E+104</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+137</v>
@@ -7369,7 +7522,7 @@
         <v>1E+108</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+138</v>
@@ -7423,7 +7576,7 @@
         <v>1E+112</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+139</v>
@@ -7477,7 +7630,7 @@
         <v>1E+116</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="24"/>
         <v>1.0000000000000003E+140</v>
@@ -7530,7 +7683,7 @@
         <v>1E+120</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="17.25" thickBot="1">
+    <row r="73" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+141</v>
@@ -7583,7 +7736,7 @@
         <v>1E+124</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+142</v>
@@ -7636,7 +7789,7 @@
         <v>1E+128</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+143</v>
@@ -7689,7 +7842,7 @@
         <v>1E+132</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+144</v>
@@ -7742,7 +7895,7 @@
         <v>1E+136</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="24"/>
         <v>1.0000000000000003E+145</v>
@@ -7781,7 +7934,7 @@
       </c>
       <c r="K77" s="7"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+146</v>
@@ -7820,7 +7973,7 @@
       </c>
       <c r="K78" s="7"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+147</v>
@@ -7859,7 +8012,7 @@
       </c>
       <c r="K79" s="7"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+148</v>
@@ -7898,7 +8051,7 @@
       </c>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+149</v>
@@ -7937,7 +8090,7 @@
       </c>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+150</v>
@@ -7976,7 +8129,7 @@
       </c>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="1:11" ht="17.25" thickBot="1">
+    <row r="83" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+151</v>
@@ -8015,7 +8168,7 @@
       </c>
       <c r="K83" s="7"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+152</v>
@@ -8054,7 +8207,7 @@
       </c>
       <c r="K84" s="7"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+153</v>
@@ -8093,7 +8246,7 @@
       </c>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+154</v>
@@ -8132,7 +8285,7 @@
       </c>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+155</v>
@@ -8171,7 +8324,7 @@
       </c>
       <c r="K87" s="7"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+156</v>
@@ -8210,7 +8363,7 @@
       </c>
       <c r="K88" s="7"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+157</v>
@@ -8249,7 +8402,7 @@
       </c>
       <c r="K89" s="7"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+158</v>
@@ -8288,7 +8441,7 @@
       </c>
       <c r="K90" s="7"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+159</v>
@@ -8327,7 +8480,7 @@
       </c>
       <c r="K91" s="7"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+160</v>
@@ -8366,7 +8519,7 @@
       </c>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="1:11" ht="17.25" thickBot="1">
+    <row r="93" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="24"/>
         <v>1.0000000000000002E+161</v>
@@ -8405,7 +8558,7 @@
       </c>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+162</v>
@@ -8444,7 +8597,7 @@
       </c>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+163</v>
@@ -8483,7 +8636,7 @@
       </c>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+164</v>
@@ -8522,7 +8675,7 @@
       </c>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+165</v>
@@ -8561,7 +8714,7 @@
       </c>
       <c r="K97" s="7"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="24"/>
         <v>1.0000000000000001E+166</v>
@@ -8600,7 +8753,7 @@
       </c>
       <c r="K98" s="7"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="24"/>
         <v>1E+167</v>
@@ -8639,7 +8792,7 @@
       </c>
       <c r="K99" s="7"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="24"/>
         <v>9.9999999999999993E+167</v>
@@ -8678,7 +8831,7 @@
       </c>
       <c r="K100" s="7"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="24"/>
         <v>9.9999999999999993E+168</v>
@@ -8717,7 +8870,7 @@
       </c>
       <c r="K101" s="7"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="24"/>
         <v>9.999999999999999E+169</v>
@@ -8756,7 +8909,7 @@
       </c>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="1:11" ht="17.25" thickBot="1">
+    <row r="103" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="24"/>
         <v>9.9999999999999995E+170</v>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137AED5B-B63C-4CEA-9C6D-402FE01E9AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8700597-7905-4F6F-A781-535A9C3E1A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -214,14 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,15 +327,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
+    <t>찰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
+    <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,11 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" ref="D9:D61" si="0">D8*10</f>
+        <f t="shared" ref="D9:D64" si="0">D8*10</f>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="E9">
@@ -3432,7 +3432,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B61" si="1">B49</f>
+        <f t="shared" ref="B50:B65" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -4036,6 +4036,210 @@
       </c>
       <c r="M61">
         <f>VLOOKUP(A61,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+132</v>
+      </c>
+      <c r="E62">
+        <v>14000</v>
+      </c>
+      <c r="F62" s="10">
+        <f>VLOOKUP(A62,Balance1!$B:$J,2,FALSE)</f>
+        <v>0.11289999999999978</v>
+      </c>
+      <c r="G62" s="10">
+        <f>VLOOKUP(A62,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.71000000000000019</v>
+      </c>
+      <c r="H62" s="10">
+        <f>VLOOKUP(A62,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.15500000000000008</v>
+      </c>
+      <c r="I62" s="10">
+        <f>VLOOKUP(A62,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.0000000000000007E-2</v>
+      </c>
+      <c r="J62" s="10">
+        <f>VLOOKUP(A62,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="K62" s="9">
+        <f>VLOOKUP(A62,Balance1!$B:$J,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="L62" s="1">
+        <f>VLOOKUP(A62,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M62">
+        <f>VLOOKUP(A62,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+133</v>
+      </c>
+      <c r="E63" s="2">
+        <v>14200</v>
+      </c>
+      <c r="F63" s="10">
+        <f>VLOOKUP(A63,Balance1!$B:$J,2,FALSE)</f>
+        <v>9.729999999999972E-2</v>
+      </c>
+      <c r="G63" s="10">
+        <f>VLOOKUP(A63,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.7200000000000002</v>
+      </c>
+      <c r="H63" s="10">
+        <f>VLOOKUP(A63,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.16000000000000009</v>
+      </c>
+      <c r="I63" s="10">
+        <f>VLOOKUP(A63,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.0500000000000008E-2</v>
+      </c>
+      <c r="J63" s="10">
+        <f>VLOOKUP(A63,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="K63" s="9">
+        <f>VLOOKUP(A63,Balance1!$B:$J,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="L63" s="1">
+        <f>VLOOKUP(A63,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M63">
+        <f>VLOOKUP(A63,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+134</v>
+      </c>
+      <c r="E64">
+        <v>14400</v>
+      </c>
+      <c r="F64" s="10">
+        <f>VLOOKUP(A64,Balance1!$B:$J,2,FALSE)</f>
+        <v>8.1699999999999773E-2</v>
+      </c>
+      <c r="G64" s="10">
+        <f>VLOOKUP(A64,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.7300000000000002</v>
+      </c>
+      <c r="H64" s="10">
+        <f>VLOOKUP(A64,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.16500000000000009</v>
+      </c>
+      <c r="I64" s="10">
+        <f>VLOOKUP(A64,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.1000000000000008E-2</v>
+      </c>
+      <c r="J64" s="10">
+        <f>VLOOKUP(A64,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.3E-3</v>
+      </c>
+      <c r="K64" s="9">
+        <f>VLOOKUP(A64,Balance1!$B:$J,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="L64" s="1">
+        <f>VLOOKUP(A64,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M64">
+        <f>VLOOKUP(A64,Balance1!$B:$J,9,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="26">
+        <f>D64*10</f>
+        <v>1.0000000000000001E+135</v>
+      </c>
+      <c r="E65">
+        <v>14600</v>
+      </c>
+      <c r="F65" s="10">
+        <f>VLOOKUP(A65,Balance1!$B:$J,2,FALSE)</f>
+        <v>6.6099999999999715E-2</v>
+      </c>
+      <c r="G65" s="10">
+        <f>VLOOKUP(A65,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="H65" s="10">
+        <f>VLOOKUP(A65,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.1700000000000001</v>
+      </c>
+      <c r="I65" s="10">
+        <f>VLOOKUP(A65,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.1500000000000009E-2</v>
+      </c>
+      <c r="J65" s="10">
+        <f>VLOOKUP(A65,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="K65" s="9">
+        <f>VLOOKUP(A65,Balance1!$B:$J,7,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="L65" s="1">
+        <f>VLOOKUP(A65,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M65">
+        <f>VLOOKUP(A65,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
       </c>
     </row>
@@ -4046,7 +4250,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E61">
+  <conditionalFormatting sqref="D2:E65">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4060,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4080,22 +4284,22 @@
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M2">
         <v>24</v>
@@ -4103,7 +4307,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -4165,13 +4369,13 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -4386,7 +4590,7 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -4419,7 +4623,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -4434,10 +4638,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -4452,7 +4656,7 @@
         <v>4</v>
       </c>
       <c r="Z11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -4485,7 +4689,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M12">
         <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$5</f>
@@ -4508,7 +4712,7 @@
         <v>74.920999999999992</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V12" s="22">
         <v>1</v>
@@ -4559,7 +4763,7 @@
       </c>
       <c r="K13" s="7"/>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M13">
         <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$5</f>
@@ -4582,7 +4786,7 @@
         <v>25</v>
       </c>
       <c r="U13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V13" s="22">
         <f>Y12*Z12</f>
@@ -4635,7 +4839,7 @@
       </c>
       <c r="K14" s="7"/>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M14">
         <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$5</f>
@@ -4658,7 +4862,7 @@
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V14" s="22">
         <f>Y13*Z13</f>
@@ -4711,7 +4915,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M15">
         <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$5</f>
@@ -4734,7 +4938,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V15" s="22">
         <f>Y14*Z14</f>
@@ -4787,7 +4991,7 @@
       </c>
       <c r="K16" s="7"/>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M16">
         <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$5</f>
@@ -4810,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V16" s="22">
         <f>Y15*Z15</f>
@@ -4863,7 +5067,7 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -4882,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V17" s="22">
         <f>Y16*Z16</f>
@@ -4935,7 +5139,7 @@
       </c>
       <c r="K18" s="7"/>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q18">
         <f>SUM(Q12:Q17)</f>
@@ -5004,10 +5208,10 @@
       </c>
       <c r="K20" s="7"/>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.3">
@@ -5041,7 +5245,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -5056,13 +5260,13 @@
         <v>4</v>
       </c>
       <c r="Q21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V21">
         <v>4</v>
@@ -5108,7 +5312,7 @@
       </c>
       <c r="K22" s="7"/>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M22">
         <f>M12*$O$5/100</f>
@@ -5139,7 +5343,7 @@
         <v>0.1467586017766721</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V22">
         <f>V12/$R$28</f>
@@ -5189,7 +5393,7 @@
       </c>
       <c r="K23" s="7"/>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M23">
         <f t="shared" ref="M23:P23" si="10">M13*$O$5/100</f>
@@ -5220,7 +5424,7 @@
         <v>0.78353786936464875</v>
       </c>
       <c r="U23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V23">
         <f t="shared" ref="V23:Y23" si="13">V13/$R$28</f>
@@ -5270,7 +5474,7 @@
       </c>
       <c r="K24" s="7"/>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M24">
         <f t="shared" ref="M24:P24" si="14">M14*$O$5/100</f>
@@ -5301,7 +5505,7 @@
         <v>3.7609817729503135E-2</v>
       </c>
       <c r="U24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V24">
         <f t="shared" ref="V24:Y24" si="16">V14/$R$28</f>
@@ -5351,7 +5555,7 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M25">
         <f t="shared" ref="M25:P25" si="17">M15*$O$5/100</f>
@@ -5382,7 +5586,7 @@
         <v>3.2093711129176014E-2</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V25">
         <f t="shared" ref="V25:Y25" si="18">V15/$R$28</f>
@@ -5432,7 +5636,7 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M26">
         <f t="shared" ref="M26:P26" si="19">M16*$O$5/100</f>
@@ -5463,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V26">
         <f t="shared" ref="V26:Y27" si="20">V16/$R$28</f>
@@ -5513,7 +5717,7 @@
       </c>
       <c r="K27" s="7"/>
       <c r="L27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27:P27" si="21">M17*$O$5/100</f>
@@ -5544,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="V27">
         <f t="shared" si="20"/>
@@ -5594,7 +5798,7 @@
       </c>
       <c r="K28" s="7"/>
       <c r="P28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q28">
         <f>SUM(Q22:Q27)</f>
@@ -5636,7 +5840,7 @@
       </c>
       <c r="K29" s="7"/>
       <c r="P29" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R29" s="22"/>
     </row>
@@ -7562,7 +7766,7 @@
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M70" s="5">
         <v>112</v>
@@ -7616,7 +7820,7 @@
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M71" s="5">
         <v>116</v>
@@ -7669,7 +7873,7 @@
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="5" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="M72" s="5">
         <v>120</v>
@@ -7722,7 +7926,7 @@
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="5" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="M73" s="5">
         <v>124</v>
@@ -7775,7 +7979,7 @@
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M74" s="5">
         <v>128</v>
@@ -7828,7 +8032,7 @@
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M75" s="5">
         <v>132</v>
@@ -7881,7 +8085,7 @@
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M76" s="5">
         <v>136</v>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8700597-7905-4F6F-A781-535A9C3E1A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D926B-BD98-403B-A608-19B14262A1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>찰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +340,10 @@
   </si>
   <si>
     <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,11 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" ref="D9:D64" si="0">D8*10</f>
+        <f t="shared" ref="D9:D68" si="0">D8*10</f>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="E9">
@@ -3432,7 +3432,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B65" si="1">B49</f>
+        <f t="shared" ref="B50:B69" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -4241,6 +4241,210 @@
       <c r="M65">
         <f>VLOOKUP(A65,Balance1!$B:$J,9,FALSE)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+136</v>
+      </c>
+      <c r="E66">
+        <v>14800</v>
+      </c>
+      <c r="F66" s="10">
+        <f>VLOOKUP(A66,Balance1!$B:$J,2,FALSE)</f>
+        <v>5.0499999999999767E-2</v>
+      </c>
+      <c r="G66" s="10">
+        <f>VLOOKUP(A66,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="H66" s="10">
+        <f>VLOOKUP(A66,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.1750000000000001</v>
+      </c>
+      <c r="I66" s="10">
+        <f>VLOOKUP(A66,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.2000000000000009E-2</v>
+      </c>
+      <c r="J66" s="10">
+        <f>VLOOKUP(A66,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="K66" s="9">
+        <f>VLOOKUP(A66,Balance1!$B:$J,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="L66" s="1">
+        <f>VLOOKUP(A66,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M66">
+        <f>VLOOKUP(A66,Balance1!$B:$J,9,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4</v>
+      </c>
+      <c r="D67" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+137</v>
+      </c>
+      <c r="E67" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F67" s="10">
+        <f>VLOOKUP(A67,Balance1!$B:$J,2,FALSE)</f>
+        <v>3.4899999999999598E-2</v>
+      </c>
+      <c r="G67" s="10">
+        <f>VLOOKUP(A67,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.76000000000000023</v>
+      </c>
+      <c r="H67" s="10">
+        <f>VLOOKUP(A67,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.1800000000000001</v>
+      </c>
+      <c r="I67" s="10">
+        <f>VLOOKUP(A67,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.250000000000001E-2</v>
+      </c>
+      <c r="J67" s="10">
+        <f>VLOOKUP(A67,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.5999999999999994E-3</v>
+      </c>
+      <c r="K67" s="9">
+        <f>VLOOKUP(A67,Balance1!$B:$J,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="L67" s="1">
+        <f>VLOOKUP(A67,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M67">
+        <f>VLOOKUP(A67,Balance1!$B:$J,9,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+138</v>
+      </c>
+      <c r="E68">
+        <v>15200</v>
+      </c>
+      <c r="F68" s="10">
+        <f>VLOOKUP(A68,Balance1!$B:$J,2,FALSE)</f>
+        <v>1.9299999999999651E-2</v>
+      </c>
+      <c r="G68" s="10">
+        <f>VLOOKUP(A68,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.77000000000000024</v>
+      </c>
+      <c r="H68" s="10">
+        <f>VLOOKUP(A68,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.18500000000000011</v>
+      </c>
+      <c r="I68" s="10">
+        <f>VLOOKUP(A68,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.300000000000001E-2</v>
+      </c>
+      <c r="J68" s="10">
+        <f>VLOOKUP(A68,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.6999999999999993E-3</v>
+      </c>
+      <c r="K68" s="9">
+        <f>VLOOKUP(A68,Balance1!$B:$J,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="L68" s="1">
+        <f>VLOOKUP(A68,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M68">
+        <f>VLOOKUP(A68,Balance1!$B:$J,9,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4</v>
+      </c>
+      <c r="D69" s="26">
+        <f>D68*10</f>
+        <v>1.0000000000000002E+139</v>
+      </c>
+      <c r="E69">
+        <v>15400</v>
+      </c>
+      <c r="F69" s="10">
+        <f>VLOOKUP(A69,Balance1!$B:$J,2,FALSE)</f>
+        <v>3.6999999999995925E-3</v>
+      </c>
+      <c r="G69" s="10">
+        <f>VLOOKUP(A69,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.78000000000000025</v>
+      </c>
+      <c r="H69" s="10">
+        <f>VLOOKUP(A69,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.19000000000000011</v>
+      </c>
+      <c r="I69" s="10">
+        <f>VLOOKUP(A69,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.350000000000001E-2</v>
+      </c>
+      <c r="J69" s="10">
+        <f>VLOOKUP(A69,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.7999999999999991E-3</v>
+      </c>
+      <c r="K69" s="9">
+        <f>VLOOKUP(A69,Balance1!$B:$J,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="L69" s="1">
+        <f>VLOOKUP(A69,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M69">
+        <f>VLOOKUP(A69,Balance1!$B:$J,9,FALSE)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4250,7 +4454,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E65">
+  <conditionalFormatting sqref="D2:E69">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4264,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7873,7 +8077,7 @@
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M72" s="5">
         <v>120</v>
@@ -7926,7 +8130,7 @@
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M73" s="5">
         <v>124</v>
@@ -7979,7 +8183,7 @@
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M74" s="5">
         <v>128</v>
@@ -8032,7 +8236,7 @@
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M75" s="5">
         <v>132</v>
@@ -8085,7 +8289,7 @@
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M76" s="5">
         <v>136</v>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D926B-BD98-403B-A608-19B14262A1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD560EFB-91AF-4FE7-B874-2681911DC4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -968,11 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" ref="D9:D68" si="0">D8*10</f>
+        <f t="shared" ref="D9:D72" si="0">D8*10</f>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="E9">
@@ -3432,7 +3432,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B69" si="1">B49</f>
+        <f t="shared" ref="B50:B73" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -4444,6 +4444,210 @@
       </c>
       <c r="M69">
         <f>VLOOKUP(A69,Balance1!$B:$J,9,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4</v>
+      </c>
+      <c r="D70" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000003E+140</v>
+      </c>
+      <c r="E70">
+        <v>15600</v>
+      </c>
+      <c r="F70" s="10">
+        <f>VLOOKUP(A70,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <f>VLOOKUP(A70,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.7780999999999999</v>
+      </c>
+      <c r="H70" s="10">
+        <f>VLOOKUP(A70,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.19500000000000012</v>
+      </c>
+      <c r="I70" s="10">
+        <f>VLOOKUP(A70,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.4000000000000011E-2</v>
+      </c>
+      <c r="J70" s="10">
+        <f>VLOOKUP(A70,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.8999999999999989E-3</v>
+      </c>
+      <c r="K70" s="9">
+        <f>VLOOKUP(A70,Balance1!$B:$J,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="L70" s="1">
+        <f>VLOOKUP(A70,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M70">
+        <f>VLOOKUP(A70,Balance1!$B:$J,9,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+141</v>
+      </c>
+      <c r="E71" s="2">
+        <v>15800</v>
+      </c>
+      <c r="F71" s="10">
+        <f>VLOOKUP(A71,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <f>VLOOKUP(A71,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.77249999999999985</v>
+      </c>
+      <c r="H71" s="10">
+        <f>VLOOKUP(A71,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="I71" s="10">
+        <f>VLOOKUP(A71,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.4500000000000011E-2</v>
+      </c>
+      <c r="J71" s="10">
+        <f>VLOOKUP(A71,Balance1!$B:$J,6,FALSE)</f>
+        <v>2.9999999999999988E-3</v>
+      </c>
+      <c r="K71" s="9">
+        <f>VLOOKUP(A71,Balance1!$B:$J,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="L71" s="1">
+        <f>VLOOKUP(A71,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M71">
+        <f>VLOOKUP(A71,Balance1!$B:$J,9,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+142</v>
+      </c>
+      <c r="E72">
+        <v>16000</v>
+      </c>
+      <c r="F72" s="10">
+        <f>VLOOKUP(A72,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <f>VLOOKUP(A72,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.76689999999999992</v>
+      </c>
+      <c r="H72" s="10">
+        <f>VLOOKUP(A72,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.20500000000000013</v>
+      </c>
+      <c r="I72" s="10">
+        <f>VLOOKUP(A72,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.5000000000000012E-2</v>
+      </c>
+      <c r="J72" s="10">
+        <f>VLOOKUP(A72,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.0999999999999986E-3</v>
+      </c>
+      <c r="K72" s="9">
+        <f>VLOOKUP(A72,Balance1!$B:$J,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="L72" s="1">
+        <f>VLOOKUP(A72,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M72">
+        <f>VLOOKUP(A72,Balance1!$B:$J,9,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4</v>
+      </c>
+      <c r="D73" s="26">
+        <f>D72*10</f>
+        <v>1.0000000000000002E+143</v>
+      </c>
+      <c r="E73">
+        <v>16200</v>
+      </c>
+      <c r="F73" s="10">
+        <f>VLOOKUP(A73,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <f>VLOOKUP(A73,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.76129999999999987</v>
+      </c>
+      <c r="H73" s="10">
+        <f>VLOOKUP(A73,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.21000000000000013</v>
+      </c>
+      <c r="I73" s="10">
+        <f>VLOOKUP(A73,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.5500000000000012E-2</v>
+      </c>
+      <c r="J73" s="10">
+        <f>VLOOKUP(A73,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.1999999999999984E-3</v>
+      </c>
+      <c r="K73" s="9">
+        <f>VLOOKUP(A73,Balance1!$B:$J,7,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="L73" s="1">
+        <f>VLOOKUP(A73,Balance1!$B:$J,8,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="M73">
+        <f>VLOOKUP(A73,Balance1!$B:$J,9,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -4454,7 +4658,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E69">
+  <conditionalFormatting sqref="D2:E73">
     <cfRule type="expression" dxfId="4" priority="3">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD560EFB-91AF-4FE7-B874-2681911DC4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258BCE25-0518-4619-AAC6-2AFE22ABC7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요뮬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*합계가 안맞으면 빨간색으로 칠해짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +340,18 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,11 +976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,12 +994,13 @@
     <col min="8" max="8" width="9.625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="7" customWidth="1"/>
     <col min="10" max="10" width="9.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9" style="7"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,17 +1031,20 @@
       <c r="J1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1068,20 +1080,23 @@
         <f>VLOOKUP(A2,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="9">
-        <f>VLOOKUP(A2,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <f>VLOOKUP(A2,Balance1!$B:$J,8,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L2" s="1">
-        <f>VLOOKUP(A2,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <f>VLOOKUP(A2,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N2" s="1">
+        <f>VLOOKUP(A2,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1117,20 +1132,23 @@
         <f>VLOOKUP(A3,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
-        <f>VLOOKUP(A3,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <f>VLOOKUP(A3,Balance1!$B:$J,8,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L3" s="1">
-        <f>VLOOKUP(A3,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <f>VLOOKUP(A3,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N3" s="1">
+        <f>VLOOKUP(A3,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1166,20 +1184,23 @@
         <f>VLOOKUP(A4,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="9">
-        <f>VLOOKUP(A4,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <f>VLOOKUP(A4,Balance1!$B:$J,8,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L4" s="1">
-        <f>VLOOKUP(A4,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <f>VLOOKUP(A4,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N4" s="1">
+        <f>VLOOKUP(A4,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1215,20 +1236,23 @@
         <f>VLOOKUP(A5,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="9">
-        <f>VLOOKUP(A5,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f>VLOOKUP(A5,Balance1!$B:$J,8,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L5" s="1">
-        <f>VLOOKUP(A5,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <f>VLOOKUP(A5,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N5" s="1">
+        <f>VLOOKUP(A5,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1264,20 +1288,23 @@
         <f>VLOOKUP(A6,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="9">
-        <f>VLOOKUP(A6,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f>VLOOKUP(A6,Balance1!$B:$J,8,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L6" s="1">
-        <f>VLOOKUP(A6,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <f>VLOOKUP(A6,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N6" s="1">
+        <f>VLOOKUP(A6,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1313,20 +1340,23 @@
         <f>VLOOKUP(A7,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="9">
-        <f>VLOOKUP(A7,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f>VLOOKUP(A7,Balance1!$B:$J,8,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L7" s="1">
-        <f>VLOOKUP(A7,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <f>VLOOKUP(A7,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N7" s="1">
+        <f>VLOOKUP(A7,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1363,20 +1393,23 @@
         <f>VLOOKUP(A8,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="9">
-        <f>VLOOKUP(A8,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <f>VLOOKUP(A8,Balance1!$B:$J,8,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="1">
-        <f>VLOOKUP(A8,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <f>VLOOKUP(A8,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N8" s="1">
+        <f>VLOOKUP(A8,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1387,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" ref="D9:D72" si="0">D8*10</f>
+        <f t="shared" ref="D9:D74" si="0">D8*10</f>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="E9">
@@ -1413,20 +1446,23 @@
         <f>VLOOKUP(A9,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="9">
-        <f>VLOOKUP(A9,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f>VLOOKUP(A9,Balance1!$B:$J,8,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="L9" s="1">
-        <f>VLOOKUP(A9,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <f>VLOOKUP(A9,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N9" s="1">
+        <f>VLOOKUP(A9,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1463,20 +1499,23 @@
         <f>VLOOKUP(A10,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="9">
-        <f>VLOOKUP(A10,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f>VLOOKUP(A10,Balance1!$B:$J,8,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L10" s="1">
-        <f>VLOOKUP(A10,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <f>VLOOKUP(A10,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N10" s="1">
+        <f>VLOOKUP(A10,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1513,20 +1552,23 @@
         <f>VLOOKUP(A11,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="9">
-        <f>VLOOKUP(A11,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f>VLOOKUP(A11,Balance1!$B:$J,8,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L11" s="1">
-        <f>VLOOKUP(A11,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <f>VLOOKUP(A11,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N11" s="1">
+        <f>VLOOKUP(A11,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1563,20 +1605,23 @@
         <f>VLOOKUP(A12,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="9">
-        <f>VLOOKUP(A12,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f>VLOOKUP(A12,Balance1!$B:$J,8,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L12" s="1">
-        <f>VLOOKUP(A12,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <f>VLOOKUP(A12,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N12" s="1">
+        <f>VLOOKUP(A12,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1613,20 +1658,23 @@
         <f>VLOOKUP(A13,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="9">
-        <f>VLOOKUP(A13,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f>VLOOKUP(A13,Balance1!$B:$J,8,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L13" s="1">
-        <f>VLOOKUP(A13,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <f>VLOOKUP(A13,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N13" s="1">
+        <f>VLOOKUP(A13,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1663,20 +1711,23 @@
         <f>VLOOKUP(A14,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="9">
-        <f>VLOOKUP(A14,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>VLOOKUP(A14,Balance1!$B:$J,8,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L14" s="1">
-        <f>VLOOKUP(A14,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <f>VLOOKUP(A14,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N14" s="1">
+        <f>VLOOKUP(A14,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1713,20 +1764,23 @@
         <f>VLOOKUP(A15,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="9">
-        <f>VLOOKUP(A15,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <f>VLOOKUP(A15,Balance1!$B:$J,8,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L15" s="1">
-        <f>VLOOKUP(A15,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <f>VLOOKUP(A15,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N15" s="1">
+        <f>VLOOKUP(A15,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1763,20 +1817,23 @@
         <f>VLOOKUP(A16,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="9">
-        <f>VLOOKUP(A16,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f>VLOOKUP(A16,Balance1!$B:$J,8,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L16" s="1">
-        <f>VLOOKUP(A16,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <f>VLOOKUP(A16,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N16" s="1">
+        <f>VLOOKUP(A16,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1813,20 +1870,23 @@
         <f>VLOOKUP(A17,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="9">
-        <f>VLOOKUP(A17,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <f>VLOOKUP(A17,Balance1!$B:$J,8,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="L17" s="1">
-        <f>VLOOKUP(A17,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <f>VLOOKUP(A17,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N17" s="1">
+        <f>VLOOKUP(A17,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1863,20 +1923,23 @@
         <f>VLOOKUP(A18,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="9">
-        <f>VLOOKUP(A18,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <f>VLOOKUP(A18,Balance1!$B:$J,8,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L18" s="1">
-        <f>VLOOKUP(A18,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <f>VLOOKUP(A18,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N18" s="1">
+        <f>VLOOKUP(A18,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1913,20 +1976,23 @@
         <f>VLOOKUP(A19,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="9">
-        <f>VLOOKUP(A19,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <f>VLOOKUP(A19,Balance1!$B:$J,8,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L19" s="1">
-        <f>VLOOKUP(A19,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <f>VLOOKUP(A19,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N19" s="1">
+        <f>VLOOKUP(A19,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1963,20 +2029,23 @@
         <f>VLOOKUP(A20,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="9">
-        <f>VLOOKUP(A20,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <f>VLOOKUP(A20,Balance1!$B:$J,8,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L20" s="1">
-        <f>VLOOKUP(A20,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <f>VLOOKUP(A20,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N20" s="1">
+        <f>VLOOKUP(A20,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2013,20 +2082,23 @@
         <f>VLOOKUP(A21,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="9">
-        <f>VLOOKUP(A21,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <f>VLOOKUP(A21,Balance1!$B:$J,8,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L21" s="1">
-        <f>VLOOKUP(A21,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <f>VLOOKUP(A21,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N21" s="1">
+        <f>VLOOKUP(A21,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2063,20 +2135,23 @@
         <f>VLOOKUP(A22,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="9">
-        <f>VLOOKUP(A22,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <f>VLOOKUP(A22,Balance1!$B:$J,8,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L22" s="1">
-        <f>VLOOKUP(A22,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <f>VLOOKUP(A22,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N22" s="1">
+        <f>VLOOKUP(A22,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2113,20 +2188,23 @@
         <f>VLOOKUP(A23,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="9">
-        <f>VLOOKUP(A23,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <f>VLOOKUP(A23,Balance1!$B:$J,8,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L23" s="1">
-        <f>VLOOKUP(A23,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <f>VLOOKUP(A23,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N23" s="1">
+        <f>VLOOKUP(A23,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2163,20 +2241,23 @@
         <f>VLOOKUP(A24,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="9">
-        <f>VLOOKUP(A24,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <f>VLOOKUP(A24,Balance1!$B:$J,8,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L24" s="1">
-        <f>VLOOKUP(A24,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <f>VLOOKUP(A24,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N24" s="1">
+        <f>VLOOKUP(A24,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2213,20 +2294,23 @@
         <f>VLOOKUP(A25,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="9">
-        <f>VLOOKUP(A25,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <f>VLOOKUP(A25,Balance1!$B:$J,8,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="L25" s="1">
-        <f>VLOOKUP(A25,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <f>VLOOKUP(A25,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N25" s="1">
+        <f>VLOOKUP(A25,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2263,20 +2347,23 @@
         <f>VLOOKUP(A26,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="9">
-        <f>VLOOKUP(A26,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K26" s="10">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <f>VLOOKUP(A26,Balance1!$B:$J,8,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L26" s="1">
-        <f>VLOOKUP(A26,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <f>VLOOKUP(A26,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N26" s="1">
+        <f>VLOOKUP(A26,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2313,20 +2400,23 @@
         <f>VLOOKUP(A27,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="9">
-        <f>VLOOKUP(A27,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <f>VLOOKUP(A27,Balance1!$B:$J,8,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L27" s="1">
-        <f>VLOOKUP(A27,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <f>VLOOKUP(A27,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N27" s="1">
+        <f>VLOOKUP(A27,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2363,20 +2453,23 @@
         <f>VLOOKUP(A28,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="9">
-        <f>VLOOKUP(A28,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <f>VLOOKUP(A28,Balance1!$B:$J,8,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L28" s="1">
-        <f>VLOOKUP(A28,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <f>VLOOKUP(A28,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N28" s="1">
+        <f>VLOOKUP(A28,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2413,20 +2506,23 @@
         <f>VLOOKUP(A29,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="9">
-        <f>VLOOKUP(A29,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <f>VLOOKUP(A29,Balance1!$B:$J,8,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L29" s="1">
-        <f>VLOOKUP(A29,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <f>VLOOKUP(A29,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N29" s="1">
+        <f>VLOOKUP(A29,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2463,20 +2559,23 @@
         <f>VLOOKUP(A30,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="9">
-        <f>VLOOKUP(A30,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K30" s="10">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <f>VLOOKUP(A30,Balance1!$B:$J,8,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L30" s="1">
-        <f>VLOOKUP(A30,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <f>VLOOKUP(A30,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N30" s="1">
+        <f>VLOOKUP(A30,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2513,20 +2612,23 @@
         <f>VLOOKUP(A31,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="9">
-        <f>VLOOKUP(A31,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <f>VLOOKUP(A31,Balance1!$B:$J,8,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L31" s="1">
-        <f>VLOOKUP(A31,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <f>VLOOKUP(A31,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N31" s="1">
+        <f>VLOOKUP(A31,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2563,20 +2665,23 @@
         <f>VLOOKUP(A32,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="9">
-        <f>VLOOKUP(A32,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <f>VLOOKUP(A32,Balance1!$B:$J,8,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L32" s="1">
-        <f>VLOOKUP(A32,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <f>VLOOKUP(A32,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N32" s="1">
+        <f>VLOOKUP(A32,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2613,20 +2718,23 @@
         <f>VLOOKUP(A33,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="9">
-        <f>VLOOKUP(A33,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <f>VLOOKUP(A33,Balance1!$B:$J,8,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="L33" s="1">
-        <f>VLOOKUP(A33,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <f>VLOOKUP(A33,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N33" s="1">
+        <f>VLOOKUP(A33,Balance1!$B:$K,10,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2663,20 +2771,23 @@
         <f>VLOOKUP(A34,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="9">
-        <f>VLOOKUP(A34,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <f>VLOOKUP(A34,Balance1!$B:$J,8,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L34" s="1">
-        <f>VLOOKUP(A34,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <f>VLOOKUP(A34,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N34" s="1">
+        <f>VLOOKUP(A34,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2713,20 +2824,23 @@
         <f>VLOOKUP(A35,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="9">
-        <f>VLOOKUP(A35,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <f>VLOOKUP(A35,Balance1!$B:$J,8,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L35" s="1">
-        <f>VLOOKUP(A35,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <f>VLOOKUP(A35,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N35" s="1">
+        <f>VLOOKUP(A35,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2763,20 +2877,23 @@
         <f>VLOOKUP(A36,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="9">
-        <f>VLOOKUP(A36,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <f>VLOOKUP(A36,Balance1!$B:$J,8,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L36" s="1">
-        <f>VLOOKUP(A36,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <f>VLOOKUP(A36,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N36" s="1">
+        <f>VLOOKUP(A36,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2813,20 +2930,23 @@
         <f>VLOOKUP(A37,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="9">
-        <f>VLOOKUP(A37,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <f>VLOOKUP(A37,Balance1!$B:$J,8,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L37" s="1">
-        <f>VLOOKUP(A37,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <f>VLOOKUP(A37,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N37" s="1">
+        <f>VLOOKUP(A37,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2863,20 +2983,23 @@
         <f>VLOOKUP(A38,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="9">
-        <f>VLOOKUP(A38,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K38" s="10">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <f>VLOOKUP(A38,Balance1!$B:$J,8,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L38" s="1">
-        <f>VLOOKUP(A38,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <f>VLOOKUP(A38,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N38" s="1">
+        <f>VLOOKUP(A38,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2913,20 +3036,23 @@
         <f>VLOOKUP(A39,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="9">
-        <f>VLOOKUP(A39,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <f>VLOOKUP(A39,Balance1!$B:$J,8,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L39" s="1">
-        <f>VLOOKUP(A39,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M39">
+      <c r="M39" s="1">
         <f>VLOOKUP(A39,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N39" s="1">
+        <f>VLOOKUP(A39,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2963,20 +3089,23 @@
         <f>VLOOKUP(A40,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="9">
-        <f>VLOOKUP(A40,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <f>VLOOKUP(A40,Balance1!$B:$J,8,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L40" s="1">
-        <f>VLOOKUP(A40,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M40">
+      <c r="M40" s="1">
         <f>VLOOKUP(A40,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N40" s="1">
+        <f>VLOOKUP(A40,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3013,20 +3142,23 @@
         <f>VLOOKUP(A41,Balance1!$B:$J,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="9">
-        <f>VLOOKUP(A41,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <f>VLOOKUP(A41,Balance1!$B:$J,8,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="L41" s="1">
-        <f>VLOOKUP(A41,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M41">
+      <c r="M41" s="1">
         <f>VLOOKUP(A41,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N41" s="1">
+        <f>VLOOKUP(A41,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3063,20 +3195,23 @@
         <f>VLOOKUP(A42,Balance1!$B:$J,6,FALSE)</f>
         <v>1E-4</v>
       </c>
-      <c r="K42" s="9">
-        <f>VLOOKUP(A42,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <f>VLOOKUP(A42,Balance1!$B:$J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L42" s="1">
-        <f>VLOOKUP(A42,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M42">
+      <c r="M42" s="1">
         <f>VLOOKUP(A42,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N42" s="1">
+        <f>VLOOKUP(A42,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3113,20 +3248,23 @@
         <f>VLOOKUP(A43,Balance1!$B:$J,6,FALSE)</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K43" s="9">
-        <f>VLOOKUP(A43,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <f>VLOOKUP(A43,Balance1!$B:$J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L43" s="1">
-        <f>VLOOKUP(A43,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M43">
+      <c r="M43" s="1">
         <f>VLOOKUP(A43,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N43" s="1">
+        <f>VLOOKUP(A43,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3163,20 +3301,23 @@
         <f>VLOOKUP(A44,Balance1!$B:$J,6,FALSE)</f>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="K44" s="9">
-        <f>VLOOKUP(A44,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K44" s="10">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <f>VLOOKUP(A44,Balance1!$B:$J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L44" s="1">
-        <f>VLOOKUP(A44,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M44">
+      <c r="M44" s="1">
         <f>VLOOKUP(A44,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N44" s="1">
+        <f>VLOOKUP(A44,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3213,20 +3354,23 @@
         <f>VLOOKUP(A45,Balance1!$B:$J,6,FALSE)</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K45" s="9">
-        <f>VLOOKUP(A45,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <f>VLOOKUP(A45,Balance1!$B:$J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L45" s="1">
-        <f>VLOOKUP(A45,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M45">
+      <c r="M45" s="1">
         <f>VLOOKUP(A45,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N45" s="1">
+        <f>VLOOKUP(A45,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3263,20 +3407,23 @@
         <f>VLOOKUP(A46,Balance1!$B:$J,6,FALSE)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K46" s="9">
-        <f>VLOOKUP(A46,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <f>VLOOKUP(A46,Balance1!$B:$J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L46" s="1">
-        <f>VLOOKUP(A46,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M46">
+      <c r="M46" s="1">
         <f>VLOOKUP(A46,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N46" s="1">
+        <f>VLOOKUP(A46,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3313,20 +3460,23 @@
         <f>VLOOKUP(A47,Balance1!$B:$J,6,FALSE)</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="K47" s="9">
-        <f>VLOOKUP(A47,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K47" s="10">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <f>VLOOKUP(A47,Balance1!$B:$J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L47" s="1">
-        <f>VLOOKUP(A47,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M47">
+      <c r="M47" s="1">
         <f>VLOOKUP(A47,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N47" s="1">
+        <f>VLOOKUP(A47,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3363,20 +3513,23 @@
         <f>VLOOKUP(A48,Balance1!$B:$J,6,FALSE)</f>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="K48" s="9">
-        <f>VLOOKUP(A48,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K48" s="10">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
+        <f>VLOOKUP(A48,Balance1!$B:$J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L48" s="1">
-        <f>VLOOKUP(A48,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M48">
+      <c r="M48" s="1">
         <f>VLOOKUP(A48,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N48" s="1">
+        <f>VLOOKUP(A48,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3414,25 +3567,28 @@
         <f>VLOOKUP(A49,Balance1!$B:$J,6,FALSE)</f>
         <v>8.0000000000000015E-4</v>
       </c>
-      <c r="K49" s="9">
-        <f>VLOOKUP(A49,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K49" s="10">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <f>VLOOKUP(A49,Balance1!$B:$J,8,FALSE)</f>
         <v>24</v>
       </c>
-      <c r="L49" s="1">
-        <f>VLOOKUP(A49,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M49">
+      <c r="M49" s="1">
         <f>VLOOKUP(A49,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N49" s="1">
+        <f>VLOOKUP(A49,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B73" si="1">B49</f>
+        <f t="shared" ref="B50:B77" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -3465,20 +3621,23 @@
         <f>VLOOKUP(A50,Balance1!$B:$J,6,FALSE)</f>
         <v>9.0000000000000019E-4</v>
       </c>
-      <c r="K50" s="9">
-        <f>VLOOKUP(A50,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <f>VLOOKUP(A50,Balance1!$B:$J,8,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L50" s="1">
-        <f>VLOOKUP(A50,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M50">
+      <c r="M50" s="1">
         <f>VLOOKUP(A50,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N50" s="1">
+        <f>VLOOKUP(A50,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3516,20 +3675,23 @@
         <f>VLOOKUP(A51,Balance1!$B:$J,6,FALSE)</f>
         <v>1.0000000000000002E-3</v>
       </c>
-      <c r="K51" s="9">
-        <f>VLOOKUP(A51,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K51" s="10">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <f>VLOOKUP(A51,Balance1!$B:$J,8,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L51" s="1">
-        <f>VLOOKUP(A51,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M51">
+      <c r="M51" s="1">
         <f>VLOOKUP(A51,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N51" s="1">
+        <f>VLOOKUP(A51,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3567,20 +3729,23 @@
         <f>VLOOKUP(A52,Balance1!$B:$J,6,FALSE)</f>
         <v>1.1000000000000003E-3</v>
       </c>
-      <c r="K52" s="9">
-        <f>VLOOKUP(A52,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K52" s="10">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <f>VLOOKUP(A52,Balance1!$B:$J,8,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L52" s="1">
-        <f>VLOOKUP(A52,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M52">
+      <c r="M52" s="1">
         <f>VLOOKUP(A52,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N52" s="1">
+        <f>VLOOKUP(A52,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3618,20 +3783,23 @@
         <f>VLOOKUP(A53,Balance1!$B:$J,6,FALSE)</f>
         <v>1.2000000000000003E-3</v>
       </c>
-      <c r="K53" s="9">
-        <f>VLOOKUP(A53,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K53" s="10">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
+        <f>VLOOKUP(A53,Balance1!$B:$J,8,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L53" s="1">
-        <f>VLOOKUP(A53,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M53">
+      <c r="M53" s="1">
         <f>VLOOKUP(A53,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N53" s="1">
+        <f>VLOOKUP(A53,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3669,20 +3837,23 @@
         <f>VLOOKUP(A54,Balance1!$B:$J,6,FALSE)</f>
         <v>1.3000000000000004E-3</v>
       </c>
-      <c r="K54" s="9">
-        <f>VLOOKUP(A54,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K54" s="10">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <f>VLOOKUP(A54,Balance1!$B:$J,8,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L54" s="1">
-        <f>VLOOKUP(A54,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M54">
+      <c r="M54" s="1">
         <f>VLOOKUP(A54,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N54" s="1">
+        <f>VLOOKUP(A54,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3720,20 +3891,23 @@
         <f>VLOOKUP(A55,Balance1!$B:$J,6,FALSE)</f>
         <v>1.4000000000000004E-3</v>
       </c>
-      <c r="K55" s="9">
-        <f>VLOOKUP(A55,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K55" s="10">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9">
+        <f>VLOOKUP(A55,Balance1!$B:$J,8,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L55" s="1">
-        <f>VLOOKUP(A55,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M55">
+      <c r="M55" s="1">
         <f>VLOOKUP(A55,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N55" s="1">
+        <f>VLOOKUP(A55,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3771,20 +3945,23 @@
         <f>VLOOKUP(A56,Balance1!$B:$J,6,FALSE)</f>
         <v>1.5000000000000005E-3</v>
       </c>
-      <c r="K56" s="9">
-        <f>VLOOKUP(A56,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K56" s="10">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
+        <f>VLOOKUP(A56,Balance1!$B:$J,8,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L56" s="1">
-        <f>VLOOKUP(A56,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M56">
+      <c r="M56" s="1">
         <f>VLOOKUP(A56,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N56" s="1">
+        <f>VLOOKUP(A56,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3822,20 +3999,23 @@
         <f>VLOOKUP(A57,Balance1!$B:$J,6,FALSE)</f>
         <v>1.6000000000000005E-3</v>
       </c>
-      <c r="K57" s="9">
-        <f>VLOOKUP(A57,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
+        <f>VLOOKUP(A57,Balance1!$B:$J,8,FALSE)</f>
         <v>28</v>
       </c>
-      <c r="L57" s="1">
-        <f>VLOOKUP(A57,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M57">
+      <c r="M57" s="1">
         <f>VLOOKUP(A57,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N57" s="1">
+        <f>VLOOKUP(A57,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3873,20 +4053,23 @@
         <f>VLOOKUP(A58,Balance1!$B:$J,6,FALSE)</f>
         <v>1.7000000000000006E-3</v>
       </c>
-      <c r="K58" s="9">
-        <f>VLOOKUP(A58,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K58" s="10">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <f>VLOOKUP(A58,Balance1!$B:$J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L58" s="1">
-        <f>VLOOKUP(A58,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M58">
+      <c r="M58" s="1">
         <f>VLOOKUP(A58,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N58" s="1">
+        <f>VLOOKUP(A58,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3924,20 +4107,23 @@
         <f>VLOOKUP(A59,Balance1!$B:$J,6,FALSE)</f>
         <v>1.8000000000000006E-3</v>
       </c>
-      <c r="K59" s="9">
-        <f>VLOOKUP(A59,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9">
+        <f>VLOOKUP(A59,Balance1!$B:$J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L59" s="1">
-        <f>VLOOKUP(A59,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M59">
+      <c r="M59" s="1">
         <f>VLOOKUP(A59,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N59" s="1">
+        <f>VLOOKUP(A59,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3975,20 +4161,23 @@
         <f>VLOOKUP(A60,Balance1!$B:$J,6,FALSE)</f>
         <v>1.9000000000000006E-3</v>
       </c>
-      <c r="K60" s="9">
-        <f>VLOOKUP(A60,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9">
+        <f>VLOOKUP(A60,Balance1!$B:$J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L60" s="1">
-        <f>VLOOKUP(A60,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M60">
+      <c r="M60" s="1">
         <f>VLOOKUP(A60,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N60" s="1">
+        <f>VLOOKUP(A60,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4026,20 +4215,23 @@
         <f>VLOOKUP(A61,Balance1!$B:$J,6,FALSE)</f>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="K61" s="9">
-        <f>VLOOKUP(A61,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K61" s="10">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9">
+        <f>VLOOKUP(A61,Balance1!$B:$J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L61" s="1">
-        <f>VLOOKUP(A61,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M61">
+      <c r="M61" s="1">
         <f>VLOOKUP(A61,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N61" s="1">
+        <f>VLOOKUP(A61,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4077,20 +4269,23 @@
         <f>VLOOKUP(A62,Balance1!$B:$J,6,FALSE)</f>
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="K62" s="9">
-        <f>VLOOKUP(A62,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K62" s="10">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9">
+        <f>VLOOKUP(A62,Balance1!$B:$J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L62" s="1">
-        <f>VLOOKUP(A62,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M62">
+      <c r="M62" s="1">
         <f>VLOOKUP(A62,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N62" s="1">
+        <f>VLOOKUP(A62,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4128,20 +4323,23 @@
         <f>VLOOKUP(A63,Balance1!$B:$J,6,FALSE)</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="K63" s="9">
-        <f>VLOOKUP(A63,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K63" s="10">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9">
+        <f>VLOOKUP(A63,Balance1!$B:$J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L63" s="1">
-        <f>VLOOKUP(A63,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M63">
+      <c r="M63" s="1">
         <f>VLOOKUP(A63,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N63" s="1">
+        <f>VLOOKUP(A63,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4179,20 +4377,23 @@
         <f>VLOOKUP(A64,Balance1!$B:$J,6,FALSE)</f>
         <v>2.3E-3</v>
       </c>
-      <c r="K64" s="9">
-        <f>VLOOKUP(A64,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K64" s="10">
+        <v>0</v>
+      </c>
+      <c r="L64" s="9">
+        <f>VLOOKUP(A64,Balance1!$B:$J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L64" s="1">
-        <f>VLOOKUP(A64,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M64">
+      <c r="M64" s="1">
         <f>VLOOKUP(A64,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N64" s="1">
+        <f>VLOOKUP(A64,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4230,20 +4431,23 @@
         <f>VLOOKUP(A65,Balance1!$B:$J,6,FALSE)</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="K65" s="9">
-        <f>VLOOKUP(A65,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K65" s="10">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9">
+        <f>VLOOKUP(A65,Balance1!$B:$J,8,FALSE)</f>
         <v>32</v>
       </c>
-      <c r="L65" s="1">
-        <f>VLOOKUP(A65,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M65">
+      <c r="M65" s="1">
         <f>VLOOKUP(A65,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N65" s="1">
+        <f>VLOOKUP(A65,Balance1!$B:$K,10,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4281,20 +4485,23 @@
         <f>VLOOKUP(A66,Balance1!$B:$J,6,FALSE)</f>
         <v>2.4999999999999996E-3</v>
       </c>
-      <c r="K66" s="9">
-        <f>VLOOKUP(A66,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K66" s="10">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9">
+        <f>VLOOKUP(A66,Balance1!$B:$J,8,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L66" s="1">
-        <f>VLOOKUP(A66,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M66">
+      <c r="M66" s="1">
         <f>VLOOKUP(A66,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N66" s="1">
+        <f>VLOOKUP(A66,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4332,20 +4539,23 @@
         <f>VLOOKUP(A67,Balance1!$B:$J,6,FALSE)</f>
         <v>2.5999999999999994E-3</v>
       </c>
-      <c r="K67" s="9">
-        <f>VLOOKUP(A67,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K67" s="10">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <f>VLOOKUP(A67,Balance1!$B:$J,8,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L67" s="1">
-        <f>VLOOKUP(A67,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M67">
+      <c r="M67" s="1">
         <f>VLOOKUP(A67,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N67" s="1">
+        <f>VLOOKUP(A67,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4383,20 +4593,23 @@
         <f>VLOOKUP(A68,Balance1!$B:$J,6,FALSE)</f>
         <v>2.6999999999999993E-3</v>
       </c>
-      <c r="K68" s="9">
-        <f>VLOOKUP(A68,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K68" s="10">
+        <v>0</v>
+      </c>
+      <c r="L68" s="9">
+        <f>VLOOKUP(A68,Balance1!$B:$J,8,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L68" s="1">
-        <f>VLOOKUP(A68,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M68">
+      <c r="M68" s="1">
         <f>VLOOKUP(A68,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N68" s="1">
+        <f>VLOOKUP(A68,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4434,20 +4647,23 @@
         <f>VLOOKUP(A69,Balance1!$B:$J,6,FALSE)</f>
         <v>2.7999999999999991E-3</v>
       </c>
-      <c r="K69" s="9">
-        <f>VLOOKUP(A69,Balance1!$B:$J,7,FALSE)</f>
+      <c r="K69" s="10">
+        <v>0</v>
+      </c>
+      <c r="L69" s="9">
+        <f>VLOOKUP(A69,Balance1!$B:$J,8,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L69" s="1">
-        <f>VLOOKUP(A69,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M69">
+      <c r="M69" s="1">
         <f>VLOOKUP(A69,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N69" s="1">
+        <f>VLOOKUP(A69,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4485,20 +4701,24 @@
         <f>VLOOKUP(A70,Balance1!$B:$J,6,FALSE)</f>
         <v>2.8999999999999989E-3</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="10">
         <f>VLOOKUP(A70,Balance1!$B:$J,7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="9">
+        <f>VLOOKUP(A70,Balance1!$B:$J,8,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L70" s="1">
-        <f>VLOOKUP(A70,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M70">
+      <c r="M70" s="1">
         <f>VLOOKUP(A70,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N70" s="1">
+        <f>VLOOKUP(A70,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4536,20 +4756,24 @@
         <f>VLOOKUP(A71,Balance1!$B:$J,6,FALSE)</f>
         <v>2.9999999999999988E-3</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K71" s="10">
         <f>VLOOKUP(A71,Balance1!$B:$J,7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="9">
+        <f>VLOOKUP(A71,Balance1!$B:$J,8,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L71" s="1">
-        <f>VLOOKUP(A71,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M71">
+      <c r="M71" s="1">
         <f>VLOOKUP(A71,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N71" s="1">
+        <f>VLOOKUP(A71,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4573,7 +4797,7 @@
       </c>
       <c r="G72" s="10">
         <f>VLOOKUP(A72,Balance1!$B:$J,3,FALSE)</f>
-        <v>0.76689999999999992</v>
+        <v>0.76679999999999993</v>
       </c>
       <c r="H72" s="10">
         <f>VLOOKUP(A72,Balance1!$B:$J,4,FALSE)</f>
@@ -4587,20 +4811,24 @@
         <f>VLOOKUP(A72,Balance1!$B:$J,6,FALSE)</f>
         <v>3.0999999999999986E-3</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="10">
         <f>VLOOKUP(A72,Balance1!$B:$J,7,FALSE)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="L72" s="9">
+        <f>VLOOKUP(A72,Balance1!$B:$J,8,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L72" s="1">
-        <f>VLOOKUP(A72,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M72">
+      <c r="M72" s="1">
         <f>VLOOKUP(A72,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N72" s="1">
+        <f>VLOOKUP(A72,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4624,7 +4852,7 @@
       </c>
       <c r="G73" s="10">
         <f>VLOOKUP(A73,Balance1!$B:$J,3,FALSE)</f>
-        <v>0.76129999999999987</v>
+        <v>0.76109999999999989</v>
       </c>
       <c r="H73" s="10">
         <f>VLOOKUP(A73,Balance1!$B:$J,4,FALSE)</f>
@@ -4638,28 +4866,252 @@
         <f>VLOOKUP(A73,Balance1!$B:$J,6,FALSE)</f>
         <v>3.1999999999999984E-3</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="10">
         <f>VLOOKUP(A73,Balance1!$B:$J,7,FALSE)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L73" s="9">
+        <f>VLOOKUP(A73,Balance1!$B:$J,8,FALSE)</f>
         <v>37</v>
       </c>
-      <c r="L73" s="1">
-        <f>VLOOKUP(A73,Balance1!$B:$J,8,FALSE)</f>
-        <v>9028</v>
-      </c>
-      <c r="M73">
+      <c r="M73" s="1">
         <f>VLOOKUP(A73,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N73" s="1">
+        <f>VLOOKUP(A73,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4</v>
+      </c>
+      <c r="D74" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E+144</v>
+      </c>
+      <c r="E74">
+        <v>16400</v>
+      </c>
+      <c r="F74" s="10">
+        <f>VLOOKUP(A74,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <f>VLOOKUP(A74,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.75539999999999985</v>
+      </c>
+      <c r="H74" s="10">
+        <f>VLOOKUP(A74,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.21500000000000014</v>
+      </c>
+      <c r="I74" s="10">
+        <f>VLOOKUP(A74,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.6000000000000013E-2</v>
+      </c>
+      <c r="J74" s="10">
+        <f>VLOOKUP(A74,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.2999999999999982E-3</v>
+      </c>
+      <c r="K74" s="10">
+        <f>VLOOKUP(A74,Balance1!$B:$J,7,FALSE)</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="L74" s="9">
+        <f>VLOOKUP(A74,Balance1!$B:$J,8,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="M74" s="1">
+        <f>VLOOKUP(A74,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N74" s="1">
+        <f>VLOOKUP(A74,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
+      <c r="D75" s="26">
+        <f t="shared" ref="D75:D76" si="2">D74*10</f>
+        <v>1.0000000000000003E+145</v>
+      </c>
+      <c r="E75" s="2">
+        <v>16600</v>
+      </c>
+      <c r="F75" s="10">
+        <f>VLOOKUP(A75,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="10">
+        <f>VLOOKUP(A75,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.74969999999999981</v>
+      </c>
+      <c r="H75" s="10">
+        <f>VLOOKUP(A75,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.22000000000000014</v>
+      </c>
+      <c r="I75" s="10">
+        <f>VLOOKUP(A75,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.6500000000000013E-2</v>
+      </c>
+      <c r="J75" s="10">
+        <f>VLOOKUP(A75,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.3999999999999981E-3</v>
+      </c>
+      <c r="K75" s="10">
+        <f>VLOOKUP(A75,Balance1!$B:$J,7,FALSE)</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L75" s="9">
+        <f>VLOOKUP(A75,Balance1!$B:$J,8,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="M75" s="1">
+        <f>VLOOKUP(A75,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N75" s="1">
+        <f>VLOOKUP(A75,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4</v>
+      </c>
+      <c r="D76" s="26">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002E+146</v>
+      </c>
+      <c r="E76">
+        <v>16800</v>
+      </c>
+      <c r="F76" s="10">
+        <f>VLOOKUP(A76,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <f>VLOOKUP(A76,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.74399999999999977</v>
+      </c>
+      <c r="H76" s="10">
+        <f>VLOOKUP(A76,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.22500000000000014</v>
+      </c>
+      <c r="I76" s="10">
+        <f>VLOOKUP(A76,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.7000000000000014E-2</v>
+      </c>
+      <c r="J76" s="10">
+        <f>VLOOKUP(A76,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.4999999999999979E-3</v>
+      </c>
+      <c r="K76" s="10">
+        <f>VLOOKUP(A76,Balance1!$B:$J,7,FALSE)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L76" s="9">
+        <f>VLOOKUP(A76,Balance1!$B:$J,8,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="M76" s="1">
+        <f>VLOOKUP(A76,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N76" s="1">
+        <f>VLOOKUP(A76,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4</v>
+      </c>
+      <c r="D77" s="26">
+        <f>D76*10</f>
+        <v>1.0000000000000002E+147</v>
+      </c>
+      <c r="E77">
+        <v>17000</v>
+      </c>
+      <c r="F77" s="10">
+        <f>VLOOKUP(A77,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="10">
+        <f>VLOOKUP(A77,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.73829999999999985</v>
+      </c>
+      <c r="H77" s="10">
+        <f>VLOOKUP(A77,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.23000000000000015</v>
+      </c>
+      <c r="I77" s="10">
+        <f>VLOOKUP(A77,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.7500000000000014E-2</v>
+      </c>
+      <c r="J77" s="10">
+        <f>VLOOKUP(A77,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.5999999999999977E-3</v>
+      </c>
+      <c r="K77" s="10">
+        <f>VLOOKUP(A77,Balance1!$B:$J,7,FALSE)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="L77" s="9">
+        <f>VLOOKUP(A77,Balance1!$B:$J,8,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="M77" s="1">
+        <f>VLOOKUP(A77,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N77" s="1">
+        <f>VLOOKUP(A77,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:M1048576">
+  <conditionalFormatting sqref="A1:N1048576">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E73">
-    <cfRule type="expression" dxfId="4" priority="3">
+  <conditionalFormatting sqref="D2:E77">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4670,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
-  <dimension ref="A2:Z103"/>
+  <dimension ref="A2:AA103"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4683,14 +5135,15 @@
     <col min="5" max="5" width="9.625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="11" width="14" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="12" width="14" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>49</v>
       </c>
@@ -4706,14 +5159,17 @@
       <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
         <v>69</v>
       </c>
-      <c r="M2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -4735,19 +5191,22 @@
       <c r="G3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L3" s="8"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -4766,27 +5225,30 @@
       <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J4">
+      <c r="J4" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" t="s">
         <v>58</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>46</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4805,28 +5267,31 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <v>10</v>
       </c>
-      <c r="I5" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J5">
+      <c r="J5" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5">
+      <c r="L5" s="7"/>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>40</v>
       </c>
-      <c r="O5">
-        <f>VLOOKUP($M$2,$B:$H,7,FALSE)*4</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f>VLOOKUP($N$2,$B:$I,8,FALSE)*4</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -4845,24 +5310,27 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>10</v>
       </c>
-      <c r="I6" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J6">
+      <c r="J6" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6">
+      <c r="L6" s="7"/>
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -4881,24 +5349,27 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>10</v>
       </c>
-      <c r="I7" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J7">
+      <c r="J7" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7">
+      <c r="L7" s="7"/>
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -4917,24 +5388,27 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
         <v>10</v>
       </c>
-      <c r="I8" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J8">
+      <c r="J8" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="21">
+      <c r="L8" s="7"/>
+      <c r="M8" s="21">
         <v>4</v>
       </c>
-      <c r="M8" s="21">
+      <c r="N8" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -4953,22 +5427,25 @@
       <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>10</v>
       </c>
-      <c r="I9" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J9">
+      <c r="J9" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="M9">
-        <f>SUM(M5:M8)</f>
+      <c r="L9" s="7"/>
+      <c r="N9">
+        <f>SUM(N5:N8)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -4987,21 +5464,24 @@
       <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <v>10</v>
       </c>
-      <c r="I10" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J10">
+      <c r="J10" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -5020,54 +5500,57 @@
       <c r="G11" s="10">
         <v>0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <v>10</v>
       </c>
-      <c r="I11" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J11">
+      <c r="J11" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" t="s">
         <v>45</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>47</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>45</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>3</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>4</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -5086,62 +5569,65 @@
       <c r="G12" s="10">
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <v>12</v>
       </c>
-      <c r="I12" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J12">
+      <c r="J12" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" t="s">
         <v>49</v>
       </c>
-      <c r="M12">
-        <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$5</f>
-        <v>29.968400000000003</v>
-      </c>
       <c r="N12">
-        <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$6</f>
-        <v>22.476300000000002</v>
+        <f>VLOOKUP($N$2,$B:$I,2,FALSE)*$N$5</f>
+        <v>0</v>
       </c>
       <c r="O12">
-        <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$7</f>
-        <v>14.984200000000001</v>
+        <f>VLOOKUP($N$2,$B:$I,2,FALSE)*$N$6</f>
+        <v>0</v>
       </c>
       <c r="P12">
-        <f>VLOOKUP($M$2,$B:$H,2,FALSE)*$M$8</f>
-        <v>7.4921000000000006</v>
+        <f>VLOOKUP($N$2,$B:$I,2,FALSE)*$N$7</f>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <f>SUM(M12:P12)</f>
-        <v>74.920999999999992</v>
-      </c>
-      <c r="U12" t="s">
+        <f>VLOOKUP($N$2,$B:$I,2,FALSE)*$N$8</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>SUM(N12:Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
         <v>49</v>
       </c>
-      <c r="V12" s="22">
+      <c r="W12" s="22">
         <v>1</v>
       </c>
-      <c r="W12" s="22">
-        <f>V12*Z12</f>
+      <c r="X12" s="22">
+        <f>W12*AA12</f>
         <v>2</v>
       </c>
-      <c r="X12" s="22">
-        <f>W12*Z12</f>
+      <c r="Y12" s="22">
+        <f>X12*AA12</f>
         <v>4</v>
       </c>
-      <c r="Y12" s="22">
-        <f>X12*Z12</f>
+      <c r="Z12" s="22">
+        <f>Y12*AA12</f>
         <v>8</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -5160,63 +5646,66 @@
       <c r="G13" s="16">
         <v>0</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
         <v>12</v>
       </c>
-      <c r="I13" s="15">
-        <v>9028</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="J13" s="15">
+        <v>9028</v>
+      </c>
+      <c r="K13" s="14">
         <v>1</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" t="s">
         <v>50</v>
       </c>
-      <c r="M13">
-        <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$5</f>
-        <v>10</v>
-      </c>
       <c r="N13">
-        <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$6</f>
-        <v>7.5</v>
+        <f>VLOOKUP($N$2,$B:$I,3,FALSE)*$N$5</f>
+        <v>30.671999999999997</v>
       </c>
       <c r="O13">
-        <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$7</f>
-        <v>5</v>
+        <f>VLOOKUP($N$2,$B:$I,3,FALSE)*$N$6</f>
+        <v>23.003999999999998</v>
       </c>
       <c r="P13">
-        <f>VLOOKUP($M$2,$B:$H,3,FALSE)*$M$8</f>
-        <v>2.5</v>
+        <f>VLOOKUP($N$2,$B:$I,3,FALSE)*$N$7</f>
+        <v>15.335999999999999</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:Q17" si="0">SUM(M13:P13)</f>
-        <v>25</v>
-      </c>
-      <c r="U13" t="s">
+        <f>VLOOKUP($N$2,$B:$I,3,FALSE)*$N$8</f>
+        <v>7.6679999999999993</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R17" si="0">SUM(N13:Q13)</f>
+        <v>76.680000000000007</v>
+      </c>
+      <c r="V13" t="s">
         <v>50</v>
       </c>
-      <c r="V13" s="22">
-        <f>Y12*Z12</f>
+      <c r="W13" s="22">
+        <f>Z12*AA12</f>
         <v>16</v>
       </c>
-      <c r="W13" s="22">
-        <f t="shared" ref="W13:W16" si="1">V13*Z13</f>
+      <c r="X13" s="22">
+        <f t="shared" ref="X13:X17" si="1">W13*AA13</f>
         <v>32</v>
       </c>
-      <c r="X13" s="22">
-        <f t="shared" ref="X13:X16" si="2">W13*Z13</f>
+      <c r="Y13" s="22">
+        <f t="shared" ref="Y13:Y17" si="2">X13*AA13</f>
         <v>64</v>
       </c>
-      <c r="Y13" s="22">
-        <f t="shared" ref="Y13:Y16" si="3">X13*Z13</f>
+      <c r="Z13" s="22">
+        <f t="shared" ref="Z13:Z17" si="3">Y13*AA13</f>
         <v>128</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -5236,63 +5725,66 @@
       <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
         <v>12</v>
       </c>
-      <c r="I14" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J14">
+      <c r="J14" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" t="s">
         <v>51</v>
       </c>
-      <c r="M14">
-        <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$5</f>
-        <v>0.03</v>
-      </c>
       <c r="N14">
-        <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$6</f>
-        <v>2.2499999999999999E-2</v>
+        <f>VLOOKUP($N$2,$B:$I,4,FALSE)*$N$5</f>
+        <v>8.2000000000000046</v>
       </c>
       <c r="O14">
-        <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$7</f>
-        <v>1.4999999999999999E-2</v>
+        <f>VLOOKUP($N$2,$B:$I,4,FALSE)*$N$6</f>
+        <v>6.1500000000000039</v>
       </c>
       <c r="P14">
-        <f>VLOOKUP($M$2,$B:$H,4,FALSE)*$M$8</f>
-        <v>7.4999999999999997E-3</v>
+        <f>VLOOKUP($N$2,$B:$I,4,FALSE)*$N$7</f>
+        <v>4.1000000000000023</v>
       </c>
       <c r="Q14">
+        <f>VLOOKUP($N$2,$B:$I,4,FALSE)*$N$8</f>
+        <v>2.0500000000000012</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="0"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="U14" t="s">
+        <v>20.500000000000011</v>
+      </c>
+      <c r="V14" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="22">
-        <f>Y13*Z13</f>
+      <c r="W14" s="22">
+        <f>Z13*AA13</f>
         <v>256</v>
       </c>
-      <c r="W14" s="22">
+      <c r="X14" s="22">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="X14" s="22">
+      <c r="Y14" s="22">
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-      <c r="Y14" s="22">
+      <c r="Z14" s="22">
         <f t="shared" si="3"/>
         <v>2048</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
@@ -5312,63 +5804,66 @@
       <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
         <v>12</v>
       </c>
-      <c r="I15" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J15">
+      <c r="J15" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" t="s">
         <v>52</v>
       </c>
-      <c r="M15">
-        <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$5</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
       <c r="N15">
-        <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$6</f>
-        <v>1.2000000000000001E-3</v>
+        <f>VLOOKUP($N$2,$B:$I,5,FALSE)*$N$5</f>
+        <v>1.0000000000000004</v>
       </c>
       <c r="O15">
-        <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$7</f>
-        <v>8.0000000000000004E-4</v>
+        <f>VLOOKUP($N$2,$B:$I,5,FALSE)*$N$6</f>
+        <v>0.75000000000000033</v>
       </c>
       <c r="P15">
-        <f>VLOOKUP($M$2,$B:$H,5,FALSE)*$M$8</f>
-        <v>4.0000000000000002E-4</v>
+        <f>VLOOKUP($N$2,$B:$I,5,FALSE)*$N$7</f>
+        <v>0.50000000000000022</v>
       </c>
       <c r="Q15">
+        <f>VLOOKUP($N$2,$B:$I,5,FALSE)*$N$8</f>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U15" t="s">
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="V15" t="s">
         <v>52</v>
       </c>
-      <c r="V15" s="22">
-        <f>Y14*Z14</f>
+      <c r="W15" s="22">
+        <f>Z14*AA14</f>
         <v>4096</v>
       </c>
-      <c r="W15" s="22">
+      <c r="X15" s="22">
         <f t="shared" si="1"/>
         <v>8192</v>
       </c>
-      <c r="X15" s="22">
+      <c r="Y15" s="22">
         <f t="shared" si="2"/>
         <v>16384</v>
       </c>
-      <c r="Y15" s="22">
+      <c r="Z15" s="22">
         <f t="shared" si="3"/>
         <v>32768</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
@@ -5388,63 +5883,66 @@
       <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
         <v>12</v>
       </c>
-      <c r="I16" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J16">
+      <c r="J16" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" t="s">
+      <c r="L16" s="7"/>
+      <c r="M16" t="s">
         <v>53</v>
       </c>
-      <c r="M16">
-        <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$5</f>
-        <v>0</v>
-      </c>
       <c r="N16">
-        <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$6</f>
-        <v>0</v>
+        <f>VLOOKUP($N$2,$B:$I,6,FALSE)*$N$5</f>
+        <v>0.12399999999999994</v>
       </c>
       <c r="O16">
-        <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$7</f>
-        <v>0</v>
+        <f>VLOOKUP($N$2,$B:$I,6,FALSE)*$N$6</f>
+        <v>9.2999999999999958E-2</v>
       </c>
       <c r="P16">
-        <f>VLOOKUP($M$2,$B:$H,6,FALSE)*$M$8</f>
-        <v>0</v>
+        <f>VLOOKUP($N$2,$B:$I,6,FALSE)*$N$7</f>
+        <v>6.1999999999999972E-2</v>
       </c>
       <c r="Q16">
+        <f>VLOOKUP($N$2,$B:$I,6,FALSE)*$N$8</f>
+        <v>3.0999999999999986E-2</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
+        <v>0.30999999999999989</v>
+      </c>
+      <c r="V16" t="s">
         <v>53</v>
       </c>
-      <c r="V16" s="22">
-        <f>Y15*Z15</f>
+      <c r="W16" s="22">
+        <f>Z15*AA15</f>
         <v>65536</v>
       </c>
-      <c r="W16" s="22">
+      <c r="X16" s="22">
         <f t="shared" si="1"/>
         <v>131072</v>
       </c>
-      <c r="X16" s="22">
+      <c r="Y16" s="22">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
-      <c r="Y16" s="22">
+      <c r="Z16" s="22">
         <f t="shared" si="3"/>
         <v>524288</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
@@ -5464,59 +5962,66 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
         <v>12</v>
       </c>
-      <c r="I17" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J17">
+      <c r="J17" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" t="s">
         <v>54</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
-        <v>0</v>
+        <f>VLOOKUP($N$2,$B:$I,7,FALSE)*$N$5</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <f>VLOOKUP($N$2,$B:$I,7,FALSE)*$N$6</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <f>VLOOKUP($N$2,$B:$I,7,FALSE)*$N$7</f>
+        <v>2E-3</v>
       </c>
       <c r="Q17">
+        <f>VLOOKUP($N$2,$B:$I,7,FALSE)*$N$8</f>
+        <v>1E-3</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
-        <v>73</v>
-      </c>
-      <c r="V17" s="22">
-        <f>Y16*Z16</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" s="22">
+        <f>Z16*AA16</f>
         <v>1048576</v>
       </c>
-      <c r="W17" s="22">
-        <f t="shared" ref="W17" si="5">V17*Z17</f>
+      <c r="X17" s="22">
+        <f t="shared" si="1"/>
         <v>2097152</v>
       </c>
-      <c r="X17" s="22">
-        <f t="shared" ref="X17" si="6">W17*Z17</f>
+      <c r="Y17" s="22">
+        <f t="shared" si="2"/>
         <v>4194304</v>
       </c>
-      <c r="Y17" s="22">
-        <f t="shared" ref="Y17" si="7">X17*Z17</f>
+      <c r="Z17" s="22">
+        <f t="shared" si="3"/>
         <v>8388608</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
@@ -5536,25 +6041,28 @@
       <c r="G18" s="11">
         <v>0</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <v>12</v>
       </c>
-      <c r="I18" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J18">
+      <c r="J18" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="P18" t="s">
+      <c r="L18" s="7"/>
+      <c r="Q18" t="s">
         <v>70</v>
       </c>
-      <c r="Q18">
-        <f>SUM(Q12:Q17)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <f>SUM(R12:R17)</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>
@@ -5574,18 +6082,21 @@
       <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
         <v>12</v>
       </c>
-      <c r="I19" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J19">
+      <c r="J19" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>16</v>
       </c>
@@ -5605,24 +6116,27 @@
       <c r="G20" s="11">
         <v>0</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
         <v>14</v>
       </c>
-      <c r="I20" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J20">
+      <c r="J20" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" t="s">
+      <c r="L20" s="7"/>
+      <c r="M20" t="s">
         <v>71</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>17</v>
       </c>
@@ -5642,54 +6156,57 @@
       <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <v>14</v>
       </c>
-      <c r="I21" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J21">
+      <c r="J21" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" t="s">
+      <c r="L21" s="7"/>
+      <c r="M21" t="s">
         <v>56</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>47</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>57</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>45</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>4</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>3</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18</v>
       </c>
@@ -5709,68 +6226,71 @@
       <c r="G22" s="11">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
         <v>14</v>
       </c>
-      <c r="I22" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J22">
+      <c r="J22" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" t="s">
+      <c r="L22" s="7"/>
+      <c r="M22" t="s">
         <v>59</v>
       </c>
-      <c r="M22">
-        <f>M12*$O$5/100</f>
-        <v>20.378512000000001</v>
-      </c>
       <c r="N22">
-        <f t="shared" ref="N22:P22" si="8">N12*$O$5/100</f>
-        <v>15.283884</v>
+        <f>N12*$P$5/100</f>
+        <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="8"/>
-        <v>10.189256</v>
+        <f t="shared" ref="O22:Q22" si="5">O12*$P$5/100</f>
+        <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="8"/>
-        <v>5.0946280000000002</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <f>SUM(M22:P22)</f>
-        <v>50.946280000000002</v>
-      </c>
-      <c r="R22" s="22">
-        <f>M22*V12+N22*W12+O22*X12+P22*Y12</f>
-        <v>132.460328</v>
-      </c>
-      <c r="S22">
-        <f>R22/$R$28</f>
-        <v>0.1467586017766721</v>
-      </c>
-      <c r="U22" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>SUM(N22:Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="22">
+        <f>N22*W12+O22*X12+P22*Y12+Q22*Z12</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>S22/$S$28</f>
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
         <v>49</v>
       </c>
-      <c r="V22">
-        <f>V12/$R$28</f>
-        <v>1.1079438198029535E-3</v>
-      </c>
       <c r="W22">
-        <f t="shared" ref="W22:Y22" si="9">W12/$R$28</f>
-        <v>2.215887639605907E-3</v>
+        <f>W12/$S$28</f>
+        <v>5.4691237599177536E-6</v>
       </c>
       <c r="X22">
-        <f t="shared" si="9"/>
-        <v>4.431775279211814E-3</v>
+        <f t="shared" ref="X22:Z22" si="6">X12/$S$28</f>
+        <v>1.0938247519835507E-5</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="9"/>
-        <v>8.8635505584236281E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>2.1876495039671014E-5</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>4.3752990079342029E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -5790,68 +6310,71 @@
       <c r="G23" s="18">
         <v>0</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
         <v>14</v>
       </c>
-      <c r="I23" s="15">
-        <v>9028</v>
-      </c>
-      <c r="J23" s="14">
+      <c r="J23" s="15">
+        <v>9028</v>
+      </c>
+      <c r="K23" s="14">
         <v>1</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" t="s">
+      <c r="L23" s="7"/>
+      <c r="M23" t="s">
         <v>60</v>
       </c>
-      <c r="M23">
-        <f t="shared" ref="M23:P23" si="10">M13*$O$5/100</f>
-        <v>6.8</v>
-      </c>
       <c r="N23">
+        <f t="shared" ref="N23:Q27" si="7">N13*$P$5/100</f>
+        <v>45.394559999999991</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>34.045919999999995</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>22.697279999999996</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>11.348639999999998</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R27" si="8">SUM(N23:Q23)</f>
+        <v>113.48639999999997</v>
+      </c>
+      <c r="S23" s="22">
+        <f>N23*W13+O23*X13+P23*Y13+Q23*Z13</f>
+        <v>4721.034239999999</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ref="T23:T27" si="9">S23/$S$28</f>
+        <v>2.5819920533369251E-2</v>
+      </c>
+      <c r="V23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23:Z27" si="10">W13/$S$28</f>
+        <v>8.7505980158684058E-5</v>
+      </c>
+      <c r="X23">
         <f t="shared" si="10"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="O23">
+        <v>1.7501196031736812E-4</v>
+      </c>
+      <c r="Y23">
         <f t="shared" si="10"/>
-        <v>3.4</v>
-      </c>
-      <c r="P23">
+        <v>3.5002392063473623E-4</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="10"/>
-        <v>1.7</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" ref="Q23:Q27" si="11">SUM(M23:P23)</f>
-        <v>17</v>
-      </c>
-      <c r="R23" s="22">
-        <f>M23*V13+N23*W13+O23*X13+P23*Y13</f>
-        <v>707.2</v>
-      </c>
-      <c r="S23">
-        <f t="shared" ref="S23:S27" si="12">R23/$R$28</f>
-        <v>0.78353786936464875</v>
-      </c>
-      <c r="U23" t="s">
-        <v>50</v>
-      </c>
-      <c r="V23">
-        <f t="shared" ref="V23:Y23" si="13">V13/$R$28</f>
-        <v>1.7727101116847256E-2</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="13"/>
-        <v>3.5454202233694512E-2</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="13"/>
-        <v>7.0908404467389025E-2</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="13"/>
-        <v>0.14181680893477805</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
+        <v>7.0004784126947246E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20</v>
       </c>
@@ -5871,68 +6394,71 @@
       <c r="G24" s="12">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
         <v>14</v>
       </c>
-      <c r="I24" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J24">
+      <c r="J24" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" t="s">
+      <c r="L24" s="7"/>
+      <c r="M24" t="s">
         <v>61</v>
       </c>
-      <c r="M24">
-        <f t="shared" ref="M24:P24" si="14">M14*$O$5/100</f>
-        <v>2.0400000000000001E-2</v>
-      </c>
       <c r="N24">
-        <f t="shared" si="14"/>
-        <v>1.5300000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>12.136000000000006</v>
       </c>
       <c r="O24">
-        <f t="shared" si="14"/>
-        <v>1.0200000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.1020000000000056</v>
       </c>
       <c r="P24">
-        <f t="shared" si="14"/>
-        <v>5.1000000000000004E-3</v>
+        <f t="shared" si="7"/>
+        <v>6.0680000000000032</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="11"/>
-        <v>5.1000000000000004E-2</v>
-      </c>
-      <c r="R24" s="22">
-        <f t="shared" ref="R24:R27" si="15">M24*V14+N24*W14+O24*X14+P24*Y14</f>
-        <v>33.945599999999999</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="12"/>
-        <v>3.7609817729503135E-2</v>
-      </c>
-      <c r="U24" t="s">
+        <f t="shared" si="7"/>
+        <v>3.0340000000000016</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>30.340000000000021</v>
+      </c>
+      <c r="S24" s="22">
+        <f t="shared" ref="S24:S27" si="11">N24*W14+O24*X14+P24*Y14+Q24*Z14</f>
+        <v>20194.304000000011</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>0.11044514782140219</v>
+      </c>
+      <c r="V24" t="s">
         <v>51</v>
       </c>
-      <c r="V24">
-        <f t="shared" ref="V24:Y24" si="16">V14/$R$28</f>
-        <v>0.2836336178695561</v>
-      </c>
       <c r="W24">
-        <f t="shared" si="16"/>
-        <v>0.5672672357391122</v>
+        <f t="shared" si="10"/>
+        <v>1.4000956825389449E-3</v>
       </c>
       <c r="X24">
-        <f t="shared" si="16"/>
-        <v>1.1345344714782244</v>
+        <f t="shared" si="10"/>
+        <v>2.8001913650778898E-3</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="16"/>
-        <v>2.2690689429564488</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>5.6003827301557797E-3</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="10"/>
+        <v>1.1200765460311559E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>21</v>
       </c>
@@ -5952,68 +6478,71 @@
       <c r="G25" s="12">
         <v>0</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J25">
+      <c r="J25" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" t="s">
+      <c r="L25" s="7"/>
+      <c r="M25" t="s">
         <v>62</v>
       </c>
-      <c r="M25">
-        <f t="shared" ref="M25:P25" si="17">M15*$O$5/100</f>
-        <v>1.088E-3</v>
-      </c>
       <c r="N25">
-        <f t="shared" si="17"/>
-        <v>8.160000000000001E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.4800000000000006</v>
       </c>
       <c r="O25">
-        <f t="shared" si="17"/>
-        <v>5.44E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.1100000000000003</v>
       </c>
       <c r="P25">
-        <f t="shared" si="17"/>
-        <v>2.72E-4</v>
+        <f t="shared" si="7"/>
+        <v>0.74000000000000032</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>0.37000000000000016</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>3.7000000000000011</v>
+      </c>
+      <c r="S25" s="22">
         <f t="shared" si="11"/>
-        <v>2.7200000000000002E-3</v>
-      </c>
-      <c r="R25" s="22">
-        <f t="shared" si="15"/>
-        <v>28.966912000000001</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="12"/>
-        <v>3.2093711129176014E-2</v>
-      </c>
-      <c r="U25" t="s">
+        <v>39403.520000000011</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>0.21550272745639448</v>
+      </c>
+      <c r="V25" t="s">
         <v>52</v>
       </c>
-      <c r="V25">
-        <f t="shared" ref="V25:Y25" si="18">V15/$R$28</f>
-        <v>4.5381378859128976</v>
-      </c>
       <c r="W25">
-        <f t="shared" si="18"/>
-        <v>9.0762757718257951</v>
+        <f t="shared" si="10"/>
+        <v>2.2401530920623119E-2</v>
       </c>
       <c r="X25">
-        <f t="shared" si="18"/>
-        <v>18.15255154365159</v>
+        <f t="shared" si="10"/>
+        <v>4.4803061841246238E-2</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="18"/>
-        <v>36.305103087303181</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>8.9606123682492475E-2</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="10"/>
+        <v>0.17921224736498495</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>22</v>
       </c>
@@ -6033,68 +6562,71 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
         <v>14</v>
       </c>
-      <c r="I26" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J26">
+      <c r="J26" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" t="s">
+      <c r="L26" s="7"/>
+      <c r="M26" t="s">
         <v>63</v>
       </c>
-      <c r="M26">
-        <f t="shared" ref="M26:P26" si="19">M16*$O$5/100</f>
-        <v>0</v>
-      </c>
       <c r="N26">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.18351999999999993</v>
       </c>
       <c r="O26">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.13763999999999993</v>
       </c>
       <c r="P26">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>9.1759999999999967E-2</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>4.5879999999999983E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>0.45879999999999982</v>
+      </c>
+      <c r="S26" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="22">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U26" t="s">
+        <v>78176.583679999967</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>0.42755741127348634</v>
+      </c>
+      <c r="V26" t="s">
         <v>53</v>
       </c>
-      <c r="V26">
-        <f t="shared" ref="V26:Y27" si="20">V16/$R$28</f>
-        <v>72.610206174606361</v>
-      </c>
       <c r="W26">
-        <f t="shared" si="20"/>
-        <v>145.22041234921272</v>
+        <f t="shared" si="10"/>
+        <v>0.3584244947299699</v>
       </c>
       <c r="X26">
-        <f t="shared" si="20"/>
-        <v>290.44082469842544</v>
+        <f t="shared" si="10"/>
+        <v>0.7168489894599398</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="20"/>
-        <v>580.88164939685089</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1.4336979789198796</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="10"/>
+        <v>2.8673959578397592</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>23</v>
       </c>
@@ -6114,68 +6646,71 @@
       <c r="G27" s="12">
         <v>0</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
         <v>14</v>
       </c>
-      <c r="I27" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J27">
+      <c r="J27" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K27">
         <v>1</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" t="s">
+      <c r="L27" s="7"/>
+      <c r="M27" t="s">
         <v>64</v>
       </c>
-      <c r="M27">
-        <f t="shared" ref="M27:P27" si="21">M17*$O$5/100</f>
-        <v>0</v>
-      </c>
       <c r="N27">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5.9199999999999999E-3</v>
       </c>
       <c r="O27">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.4400000000000004E-3</v>
       </c>
       <c r="P27">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2.96E-3</v>
       </c>
       <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>1.48E-3</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>1.4800000000000002E-2</v>
+      </c>
+      <c r="S27" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="22">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U27" t="s">
+        <v>40349.20448</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>0.22067479291534786</v>
+      </c>
+      <c r="V27" t="s">
         <v>54</v>
       </c>
-      <c r="V27">
-        <f t="shared" si="20"/>
-        <v>1161.7632987937018</v>
-      </c>
       <c r="W27">
-        <f t="shared" si="20"/>
-        <v>2323.5265975874036</v>
+        <f t="shared" si="10"/>
+        <v>5.7347919156795184</v>
       </c>
       <c r="X27">
-        <f t="shared" si="20"/>
-        <v>4647.0531951748071</v>
+        <f t="shared" si="10"/>
+        <v>11.469583831359037</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="20"/>
-        <v>9294.1063903496142</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>22.939167662718074</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="10"/>
+        <v>45.878335325436147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>24</v>
       </c>
@@ -6195,29 +6730,32 @@
       <c r="G28" s="12">
         <v>0</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J28">
+      <c r="J28" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K28">
         <v>1</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="P28" t="s">
+      <c r="L28" s="7"/>
+      <c r="Q28" t="s">
         <v>70</v>
       </c>
-      <c r="Q28">
-        <f>SUM(Q22:Q27)</f>
-        <v>68</v>
-      </c>
-      <c r="R28" s="22">
+      <c r="R28">
         <f>SUM(R22:R27)</f>
-        <v>902.57284000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="S28" s="22">
+        <f>SUM(S22:S27)</f>
+        <v>182844.64639999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>25</v>
       </c>
@@ -6237,22 +6775,25 @@
       <c r="G29" s="12">
         <v>0</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
         <v>17</v>
       </c>
-      <c r="I29" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J29">
+      <c r="J29" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="P29" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="R29" s="22"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="L29" s="7"/>
+      <c r="Q29" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="S29" s="22"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>26</v>
       </c>
@@ -6272,18 +6813,21 @@
       <c r="G30" s="12">
         <v>0</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
         <v>17</v>
       </c>
-      <c r="I30" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J30">
+      <c r="J30" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>27</v>
       </c>
@@ -6303,18 +6847,21 @@
       <c r="G31" s="12">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
         <v>17</v>
       </c>
-      <c r="I31" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J31">
+      <c r="J31" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K31">
         <v>1</v>
       </c>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>28</v>
       </c>
@@ -6334,18 +6881,21 @@
       <c r="G32" s="12">
         <v>0</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
         <v>17</v>
       </c>
-      <c r="I32" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J32">
+      <c r="J32" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K32">
         <v>1</v>
       </c>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <v>29</v>
       </c>
@@ -6365,18 +6915,21 @@
       <c r="G33" s="19">
         <v>0</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
         <v>17</v>
       </c>
-      <c r="I33" s="15">
-        <v>9028</v>
-      </c>
-      <c r="J33" s="14">
+      <c r="J33" s="15">
+        <v>9028</v>
+      </c>
+      <c r="K33" s="14">
         <v>1</v>
       </c>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>30</v>
       </c>
@@ -6396,18 +6949,21 @@
       <c r="G34" s="13">
         <v>0</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
         <v>17</v>
       </c>
-      <c r="I34" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J34">
+      <c r="J34" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K34">
         <v>1</v>
       </c>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>31</v>
       </c>
@@ -6427,18 +6983,21 @@
       <c r="G35" s="13">
         <v>0</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
         <v>17</v>
       </c>
-      <c r="I35" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J35">
+      <c r="J35" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K35">
         <v>1</v>
       </c>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>32</v>
       </c>
@@ -6458,18 +7017,21 @@
       <c r="G36" s="13">
         <v>0</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
         <v>20</v>
       </c>
-      <c r="I36" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J36">
+      <c r="J36" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>33</v>
       </c>
@@ -6489,18 +7051,21 @@
       <c r="G37" s="13">
         <v>0</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
         <v>20</v>
       </c>
-      <c r="I37" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J37">
+      <c r="J37" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>34</v>
       </c>
@@ -6520,18 +7085,21 @@
       <c r="G38" s="13">
         <v>0</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
         <v>20</v>
       </c>
-      <c r="I38" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J38">
+      <c r="J38" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K38">
         <v>2</v>
       </c>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>35</v>
       </c>
@@ -6551,18 +7119,21 @@
       <c r="G39" s="13">
         <v>0</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
         <v>20</v>
       </c>
-      <c r="I39" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J39">
+      <c r="J39" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K39">
         <v>2</v>
       </c>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>36</v>
       </c>
@@ -6582,18 +7153,21 @@
       <c r="G40" s="13">
         <v>0</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
         <v>20</v>
       </c>
-      <c r="I40" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J40">
+      <c r="J40" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>37</v>
       </c>
@@ -6613,24 +7187,27 @@
       <c r="G41" s="13">
         <v>0</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
         <v>20</v>
       </c>
-      <c r="I41" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J41">
+      <c r="J41" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="7"/>
+      <c r="M41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="2"/>
+      <c r="N41" s="3"/>
       <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.0000000000000002E+110</v>
       </c>
@@ -6653,27 +7230,30 @@
       <c r="G42" s="13">
         <v>0</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
         <v>20</v>
       </c>
-      <c r="I42" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J42">
+      <c r="J42" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K42">
         <v>2</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="7"/>
+      <c r="M42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="R42" s="22"/>
-    </row>
-    <row r="43" spans="1:25" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P42" s="4"/>
+      <c r="S42" s="22"/>
+    </row>
+    <row r="43" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.0000000000000002E+111</v>
       </c>
@@ -6696,33 +7276,36 @@
       <c r="G43" s="20">
         <v>0</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="20">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
         <v>20</v>
       </c>
-      <c r="I43" s="15">
-        <v>9028</v>
-      </c>
-      <c r="J43" s="14">
+      <c r="J43" s="15">
+        <v>9028</v>
+      </c>
+      <c r="K43" s="14">
         <v>2</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="7"/>
+      <c r="M43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M43" s="5">
+      <c r="N43" s="5">
         <v>4</v>
       </c>
-      <c r="N43" s="6">
-        <f t="shared" ref="N43:N76" si="22">POWER(10,M43)</f>
+      <c r="O43" s="6">
+        <f t="shared" ref="O43:O77" si="12">POWER(10,N43)</f>
         <v>10000</v>
       </c>
-      <c r="O43" s="6" t="str">
-        <f t="shared" ref="O43:O76" si="23">RIGHT(N43,M43)</f>
+      <c r="P43" s="6" t="str">
+        <f t="shared" ref="P43:P77" si="13">RIGHT(O43,N43)</f>
         <v>0000</v>
       </c>
-      <c r="R43" s="22"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S43" s="22"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>A43*10</f>
         <v>1.0000000000000001E+112</v>
@@ -6748,51 +7331,54 @@
       <c r="G44" s="7">
         <v>1E-4</v>
       </c>
-      <c r="H44" s="9">
-        <f>H36+4</f>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <f>I36+4</f>
         <v>24</v>
       </c>
-      <c r="I44" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J44">
+      <c r="J44" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K44">
         <v>2</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="7"/>
+      <c r="M44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M44" s="5">
+      <c r="N44" s="5">
         <v>8</v>
       </c>
-      <c r="N44" s="6">
-        <f t="shared" si="22"/>
+      <c r="O44" s="6">
+        <f t="shared" si="12"/>
         <v>100000000</v>
       </c>
-      <c r="O44" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P44" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>00000000</v>
       </c>
-      <c r="R44" s="22"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S44" s="22"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" ref="A45:A103" si="24">A44*10</f>
+        <f t="shared" ref="A45:A103" si="14">A44*10</f>
         <v>1.0000000000000002E+113</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
       <c r="C45" s="23">
-        <f t="shared" ref="C45:C71" si="25">100%-(D45+E45+F45+G45)</f>
+        <f t="shared" ref="C45:C71" si="15">100%-(D45+E45+F45+G45)</f>
         <v>0.4093</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" ref="D45:D71" si="26">D44+0.01</f>
+        <f t="shared" ref="D45:D71" si="16">D44+0.01</f>
         <v>0.52</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" ref="E45:E103" si="27">E44+0.005</f>
+        <f t="shared" ref="E45:E103" si="17">E44+0.005</f>
         <v>0.06</v>
       </c>
       <c r="F45" s="7">
@@ -6803,1448 +7389,1529 @@
         <f>G44+0.0001</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H45" s="9">
-        <f t="shared" ref="H45:H67" si="28">H37+4</f>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" ref="I45:I67" si="18">I37+4</f>
         <v>24</v>
       </c>
-      <c r="I45" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J45">
+      <c r="J45" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="7"/>
+      <c r="M45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="5">
+      <c r="N45" s="5">
         <v>12</v>
       </c>
-      <c r="N45" s="6">
-        <f t="shared" si="22"/>
+      <c r="O45" s="6">
+        <f t="shared" si="12"/>
         <v>1000000000000</v>
       </c>
-      <c r="O45" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P45" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>000000000000</v>
       </c>
-      <c r="R45" s="22"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S45" s="22"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+114</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
       <c r="C46" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.39370000000000005</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.53</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46:F103" si="29">F45+0.0005</f>
+        <f t="shared" ref="F46:F103" si="19">F45+0.0005</f>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" ref="G46:G103" si="30">G45+0.0001</f>
+        <f t="shared" ref="G46:G61" si="20">G45+0.0001</f>
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="H46" s="9">
-        <f t="shared" si="28"/>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="I46" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J46">
+      <c r="J46" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K46">
         <v>2</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="7"/>
+      <c r="M46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M46" s="5">
+      <c r="N46" s="5">
         <v>16</v>
       </c>
-      <c r="N46" s="6">
-        <f t="shared" si="22"/>
+      <c r="O46" s="6">
+        <f t="shared" si="12"/>
         <v>1E+16</v>
       </c>
-      <c r="O46" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P46" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>0000000000000000</v>
       </c>
-      <c r="R46" s="22"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S46" s="22"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+115</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
       <c r="C47" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.37809999999999999</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.54</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.1500000000000002E-2</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H47" s="9">
-        <f t="shared" si="28"/>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="I47" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J47">
+      <c r="J47" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K47">
         <v>2</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="7"/>
+      <c r="M47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="5">
+      <c r="N47" s="5">
         <v>20</v>
       </c>
-      <c r="N47" s="6">
-        <f t="shared" si="22"/>
+      <c r="O47" s="6">
+        <f t="shared" si="12"/>
         <v>1E+20</v>
       </c>
-      <c r="O47" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P47" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+20</v>
       </c>
-      <c r="R47" s="22"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S47" s="22"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+116</v>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
       <c r="C48" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.36250000000000004</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.2000000000000002E-2</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H48" s="9">
-        <f t="shared" si="28"/>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="I48" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J48">
+      <c r="J48" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K48">
         <v>2</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="7"/>
+      <c r="M48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="5">
+      <c r="N48" s="5">
         <v>24</v>
       </c>
-      <c r="N48" s="6">
-        <f t="shared" si="22"/>
+      <c r="O48" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+23</v>
       </c>
-      <c r="O48" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P48" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+24</v>
       </c>
-      <c r="R48" s="22"/>
-      <c r="V48" s="22"/>
+      <c r="S48" s="22"/>
       <c r="W48" s="22"/>
       <c r="X48" s="22"/>
       <c r="Y48" s="22"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Z48" s="22"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+117</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
       <c r="C49" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.34689999999999988</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.2500000000000002E-2</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="H49" s="9">
-        <f t="shared" si="28"/>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="I49" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J49">
+      <c r="J49" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K49">
         <v>2</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="7"/>
+      <c r="M49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="5">
+      <c r="N49" s="5">
         <v>28</v>
       </c>
-      <c r="N49" s="6">
-        <f t="shared" si="22"/>
+      <c r="O49" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999996E+27</v>
       </c>
-      <c r="O49" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P49" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+28</v>
       </c>
-      <c r="R49" s="22"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49" s="22"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+118</v>
       </c>
       <c r="B50">
         <v>46</v>
       </c>
       <c r="C50" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.33129999999999993</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>8.500000000000002E-2</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.3000000000000003E-2</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="H50" s="9">
-        <f t="shared" si="28"/>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="I50" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J50">
+      <c r="J50" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K50">
         <v>2</v>
       </c>
-      <c r="K50" s="7"/>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="7"/>
+      <c r="M50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M50" s="5">
+      <c r="N50" s="5">
         <v>32</v>
       </c>
-      <c r="N50" s="6">
-        <f t="shared" si="22"/>
+      <c r="O50" s="6">
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+32</v>
       </c>
-      <c r="O50" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P50" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+32</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+119</v>
       </c>
       <c r="B51">
         <v>47</v>
       </c>
       <c r="C51" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.31569999999999987</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.3500000000000003E-2</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>8.0000000000000015E-4</v>
       </c>
-      <c r="H51" s="9">
-        <f t="shared" si="28"/>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="I51" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J51">
+      <c r="J51" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K51">
         <v>2</v>
       </c>
-      <c r="K51" s="7"/>
-      <c r="L51" s="5" t="s">
+      <c r="L51" s="7"/>
+      <c r="M51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="5">
+      <c r="N51" s="5">
         <v>36</v>
       </c>
-      <c r="N51" s="6">
-        <f t="shared" si="22"/>
+      <c r="O51" s="6">
+        <f t="shared" si="12"/>
         <v>1E+36</v>
       </c>
-      <c r="O51" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P51" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+36</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+120</v>
       </c>
       <c r="B52">
         <v>48</v>
       </c>
       <c r="C52" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.30009999999999992</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.59000000000000008</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>9.5000000000000029E-2</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.4000000000000004E-2</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>9.0000000000000019E-4</v>
       </c>
-      <c r="H52" s="9">
-        <f t="shared" si="28"/>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="I52" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J52">
+      <c r="J52" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K52">
         <v>2</v>
       </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="7"/>
+      <c r="M52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <v>40</v>
       </c>
-      <c r="N52" s="6">
-        <f t="shared" si="22"/>
+      <c r="O52" s="6">
+        <f t="shared" si="12"/>
         <v>1E+40</v>
       </c>
-      <c r="O52" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P52" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+40</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+121</v>
       </c>
       <c r="B53" s="14">
         <v>49</v>
       </c>
       <c r="C53" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.28449999999999986</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.4500000000000004E-2</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000002E-3</v>
       </c>
-      <c r="H53" s="9">
-        <f t="shared" si="28"/>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="I53" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J53">
+      <c r="J53" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K53">
         <v>2</v>
       </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="7"/>
+      <c r="M53" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M53" s="5">
+      <c r="N53" s="5">
         <v>44</v>
       </c>
-      <c r="N53" s="6">
-        <f t="shared" si="22"/>
+      <c r="O53" s="6">
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+44</v>
       </c>
-      <c r="O53" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P53" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+44</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+122</v>
       </c>
       <c r="B54">
         <v>50</v>
       </c>
       <c r="C54" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.26889999999999992</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.6100000000000001</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.10500000000000004</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.5000000000000005E-2</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.1000000000000003E-3</v>
       </c>
-      <c r="H54" s="9">
-        <f t="shared" si="28"/>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="I54" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J54">
+      <c r="J54" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K54">
         <v>2</v>
       </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="7"/>
+      <c r="M54" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="5">
+      <c r="N54" s="5">
         <v>48</v>
       </c>
-      <c r="N54" s="6">
-        <f t="shared" si="22"/>
+      <c r="O54" s="6">
+        <f t="shared" si="12"/>
         <v>1E+48</v>
       </c>
-      <c r="O54" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P54" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+48</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+123</v>
       </c>
       <c r="B55">
         <v>51</v>
       </c>
       <c r="C55" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.25329999999999986</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.62000000000000011</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.11000000000000004</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.5500000000000005E-2</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.2000000000000003E-3</v>
       </c>
-      <c r="H55" s="9">
-        <f t="shared" si="28"/>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="I55" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J55">
+      <c r="J55" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K55">
         <v>2</v>
       </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="5" t="s">
+      <c r="L55" s="7"/>
+      <c r="M55" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M55" s="5">
+      <c r="N55" s="5">
         <v>52</v>
       </c>
-      <c r="N55" s="6">
-        <f t="shared" si="22"/>
+      <c r="O55" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999999E+51</v>
       </c>
-      <c r="O55" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P55" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+52</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+124</v>
       </c>
       <c r="B56">
         <v>52</v>
       </c>
       <c r="C56" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.23769999999999991</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.63000000000000012</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.11500000000000005</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.6000000000000004E-2</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.3000000000000004E-3</v>
       </c>
-      <c r="H56" s="9">
-        <f t="shared" si="28"/>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="I56" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J56">
+      <c r="J56" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K56">
         <v>2</v>
       </c>
-      <c r="K56" s="7"/>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="7"/>
+      <c r="M56" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M56" s="5">
+      <c r="N56" s="5">
         <v>56</v>
       </c>
-      <c r="N56" s="6">
-        <f t="shared" si="22"/>
+      <c r="O56" s="6">
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+56</v>
       </c>
-      <c r="O56" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P56" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+56</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+125</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
       <c r="C57" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.22209999999999985</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.6500000000000004E-2</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.4000000000000004E-3</v>
       </c>
-      <c r="H57" s="9">
-        <f t="shared" si="28"/>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="I57" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J57">
+      <c r="J57" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K57">
         <v>2</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="5" t="s">
+      <c r="L57" s="7"/>
+      <c r="M57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M57" s="5">
+      <c r="N57" s="5">
         <v>60</v>
       </c>
-      <c r="N57" s="6">
-        <f t="shared" si="22"/>
+      <c r="O57" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999995E+59</v>
       </c>
-      <c r="O57" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P57" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+60</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+126</v>
       </c>
       <c r="B58">
         <v>54</v>
       </c>
       <c r="C58" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.20649999999999991</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.7000000000000005E-2</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.5000000000000005E-3</v>
       </c>
-      <c r="H58" s="9">
-        <f t="shared" si="28"/>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="I58" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J58">
+      <c r="J58" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K58">
         <v>2</v>
       </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="5" t="s">
+      <c r="L58" s="7"/>
+      <c r="M58" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="5">
+      <c r="N58" s="5">
         <v>64</v>
       </c>
-      <c r="N58" s="6">
-        <f t="shared" si="22"/>
+      <c r="O58" s="6">
+        <f t="shared" si="12"/>
         <v>1E+64</v>
       </c>
-      <c r="O58" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P58" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+64</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+127</v>
       </c>
       <c r="B59">
         <v>55</v>
       </c>
       <c r="C59" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.19089999999999974</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.66000000000000014</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.13000000000000006</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.7500000000000005E-2</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.6000000000000005E-3</v>
       </c>
-      <c r="H59" s="9">
-        <f t="shared" si="28"/>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
-      <c r="I59" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J59">
+      <c r="J59" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K59">
         <v>2</v>
       </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="7"/>
+      <c r="M59" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M59" s="5">
+      <c r="N59" s="5">
         <v>68</v>
       </c>
-      <c r="N59" s="6">
-        <f t="shared" si="22"/>
+      <c r="O59" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999995E+67</v>
       </c>
-      <c r="O59" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P59" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+68</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="B60">
         <v>56</v>
       </c>
       <c r="C60" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.17529999999999979</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.67000000000000015</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.13500000000000006</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.8000000000000006E-2</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.7000000000000006E-3</v>
       </c>
-      <c r="H60" s="9">
-        <f t="shared" si="28"/>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="I60" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J60">
+      <c r="J60" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K60">
         <v>2</v>
       </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="7"/>
+      <c r="M60" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M60" s="5">
+      <c r="N60" s="5">
         <v>72</v>
       </c>
-      <c r="N60" s="6">
-        <f t="shared" si="22"/>
+      <c r="O60" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999994E+71</v>
       </c>
-      <c r="O60" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P60" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+72</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1E+129</v>
       </c>
       <c r="B61">
         <v>57</v>
       </c>
       <c r="C61" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.15969999999999973</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.68000000000000016</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.14000000000000007</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.8500000000000006E-2</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>1.8000000000000006E-3</v>
       </c>
-      <c r="H61" s="9">
-        <f t="shared" si="28"/>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="I61" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J61">
+      <c r="J61" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K61">
         <v>2</v>
       </c>
-      <c r="K61" s="7"/>
-      <c r="L61" s="5" t="s">
+      <c r="L61" s="7"/>
+      <c r="M61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M61" s="5">
+      <c r="N61" s="5">
         <v>76</v>
       </c>
-      <c r="N61" s="6">
-        <f t="shared" si="22"/>
+      <c r="O61" s="6">
+        <f t="shared" si="12"/>
         <v>1E+76</v>
       </c>
-      <c r="O61" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P61" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+76</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="B62">
         <v>58</v>
       </c>
       <c r="C62" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.14409999999999978</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.69000000000000017</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.14500000000000007</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.9000000000000006E-2</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="G62:H77" si="21">G61+0.0001</f>
         <v>1.9000000000000006E-3</v>
       </c>
-      <c r="H62" s="9">
-        <f t="shared" si="28"/>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="I62" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J62">
+      <c r="J62" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K62">
         <v>2</v>
       </c>
-      <c r="K62" s="7"/>
-      <c r="L62" s="5" t="s">
+      <c r="L62" s="7"/>
+      <c r="M62" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M62" s="5">
+      <c r="N62" s="5">
         <v>80</v>
       </c>
-      <c r="N62" s="6">
-        <f t="shared" si="22"/>
+      <c r="O62" s="6">
+        <f t="shared" si="12"/>
         <v>1E+80</v>
       </c>
-      <c r="O62" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P62" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+80</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="B63" s="14">
         <v>59</v>
       </c>
       <c r="C63" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.12849999999999973</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.15000000000000008</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>1.9500000000000007E-2</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.0000000000000005E-3</v>
       </c>
-      <c r="H63" s="9">
-        <f t="shared" si="28"/>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="I63" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J63">
+      <c r="J63" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K63">
         <v>2</v>
       </c>
-      <c r="K63" s="7"/>
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="7"/>
+      <c r="M63" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M63" s="5">
+      <c r="N63" s="5">
         <v>84</v>
       </c>
-      <c r="N63" s="6">
-        <f t="shared" si="22"/>
+      <c r="O63" s="6">
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+84</v>
       </c>
-      <c r="O63" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P63" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+84</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+132</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
       <c r="C64" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>0.11289999999999978</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.71000000000000019</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.15500000000000008</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.0000000000000007E-2</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.1000000000000003E-3</v>
       </c>
-      <c r="H64" s="9">
-        <f t="shared" si="28"/>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="I64" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J64">
+      <c r="J64" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K64">
         <v>2</v>
       </c>
-      <c r="K64" s="7"/>
-      <c r="L64" s="5" t="s">
+      <c r="L64" s="7"/>
+      <c r="M64" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M64" s="5">
+      <c r="N64" s="5">
         <v>88</v>
       </c>
-      <c r="N64" s="6">
-        <f t="shared" si="22"/>
+      <c r="O64" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999996E+87</v>
       </c>
-      <c r="O64" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P64" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+88</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+133</v>
       </c>
       <c r="B65">
         <v>61</v>
       </c>
       <c r="C65" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>9.729999999999972E-2</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.7200000000000002</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.16000000000000009</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.0500000000000008E-2</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="H65" s="9">
-        <f t="shared" si="28"/>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="I65" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J65">
+      <c r="J65" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K65">
         <v>2</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="5" t="s">
+      <c r="L65" s="7"/>
+      <c r="M65" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="5">
+      <c r="N65" s="5">
         <v>92</v>
       </c>
-      <c r="N65" s="6">
-        <f t="shared" si="22"/>
+      <c r="O65" s="6">
+        <f t="shared" si="12"/>
         <v>1E+92</v>
       </c>
-      <c r="O65" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P65" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+92</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+134</v>
       </c>
       <c r="B66">
         <v>62</v>
       </c>
       <c r="C66" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>8.1699999999999773E-2</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.7300000000000002</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.16500000000000009</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.1000000000000008E-2</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.3E-3</v>
       </c>
-      <c r="H66" s="9">
-        <f t="shared" si="28"/>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="I66" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J66">
+      <c r="J66" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K66">
         <v>2</v>
       </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="5" t="s">
+      <c r="L66" s="7"/>
+      <c r="M66" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="5">
+      <c r="N66" s="5">
         <v>96</v>
       </c>
-      <c r="N66" s="6">
-        <f t="shared" si="22"/>
+      <c r="O66" s="6">
+        <f t="shared" si="12"/>
         <v>1E+96</v>
       </c>
-      <c r="O66" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P66" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+96</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+135</v>
       </c>
       <c r="B67">
         <v>63</v>
       </c>
       <c r="C67" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>6.6099999999999715E-2</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.74000000000000021</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.1700000000000001</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.1500000000000009E-2</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="H67" s="9">
-        <f t="shared" si="28"/>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
-      <c r="I67" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J67">
+      <c r="J67" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K67">
         <v>2</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="5" t="s">
+      <c r="L67" s="7"/>
+      <c r="M67" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M67" s="5">
+      <c r="N67" s="5">
         <v>100</v>
       </c>
-      <c r="N67" s="6">
-        <f t="shared" si="22"/>
+      <c r="O67" s="6">
+        <f t="shared" si="12"/>
         <v>1E+100</v>
       </c>
-      <c r="O67" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P67" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+100</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+136</v>
       </c>
       <c r="B68">
         <v>64</v>
       </c>
       <c r="C68" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>5.0499999999999767E-2</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.75000000000000022</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.1750000000000001</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.2000000000000009E-2</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.4999999999999996E-3</v>
       </c>
-      <c r="H68" s="9">
-        <f>H60+5</f>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="9">
+        <f>I60+5</f>
         <v>37</v>
       </c>
-      <c r="I68" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J68">
+      <c r="J68" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K68">
         <v>3</v>
       </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="5" t="s">
+      <c r="L68" s="7"/>
+      <c r="M68" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M68" s="5">
+      <c r="N68" s="5">
         <v>104</v>
       </c>
-      <c r="N68" s="6">
-        <f t="shared" si="22"/>
+      <c r="O68" s="6">
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
-      <c r="O68" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P68" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+104</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+137</v>
       </c>
       <c r="B69">
         <v>65</v>
       </c>
       <c r="C69" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3.4899999999999598E-2</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.76000000000000023</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.1800000000000001</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.250000000000001E-2</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.5999999999999994E-3</v>
       </c>
-      <c r="H69" s="9">
-        <f t="shared" ref="H69:H91" si="31">H61+5</f>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <f t="shared" ref="I69:I91" si="22">I61+5</f>
         <v>37</v>
       </c>
-      <c r="I69" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J69">
+      <c r="J69" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K69">
         <v>3</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="5" t="s">
+      <c r="L69" s="7"/>
+      <c r="M69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M69" s="5">
+      <c r="N69" s="5">
         <v>108</v>
       </c>
-      <c r="N69" s="6">
-        <f t="shared" si="22"/>
+      <c r="O69" s="6">
+        <f t="shared" si="12"/>
         <v>1E+108</v>
       </c>
-      <c r="O69" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P69" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+108</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+138</v>
       </c>
       <c r="B70">
         <v>66</v>
       </c>
       <c r="C70" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>1.9299999999999651E-2</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.77000000000000024</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.18500000000000011</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.300000000000001E-2</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.6999999999999993E-3</v>
       </c>
-      <c r="H70" s="9">
-        <f t="shared" si="31"/>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9">
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
-      <c r="I70" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J70">
+      <c r="J70" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K70">
         <v>3</v>
       </c>
-      <c r="K70" s="7"/>
-      <c r="L70" s="5" t="s">
+      <c r="L70" s="7"/>
+      <c r="M70" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M70" s="5">
+      <c r="N70" s="5">
         <v>112</v>
       </c>
-      <c r="N70" s="6">
-        <f t="shared" si="22"/>
+      <c r="O70" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999993E+111</v>
       </c>
-      <c r="O70" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P70" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+112</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+139</v>
       </c>
       <c r="B71">
         <v>67</v>
       </c>
       <c r="C71" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="15"/>
         <v>3.6999999999995925E-3</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="16"/>
         <v>0.78000000000000025</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.19000000000000011</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.350000000000001E-2</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.7999999999999991E-3</v>
       </c>
-      <c r="H71" s="9">
-        <f t="shared" si="31"/>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9">
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
-      <c r="I71" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J71">
+      <c r="J71" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K71">
         <v>3</v>
       </c>
-      <c r="K71" s="7"/>
-      <c r="L71" s="5" t="s">
+      <c r="L71" s="7"/>
+      <c r="M71" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M71" s="5">
+      <c r="N71" s="5">
         <v>116</v>
       </c>
-      <c r="N71" s="6">
-        <f t="shared" si="22"/>
+      <c r="O71" s="6">
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
-      <c r="O71" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P71" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+116</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000003E+140</v>
       </c>
       <c r="B72">
@@ -8258,46 +8925,49 @@
         <v>0.7780999999999999</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.19500000000000012</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.4000000000000011E-2</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.8999999999999989E-3</v>
       </c>
-      <c r="H72" s="9">
-        <f t="shared" si="31"/>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
-      <c r="I72" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J72">
+      <c r="J72" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K72">
         <v>3</v>
       </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M72" s="5">
+      <c r="L72" s="7"/>
+      <c r="M72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N72" s="5">
         <v>120</v>
       </c>
-      <c r="N72" s="6">
-        <f t="shared" si="22"/>
+      <c r="O72" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+119</v>
       </c>
-      <c r="O72" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P72" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+120</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+141</v>
       </c>
       <c r="B73" s="14">
@@ -8311,46 +8981,49 @@
         <v>0.77249999999999985</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.20000000000000012</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.4500000000000011E-2</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>2.9999999999999988E-3</v>
       </c>
-      <c r="H73" s="9">
-        <f t="shared" si="31"/>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
-      <c r="I73" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J73">
+      <c r="J73" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K73">
         <v>3</v>
       </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M73" s="5">
+      <c r="L73" s="7"/>
+      <c r="M73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N73" s="5">
         <v>124</v>
       </c>
-      <c r="N73" s="6">
-        <f t="shared" si="22"/>
+      <c r="O73" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999995E+123</v>
       </c>
-      <c r="O73" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P73" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+124</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+142</v>
       </c>
       <c r="B74">
@@ -8360,50 +9033,53 @@
         <v>0</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" ref="D74:D103" si="32">100%-(E74+F74+G74)</f>
-        <v>0.76689999999999992</v>
+        <f>100%-(E74+F74+G74+H74)</f>
+        <v>0.76679999999999993</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.20500000000000013</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.5000000000000012E-2</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>3.0999999999999986E-3</v>
       </c>
-      <c r="H74" s="9">
-        <f t="shared" si="31"/>
+      <c r="H74" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="I74" s="9">
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
-      <c r="I74" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J74">
+      <c r="J74" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K74">
         <v>3</v>
       </c>
-      <c r="K74" s="7"/>
-      <c r="L74" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M74" s="5">
+      <c r="L74" s="7"/>
+      <c r="M74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N74" s="5">
         <v>128</v>
       </c>
-      <c r="N74" s="6">
-        <f t="shared" si="22"/>
+      <c r="O74" s="6">
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+128</v>
       </c>
-      <c r="O74" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P74" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+128</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+143</v>
       </c>
       <c r="B75">
@@ -8413,50 +9089,54 @@
         <v>0</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="32"/>
-        <v>0.76129999999999987</v>
+        <f t="shared" ref="D75:D103" si="23">100%-(E75+F75+G75+H75)</f>
+        <v>0.76109999999999989</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.21000000000000013</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.5500000000000012E-2</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>3.1999999999999984E-3</v>
       </c>
-      <c r="H75" s="9">
-        <f t="shared" si="31"/>
+      <c r="H75" s="7">
+        <f>H74+0.0001</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I75" s="9">
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
-      <c r="I75" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J75">
+      <c r="J75" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K75">
         <v>3</v>
       </c>
-      <c r="K75" s="7"/>
-      <c r="L75" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M75" s="5">
+      <c r="L75" s="7"/>
+      <c r="M75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N75" s="5">
         <v>132</v>
       </c>
-      <c r="N75" s="6">
-        <f t="shared" si="22"/>
+      <c r="O75" s="6">
+        <f t="shared" si="12"/>
         <v>9.9999999999999999E+131</v>
       </c>
-      <c r="O75" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P75" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+132</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+144</v>
       </c>
       <c r="B76">
@@ -8466,50 +9146,54 @@
         <v>0</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="32"/>
-        <v>0.75569999999999982</v>
+        <f t="shared" si="23"/>
+        <v>0.75539999999999985</v>
       </c>
       <c r="E76" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.21500000000000014</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.6000000000000013E-2</v>
       </c>
       <c r="G76" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>3.2999999999999982E-3</v>
       </c>
-      <c r="H76" s="9">
-        <f t="shared" si="31"/>
+      <c r="H76" s="7">
+        <f t="shared" si="21"/>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="I76" s="9">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="I76" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J76">
+      <c r="J76" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K76">
         <v>3</v>
       </c>
-      <c r="K76" s="7"/>
-      <c r="L76" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M76" s="5">
+      <c r="L76" s="7"/>
+      <c r="M76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N76" s="5">
         <v>136</v>
       </c>
-      <c r="N76" s="6">
-        <f t="shared" si="22"/>
+      <c r="O76" s="6">
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+136</v>
       </c>
-      <c r="O76" s="6" t="str">
-        <f t="shared" si="23"/>
+      <c r="P76" s="6" t="str">
+        <f t="shared" si="13"/>
         <v>1E+136</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000003E+145</v>
       </c>
       <c r="B77">
@@ -8519,36 +9203,54 @@
         <v>0</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="32"/>
-        <v>0.75009999999999988</v>
+        <f t="shared" si="23"/>
+        <v>0.74969999999999981</v>
       </c>
       <c r="E77" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.22000000000000014</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.6500000000000013E-2</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>3.3999999999999981E-3</v>
       </c>
-      <c r="H77" s="9">
-        <f t="shared" si="31"/>
+      <c r="H77" s="7">
+        <f t="shared" si="21"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I77" s="9">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="I77" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J77">
+      <c r="J77" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K77">
         <v>3</v>
       </c>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L77" s="7"/>
+      <c r="M77" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N77" s="5">
+        <v>140</v>
+      </c>
+      <c r="O77" s="6">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="P77" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+146</v>
       </c>
       <c r="B78">
@@ -8558,36 +9260,54 @@
         <v>0</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="32"/>
-        <v>0.74449999999999983</v>
+        <f t="shared" si="23"/>
+        <v>0.74399999999999977</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.22500000000000014</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.7000000000000014E-2</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="G78:H93" si="24">G77+0.0001</f>
         <v>3.4999999999999979E-3</v>
       </c>
-      <c r="H78" s="9">
-        <f t="shared" si="31"/>
+      <c r="H78" s="7">
+        <f t="shared" si="24"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I78" s="9">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="I78" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J78">
+      <c r="J78" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K78">
         <v>3</v>
       </c>
-      <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L78" s="7"/>
+      <c r="M78" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N78" s="5">
+        <v>144</v>
+      </c>
+      <c r="O78" s="6">
+        <f t="shared" ref="O78" si="25">POWER(10,N78)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="P78" s="6" t="str">
+        <f t="shared" ref="P78" si="26">RIGHT(O78,N78)</f>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+147</v>
       </c>
       <c r="B79">
@@ -8597,36 +9317,40 @@
         <v>0</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="32"/>
-        <v>0.73889999999999989</v>
+        <f t="shared" si="23"/>
+        <v>0.73829999999999985</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.23000000000000015</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.7500000000000014E-2</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>3.5999999999999977E-3</v>
       </c>
-      <c r="H79" s="9">
-        <f t="shared" si="31"/>
+      <c r="H79" s="7">
+        <f t="shared" si="24"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="I79" s="9">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="I79" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J79">
+      <c r="J79" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K79">
         <v>3</v>
       </c>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="B80">
@@ -8636,36 +9360,40 @@
         <v>0</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="32"/>
-        <v>0.73329999999999984</v>
+        <f t="shared" si="23"/>
+        <v>0.73259999999999992</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.23500000000000015</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.8000000000000014E-2</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>3.6999999999999976E-3</v>
       </c>
-      <c r="H80" s="9">
-        <f t="shared" si="31"/>
+      <c r="H80" s="7">
+        <f t="shared" si="24"/>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="I80" s="9">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="I80" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J80">
+      <c r="J80" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K80">
         <v>3</v>
       </c>
-      <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+149</v>
       </c>
       <c r="B81">
@@ -8675,36 +9403,40 @@
         <v>0</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="32"/>
-        <v>0.72769999999999979</v>
+        <f t="shared" si="23"/>
+        <v>0.72689999999999988</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.24000000000000016</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.8500000000000015E-2</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>3.7999999999999974E-3</v>
       </c>
-      <c r="H81" s="9">
-        <f t="shared" si="31"/>
+      <c r="H81" s="7">
+        <f t="shared" si="24"/>
+        <v>8.0000000000000015E-4</v>
+      </c>
+      <c r="I81" s="9">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="I81" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J81">
+      <c r="J81" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K81">
         <v>3</v>
       </c>
-      <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+150</v>
       </c>
       <c r="B82">
@@ -8714,36 +9446,40 @@
         <v>0</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="32"/>
-        <v>0.72209999999999974</v>
+        <f t="shared" si="23"/>
+        <v>0.72119999999999984</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.24500000000000016</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.9000000000000015E-2</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>3.8999999999999972E-3</v>
       </c>
-      <c r="H82" s="9">
-        <f t="shared" si="31"/>
+      <c r="H82" s="7">
+        <f t="shared" si="24"/>
+        <v>9.0000000000000019E-4</v>
+      </c>
+      <c r="I82" s="9">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="I82" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J82">
+      <c r="J82" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K82">
         <v>3</v>
       </c>
-      <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+151</v>
       </c>
       <c r="B83" s="14">
@@ -8753,36 +9489,40 @@
         <v>0</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="32"/>
-        <v>0.7164999999999998</v>
+        <f t="shared" si="23"/>
+        <v>0.7154999999999998</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.25000000000000017</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>2.9500000000000016E-2</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>3.9999999999999975E-3</v>
       </c>
-      <c r="H83" s="9">
-        <f t="shared" si="31"/>
+      <c r="H83" s="7">
+        <f t="shared" si="24"/>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="I83" s="9">
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
-      <c r="I83" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J83">
+      <c r="J83" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K83">
         <v>3</v>
       </c>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+152</v>
       </c>
       <c r="B84">
@@ -8792,36 +9532,40 @@
         <v>0</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="32"/>
-        <v>0.71089999999999987</v>
+        <f t="shared" si="23"/>
+        <v>0.70979999999999976</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.25500000000000017</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.0000000000000016E-2</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.0999999999999977E-3</v>
       </c>
-      <c r="H84" s="9">
-        <f t="shared" si="31"/>
+      <c r="H84" s="7">
+        <f t="shared" si="24"/>
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="I84" s="9">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I84" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J84">
+      <c r="J84" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K84">
         <v>3</v>
       </c>
-      <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+153</v>
       </c>
       <c r="B85">
@@ -8831,36 +9575,40 @@
         <v>0</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="32"/>
-        <v>0.70529999999999982</v>
+        <f t="shared" si="23"/>
+        <v>0.70409999999999984</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.26000000000000018</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.0500000000000017E-2</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.199999999999998E-3</v>
       </c>
-      <c r="H85" s="9">
-        <f t="shared" si="31"/>
+      <c r="H85" s="7">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000003E-3</v>
+      </c>
+      <c r="I85" s="9">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I85" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J85">
+      <c r="J85" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K85">
         <v>3</v>
       </c>
-      <c r="K85" s="7"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="7"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+154</v>
       </c>
       <c r="B86">
@@ -8870,36 +9618,40 @@
         <v>0</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="32"/>
-        <v>0.69969999999999977</v>
+        <f t="shared" si="23"/>
+        <v>0.69839999999999969</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.26500000000000018</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.1000000000000017E-2</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.2999999999999983E-3</v>
       </c>
-      <c r="H86" s="9">
-        <f t="shared" si="31"/>
+      <c r="H86" s="7">
+        <f t="shared" si="24"/>
+        <v>1.3000000000000004E-3</v>
+      </c>
+      <c r="I86" s="9">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I86" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J86">
+      <c r="J86" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K86">
         <v>3</v>
       </c>
-      <c r="K86" s="7"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+155</v>
       </c>
       <c r="B87">
@@ -8909,36 +9661,40 @@
         <v>0</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="32"/>
-        <v>0.69409999999999972</v>
+        <f t="shared" si="23"/>
+        <v>0.69269999999999976</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.27000000000000018</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.1500000000000014E-2</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.3999999999999985E-3</v>
       </c>
-      <c r="H87" s="9">
-        <f t="shared" si="31"/>
+      <c r="H87" s="7">
+        <f t="shared" si="24"/>
+        <v>1.4000000000000004E-3</v>
+      </c>
+      <c r="I87" s="9">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I87" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J87">
+      <c r="J87" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K87">
         <v>3</v>
       </c>
-      <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+156</v>
       </c>
       <c r="B88">
@@ -8948,36 +9704,40 @@
         <v>0</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="32"/>
-        <v>0.68849999999999978</v>
+        <f t="shared" si="23"/>
+        <v>0.68699999999999983</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.27500000000000019</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.2000000000000015E-2</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.4999999999999988E-3</v>
       </c>
-      <c r="H88" s="9">
-        <f t="shared" si="31"/>
+      <c r="H88" s="7">
+        <f t="shared" si="24"/>
+        <v>1.5000000000000005E-3</v>
+      </c>
+      <c r="I88" s="9">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I88" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J88">
+      <c r="J88" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K88">
         <v>3</v>
       </c>
-      <c r="K88" s="7"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+157</v>
       </c>
       <c r="B89">
@@ -8987,36 +9747,40 @@
         <v>0</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="32"/>
-        <v>0.68289999999999984</v>
+        <f t="shared" si="23"/>
+        <v>0.68129999999999979</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.28000000000000019</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.2500000000000015E-2</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.5999999999999991E-3</v>
       </c>
-      <c r="H89" s="9">
-        <f t="shared" si="31"/>
+      <c r="H89" s="7">
+        <f t="shared" si="24"/>
+        <v>1.6000000000000005E-3</v>
+      </c>
+      <c r="I89" s="9">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I89" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J89">
+      <c r="J89" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K89">
         <v>3</v>
       </c>
-      <c r="K89" s="7"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+158</v>
       </c>
       <c r="B90">
@@ -9026,36 +9790,40 @@
         <v>0</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="32"/>
-        <v>0.67729999999999979</v>
+        <f t="shared" si="23"/>
+        <v>0.67559999999999976</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.2850000000000002</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.6999999999999993E-3</v>
       </c>
-      <c r="H90" s="9">
-        <f t="shared" si="31"/>
+      <c r="H90" s="7">
+        <f t="shared" si="24"/>
+        <v>1.7000000000000006E-3</v>
+      </c>
+      <c r="I90" s="9">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I90" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J90">
+      <c r="J90" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K90">
         <v>3</v>
       </c>
-      <c r="K90" s="7"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="7"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+159</v>
       </c>
       <c r="B91">
@@ -9065,36 +9833,40 @@
         <v>0</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="32"/>
-        <v>0.67169999999999974</v>
+        <f t="shared" si="23"/>
+        <v>0.66989999999999972</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.2900000000000002</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.3500000000000016E-2</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="H91" s="9">
-        <f t="shared" si="31"/>
+      <c r="H91" s="7">
+        <f t="shared" si="24"/>
+        <v>1.8000000000000006E-3</v>
+      </c>
+      <c r="I91" s="9">
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I91" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J91">
+      <c r="J91" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K91">
         <v>3</v>
       </c>
-      <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="7"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+160</v>
       </c>
       <c r="B92">
@@ -9104,36 +9876,40 @@
         <v>0</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="32"/>
-        <v>0.66609999999999969</v>
+        <f t="shared" si="23"/>
+        <v>0.66419999999999968</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.29500000000000021</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.4000000000000016E-2</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="H92" s="9">
-        <f>H84+6</f>
+      <c r="H92" s="7">
+        <f t="shared" si="24"/>
+        <v>1.9000000000000006E-3</v>
+      </c>
+      <c r="I92" s="9">
+        <f>I84+6</f>
         <v>53</v>
       </c>
-      <c r="I92" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J92">
+      <c r="J92" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K92">
         <v>3</v>
       </c>
-      <c r="K92" s="7"/>
-    </row>
-    <row r="93" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L92" s="7"/>
+    </row>
+    <row r="93" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002E+161</v>
       </c>
       <c r="B93" s="14">
@@ -9143,36 +9919,40 @@
         <v>0</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="32"/>
-        <v>0.66049999999999975</v>
+        <f t="shared" si="23"/>
+        <v>0.65849999999999975</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="17"/>
         <v>0.30000000000000021</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="19"/>
         <v>3.4500000000000017E-2</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H93" s="9">
-        <f t="shared" ref="H93:H103" si="33">H85+6</f>
+      <c r="H93" s="7">
+        <f t="shared" si="24"/>
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="I93" s="9">
+        <f t="shared" ref="I93:I103" si="27">I85+6</f>
         <v>53</v>
       </c>
-      <c r="I93" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J93">
+      <c r="J93" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K93">
         <v>3</v>
       </c>
-      <c r="K93" s="7"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="7"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="B94">
@@ -9182,36 +9962,40 @@
         <v>0</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="32"/>
-        <v>0.65489999999999982</v>
+        <f t="shared" si="23"/>
+        <v>0.65279999999999982</v>
       </c>
       <c r="E94" s="7">
+        <f t="shared" si="17"/>
+        <v>0.30500000000000022</v>
+      </c>
+      <c r="F94" s="7">
+        <f t="shared" si="19"/>
+        <v>3.5000000000000017E-2</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" ref="G94:H103" si="28">G93+0.0001</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="H94" s="7">
+        <f t="shared" si="28"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="I94" s="9">
         <f t="shared" si="27"/>
-        <v>0.30500000000000022</v>
-      </c>
-      <c r="F94" s="7">
-        <f t="shared" si="29"/>
-        <v>3.5000000000000017E-2</v>
-      </c>
-      <c r="G94" s="7">
-        <f t="shared" si="30"/>
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="H94" s="9">
-        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I94" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J94">
+      <c r="J94" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K94">
         <v>3</v>
       </c>
-      <c r="K94" s="7"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="B95">
@@ -9221,36 +10005,40 @@
         <v>0</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="32"/>
-        <v>0.64929999999999977</v>
+        <f t="shared" si="23"/>
+        <v>0.64709999999999979</v>
       </c>
       <c r="E95" s="7">
+        <f t="shared" si="17"/>
+        <v>0.31000000000000022</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="19"/>
+        <v>3.5500000000000018E-2</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" si="28"/>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="H95" s="7">
+        <f t="shared" si="28"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I95" s="9">
         <f t="shared" si="27"/>
-        <v>0.31000000000000022</v>
-      </c>
-      <c r="F95" s="7">
-        <f t="shared" si="29"/>
-        <v>3.5500000000000018E-2</v>
-      </c>
-      <c r="G95" s="7">
-        <f t="shared" si="30"/>
-        <v>5.2000000000000006E-3</v>
-      </c>
-      <c r="H95" s="9">
-        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I95" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J95">
+      <c r="J95" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K95">
         <v>3</v>
       </c>
-      <c r="K95" s="7"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+164</v>
       </c>
       <c r="B96">
@@ -9260,36 +10048,40 @@
         <v>0</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="32"/>
-        <v>0.64369999999999972</v>
+        <f t="shared" si="23"/>
+        <v>0.64139999999999975</v>
       </c>
       <c r="E96" s="7">
+        <f t="shared" si="17"/>
+        <v>0.31500000000000022</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="19"/>
+        <v>3.6000000000000018E-2</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" si="28"/>
+        <v>5.3000000000000009E-3</v>
+      </c>
+      <c r="H96" s="7">
+        <f t="shared" si="28"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="I96" s="9">
         <f t="shared" si="27"/>
-        <v>0.31500000000000022</v>
-      </c>
-      <c r="F96" s="7">
-        <f t="shared" si="29"/>
-        <v>3.6000000000000018E-2</v>
-      </c>
-      <c r="G96" s="7">
-        <f t="shared" si="30"/>
-        <v>5.3000000000000009E-3</v>
-      </c>
-      <c r="H96" s="9">
-        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I96" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J96">
+      <c r="J96" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K96">
         <v>3</v>
       </c>
-      <c r="K96" s="7"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="7"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="B97">
@@ -9299,36 +10091,40 @@
         <v>0</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="32"/>
-        <v>0.63809999999999967</v>
+        <f t="shared" si="23"/>
+        <v>0.63569999999999971</v>
       </c>
       <c r="E97" s="7">
+        <f t="shared" si="17"/>
+        <v>0.32000000000000023</v>
+      </c>
+      <c r="F97" s="7">
+        <f t="shared" si="19"/>
+        <v>3.6500000000000019E-2</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" si="28"/>
+        <v>5.4000000000000012E-3</v>
+      </c>
+      <c r="H97" s="7">
+        <f t="shared" si="28"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="I97" s="9">
         <f t="shared" si="27"/>
-        <v>0.32000000000000023</v>
-      </c>
-      <c r="F97" s="7">
-        <f t="shared" si="29"/>
-        <v>3.6500000000000019E-2</v>
-      </c>
-      <c r="G97" s="7">
-        <f t="shared" si="30"/>
-        <v>5.4000000000000012E-3</v>
-      </c>
-      <c r="H97" s="9">
-        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I97" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J97">
+      <c r="J97" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K97">
         <v>3</v>
       </c>
-      <c r="K97" s="7"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000001E+166</v>
       </c>
       <c r="B98">
@@ -9338,36 +10134,40 @@
         <v>0</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="32"/>
-        <v>0.63249999999999973</v>
+        <f t="shared" si="23"/>
+        <v>0.62999999999999967</v>
       </c>
       <c r="E98" s="7">
+        <f t="shared" si="17"/>
+        <v>0.32500000000000023</v>
+      </c>
+      <c r="F98" s="7">
+        <f t="shared" si="19"/>
+        <v>3.7000000000000019E-2</v>
+      </c>
+      <c r="G98" s="7">
+        <f t="shared" si="28"/>
+        <v>5.5000000000000014E-3</v>
+      </c>
+      <c r="H98" s="7">
+        <f t="shared" si="28"/>
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="I98" s="9">
         <f t="shared" si="27"/>
-        <v>0.32500000000000023</v>
-      </c>
-      <c r="F98" s="7">
-        <f t="shared" si="29"/>
-        <v>3.7000000000000019E-2</v>
-      </c>
-      <c r="G98" s="7">
-        <f t="shared" si="30"/>
-        <v>5.5000000000000014E-3</v>
-      </c>
-      <c r="H98" s="9">
-        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I98" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J98">
+      <c r="J98" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K98">
         <v>3</v>
       </c>
-      <c r="K98" s="7"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="7"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>1E+167</v>
       </c>
       <c r="B99">
@@ -9377,36 +10177,40 @@
         <v>0</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="32"/>
-        <v>0.62689999999999979</v>
+        <f t="shared" si="23"/>
+        <v>0.62429999999999974</v>
       </c>
       <c r="E99" s="7">
+        <f t="shared" si="17"/>
+        <v>0.33000000000000024</v>
+      </c>
+      <c r="F99" s="7">
+        <f t="shared" si="19"/>
+        <v>3.7500000000000019E-2</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" si="28"/>
+        <v>5.6000000000000017E-3</v>
+      </c>
+      <c r="H99" s="7">
+        <f t="shared" si="28"/>
+        <v>2.5999999999999994E-3</v>
+      </c>
+      <c r="I99" s="9">
         <f t="shared" si="27"/>
-        <v>0.33000000000000024</v>
-      </c>
-      <c r="F99" s="7">
-        <f t="shared" si="29"/>
-        <v>3.7500000000000019E-2</v>
-      </c>
-      <c r="G99" s="7">
-        <f t="shared" si="30"/>
-        <v>5.6000000000000017E-3</v>
-      </c>
-      <c r="H99" s="9">
-        <f t="shared" si="33"/>
         <v>53</v>
       </c>
-      <c r="I99" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J99">
+      <c r="J99" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K99">
         <v>3</v>
       </c>
-      <c r="K99" s="7"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="7"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="B100">
@@ -9416,36 +10220,40 @@
         <v>0</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="32"/>
-        <v>0.62129999999999974</v>
+        <f t="shared" si="23"/>
+        <v>0.61859999999999982</v>
       </c>
       <c r="E100" s="7">
+        <f t="shared" si="17"/>
+        <v>0.33500000000000024</v>
+      </c>
+      <c r="F100" s="7">
+        <f t="shared" si="19"/>
+        <v>3.800000000000002E-2</v>
+      </c>
+      <c r="G100" s="7">
+        <f t="shared" si="28"/>
+        <v>5.7000000000000019E-3</v>
+      </c>
+      <c r="H100" s="7">
+        <f t="shared" si="28"/>
+        <v>2.6999999999999993E-3</v>
+      </c>
+      <c r="I100" s="9">
         <f t="shared" si="27"/>
-        <v>0.33500000000000024</v>
-      </c>
-      <c r="F100" s="7">
-        <f t="shared" si="29"/>
-        <v>3.800000000000002E-2</v>
-      </c>
-      <c r="G100" s="7">
-        <f t="shared" si="30"/>
-        <v>5.7000000000000019E-3</v>
-      </c>
-      <c r="H100" s="9">
-        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="I100" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J100">
+      <c r="J100" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K100">
         <v>4</v>
       </c>
-      <c r="K100" s="7"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="7"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="B101">
@@ -9455,36 +10263,40 @@
         <v>0</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="32"/>
-        <v>0.61569999999999969</v>
+        <f t="shared" si="23"/>
+        <v>0.61289999999999967</v>
       </c>
       <c r="E101" s="7">
+        <f t="shared" si="17"/>
+        <v>0.34000000000000025</v>
+      </c>
+      <c r="F101" s="7">
+        <f t="shared" si="19"/>
+        <v>3.850000000000002E-2</v>
+      </c>
+      <c r="G101" s="7">
+        <f t="shared" si="28"/>
+        <v>5.8000000000000022E-3</v>
+      </c>
+      <c r="H101" s="7">
+        <f t="shared" si="28"/>
+        <v>2.7999999999999991E-3</v>
+      </c>
+      <c r="I101" s="9">
         <f t="shared" si="27"/>
-        <v>0.34000000000000025</v>
-      </c>
-      <c r="F101" s="7">
-        <f t="shared" si="29"/>
-        <v>3.850000000000002E-2</v>
-      </c>
-      <c r="G101" s="7">
-        <f t="shared" si="30"/>
-        <v>5.8000000000000022E-3</v>
-      </c>
-      <c r="H101" s="9">
-        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="I101" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J101">
+      <c r="J101" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K101">
         <v>4</v>
       </c>
-      <c r="K101" s="7"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="7"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="B102">
@@ -9494,36 +10306,40 @@
         <v>0</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="32"/>
-        <v>0.61009999999999964</v>
+        <f t="shared" si="23"/>
+        <v>0.60719999999999974</v>
       </c>
       <c r="E102" s="7">
+        <f t="shared" si="17"/>
+        <v>0.34500000000000025</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="19"/>
+        <v>3.9000000000000021E-2</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="28"/>
+        <v>5.9000000000000025E-3</v>
+      </c>
+      <c r="H102" s="7">
+        <f t="shared" si="28"/>
+        <v>2.8999999999999989E-3</v>
+      </c>
+      <c r="I102" s="9">
         <f t="shared" si="27"/>
-        <v>0.34500000000000025</v>
-      </c>
-      <c r="F102" s="7">
-        <f t="shared" si="29"/>
-        <v>3.9000000000000021E-2</v>
-      </c>
-      <c r="G102" s="7">
-        <f t="shared" si="30"/>
-        <v>5.9000000000000025E-3</v>
-      </c>
-      <c r="H102" s="9">
-        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="I102" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J102">
+      <c r="J102" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K102">
         <v>4</v>
       </c>
-      <c r="K102" s="7"/>
-    </row>
-    <row r="103" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L102" s="7"/>
+    </row>
+    <row r="103" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="B103" s="14">
@@ -9533,51 +10349,55 @@
         <v>0</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="32"/>
-        <v>0.6044999999999997</v>
+        <f t="shared" si="23"/>
+        <v>0.6014999999999997</v>
       </c>
       <c r="E103" s="7">
+        <f t="shared" si="17"/>
+        <v>0.35000000000000026</v>
+      </c>
+      <c r="F103" s="7">
+        <f t="shared" si="19"/>
+        <v>3.9500000000000021E-2</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" si="28"/>
+        <v>6.0000000000000027E-3</v>
+      </c>
+      <c r="H103" s="7">
+        <f t="shared" si="28"/>
+        <v>2.9999999999999988E-3</v>
+      </c>
+      <c r="I103" s="9">
         <f t="shared" si="27"/>
-        <v>0.35000000000000026</v>
-      </c>
-      <c r="F103" s="7">
-        <f t="shared" si="29"/>
-        <v>3.9500000000000021E-2</v>
-      </c>
-      <c r="G103" s="7">
-        <f t="shared" si="30"/>
-        <v>6.0000000000000027E-3</v>
-      </c>
-      <c r="H103" s="9">
-        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="I103" s="1">
-        <v>9028</v>
-      </c>
-      <c r="J103">
+      <c r="J103" s="1">
+        <v>9028</v>
+      </c>
+      <c r="K103">
         <v>4</v>
       </c>
-      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101">
-    <cfRule type="expression" dxfId="3" priority="55">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B43 B52:B53 B62:B63 B72:B73 B82:B83 B92:B93 B102:B103">
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
+  <conditionalFormatting sqref="R28">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$Q$28=$O$5</formula>
+      <formula>$R$28=$P$5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$Q$28&lt;&gt;$O$5</formula>
+      <formula>$R$28&lt;&gt;$P$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258BCE25-0518-4619-AAC6-2AFE22ABC7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD936779-E024-4E29-A16B-C9B5D1552E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,11 +980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N59" sqref="N59"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3588,7 +3592,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B77" si="1">B49</f>
+        <f t="shared" ref="B50:B81" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -5100,6 +5104,226 @@
       </c>
       <c r="N77" s="1">
         <f>VLOOKUP(A77,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4</v>
+      </c>
+      <c r="D78" s="26">
+        <f t="shared" ref="D78:D80" si="3">D77*10</f>
+        <v>1.0000000000000002E+148</v>
+      </c>
+      <c r="E78">
+        <v>17200</v>
+      </c>
+      <c r="F78" s="10">
+        <f>VLOOKUP(A78,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="10">
+        <f>VLOOKUP(A78,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.73259999999999992</v>
+      </c>
+      <c r="H78" s="10">
+        <f>VLOOKUP(A78,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.23500000000000015</v>
+      </c>
+      <c r="I78" s="10">
+        <f>VLOOKUP(A78,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.8000000000000014E-2</v>
+      </c>
+      <c r="J78" s="10">
+        <f>VLOOKUP(A78,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.6999999999999976E-3</v>
+      </c>
+      <c r="K78" s="10">
+        <f>VLOOKUP(A78,Balance1!$B:$J,7,FALSE)</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="L78" s="9">
+        <f>VLOOKUP(A78,Balance1!$B:$J,8,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="M78" s="1">
+        <f>VLOOKUP(A78,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N78" s="1">
+        <f>VLOOKUP(A78,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E+149</v>
+      </c>
+      <c r="E79" s="2">
+        <v>17400</v>
+      </c>
+      <c r="F79" s="10">
+        <f>VLOOKUP(A79,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="10">
+        <f>VLOOKUP(A79,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.72689999999999988</v>
+      </c>
+      <c r="H79" s="10">
+        <f>VLOOKUP(A79,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.24000000000000016</v>
+      </c>
+      <c r="I79" s="10">
+        <f>VLOOKUP(A79,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.8500000000000015E-2</v>
+      </c>
+      <c r="J79" s="10">
+        <f>VLOOKUP(A79,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.7999999999999974E-3</v>
+      </c>
+      <c r="K79" s="10">
+        <f>VLOOKUP(A79,Balance1!$B:$J,7,FALSE)</f>
+        <v>8.0000000000000015E-4</v>
+      </c>
+      <c r="L79" s="9">
+        <f>VLOOKUP(A79,Balance1!$B:$J,8,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="M79" s="1">
+        <f>VLOOKUP(A79,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N79" s="1">
+        <f>VLOOKUP(A79,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E+150</v>
+      </c>
+      <c r="E80">
+        <v>17600</v>
+      </c>
+      <c r="F80" s="10">
+        <f>VLOOKUP(A80,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <f>VLOOKUP(A80,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.72119999999999984</v>
+      </c>
+      <c r="H80" s="10">
+        <f>VLOOKUP(A80,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.24500000000000016</v>
+      </c>
+      <c r="I80" s="10">
+        <f>VLOOKUP(A80,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.9000000000000015E-2</v>
+      </c>
+      <c r="J80" s="10">
+        <f>VLOOKUP(A80,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.8999999999999972E-3</v>
+      </c>
+      <c r="K80" s="10">
+        <f>VLOOKUP(A80,Balance1!$B:$J,7,FALSE)</f>
+        <v>9.0000000000000019E-4</v>
+      </c>
+      <c r="L80" s="9">
+        <f>VLOOKUP(A80,Balance1!$B:$J,8,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="M80" s="1">
+        <f>VLOOKUP(A80,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N80" s="1">
+        <f>VLOOKUP(A80,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
+      <c r="D81" s="26">
+        <f>D80*10</f>
+        <v>1.0000000000000002E+151</v>
+      </c>
+      <c r="E81">
+        <v>17800</v>
+      </c>
+      <c r="F81" s="10">
+        <f>VLOOKUP(A81,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="10">
+        <f>VLOOKUP(A81,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.7154999999999998</v>
+      </c>
+      <c r="H81" s="10">
+        <f>VLOOKUP(A81,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.25000000000000017</v>
+      </c>
+      <c r="I81" s="10">
+        <f>VLOOKUP(A81,Balance1!$B:$J,5,FALSE)</f>
+        <v>2.9500000000000016E-2</v>
+      </c>
+      <c r="J81" s="10">
+        <f>VLOOKUP(A81,Balance1!$B:$J,6,FALSE)</f>
+        <v>3.9999999999999975E-3</v>
+      </c>
+      <c r="K81" s="10">
+        <f>VLOOKUP(A81,Balance1!$B:$J,7,FALSE)</f>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="L81" s="9">
+        <f>VLOOKUP(A81,Balance1!$B:$J,8,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="M81" s="1">
+        <f>VLOOKUP(A81,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N81" s="1">
+        <f>VLOOKUP(A81,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5110,7 +5334,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E77">
+  <conditionalFormatting sqref="D2:E81">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5124,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:AA103"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9347,6 +9571,20 @@
         <v>3</v>
       </c>
       <c r="L79" s="7"/>
+      <c r="M79" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N79" s="5">
+        <v>148</v>
+      </c>
+      <c r="O79" s="6">
+        <f t="shared" ref="O79" si="27">POWER(10,N79)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="P79" s="6" t="str">
+        <f t="shared" ref="P79" si="28">RIGHT(O79,N79)</f>
+        <v>1E+148</v>
+      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -9939,7 +10177,7 @@
         <v>2.0000000000000005E-3</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" ref="I93:I103" si="27">I85+6</f>
+        <f t="shared" ref="I93:I103" si="29">I85+6</f>
         <v>53</v>
       </c>
       <c r="J93" s="1">
@@ -9974,15 +10212,15 @@
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" ref="G94:H103" si="28">G93+0.0001</f>
+        <f t="shared" ref="G94:H103" si="30">G93+0.0001</f>
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>53</v>
       </c>
       <c r="J94" s="1">
@@ -10017,15 +10255,15 @@
         <v>3.5500000000000018E-2</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.2000000000000006E-3</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>53</v>
       </c>
       <c r="J95" s="1">
@@ -10060,15 +10298,15 @@
         <v>3.6000000000000018E-2</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.3000000000000009E-3</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.3E-3</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>53</v>
       </c>
       <c r="J96" s="1">
@@ -10103,15 +10341,15 @@
         <v>3.6500000000000019E-2</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.4000000000000012E-3</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>53</v>
       </c>
       <c r="J97" s="1">
@@ -10146,15 +10384,15 @@
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.5000000000000014E-3</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.4999999999999996E-3</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>53</v>
       </c>
       <c r="J98" s="1">
@@ -10189,15 +10427,15 @@
         <v>3.7500000000000019E-2</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.6000000000000017E-3</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.5999999999999994E-3</v>
       </c>
       <c r="I99" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>53</v>
       </c>
       <c r="J99" s="1">
@@ -10232,15 +10470,15 @@
         <v>3.800000000000002E-2</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.7000000000000019E-3</v>
       </c>
       <c r="H100" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.6999999999999993E-3</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>59</v>
       </c>
       <c r="J100" s="1">
@@ -10275,15 +10513,15 @@
         <v>3.850000000000002E-2</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.8000000000000022E-3</v>
       </c>
       <c r="H101" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.7999999999999991E-3</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>59</v>
       </c>
       <c r="J101" s="1">
@@ -10318,15 +10556,15 @@
         <v>3.9000000000000021E-2</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.9000000000000025E-3</v>
       </c>
       <c r="H102" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.8999999999999989E-3</v>
       </c>
       <c r="I102" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>59</v>
       </c>
       <c r="J102" s="1">
@@ -10361,15 +10599,15 @@
         <v>3.9500000000000021E-2</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.0000000000000027E-3</v>
       </c>
       <c r="H103" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.9999999999999988E-3</v>
       </c>
       <c r="I103" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>59</v>
       </c>
       <c r="J103" s="1">

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD936779-E024-4E29-A16B-C9B5D1552E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51A52C6-7ABB-4E7E-A85E-0E5FCA519618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -980,11 +980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3592,7 +3592,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B81" si="1">B49</f>
+        <f t="shared" ref="B50:B85" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -5119,7 +5119,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D80" si="3">D77*10</f>
+        <f t="shared" ref="D78:D84" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -5324,6 +5324,226 @@
       </c>
       <c r="N81" s="1">
         <f>VLOOKUP(A81,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4</v>
+      </c>
+      <c r="D82" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E+152</v>
+      </c>
+      <c r="E82">
+        <v>18000</v>
+      </c>
+      <c r="F82" s="10">
+        <f>VLOOKUP(A82,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="10">
+        <f>VLOOKUP(A82,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.70979999999999976</v>
+      </c>
+      <c r="H82" s="10">
+        <f>VLOOKUP(A82,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.25500000000000017</v>
+      </c>
+      <c r="I82" s="10">
+        <f>VLOOKUP(A82,Balance1!$B:$J,5,FALSE)</f>
+        <v>3.0000000000000016E-2</v>
+      </c>
+      <c r="J82" s="10">
+        <f>VLOOKUP(A82,Balance1!$B:$J,6,FALSE)</f>
+        <v>4.0999999999999977E-3</v>
+      </c>
+      <c r="K82" s="10">
+        <f>VLOOKUP(A82,Balance1!$B:$J,7,FALSE)</f>
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="L82" s="9">
+        <f>VLOOKUP(A82,Balance1!$B:$J,8,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="M82" s="1">
+        <f>VLOOKUP(A82,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N82" s="1">
+        <f>VLOOKUP(A82,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4</v>
+      </c>
+      <c r="D83" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E+153</v>
+      </c>
+      <c r="E83" s="2">
+        <v>18200</v>
+      </c>
+      <c r="F83" s="10">
+        <f>VLOOKUP(A83,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <f>VLOOKUP(A83,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.70409999999999984</v>
+      </c>
+      <c r="H83" s="10">
+        <f>VLOOKUP(A83,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.26000000000000018</v>
+      </c>
+      <c r="I83" s="10">
+        <f>VLOOKUP(A83,Balance1!$B:$J,5,FALSE)</f>
+        <v>3.0500000000000017E-2</v>
+      </c>
+      <c r="J83" s="10">
+        <f>VLOOKUP(A83,Balance1!$B:$J,6,FALSE)</f>
+        <v>4.199999999999998E-3</v>
+      </c>
+      <c r="K83" s="10">
+        <f>VLOOKUP(A83,Balance1!$B:$J,7,FALSE)</f>
+        <v>1.2000000000000003E-3</v>
+      </c>
+      <c r="L83" s="9">
+        <f>VLOOKUP(A83,Balance1!$B:$J,8,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="M83" s="1">
+        <f>VLOOKUP(A83,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N83" s="1">
+        <f>VLOOKUP(A83,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4</v>
+      </c>
+      <c r="D84" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E+154</v>
+      </c>
+      <c r="E84">
+        <v>18400</v>
+      </c>
+      <c r="F84" s="10">
+        <f>VLOOKUP(A84,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="10">
+        <f>VLOOKUP(A84,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.69839999999999969</v>
+      </c>
+      <c r="H84" s="10">
+        <f>VLOOKUP(A84,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.26500000000000018</v>
+      </c>
+      <c r="I84" s="10">
+        <f>VLOOKUP(A84,Balance1!$B:$J,5,FALSE)</f>
+        <v>3.1000000000000017E-2</v>
+      </c>
+      <c r="J84" s="10">
+        <f>VLOOKUP(A84,Balance1!$B:$J,6,FALSE)</f>
+        <v>4.2999999999999983E-3</v>
+      </c>
+      <c r="K84" s="10">
+        <f>VLOOKUP(A84,Balance1!$B:$J,7,FALSE)</f>
+        <v>1.3000000000000004E-3</v>
+      </c>
+      <c r="L84" s="9">
+        <f>VLOOKUP(A84,Balance1!$B:$J,8,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="M84" s="1">
+        <f>VLOOKUP(A84,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N84" s="1">
+        <f>VLOOKUP(A84,Balance1!$B:$K,10,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="26">
+        <f>D84*10</f>
+        <v>1.0000000000000001E+155</v>
+      </c>
+      <c r="E85">
+        <v>18600</v>
+      </c>
+      <c r="F85" s="10">
+        <f>VLOOKUP(A85,Balance1!$B:$J,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="10">
+        <f>VLOOKUP(A85,Balance1!$B:$J,3,FALSE)</f>
+        <v>0.69269999999999976</v>
+      </c>
+      <c r="H85" s="10">
+        <f>VLOOKUP(A85,Balance1!$B:$J,4,FALSE)</f>
+        <v>0.27000000000000018</v>
+      </c>
+      <c r="I85" s="10">
+        <f>VLOOKUP(A85,Balance1!$B:$J,5,FALSE)</f>
+        <v>3.1500000000000014E-2</v>
+      </c>
+      <c r="J85" s="10">
+        <f>VLOOKUP(A85,Balance1!$B:$J,6,FALSE)</f>
+        <v>4.3999999999999985E-3</v>
+      </c>
+      <c r="K85" s="10">
+        <f>VLOOKUP(A85,Balance1!$B:$J,7,FALSE)</f>
+        <v>1.4000000000000004E-3</v>
+      </c>
+      <c r="L85" s="9">
+        <f>VLOOKUP(A85,Balance1!$B:$J,8,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="M85" s="1">
+        <f>VLOOKUP(A85,Balance1!$B:$J,9,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="N85" s="1">
+        <f>VLOOKUP(A85,Balance1!$B:$K,10,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5334,7 +5554,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E81">
+  <conditionalFormatting sqref="D2:E85">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFD4F7-3779-4F12-81B5-164070A451F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3DBF4C-B372-4C0C-AE8A-D25392C272D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,7 +383,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,14 +995,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
@@ -1019,7 +1019,7 @@
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3749,12 +3749,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B85" si="1">B49</f>
+        <f t="shared" ref="B50:B93" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D84" si="3">D77*10</f>
+        <f t="shared" ref="D78:D93" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -5420,7 +5420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5833,38 +5833,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>33</v>
+      <c r="B86" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C86" s="1">
         <v>4</v>
       </c>
       <c r="D86" s="26">
+        <f t="shared" si="3"/>
         <v>1.0000000000000002E+156</v>
       </c>
       <c r="E86">
         <v>18800</v>
       </c>
       <c r="F86" s="10">
+        <f>VLOOKUP(A86,Balance1!$B:$K,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G86" s="10">
+        <f>VLOOKUP(A86,Balance1!$B:$K,3,FALSE)</f>
         <v>0.68699999999999983</v>
       </c>
       <c r="H86" s="10">
+        <f>VLOOKUP(A86,Balance1!$B:$K,4,FALSE)</f>
         <v>0.27500000000000019</v>
       </c>
       <c r="I86" s="10">
+        <f>VLOOKUP(A86,Balance1!$B:$K,5,FALSE)</f>
         <v>3.2000000000000015E-2</v>
       </c>
       <c r="J86" s="10">
+        <f>VLOOKUP(A86,Balance1!$B:$K,6,FALSE)</f>
         <v>4.4999999999999988E-3</v>
       </c>
       <c r="K86" s="10">
+        <f>VLOOKUP(A86,Balance1!$B:$K,7,FALSE)</f>
         <v>1.5000000000000005E-3</v>
       </c>
       <c r="L86" s="10">
@@ -5884,38 +5892,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="25" t="s">
-        <v>33</v>
+      <c r="B87" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C87" s="1">
         <v>4</v>
       </c>
       <c r="D87" s="26">
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+157</v>
       </c>
       <c r="E87" s="2">
         <v>19000</v>
       </c>
       <c r="F87" s="10">
+        <f>VLOOKUP(A87,Balance1!$B:$K,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G87" s="10">
+        <f>VLOOKUP(A87,Balance1!$B:$K,3,FALSE)</f>
         <v>0.68129999999999979</v>
       </c>
       <c r="H87" s="10">
+        <f>VLOOKUP(A87,Balance1!$B:$K,4,FALSE)</f>
         <v>0.28000000000000019</v>
       </c>
       <c r="I87" s="10">
+        <f>VLOOKUP(A87,Balance1!$B:$K,5,FALSE)</f>
         <v>3.2500000000000015E-2</v>
       </c>
       <c r="J87" s="10">
+        <f>VLOOKUP(A87,Balance1!$B:$K,6,FALSE)</f>
         <v>4.5999999999999991E-3</v>
       </c>
       <c r="K87" s="10">
+        <f>VLOOKUP(A87,Balance1!$B:$K,7,FALSE)</f>
         <v>1.6000000000000005E-3</v>
       </c>
       <c r="L87" s="10">
@@ -5935,38 +5951,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="25" t="s">
-        <v>33</v>
+      <c r="B88" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C88" s="1">
         <v>4</v>
       </c>
       <c r="D88" s="26">
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+158</v>
       </c>
       <c r="E88">
         <v>19200</v>
       </c>
       <c r="F88" s="10">
+        <f>VLOOKUP(A88,Balance1!$B:$K,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G88" s="10">
+        <f>VLOOKUP(A88,Balance1!$B:$K,3,FALSE)</f>
         <v>0.67559999999999976</v>
       </c>
       <c r="H88" s="10">
+        <f>VLOOKUP(A88,Balance1!$B:$K,4,FALSE)</f>
         <v>0.2850000000000002</v>
       </c>
       <c r="I88" s="10">
+        <f>VLOOKUP(A88,Balance1!$B:$K,5,FALSE)</f>
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="J88" s="10">
+        <f>VLOOKUP(A88,Balance1!$B:$K,6,FALSE)</f>
         <v>4.6999999999999993E-3</v>
       </c>
       <c r="K88" s="10">
+        <f>VLOOKUP(A88,Balance1!$B:$K,7,FALSE)</f>
         <v>1.7000000000000006E-3</v>
       </c>
       <c r="L88" s="10">
@@ -5986,38 +6010,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>33</v>
+      <c r="B89" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
       </c>
       <c r="C89" s="1">
         <v>4</v>
       </c>
       <c r="D89" s="26">
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+159</v>
       </c>
       <c r="E89">
         <v>19400</v>
       </c>
       <c r="F89" s="10">
+        <f>VLOOKUP(A89,Balance1!$B:$K,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G89" s="10">
+        <f>VLOOKUP(A89,Balance1!$B:$K,3,FALSE)</f>
         <v>0.66989999999999972</v>
       </c>
       <c r="H89" s="10">
+        <f>VLOOKUP(A89,Balance1!$B:$K,4,FALSE)</f>
         <v>0.2900000000000002</v>
       </c>
       <c r="I89" s="10">
+        <f>VLOOKUP(A89,Balance1!$B:$K,5,FALSE)</f>
         <v>3.3500000000000016E-2</v>
       </c>
       <c r="J89" s="10">
+        <f>VLOOKUP(A89,Balance1!$B:$K,6,FALSE)</f>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="K89" s="10">
+        <f>VLOOKUP(A89,Balance1!$B:$K,7,FALSE)</f>
         <v>1.8000000000000006E-3</v>
       </c>
       <c r="L89" s="10">
@@ -6034,6 +6066,242 @@
       </c>
       <c r="O89" s="1">
         <f>VLOOKUP(A89,Balance1!$B:$L,11,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4</v>
+      </c>
+      <c r="D90" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E+160</v>
+      </c>
+      <c r="E90">
+        <v>19600</v>
+      </c>
+      <c r="F90" s="10">
+        <f>VLOOKUP(A90,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="10">
+        <f>VLOOKUP(A90,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.66419999999999968</v>
+      </c>
+      <c r="H90" s="10">
+        <f>VLOOKUP(A90,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.29500000000000021</v>
+      </c>
+      <c r="I90" s="10">
+        <f>VLOOKUP(A90,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.4000000000000016E-2</v>
+      </c>
+      <c r="J90" s="10">
+        <f>VLOOKUP(A90,Balance1!$B:$K,6,FALSE)</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="K90" s="10">
+        <f>VLOOKUP(A90,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.9000000000000006E-3</v>
+      </c>
+      <c r="L90" s="10">
+        <f>VLOOKUP(A90,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M90" s="9">
+        <f>VLOOKUP(A90,Balance1!$B:$K,9,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="N90" s="1">
+        <f>VLOOKUP(A90,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O90" s="1">
+        <f>VLOOKUP(A90,Balance1!$B:$L,11,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4</v>
+      </c>
+      <c r="D91" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E+161</v>
+      </c>
+      <c r="E91" s="2">
+        <v>19800</v>
+      </c>
+      <c r="F91" s="10">
+        <f>VLOOKUP(A91,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <f>VLOOKUP(A91,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.65849999999999975</v>
+      </c>
+      <c r="H91" s="10">
+        <f>VLOOKUP(A91,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.30000000000000021</v>
+      </c>
+      <c r="I91" s="10">
+        <f>VLOOKUP(A91,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.4500000000000017E-2</v>
+      </c>
+      <c r="J91" s="10">
+        <f>VLOOKUP(A91,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K91" s="10">
+        <f>VLOOKUP(A91,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="L91" s="10">
+        <f>VLOOKUP(A91,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M91" s="9">
+        <f>VLOOKUP(A91,Balance1!$B:$K,9,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="N91" s="1">
+        <f>VLOOKUP(A91,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O91" s="1">
+        <f>VLOOKUP(A91,Balance1!$B:$L,11,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4</v>
+      </c>
+      <c r="D92" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+162</v>
+      </c>
+      <c r="E92">
+        <v>20000</v>
+      </c>
+      <c r="F92" s="10">
+        <f>VLOOKUP(A92,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="10">
+        <f>VLOOKUP(A92,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.65279999999999982</v>
+      </c>
+      <c r="H92" s="10">
+        <f>VLOOKUP(A92,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.30500000000000022</v>
+      </c>
+      <c r="I92" s="10">
+        <f>VLOOKUP(A92,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.5000000000000017E-2</v>
+      </c>
+      <c r="J92" s="10">
+        <f>VLOOKUP(A92,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="K92" s="10">
+        <f>VLOOKUP(A92,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="L92" s="10">
+        <f>VLOOKUP(A92,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M92" s="9">
+        <f>VLOOKUP(A92,Balance1!$B:$K,9,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="N92" s="1">
+        <f>VLOOKUP(A92,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O92" s="1">
+        <f>VLOOKUP(A92,Balance1!$B:$L,11,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+163</v>
+      </c>
+      <c r="E93">
+        <v>20200</v>
+      </c>
+      <c r="F93" s="10">
+        <f>VLOOKUP(A93,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="10">
+        <f>VLOOKUP(A93,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.64709999999999979</v>
+      </c>
+      <c r="H93" s="10">
+        <f>VLOOKUP(A93,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.31000000000000022</v>
+      </c>
+      <c r="I93" s="10">
+        <f>VLOOKUP(A93,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.5500000000000018E-2</v>
+      </c>
+      <c r="J93" s="10">
+        <f>VLOOKUP(A93,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="K93" s="10">
+        <f>VLOOKUP(A93,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="L93" s="10">
+        <f>VLOOKUP(A93,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M93" s="9">
+        <f>VLOOKUP(A93,Balance1!$B:$K,9,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="N93" s="1">
+        <f>VLOOKUP(A93,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O93" s="1">
+        <f>VLOOKUP(A93,Balance1!$B:$L,11,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6044,7 +6312,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85">
+  <conditionalFormatting sqref="D2:E85 D86:D93">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6058,11 +6326,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:AB103"/>
   <sheetViews>
-    <sheetView topLeftCell="G78" workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
@@ -6078,7 +6346,7 @@
     <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>49</v>
       </c>
@@ -6104,7 +6372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -6144,7 +6412,7 @@
       <c r="M3" s="8"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -6189,7 +6457,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -6235,7 +6503,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -6277,7 +6545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -6319,7 +6587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -6361,7 +6629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -6401,7 +6669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -6440,7 +6708,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -6512,7 +6780,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -6592,7 +6860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="17.25" thickBot="1">
+    <row r="13" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -6673,7 +6941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -6755,7 +7023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
@@ -6837,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
@@ -6919,7 +7187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
@@ -7001,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
@@ -7083,7 +7351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>
@@ -7140,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>16</v>
       </c>
@@ -7177,7 +7445,7 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>17</v>
       </c>
@@ -7220,7 +7488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18</v>
       </c>
@@ -7293,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="17.25" thickBot="1">
+    <row r="23" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -7357,30 +7625,30 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <f>T23/$T$30</f>
+        <f t="shared" ref="U23:U29" si="12">T23/$T$30</f>
         <v>0</v>
       </c>
       <c r="W23" t="s">
         <v>49</v>
       </c>
       <c r="X23">
-        <f>X12/$T$30</f>
+        <f t="shared" ref="X23:AA29" si="13">X12/$T$30</f>
         <v>9.8345696357709693E-7</v>
       </c>
       <c r="Y23">
-        <f>Y12/$T$30</f>
+        <f t="shared" si="13"/>
         <v>1.9669139271541939E-6</v>
       </c>
       <c r="Z23">
-        <f>Z12/$T$30</f>
+        <f t="shared" si="13"/>
         <v>3.9338278543083877E-6</v>
       </c>
       <c r="AA23">
-        <f>AA12/$T$30</f>
+        <f t="shared" si="13"/>
         <v>7.8676557086167754E-6</v>
       </c>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20</v>
       </c>
@@ -7436,7 +7704,7 @@
         <v>12.915599999999998</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="S24:S28" si="12">SUM(O24:R24)</f>
+        <f t="shared" ref="S24:S28" si="14">SUM(O24:R24)</f>
         <v>129.15599999999998</v>
       </c>
       <c r="T24" s="22">
@@ -7444,30 +7712,30 @@
         <v>5372.8895999999986</v>
       </c>
       <c r="U24">
-        <f>T24/$T$30</f>
+        <f t="shared" si="12"/>
         <v>5.2840056916509609E-3</v>
       </c>
       <c r="W24" t="s">
         <v>50</v>
       </c>
       <c r="X24">
-        <f>X13/$T$30</f>
+        <f t="shared" si="13"/>
         <v>1.5735311417233551E-5</v>
       </c>
       <c r="Y24">
-        <f>Y13/$T$30</f>
+        <f t="shared" si="13"/>
         <v>3.1470622834467102E-5</v>
       </c>
       <c r="Z24">
-        <f>Z13/$T$30</f>
+        <f t="shared" si="13"/>
         <v>6.2941245668934203E-5</v>
       </c>
       <c r="AA24">
-        <f>AA13/$T$30</f>
+        <f t="shared" si="13"/>
         <v>1.2588249133786841E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>21</v>
       </c>
@@ -7523,7 +7791,7 @@
         <v>5.1700000000000035</v>
       </c>
       <c r="S25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51.700000000000031</v>
       </c>
       <c r="T25" s="22">
@@ -7531,30 +7799,30 @@
         <v>34411.520000000019</v>
       </c>
       <c r="U25">
-        <f>T25/$T$30</f>
+        <f t="shared" si="12"/>
         <v>3.3842248971272561E-2</v>
       </c>
       <c r="W25" t="s">
         <v>51</v>
       </c>
       <c r="X25">
-        <f>X14/$T$30</f>
+        <f t="shared" si="13"/>
         <v>2.5176498267573681E-4</v>
       </c>
       <c r="Y25">
-        <f>Y14/$T$30</f>
+        <f t="shared" si="13"/>
         <v>5.0352996535147363E-4</v>
       </c>
       <c r="Z25">
-        <f>Z14/$T$30</f>
+        <f t="shared" si="13"/>
         <v>1.0070599307029473E-3</v>
       </c>
       <c r="AA25">
-        <f>AA14/$T$30</f>
+        <f t="shared" si="13"/>
         <v>2.0141198614058945E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>22</v>
       </c>
@@ -7610,7 +7878,7 @@
         <v>0.60160000000000036</v>
       </c>
       <c r="S26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0160000000000036</v>
       </c>
       <c r="T26" s="22">
@@ -7618,30 +7886,30 @@
         <v>64067.993600000038</v>
       </c>
       <c r="U26">
-        <f>T26/$T$30</f>
+        <f t="shared" si="12"/>
         <v>6.3008114448332916E-2</v>
       </c>
       <c r="W26" t="s">
         <v>52</v>
       </c>
       <c r="X26">
-        <f>X15/$T$30</f>
+        <f t="shared" si="13"/>
         <v>4.028239722811789E-3</v>
       </c>
       <c r="Y26">
-        <f>Y15/$T$30</f>
+        <f t="shared" si="13"/>
         <v>8.056479445623578E-3</v>
       </c>
       <c r="Z26">
-        <f>Z15/$T$30</f>
+        <f t="shared" si="13"/>
         <v>1.6112958891247156E-2</v>
       </c>
       <c r="AA26">
-        <f>AA15/$T$30</f>
+        <f t="shared" si="13"/>
         <v>3.2225917782494312E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>23</v>
       </c>
@@ -7697,7 +7965,7 @@
         <v>8.4599999999999967E-2</v>
       </c>
       <c r="S27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.84599999999999975</v>
       </c>
       <c r="T27" s="22">
@@ -7705,30 +7973,30 @@
         <v>144152.98559999993</v>
       </c>
       <c r="U27">
-        <f>T27/$T$30</f>
+        <f t="shared" si="12"/>
         <v>0.14176825750874888</v>
       </c>
       <c r="W27" t="s">
         <v>53</v>
       </c>
       <c r="X27">
-        <f>X16/$T$30</f>
+        <f t="shared" si="13"/>
         <v>6.4451835564988624E-2</v>
       </c>
       <c r="Y27">
-        <f>Y16/$T$30</f>
+        <f t="shared" si="13"/>
         <v>0.12890367112997725</v>
       </c>
       <c r="Z27">
-        <f>Z16/$T$30</f>
+        <f t="shared" si="13"/>
         <v>0.2578073422599545</v>
       </c>
       <c r="AA27">
-        <f>AA16/$T$30</f>
+        <f t="shared" si="13"/>
         <v>0.51561468451990899</v>
       </c>
     </row>
-    <row r="28" spans="2:28">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>24</v>
       </c>
@@ -7784,7 +8052,7 @@
         <v>2.8200000000000006E-2</v>
       </c>
       <c r="S28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.28200000000000008</v>
       </c>
       <c r="T28" s="22">
@@ -7792,30 +8060,30 @@
         <v>768815.92320000019</v>
       </c>
       <c r="U28">
-        <f>T28/$T$30</f>
+        <f t="shared" si="12"/>
         <v>0.75609737337999472</v>
       </c>
       <c r="W28" t="s">
         <v>54</v>
       </c>
       <c r="X28">
-        <f>X17/$T$30</f>
+        <f t="shared" si="13"/>
         <v>1.031229369039818</v>
       </c>
       <c r="Y28">
-        <f>Y17/$T$30</f>
+        <f t="shared" si="13"/>
         <v>2.062458738079636</v>
       </c>
       <c r="Z28">
-        <f>Z17/$T$30</f>
+        <f t="shared" si="13"/>
         <v>4.124917476159272</v>
       </c>
       <c r="AA28">
-        <f>AA17/$T$30</f>
+        <f t="shared" si="13"/>
         <v>8.2498349523185439</v>
       </c>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>25</v>
       </c>
@@ -7871,38 +8139,38 @@
         <v>1.8799999999999999E-3</v>
       </c>
       <c r="S29">
-        <f t="shared" ref="S29" si="13">SUM(O29:R29)</f>
+        <f t="shared" ref="S29" si="15">SUM(O29:R29)</f>
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="T29" s="22">
-        <f t="shared" ref="T29" si="14">O29*X18+P29*Y18+Q29*Z18+R29*AA18</f>
+        <f t="shared" ref="T29" si="16">O29*X18+P29*Y18+Q29*Z18+R29*AA18</f>
         <v>820070.31808</v>
       </c>
       <c r="U29">
-        <f>T29/$T$30</f>
+        <f t="shared" si="12"/>
         <v>0.80650386493866077</v>
       </c>
       <c r="W29" t="s">
         <v>84</v>
       </c>
       <c r="X29">
-        <f>X18/$T$30</f>
+        <f t="shared" si="13"/>
         <v>16.499669904637088</v>
       </c>
       <c r="Y29">
-        <f>Y18/$T$30</f>
+        <f t="shared" si="13"/>
         <v>32.999339809274176</v>
       </c>
       <c r="Z29">
-        <f>Z18/$T$30</f>
+        <f t="shared" si="13"/>
         <v>65.998679618548351</v>
       </c>
       <c r="AA29">
-        <f>AA18/$T$30</f>
+        <f t="shared" si="13"/>
         <v>131.9973592370967</v>
       </c>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>26</v>
       </c>
@@ -7957,7 +8225,7 @@
         <v>263.99471847419341</v>
       </c>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>27</v>
       </c>
@@ -7998,7 +8266,7 @@
       </c>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>28</v>
       </c>
@@ -8035,7 +8303,7 @@
       </c>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:27" ht="17.25" thickBot="1">
+    <row r="33" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <v>29</v>
       </c>
@@ -8072,7 +8340,7 @@
       </c>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>30</v>
       </c>
@@ -8109,7 +8377,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>31</v>
       </c>
@@ -8146,7 +8414,7 @@
       </c>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>32</v>
       </c>
@@ -8183,7 +8451,7 @@
       </c>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>33</v>
       </c>
@@ -8220,7 +8488,7 @@
       </c>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>34</v>
       </c>
@@ -8257,7 +8525,7 @@
       </c>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>35</v>
       </c>
@@ -8294,7 +8562,7 @@
       </c>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>36</v>
       </c>
@@ -8331,7 +8599,7 @@
       </c>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>37</v>
       </c>
@@ -8374,7 +8642,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="17.25" thickBot="1">
+    <row r="42" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.0000000000000002E+110</v>
       </c>
@@ -8423,7 +8691,7 @@
       <c r="Q42" s="4"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:27" ht="18" thickTop="1" thickBot="1">
+    <row r="43" spans="1:27" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.0000000000000002E+111</v>
       </c>
@@ -8469,16 +8737,16 @@
         <v>4</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" ref="P43:P77" si="15">POWER(10,O43)</f>
+        <f t="shared" ref="P43:P77" si="17">POWER(10,O43)</f>
         <v>10000</v>
       </c>
       <c r="Q43" s="6" t="str">
-        <f t="shared" ref="Q43:Q77" si="16">RIGHT(P43,O43)</f>
+        <f t="shared" ref="Q43:Q77" si="18">RIGHT(P43,O43)</f>
         <v>0000</v>
       </c>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>A43*10</f>
         <v>1.0000000000000001E+112</v>
@@ -8528,33 +8796,33 @@
         <v>8</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100000000</v>
       </c>
       <c r="Q44" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>00000000</v>
       </c>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" ref="A45:A103" si="17">A44*10</f>
+        <f t="shared" ref="A45:A103" si="19">A44*10</f>
         <v>1.0000000000000002E+113</v>
       </c>
       <c r="B45">
         <v>41</v>
       </c>
       <c r="C45" s="23">
-        <f t="shared" ref="C45:C71" si="18">100%-(D45+E45+F45+G45)</f>
+        <f t="shared" ref="C45:C71" si="20">100%-(D45+E45+F45+G45)</f>
         <v>0.4093</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" ref="D45:D71" si="19">D44+0.01</f>
+        <f t="shared" ref="D45:D71" si="21">D44+0.01</f>
         <v>0.52</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" ref="E45:E103" si="20">E44+0.005</f>
+        <f t="shared" ref="E45:E103" si="22">E44+0.005</f>
         <v>0.06</v>
       </c>
       <c r="F45" s="7">
@@ -8572,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" ref="J45:J67" si="21">J37+4</f>
+        <f t="shared" ref="J45:J67" si="23">J37+4</f>
         <v>24</v>
       </c>
       <c r="K45" s="1">
@@ -8589,41 +8857,41 @@
         <v>12</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1000000000000</v>
       </c>
       <c r="Q45" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>000000000000</v>
       </c>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+114</v>
       </c>
       <c r="B46">
         <v>42</v>
       </c>
       <c r="C46" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.39370000000000005</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.53</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46:F103" si="22">F45+0.0005</f>
+        <f t="shared" ref="F46:F103" si="24">F45+0.0005</f>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" ref="G46:G61" si="23">G45+0.0001</f>
+        <f t="shared" ref="G46:G61" si="25">G45+0.0001</f>
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="H46" s="7">
@@ -8633,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="K46" s="1">
@@ -8650,51 +8918,51 @@
         <v>16</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+16</v>
       </c>
       <c r="Q46" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0000000000000000</v>
       </c>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+115</v>
       </c>
       <c r="B47">
         <v>43</v>
       </c>
       <c r="C47" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.37809999999999999</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.54</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.1500000000000002E-2</v>
       </c>
       <c r="G47" s="7">
+        <f t="shared" si="25"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
         <f t="shared" si="23"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="K47" s="1">
@@ -8711,51 +8979,51 @@
         <v>20</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+20</v>
       </c>
       <c r="Q47" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+20</v>
       </c>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+116</v>
       </c>
       <c r="B48">
         <v>44</v>
       </c>
       <c r="C48" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.36250000000000004</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.2000000000000002E-2</v>
       </c>
       <c r="G48" s="7">
+        <f t="shared" si="25"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
         <f t="shared" si="23"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="K48" s="1">
@@ -8772,11 +9040,11 @@
         <v>24</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="Q48" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+24</v>
       </c>
       <c r="T48" s="22"/>
@@ -8785,42 +9053,42 @@
       <c r="Z48" s="22"/>
       <c r="AA48" s="22"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+117</v>
       </c>
       <c r="B49">
         <v>45</v>
       </c>
       <c r="C49" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.34689999999999988</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.2500000000000002E-2</v>
       </c>
       <c r="G49" s="7">
+        <f t="shared" si="25"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
         <f t="shared" si="23"/>
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9">
-        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="K49" s="1">
@@ -8837,51 +9105,51 @@
         <v>28</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="Q49" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+28</v>
       </c>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+118</v>
       </c>
       <c r="B50">
         <v>46</v>
       </c>
       <c r="C50" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.33129999999999993</v>
       </c>
       <c r="D50" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.500000000000002E-2</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.3000000000000003E-2</v>
       </c>
       <c r="G50" s="7">
+        <f t="shared" si="25"/>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
         <f t="shared" si="23"/>
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="9">
-        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="K50" s="1">
@@ -8898,50 +9166,50 @@
         <v>32</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="Q50" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+32</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+119</v>
       </c>
       <c r="B51">
         <v>47</v>
       </c>
       <c r="C51" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.31569999999999987</v>
       </c>
       <c r="D51" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.3500000000000003E-2</v>
       </c>
       <c r="G51" s="7">
+        <f t="shared" si="25"/>
+        <v>8.0000000000000015E-4</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
         <f t="shared" si="23"/>
-        <v>8.0000000000000015E-4</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="9">
-        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="K51" s="1">
@@ -8958,50 +9226,50 @@
         <v>36</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+36</v>
       </c>
       <c r="Q51" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+36</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+120</v>
       </c>
       <c r="B52">
         <v>48</v>
       </c>
       <c r="C52" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.30009999999999992</v>
       </c>
       <c r="D52" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.59000000000000008</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.5000000000000029E-2</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.4000000000000004E-2</v>
       </c>
       <c r="G52" s="7">
+        <f t="shared" si="25"/>
+        <v>9.0000000000000019E-4</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
         <f t="shared" si="23"/>
-        <v>9.0000000000000019E-4</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="9">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="K52" s="1">
@@ -9018,50 +9286,50 @@
         <v>40</v>
       </c>
       <c r="P52" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+40</v>
       </c>
       <c r="Q52" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+40</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="17.25" thickBot="1">
+    <row r="53" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+121</v>
       </c>
       <c r="B53" s="14">
         <v>49</v>
       </c>
       <c r="C53" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.28449999999999986</v>
       </c>
       <c r="D53" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.4500000000000004E-2</v>
       </c>
       <c r="G53" s="7">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
         <f t="shared" si="23"/>
-        <v>1.0000000000000002E-3</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="9">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="K53" s="1">
@@ -9078,50 +9346,50 @@
         <v>44</v>
       </c>
       <c r="P53" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="Q53" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+44</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+122</v>
       </c>
       <c r="B54">
         <v>50</v>
       </c>
       <c r="C54" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.26889999999999992</v>
       </c>
       <c r="D54" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.6100000000000001</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.10500000000000004</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.5000000000000005E-2</v>
       </c>
       <c r="G54" s="7">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
         <f t="shared" si="23"/>
-        <v>1.1000000000000003E-3</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="9">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="K54" s="1">
@@ -9138,50 +9406,50 @@
         <v>48</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+48</v>
       </c>
       <c r="Q54" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+48</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+123</v>
       </c>
       <c r="B55">
         <v>51</v>
       </c>
       <c r="C55" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.25329999999999986</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.62000000000000011</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.11000000000000004</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.5500000000000005E-2</v>
       </c>
       <c r="G55" s="7">
+        <f t="shared" si="25"/>
+        <v>1.2000000000000003E-3</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="9">
         <f t="shared" si="23"/>
-        <v>1.2000000000000003E-3</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="9">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="K55" s="1">
@@ -9198,50 +9466,50 @@
         <v>52</v>
       </c>
       <c r="P55" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="Q55" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+52</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+124</v>
       </c>
       <c r="B56">
         <v>52</v>
       </c>
       <c r="C56" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.23769999999999991</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.63000000000000012</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.11500000000000005</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.6000000000000004E-2</v>
       </c>
       <c r="G56" s="7">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000004E-3</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="9">
         <f t="shared" si="23"/>
-        <v>1.3000000000000004E-3</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="K56" s="1">
@@ -9258,50 +9526,50 @@
         <v>56</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="Q56" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+56</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+125</v>
       </c>
       <c r="B57">
         <v>53</v>
       </c>
       <c r="C57" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.22209999999999985</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.6500000000000004E-2</v>
       </c>
       <c r="G57" s="7">
+        <f t="shared" si="25"/>
+        <v>1.4000000000000004E-3</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9">
         <f t="shared" si="23"/>
-        <v>1.4000000000000004E-3</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-      <c r="J57" s="9">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="K57" s="1">
@@ -9318,50 +9586,50 @@
         <v>60</v>
       </c>
       <c r="P57" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="Q57" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+60</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+126</v>
       </c>
       <c r="B58">
         <v>54</v>
       </c>
       <c r="C58" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.20649999999999991</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.65000000000000013</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.7000000000000005E-2</v>
       </c>
       <c r="G58" s="7">
+        <f t="shared" si="25"/>
+        <v>1.5000000000000005E-3</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="9">
         <f t="shared" si="23"/>
-        <v>1.5000000000000005E-3</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="9">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="K58" s="1">
@@ -9378,50 +9646,50 @@
         <v>64</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+64</v>
       </c>
       <c r="Q58" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+64</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+127</v>
       </c>
       <c r="B59">
         <v>55</v>
       </c>
       <c r="C59" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.19089999999999974</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.66000000000000014</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.13000000000000006</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.7500000000000005E-2</v>
       </c>
       <c r="G59" s="7">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000005E-3</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
         <f t="shared" si="23"/>
-        <v>1.6000000000000005E-3</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="9">
-        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="K59" s="1">
@@ -9438,50 +9706,50 @@
         <v>68</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="Q59" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+68</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="B60">
         <v>56</v>
       </c>
       <c r="C60" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.17529999999999979</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.67000000000000015</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.13500000000000006</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8000000000000006E-2</v>
       </c>
       <c r="G60" s="7">
+        <f t="shared" si="25"/>
+        <v>1.7000000000000006E-3</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="9">
         <f t="shared" si="23"/>
-        <v>1.7000000000000006E-3</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0</v>
-      </c>
-      <c r="J60" s="9">
-        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="K60" s="1">
@@ -9498,50 +9766,50 @@
         <v>72</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="Q60" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+72</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+129</v>
       </c>
       <c r="B61">
         <v>57</v>
       </c>
       <c r="C61" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.15969999999999973</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.68000000000000016</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.14000000000000007</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.8500000000000006E-2</v>
       </c>
       <c r="G61" s="7">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000006E-3</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9">
         <f t="shared" si="23"/>
-        <v>1.8000000000000006E-3</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="9">
-        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="K61" s="1">
@@ -9558,40 +9826,40 @@
         <v>76</v>
       </c>
       <c r="P61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+76</v>
       </c>
       <c r="Q61" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+76</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="B62">
         <v>58</v>
       </c>
       <c r="C62" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.14409999999999978</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.69000000000000017</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.14500000000000007</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.9000000000000006E-2</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" ref="G62:H77" si="24">G61+0.0001</f>
+        <f t="shared" ref="G62:H77" si="26">G61+0.0001</f>
         <v>1.9000000000000006E-3</v>
       </c>
       <c r="H62" s="7">
@@ -9601,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="K62" s="1">
@@ -9618,40 +9886,40 @@
         <v>80</v>
       </c>
       <c r="P62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+80</v>
       </c>
       <c r="Q62" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+80</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="17.25" thickBot="1">
+    <row r="63" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="B63" s="14">
         <v>59</v>
       </c>
       <c r="C63" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.12849999999999973</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.15000000000000008</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.9500000000000007E-2</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.0000000000000005E-3</v>
       </c>
       <c r="H63" s="7">
@@ -9661,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="K63" s="1">
@@ -9678,40 +9946,40 @@
         <v>84</v>
       </c>
       <c r="P63" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="Q63" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+84</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+132</v>
       </c>
       <c r="B64">
         <v>60</v>
       </c>
       <c r="C64" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.11289999999999978</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.71000000000000019</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.15500000000000008</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.0000000000000007E-2</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="H64" s="7">
@@ -9721,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="K64" s="1">
@@ -9738,40 +10006,40 @@
         <v>88</v>
       </c>
       <c r="P64" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="Q64" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+88</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+133</v>
       </c>
       <c r="B65">
         <v>61</v>
       </c>
       <c r="C65" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.729999999999972E-2</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.7200000000000002</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.16000000000000009</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.0500000000000008E-2</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="H65" s="7">
@@ -9781,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="K65" s="1">
@@ -9798,40 +10066,40 @@
         <v>92</v>
       </c>
       <c r="P65" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+92</v>
       </c>
       <c r="Q65" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+92</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+134</v>
       </c>
       <c r="B66">
         <v>62</v>
       </c>
       <c r="C66" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.1699999999999773E-2</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.7300000000000002</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.16500000000000009</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.1000000000000008E-2</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.3E-3</v>
       </c>
       <c r="H66" s="7">
@@ -9841,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="K66" s="1">
@@ -9858,40 +10126,40 @@
         <v>96</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+96</v>
       </c>
       <c r="Q66" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+96</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+135</v>
       </c>
       <c r="B67">
         <v>63</v>
       </c>
       <c r="C67" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.6099999999999715E-2</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.74000000000000021</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.1700000000000001</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.1500000000000009E-2</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="H67" s="7">
@@ -9901,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="K67" s="1">
@@ -9918,40 +10186,40 @@
         <v>100</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+100</v>
       </c>
       <c r="Q67" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+100</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+136</v>
       </c>
       <c r="B68">
         <v>64</v>
       </c>
       <c r="C68" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.0499999999999767E-2</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.75000000000000022</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.1750000000000001</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.2000000000000009E-2</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.4999999999999996E-3</v>
       </c>
       <c r="H68" s="7">
@@ -9978,40 +10246,40 @@
         <v>104</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+104</v>
       </c>
       <c r="Q68" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+104</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+137</v>
       </c>
       <c r="B69">
         <v>65</v>
       </c>
       <c r="C69" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.4899999999999598E-2</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.76000000000000023</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.1800000000000001</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.250000000000001E-2</v>
       </c>
       <c r="G69" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.5999999999999994E-3</v>
       </c>
       <c r="H69" s="7">
@@ -10021,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="9">
-        <f t="shared" ref="J69:J91" si="25">J61+5</f>
+        <f t="shared" ref="J69:J91" si="27">J61+5</f>
         <v>37</v>
       </c>
       <c r="K69" s="1">
@@ -10038,40 +10306,40 @@
         <v>108</v>
       </c>
       <c r="P69" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+108</v>
       </c>
       <c r="Q69" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+108</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+138</v>
       </c>
       <c r="B70">
         <v>66</v>
       </c>
       <c r="C70" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.9299999999999651E-2</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.77000000000000024</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18500000000000011</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.300000000000001E-2</v>
       </c>
       <c r="G70" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.6999999999999993E-3</v>
       </c>
       <c r="H70" s="7">
@@ -10081,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="K70" s="1">
@@ -10098,40 +10366,40 @@
         <v>112</v>
       </c>
       <c r="P70" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="Q70" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+112</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+139</v>
       </c>
       <c r="B71">
         <v>67</v>
       </c>
       <c r="C71" s="23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.6999999999995925E-3</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.78000000000000025</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.19000000000000011</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.350000000000001E-2</v>
       </c>
       <c r="G71" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.7999999999999991E-3</v>
       </c>
       <c r="H71" s="7">
@@ -10141,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="K71" s="1">
@@ -10158,17 +10426,17 @@
         <v>116</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1E+116</v>
       </c>
       <c r="Q71" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+116</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000003E+140</v>
       </c>
       <c r="B72">
@@ -10182,15 +10450,15 @@
         <v>0.7780999999999999</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.19500000000000012</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.4000000000000011E-2</v>
       </c>
       <c r="G72" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.8999999999999989E-3</v>
       </c>
       <c r="H72" s="7">
@@ -10200,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="K72" s="1">
@@ -10217,17 +10485,17 @@
         <v>120</v>
       </c>
       <c r="P72" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="Q72" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+120</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17.25" thickBot="1">
+    <row r="73" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+141</v>
       </c>
       <c r="B73" s="14">
@@ -10241,15 +10509,15 @@
         <v>0.77249999999999985</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.20000000000000012</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.4500000000000011E-2</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9999999999999988E-3</v>
       </c>
       <c r="H73" s="7">
@@ -10259,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="K73" s="1">
@@ -10276,17 +10544,17 @@
         <v>124</v>
       </c>
       <c r="P73" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="Q73" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+124</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+142</v>
       </c>
       <c r="B74">
@@ -10300,15 +10568,15 @@
         <v>0.76679999999999993</v>
       </c>
       <c r="E74" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.20500000000000013</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.5000000000000012E-2</v>
       </c>
       <c r="G74" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0999999999999986E-3</v>
       </c>
       <c r="H74" s="7">
@@ -10318,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="K74" s="1">
@@ -10335,17 +10603,17 @@
         <v>128</v>
       </c>
       <c r="P74" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="Q74" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+128</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+143</v>
       </c>
       <c r="B75">
@@ -10355,19 +10623,19 @@
         <v>0</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" ref="D75:D103" si="26">100%-(E75+F75+G75+H75)</f>
+        <f t="shared" ref="D75:D103" si="28">100%-(E75+F75+G75+H75)</f>
         <v>0.76109999999999989</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.21000000000000013</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.5500000000000012E-2</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.1999999999999984E-3</v>
       </c>
       <c r="H75" s="7">
@@ -10378,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>37</v>
       </c>
       <c r="K75" s="1">
@@ -10395,17 +10663,17 @@
         <v>132</v>
       </c>
       <c r="P75" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="Q75" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+132</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+144</v>
       </c>
       <c r="B76">
@@ -10415,30 +10683,30 @@
         <v>0</v>
       </c>
       <c r="D76" s="7">
+        <f t="shared" si="28"/>
+        <v>0.75539999999999985</v>
+      </c>
+      <c r="E76" s="7">
+        <f t="shared" si="22"/>
+        <v>0.21500000000000014</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="24"/>
+        <v>2.6000000000000013E-2</v>
+      </c>
+      <c r="G76" s="7">
         <f t="shared" si="26"/>
-        <v>0.75539999999999985</v>
-      </c>
-      <c r="E76" s="7">
-        <f t="shared" si="20"/>
-        <v>0.21500000000000014</v>
-      </c>
-      <c r="F76" s="7">
-        <f t="shared" si="22"/>
-        <v>2.6000000000000013E-2</v>
-      </c>
-      <c r="G76" s="7">
-        <f t="shared" si="24"/>
         <v>3.2999999999999982E-3</v>
       </c>
       <c r="H76" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="I76" s="7">
         <v>0</v>
       </c>
       <c r="J76" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
       <c r="K76" s="1">
@@ -10455,17 +10723,17 @@
         <v>136</v>
       </c>
       <c r="P76" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="Q76" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+136</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000003E+145</v>
       </c>
       <c r="B77">
@@ -10475,30 +10743,30 @@
         <v>0</v>
       </c>
       <c r="D77" s="7">
+        <f t="shared" si="28"/>
+        <v>0.74969999999999981</v>
+      </c>
+      <c r="E77" s="7">
+        <f t="shared" si="22"/>
+        <v>0.22000000000000014</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="24"/>
+        <v>2.6500000000000013E-2</v>
+      </c>
+      <c r="G77" s="7">
         <f t="shared" si="26"/>
-        <v>0.74969999999999981</v>
-      </c>
-      <c r="E77" s="7">
-        <f t="shared" si="20"/>
-        <v>0.22000000000000014</v>
-      </c>
-      <c r="F77" s="7">
-        <f t="shared" si="22"/>
-        <v>2.6500000000000013E-2</v>
-      </c>
-      <c r="G77" s="7">
-        <f t="shared" si="24"/>
         <v>3.3999999999999981E-3</v>
       </c>
       <c r="H77" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="I77" s="7">
         <v>0</v>
       </c>
       <c r="J77" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
       <c r="K77" s="1">
@@ -10515,17 +10783,17 @@
         <v>140</v>
       </c>
       <c r="P77" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="Q77" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+146</v>
       </c>
       <c r="B78">
@@ -10535,30 +10803,30 @@
         <v>0</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.74399999999999977</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.22500000000000014</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.7000000000000014E-2</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" ref="G78:H93" si="27">G77+0.0001</f>
+        <f t="shared" ref="G78:H93" si="29">G77+0.0001</f>
         <v>3.4999999999999979E-3</v>
       </c>
       <c r="H78" s="7">
+        <f t="shared" si="29"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
         <f t="shared" si="27"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0</v>
-      </c>
-      <c r="J78" s="9">
-        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="K78" s="1">
@@ -10575,17 +10843,17 @@
         <v>144</v>
       </c>
       <c r="P78" s="6">
-        <f t="shared" ref="P78" si="28">POWER(10,O78)</f>
+        <f t="shared" ref="P78" si="30">POWER(10,O78)</f>
         <v>1E+144</v>
       </c>
       <c r="Q78" s="6" t="str">
-        <f t="shared" ref="Q78" si="29">RIGHT(P78,O78)</f>
+        <f t="shared" ref="Q78" si="31">RIGHT(P78,O78)</f>
         <v>1E+144</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+147</v>
       </c>
       <c r="B79">
@@ -10595,30 +10863,30 @@
         <v>0</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.73829999999999985</v>
       </c>
       <c r="E79" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.23000000000000015</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.7500000000000014E-2</v>
       </c>
       <c r="G79" s="7">
+        <f t="shared" si="29"/>
+        <v>3.5999999999999977E-3</v>
+      </c>
+      <c r="H79" s="7">
+        <f t="shared" si="29"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="9">
         <f t="shared" si="27"/>
-        <v>3.5999999999999977E-3</v>
-      </c>
-      <c r="H79" s="7">
-        <f t="shared" si="27"/>
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="I79" s="7">
-        <v>0</v>
-      </c>
-      <c r="J79" s="9">
-        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="K79" s="1">
@@ -10635,17 +10903,17 @@
         <v>148</v>
       </c>
       <c r="P79" s="6">
-        <f t="shared" ref="P79" si="30">POWER(10,O79)</f>
+        <f t="shared" ref="P79" si="32">POWER(10,O79)</f>
         <v>1E+148</v>
       </c>
       <c r="Q79" s="6" t="str">
-        <f t="shared" ref="Q79" si="31">RIGHT(P79,O79)</f>
+        <f t="shared" ref="Q79" si="33">RIGHT(P79,O79)</f>
         <v>1E+148</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="B80">
@@ -10655,30 +10923,30 @@
         <v>0</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.73259999999999992</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.23500000000000015</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.8000000000000014E-2</v>
       </c>
       <c r="G80" s="7">
+        <f t="shared" si="29"/>
+        <v>3.6999999999999976E-3</v>
+      </c>
+      <c r="H80" s="7">
+        <f t="shared" si="29"/>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="9">
         <f t="shared" si="27"/>
-        <v>3.6999999999999976E-3</v>
-      </c>
-      <c r="H80" s="7">
-        <f t="shared" si="27"/>
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="I80" s="7">
-        <v>0</v>
-      </c>
-      <c r="J80" s="9">
-        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="K80" s="1">
@@ -10689,9 +10957,9 @@
       </c>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+149</v>
       </c>
       <c r="B81">
@@ -10701,30 +10969,30 @@
         <v>0</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.72689999999999988</v>
       </c>
       <c r="E81" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.24000000000000016</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.8500000000000015E-2</v>
       </c>
       <c r="G81" s="7">
+        <f t="shared" si="29"/>
+        <v>3.7999999999999974E-3</v>
+      </c>
+      <c r="H81" s="7">
+        <f t="shared" si="29"/>
+        <v>8.0000000000000015E-4</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
         <f t="shared" si="27"/>
-        <v>3.7999999999999974E-3</v>
-      </c>
-      <c r="H81" s="7">
-        <f t="shared" si="27"/>
-        <v>8.0000000000000015E-4</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0</v>
-      </c>
-      <c r="J81" s="9">
-        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="K81" s="1">
@@ -10735,9 +11003,9 @@
       </c>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+150</v>
       </c>
       <c r="B82">
@@ -10747,30 +11015,30 @@
         <v>0</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.72119999999999984</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.24500000000000016</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.9000000000000015E-2</v>
       </c>
       <c r="G82" s="7">
+        <f t="shared" si="29"/>
+        <v>3.8999999999999972E-3</v>
+      </c>
+      <c r="H82" s="7">
+        <f t="shared" si="29"/>
+        <v>9.0000000000000019E-4</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
         <f t="shared" si="27"/>
-        <v>3.8999999999999972E-3</v>
-      </c>
-      <c r="H82" s="7">
-        <f t="shared" si="27"/>
-        <v>9.0000000000000019E-4</v>
-      </c>
-      <c r="I82" s="7">
-        <v>0</v>
-      </c>
-      <c r="J82" s="9">
-        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="K82" s="1">
@@ -10781,9 +11049,9 @@
       </c>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" ht="17.25" thickBot="1">
+    <row r="83" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+151</v>
       </c>
       <c r="B83" s="14">
@@ -10793,30 +11061,30 @@
         <v>0</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.7154999999999998</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.25000000000000017</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2.9500000000000016E-2</v>
       </c>
       <c r="G83" s="7">
+        <f t="shared" si="29"/>
+        <v>3.9999999999999975E-3</v>
+      </c>
+      <c r="H83" s="7">
+        <f t="shared" si="29"/>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="9">
         <f t="shared" si="27"/>
-        <v>3.9999999999999975E-3</v>
-      </c>
-      <c r="H83" s="7">
-        <f t="shared" si="27"/>
-        <v>1.0000000000000002E-3</v>
-      </c>
-      <c r="I83" s="7">
-        <v>0</v>
-      </c>
-      <c r="J83" s="9">
-        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="K83" s="1">
@@ -10827,9 +11095,9 @@
       </c>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+152</v>
       </c>
       <c r="B84">
@@ -10839,30 +11107,30 @@
         <v>0</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.70979999999999976</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.25500000000000017</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.0000000000000016E-2</v>
       </c>
       <c r="G84" s="7">
+        <f t="shared" si="29"/>
+        <v>4.0999999999999977E-3</v>
+      </c>
+      <c r="H84" s="7">
+        <f t="shared" si="29"/>
+        <v>1.1000000000000003E-3</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="9">
         <f t="shared" si="27"/>
-        <v>4.0999999999999977E-3</v>
-      </c>
-      <c r="H84" s="7">
-        <f t="shared" si="27"/>
-        <v>1.1000000000000003E-3</v>
-      </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="9">
-        <f t="shared" si="25"/>
         <v>47</v>
       </c>
       <c r="K84" s="1">
@@ -10873,9 +11141,9 @@
       </c>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+153</v>
       </c>
       <c r="B85">
@@ -10885,30 +11153,30 @@
         <v>0</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.70409999999999984</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.26000000000000018</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.0500000000000017E-2</v>
       </c>
       <c r="G85" s="7">
+        <f t="shared" si="29"/>
+        <v>4.199999999999998E-3</v>
+      </c>
+      <c r="H85" s="7">
+        <f t="shared" si="29"/>
+        <v>1.2000000000000003E-3</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
         <f t="shared" si="27"/>
-        <v>4.199999999999998E-3</v>
-      </c>
-      <c r="H85" s="7">
-        <f t="shared" si="27"/>
-        <v>1.2000000000000003E-3</v>
-      </c>
-      <c r="I85" s="7">
-        <v>0</v>
-      </c>
-      <c r="J85" s="9">
-        <f t="shared" si="25"/>
         <v>47</v>
       </c>
       <c r="K85" s="1">
@@ -10919,9 +11187,9 @@
       </c>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+154</v>
       </c>
       <c r="B86">
@@ -10931,30 +11199,30 @@
         <v>0</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.69839999999999969</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.26500000000000018</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.1000000000000017E-2</v>
       </c>
       <c r="G86" s="7">
+        <f t="shared" si="29"/>
+        <v>4.2999999999999983E-3</v>
+      </c>
+      <c r="H86" s="7">
+        <f t="shared" si="29"/>
+        <v>1.3000000000000004E-3</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
         <f t="shared" si="27"/>
-        <v>4.2999999999999983E-3</v>
-      </c>
-      <c r="H86" s="7">
-        <f t="shared" si="27"/>
-        <v>1.3000000000000004E-3</v>
-      </c>
-      <c r="I86" s="7">
-        <v>0</v>
-      </c>
-      <c r="J86" s="9">
-        <f t="shared" si="25"/>
         <v>47</v>
       </c>
       <c r="K86" s="1">
@@ -10965,9 +11233,9 @@
       </c>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+155</v>
       </c>
       <c r="B87">
@@ -10977,30 +11245,30 @@
         <v>0</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.69269999999999976</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.27000000000000018</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.1500000000000014E-2</v>
       </c>
       <c r="G87" s="7">
+        <f t="shared" si="29"/>
+        <v>4.3999999999999985E-3</v>
+      </c>
+      <c r="H87" s="7">
+        <f t="shared" si="29"/>
+        <v>1.4000000000000004E-3</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="9">
         <f t="shared" si="27"/>
-        <v>4.3999999999999985E-3</v>
-      </c>
-      <c r="H87" s="7">
-        <f t="shared" si="27"/>
-        <v>1.4000000000000004E-3</v>
-      </c>
-      <c r="I87" s="7">
-        <v>0</v>
-      </c>
-      <c r="J87" s="9">
-        <f t="shared" si="25"/>
         <v>47</v>
       </c>
       <c r="K87" s="1">
@@ -11011,9 +11279,9 @@
       </c>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+156</v>
       </c>
       <c r="B88">
@@ -11023,30 +11291,30 @@
         <v>0</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.68699999999999983</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.27500000000000019</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.2000000000000015E-2</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.4999999999999988E-3</v>
       </c>
       <c r="H88" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5000000000000005E-3</v>
       </c>
       <c r="I88" s="7">
         <v>1E-4</v>
       </c>
       <c r="J88" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
       <c r="K88" s="1">
@@ -11057,9 +11325,9 @@
       </c>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+157</v>
       </c>
       <c r="B89">
@@ -11069,30 +11337,30 @@
         <v>0</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.68129999999999979</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.28000000000000019</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.2500000000000015E-2</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.5999999999999991E-3</v>
       </c>
       <c r="H89" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.6000000000000005E-3</v>
       </c>
       <c r="I89" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="J89" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
       <c r="K89" s="1">
@@ -11103,9 +11371,9 @@
       </c>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+158</v>
       </c>
       <c r="B90">
@@ -11115,30 +11383,30 @@
         <v>0</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.67559999999999976</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.2850000000000002</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.6999999999999993E-3</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.7000000000000006E-3</v>
       </c>
       <c r="I90" s="7">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="J90" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
       <c r="K90" s="1">
@@ -11149,9 +11417,9 @@
       </c>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+159</v>
       </c>
       <c r="B91">
@@ -11161,30 +11429,30 @@
         <v>0</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.66989999999999972</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.2900000000000002</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.3500000000000016E-2</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="H91" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.8000000000000006E-3</v>
       </c>
       <c r="I91" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="J91" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
       <c r="K91" s="1">
@@ -11195,9 +11463,9 @@
       </c>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+160</v>
       </c>
       <c r="B92">
@@ -11207,23 +11475,23 @@
         <v>0</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.66419999999999968</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.29500000000000021</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.4000000000000016E-2</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="H92" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.9000000000000006E-3</v>
       </c>
       <c r="I92" s="7">
@@ -11241,9 +11509,9 @@
       </c>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" ht="17.25" thickBot="1">
+    <row r="93" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002E+161</v>
       </c>
       <c r="B93" s="14">
@@ -11253,30 +11521,30 @@
         <v>0</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.65849999999999975</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.30000000000000021</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.4500000000000017E-2</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H93" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.0000000000000005E-3</v>
       </c>
       <c r="I93" s="7">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" ref="J93:J103" si="32">J85+6</f>
+        <f t="shared" ref="J93:J103" si="34">J85+6</f>
         <v>53</v>
       </c>
       <c r="K93" s="1">
@@ -11287,9 +11555,9 @@
       </c>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="B94">
@@ -11299,30 +11567,30 @@
         <v>0</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.65279999999999982</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.30500000000000022</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" ref="G94:H103" si="33">G93+0.0001</f>
+        <f t="shared" ref="G94:H103" si="35">G93+0.0001</f>
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="I94" s="7">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="J94" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>53</v>
       </c>
       <c r="K94" s="1">
@@ -11333,9 +11601,9 @@
       </c>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="B95">
@@ -11345,30 +11613,30 @@
         <v>0</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.64709999999999979</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.31000000000000022</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.5500000000000018E-2</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2000000000000006E-3</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="I95" s="7">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="J95" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>53</v>
       </c>
       <c r="K95" s="1">
@@ -11379,9 +11647,9 @@
       </c>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+164</v>
       </c>
       <c r="B96">
@@ -11391,30 +11659,30 @@
         <v>0</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.64139999999999975</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.31500000000000022</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.6000000000000018E-2</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3000000000000009E-3</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.3E-3</v>
       </c>
       <c r="I96" s="7">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="J96" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>53</v>
       </c>
       <c r="K96" s="1">
@@ -11425,9 +11693,9 @@
       </c>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="B97">
@@ -11437,30 +11705,30 @@
         <v>0</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.63569999999999971</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.32000000000000023</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.6500000000000019E-2</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4000000000000012E-3</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="I97" s="7">
         <v>1E-3</v>
       </c>
       <c r="J97" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>53</v>
       </c>
       <c r="K97" s="1">
@@ -11471,9 +11739,9 @@
       </c>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+166</v>
       </c>
       <c r="B98">
@@ -11483,30 +11751,30 @@
         <v>0</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.62999999999999967</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.32500000000000023</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5000000000000014E-3</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.4999999999999996E-3</v>
       </c>
       <c r="I98" s="7">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="J98" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>53</v>
       </c>
       <c r="K98" s="1">
@@ -11517,9 +11785,9 @@
       </c>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1E+167</v>
       </c>
       <c r="B99">
@@ -11529,30 +11797,30 @@
         <v>0</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.62429999999999974</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.33000000000000024</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.7500000000000019E-2</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.6000000000000017E-3</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.5999999999999994E-3</v>
       </c>
       <c r="I99" s="7">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="J99" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>53</v>
       </c>
       <c r="K99" s="1">
@@ -11563,9 +11831,9 @@
       </c>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="B100">
@@ -11575,30 +11843,30 @@
         <v>0</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.61859999999999982</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.33500000000000024</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.800000000000002E-2</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.7000000000000019E-3</v>
       </c>
       <c r="H100" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.6999999999999993E-3</v>
       </c>
       <c r="I100" s="7">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J100" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>59</v>
       </c>
       <c r="K100" s="1">
@@ -11609,9 +11877,9 @@
       </c>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="B101">
@@ -11621,30 +11889,30 @@
         <v>0</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.61289999999999967</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.34000000000000025</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.850000000000002E-2</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.8000000000000022E-3</v>
       </c>
       <c r="H101" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.7999999999999991E-3</v>
       </c>
       <c r="I101" s="7">
         <v>1.4E-3</v>
       </c>
       <c r="J101" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>59</v>
       </c>
       <c r="K101" s="1">
@@ -11655,9 +11923,9 @@
       </c>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="B102">
@@ -11667,30 +11935,30 @@
         <v>0</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.60719999999999974</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.34500000000000025</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.9000000000000021E-2</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.9000000000000025E-3</v>
       </c>
       <c r="H102" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.8999999999999989E-3</v>
       </c>
       <c r="I102" s="7">
         <v>1.5E-3</v>
       </c>
       <c r="J102" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>59</v>
       </c>
       <c r="K102" s="1">
@@ -11701,9 +11969,9 @@
       </c>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13" ht="17.25" thickBot="1">
+    <row r="103" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="B103" s="14">
@@ -11713,30 +11981,30 @@
         <v>0</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.6014999999999997</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.35000000000000026</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.9500000000000021E-2</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.0000000000000027E-3</v>
       </c>
       <c r="H103" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.9999999999999988E-3</v>
       </c>
       <c r="I103" s="7">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="J103" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>59</v>
       </c>
       <c r="K103" s="1">

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3DBF4C-B372-4C0C-AE8A-D25392C272D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5245F3C-422A-4B74-A18D-8706B849D071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3754,7 +3754,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B93" si="1">B49</f>
+        <f t="shared" ref="B50:B97" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D93" si="3">D77*10</f>
+        <f t="shared" ref="D78:D97" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -6302,6 +6302,242 @@
       </c>
       <c r="O93" s="1">
         <f>VLOOKUP(A93,Balance1!$B:$L,11,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+164</v>
+      </c>
+      <c r="E94">
+        <v>20400</v>
+      </c>
+      <c r="F94" s="10">
+        <f>VLOOKUP(A94,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="10">
+        <f>VLOOKUP(A94,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.64139999999999975</v>
+      </c>
+      <c r="H94" s="10">
+        <f>VLOOKUP(A94,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.31500000000000022</v>
+      </c>
+      <c r="I94" s="10">
+        <f>VLOOKUP(A94,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.6000000000000018E-2</v>
+      </c>
+      <c r="J94" s="10">
+        <f>VLOOKUP(A94,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.3000000000000009E-3</v>
+      </c>
+      <c r="K94" s="10">
+        <f>VLOOKUP(A94,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.3E-3</v>
+      </c>
+      <c r="L94" s="10">
+        <f>VLOOKUP(A94,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M94" s="9">
+        <f>VLOOKUP(A94,Balance1!$B:$K,9,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="N94" s="1">
+        <f>VLOOKUP(A94,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O94" s="1">
+        <f>VLOOKUP(A94,Balance1!$B:$L,11,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="E95" s="2">
+        <v>20600</v>
+      </c>
+      <c r="F95" s="10">
+        <f>VLOOKUP(A95,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="10">
+        <f>VLOOKUP(A95,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.63569999999999971</v>
+      </c>
+      <c r="H95" s="10">
+        <f>VLOOKUP(A95,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.32000000000000023</v>
+      </c>
+      <c r="I95" s="10">
+        <f>VLOOKUP(A95,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.6500000000000019E-2</v>
+      </c>
+      <c r="J95" s="10">
+        <f>VLOOKUP(A95,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.4000000000000012E-3</v>
+      </c>
+      <c r="K95" s="10">
+        <f>VLOOKUP(A95,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="L95" s="10">
+        <f>VLOOKUP(A95,Balance1!$B:$K,8,FALSE)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="M95" s="9">
+        <f>VLOOKUP(A95,Balance1!$B:$K,9,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="N95" s="1">
+        <f>VLOOKUP(A95,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O95" s="1">
+        <f>VLOOKUP(A95,Balance1!$B:$L,11,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+166</v>
+      </c>
+      <c r="E96">
+        <v>20800</v>
+      </c>
+      <c r="F96" s="10">
+        <f>VLOOKUP(A96,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="10">
+        <f>VLOOKUP(A96,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.62999999999999967</v>
+      </c>
+      <c r="H96" s="10">
+        <f>VLOOKUP(A96,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.32500000000000023</v>
+      </c>
+      <c r="I96" s="10">
+        <f>VLOOKUP(A96,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.7000000000000019E-2</v>
+      </c>
+      <c r="J96" s="10">
+        <f>VLOOKUP(A96,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.5000000000000014E-3</v>
+      </c>
+      <c r="K96" s="10">
+        <f>VLOOKUP(A96,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="L96" s="10">
+        <f>VLOOKUP(A96,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="M96" s="9">
+        <f>VLOOKUP(A96,Balance1!$B:$K,9,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="N96" s="1">
+        <f>VLOOKUP(A96,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O96" s="1">
+        <f>VLOOKUP(A96,Balance1!$B:$L,11,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="26">
+        <f t="shared" si="3"/>
+        <v>1E+167</v>
+      </c>
+      <c r="E97">
+        <v>21000</v>
+      </c>
+      <c r="F97" s="10">
+        <f>VLOOKUP(A97,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <f>VLOOKUP(A97,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.62429999999999974</v>
+      </c>
+      <c r="H97" s="10">
+        <f>VLOOKUP(A97,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.33000000000000024</v>
+      </c>
+      <c r="I97" s="10">
+        <f>VLOOKUP(A97,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.7500000000000019E-2</v>
+      </c>
+      <c r="J97" s="10">
+        <f>VLOOKUP(A97,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.6000000000000017E-3</v>
+      </c>
+      <c r="K97" s="10">
+        <f>VLOOKUP(A97,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.5999999999999994E-3</v>
+      </c>
+      <c r="L97" s="10">
+        <f>VLOOKUP(A97,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M97" s="9">
+        <f>VLOOKUP(A97,Balance1!$B:$K,9,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="N97" s="1">
+        <f>VLOOKUP(A97,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O97" s="1">
+        <f>VLOOKUP(A97,Balance1!$B:$L,11,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6312,7 +6548,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D93">
+  <conditionalFormatting sqref="D2:E85 D86:D97">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5245F3C-422A-4B74-A18D-8706B849D071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB867A1-A79B-4F40-995D-C33B5D532E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,14 +995,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N95" sqref="N95"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
@@ -1019,7 +1019,7 @@
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3749,12 +3749,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B97" si="1">B49</f>
+        <f t="shared" ref="B50:B101" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D97" si="3">D77*10</f>
+        <f t="shared" ref="D78:D101" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -5420,7 +5420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6539,6 +6539,242 @@
       <c r="O97" s="1">
         <f>VLOOKUP(A97,Balance1!$B:$L,11,FALSE)</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>4</v>
+      </c>
+      <c r="D98" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="E98">
+        <v>21200</v>
+      </c>
+      <c r="F98" s="10">
+        <f>VLOOKUP(A98,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="10">
+        <f>VLOOKUP(A98,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.61859999999999982</v>
+      </c>
+      <c r="H98" s="10">
+        <f>VLOOKUP(A98,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.33500000000000024</v>
+      </c>
+      <c r="I98" s="10">
+        <f>VLOOKUP(A98,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.800000000000002E-2</v>
+      </c>
+      <c r="J98" s="10">
+        <f>VLOOKUP(A98,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.7000000000000019E-3</v>
+      </c>
+      <c r="K98" s="10">
+        <f>VLOOKUP(A98,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.6999999999999993E-3</v>
+      </c>
+      <c r="L98" s="10">
+        <f>VLOOKUP(A98,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M98" s="9">
+        <f>VLOOKUP(A98,Balance1!$B:$K,9,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N98" s="1">
+        <f>VLOOKUP(A98,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O98" s="1">
+        <f>VLOOKUP(A98,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="E99">
+        <v>21400</v>
+      </c>
+      <c r="F99" s="10">
+        <f>VLOOKUP(A99,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="10">
+        <f>VLOOKUP(A99,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.61289999999999967</v>
+      </c>
+      <c r="H99" s="10">
+        <f>VLOOKUP(A99,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.34000000000000025</v>
+      </c>
+      <c r="I99" s="10">
+        <f>VLOOKUP(A99,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.850000000000002E-2</v>
+      </c>
+      <c r="J99" s="10">
+        <f>VLOOKUP(A99,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.8000000000000022E-3</v>
+      </c>
+      <c r="K99" s="10">
+        <f>VLOOKUP(A99,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.7999999999999991E-3</v>
+      </c>
+      <c r="L99" s="10">
+        <f>VLOOKUP(A99,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="M99" s="9">
+        <f>VLOOKUP(A99,Balance1!$B:$K,9,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N99" s="1">
+        <f>VLOOKUP(A99,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O99" s="1">
+        <f>VLOOKUP(A99,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="26">
+        <f t="shared" si="3"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="E100">
+        <v>21600</v>
+      </c>
+      <c r="F100" s="10">
+        <f>VLOOKUP(A100,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="10">
+        <f>VLOOKUP(A100,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.60719999999999974</v>
+      </c>
+      <c r="H100" s="10">
+        <f>VLOOKUP(A100,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.34500000000000025</v>
+      </c>
+      <c r="I100" s="10">
+        <f>VLOOKUP(A100,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.9000000000000021E-2</v>
+      </c>
+      <c r="J100" s="10">
+        <f>VLOOKUP(A100,Balance1!$B:$K,6,FALSE)</f>
+        <v>5.9000000000000025E-3</v>
+      </c>
+      <c r="K100" s="10">
+        <f>VLOOKUP(A100,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.8999999999999989E-3</v>
+      </c>
+      <c r="L100" s="10">
+        <f>VLOOKUP(A100,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="M100" s="9">
+        <f>VLOOKUP(A100,Balance1!$B:$K,9,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N100" s="1">
+        <f>VLOOKUP(A100,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O100" s="1">
+        <f>VLOOKUP(A100,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="E101">
+        <v>21800</v>
+      </c>
+      <c r="F101" s="10">
+        <f>VLOOKUP(A101,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="10">
+        <f>VLOOKUP(A101,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.6014999999999997</v>
+      </c>
+      <c r="H101" s="10">
+        <f>VLOOKUP(A101,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.35000000000000026</v>
+      </c>
+      <c r="I101" s="10">
+        <f>VLOOKUP(A101,Balance1!$B:$K,5,FALSE)</f>
+        <v>3.9500000000000021E-2</v>
+      </c>
+      <c r="J101" s="10">
+        <f>VLOOKUP(A101,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.0000000000000027E-3</v>
+      </c>
+      <c r="K101" s="10">
+        <f>VLOOKUP(A101,Balance1!$B:$K,7,FALSE)</f>
+        <v>2.9999999999999988E-3</v>
+      </c>
+      <c r="L101" s="10">
+        <f>VLOOKUP(A101,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M101" s="9">
+        <f>VLOOKUP(A101,Balance1!$B:$K,9,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N101" s="1">
+        <f>VLOOKUP(A101,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O101" s="1">
+        <f>VLOOKUP(A101,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6548,7 +6784,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D97">
+  <conditionalFormatting sqref="D2:E85 D86:D101">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6560,13 +6796,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
-  <dimension ref="A2:AB103"/>
+  <dimension ref="A2:AB123"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
@@ -6582,7 +6818,7 @@
     <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="C2" t="s">
         <v>49</v>
       </c>
@@ -6608,7 +6844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -6648,7 +6884,7 @@
       <c r="M3" s="8"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="B4">
         <v>0</v>
       </c>
@@ -6693,7 +6929,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28">
       <c r="B5">
         <v>1</v>
       </c>
@@ -6739,7 +6975,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28">
       <c r="B6">
         <v>2</v>
       </c>
@@ -6781,7 +7017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28">
       <c r="B7">
         <v>3</v>
       </c>
@@ -6823,7 +7059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28">
       <c r="B8">
         <v>4</v>
       </c>
@@ -6865,7 +7101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28">
       <c r="B9">
         <v>5</v>
       </c>
@@ -6905,7 +7141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="B10">
         <v>6</v>
       </c>
@@ -6944,7 +7180,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28">
       <c r="B11">
         <v>7</v>
       </c>
@@ -7016,7 +7252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28">
       <c r="B12">
         <v>8</v>
       </c>
@@ -7096,7 +7332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="17.25" thickBot="1">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -7177,7 +7413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28">
       <c r="B14">
         <v>10</v>
       </c>
@@ -7259,7 +7495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28">
       <c r="B15">
         <v>11</v>
       </c>
@@ -7341,7 +7577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28">
       <c r="B16">
         <v>12</v>
       </c>
@@ -7423,7 +7659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28">
       <c r="B17">
         <v>13</v>
       </c>
@@ -7505,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28">
       <c r="B18">
         <v>14</v>
       </c>
@@ -7587,7 +7823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28">
       <c r="B19">
         <v>15</v>
       </c>
@@ -7644,7 +7880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28">
       <c r="B20">
         <v>16</v>
       </c>
@@ -7681,7 +7917,7 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28">
       <c r="B21">
         <v>17</v>
       </c>
@@ -7724,7 +7960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28">
       <c r="B22">
         <v>18</v>
       </c>
@@ -7797,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:28" ht="17.25" thickBot="1">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -7884,7 +8120,7 @@
         <v>7.8676557086167754E-6</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28">
       <c r="B24">
         <v>20</v>
       </c>
@@ -7971,7 +8207,7 @@
         <v>1.2588249133786841E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28">
       <c r="B25">
         <v>21</v>
       </c>
@@ -8058,7 +8294,7 @@
         <v>2.0141198614058945E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28">
       <c r="B26">
         <v>22</v>
       </c>
@@ -8145,7 +8381,7 @@
         <v>3.2225917782494312E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28">
       <c r="B27">
         <v>23</v>
       </c>
@@ -8232,7 +8468,7 @@
         <v>0.51561468451990899</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28">
       <c r="B28">
         <v>24</v>
       </c>
@@ -8319,7 +8555,7 @@
         <v>8.2498349523185439</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28">
       <c r="B29">
         <v>25</v>
       </c>
@@ -8406,7 +8642,7 @@
         <v>131.9973592370967</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28">
       <c r="B30">
         <v>26</v>
       </c>
@@ -8461,7 +8697,7 @@
         <v>263.99471847419341</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28">
       <c r="B31">
         <v>27</v>
       </c>
@@ -8502,7 +8738,7 @@
       </c>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:28">
       <c r="B32">
         <v>28</v>
       </c>
@@ -8539,7 +8775,7 @@
       </c>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="17.25" thickBot="1">
       <c r="B33" s="14">
         <v>29</v>
       </c>
@@ -8576,7 +8812,7 @@
       </c>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="B34">
         <v>30</v>
       </c>
@@ -8613,7 +8849,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="B35">
         <v>31</v>
       </c>
@@ -8650,7 +8886,7 @@
       </c>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="B36">
         <v>32</v>
       </c>
@@ -8687,7 +8923,7 @@
       </c>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="B37">
         <v>33</v>
       </c>
@@ -8724,7 +8960,7 @@
       </c>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="B38">
         <v>34</v>
       </c>
@@ -8761,7 +8997,7 @@
       </c>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27">
       <c r="B39">
         <v>35</v>
       </c>
@@ -8798,7 +9034,7 @@
       </c>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27">
       <c r="B40">
         <v>36</v>
       </c>
@@ -8835,7 +9071,7 @@
       </c>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27">
       <c r="B41">
         <v>37</v>
       </c>
@@ -8878,7 +9114,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" ht="17.25" thickBot="1">
       <c r="A42">
         <v>1.0000000000000002E+110</v>
       </c>
@@ -8927,7 +9163,7 @@
       <c r="Q42" s="4"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:27" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" ht="18" thickTop="1" thickBot="1">
       <c r="A43">
         <v>1.0000000000000002E+111</v>
       </c>
@@ -8982,7 +9218,7 @@
       </c>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27">
       <c r="A44">
         <f>A43*10</f>
         <v>1.0000000000000001E+112</v>
@@ -9041,9 +9277,9 @@
       </c>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27">
       <c r="A45">
-        <f t="shared" ref="A45:A103" si="19">A44*10</f>
+        <f t="shared" ref="A45:A108" si="19">A44*10</f>
         <v>1.0000000000000002E+113</v>
       </c>
       <c r="B45">
@@ -9058,7 +9294,7 @@
         <v>0.52</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" ref="E45:E103" si="22">E44+0.005</f>
+        <f t="shared" ref="E45:E108" si="22">E44+0.005</f>
         <v>0.06</v>
       </c>
       <c r="F45" s="7">
@@ -9102,7 +9338,7 @@
       </c>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27">
       <c r="A46">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+114</v>
@@ -9123,7 +9359,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" ref="F46:F103" si="24">F45+0.0005</f>
+        <f t="shared" ref="F46:F109" si="24">F45+0.0005</f>
         <v>1.1000000000000001E-2</v>
       </c>
       <c r="G46" s="7">
@@ -9163,7 +9399,7 @@
       </c>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27">
       <c r="A47">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+115</v>
@@ -9224,7 +9460,7 @@
       </c>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27">
       <c r="A48">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+116</v>
@@ -9289,7 +9525,7 @@
       <c r="Z48" s="22"/>
       <c r="AA48" s="22"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="A49">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+117</v>
@@ -9350,7 +9586,7 @@
       </c>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+118</v>
@@ -9410,7 +9646,7 @@
         <v>1E+32</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="A51">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+119</v>
@@ -9470,7 +9706,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+120</v>
@@ -9530,7 +9766,7 @@
         <v>1E+40</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" ht="17.25" thickBot="1">
       <c r="A53">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+121</v>
@@ -9590,7 +9826,7 @@
         <v>1E+44</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20">
       <c r="A54">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+122</v>
@@ -9650,7 +9886,7 @@
         <v>1E+48</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="A55">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+123</v>
@@ -9710,7 +9946,7 @@
         <v>1E+52</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+124</v>
@@ -9770,7 +10006,7 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="A57">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+125</v>
@@ -9830,7 +10066,7 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20">
       <c r="A58">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+126</v>
@@ -9890,7 +10126,7 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+127</v>
@@ -9950,7 +10186,7 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="A60">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+128</v>
@@ -10010,7 +10246,7 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61">
         <f t="shared" si="19"/>
         <v>1E+129</v>
@@ -10070,7 +10306,7 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20">
       <c r="A62">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+130</v>
@@ -10130,7 +10366,7 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="17.25" thickBot="1">
       <c r="A63">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+131</v>
@@ -10190,7 +10426,7 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="A64">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+132</v>
@@ -10250,7 +10486,7 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="A65">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+133</v>
@@ -10310,7 +10546,7 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="A66">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+134</v>
@@ -10370,7 +10606,7 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+135</v>
@@ -10430,7 +10666,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="A68">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+136</v>
@@ -10490,7 +10726,7 @@
         <v>1E+104</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="A69">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+137</v>
@@ -10550,7 +10786,7 @@
         <v>1E+108</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17">
       <c r="A70">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+138</v>
@@ -10610,7 +10846,7 @@
         <v>1E+112</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="A71">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+139</v>
@@ -10670,7 +10906,7 @@
         <v>1E+116</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="A72">
         <f t="shared" si="19"/>
         <v>1.0000000000000003E+140</v>
@@ -10729,7 +10965,7 @@
         <v>1E+120</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="17.25" thickBot="1">
       <c r="A73">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+141</v>
@@ -10788,7 +11024,7 @@
         <v>1E+124</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="A74">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+142</v>
@@ -10847,7 +11083,7 @@
         <v>1E+128</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+143</v>
@@ -10907,7 +11143,7 @@
         <v>1E+132</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="A76">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+144</v>
@@ -10967,7 +11203,7 @@
         <v>1E+136</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="A77">
         <f t="shared" si="19"/>
         <v>1.0000000000000003E+145</v>
@@ -11027,7 +11263,7 @@
         <v>1E+140</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17">
       <c r="A78">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+146</v>
@@ -11087,7 +11323,7 @@
         <v>1E+144</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="A79">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+147</v>
@@ -11147,7 +11383,7 @@
         <v>1E+148</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17">
       <c r="A80">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+148</v>
@@ -11193,7 +11429,7 @@
       </c>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+149</v>
@@ -11239,7 +11475,7 @@
       </c>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+150</v>
@@ -11285,7 +11521,7 @@
       </c>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="17.25" thickBot="1">
       <c r="A83">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+151</v>
@@ -11331,7 +11567,7 @@
       </c>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+152</v>
@@ -11377,7 +11613,7 @@
       </c>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+153</v>
@@ -11423,7 +11659,7 @@
       </c>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+154</v>
@@ -11469,7 +11705,7 @@
       </c>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+155</v>
@@ -11515,7 +11751,7 @@
       </c>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+156</v>
@@ -11561,7 +11797,7 @@
       </c>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+157</v>
@@ -11607,7 +11843,7 @@
       </c>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+158</v>
@@ -11653,7 +11889,7 @@
       </c>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+159</v>
@@ -11699,7 +11935,7 @@
       </c>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+160</v>
@@ -11745,7 +11981,7 @@
       </c>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="17.25" thickBot="1">
       <c r="A93">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+161</v>
@@ -11780,7 +12016,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" ref="J93:J103" si="34">J85+6</f>
+        <f t="shared" ref="J93:J123" si="34">J85+6</f>
         <v>53</v>
       </c>
       <c r="K93" s="1">
@@ -11791,7 +12027,7 @@
       </c>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+162</v>
@@ -11837,7 +12073,7 @@
       </c>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+163</v>
@@ -11883,7 +12119,7 @@
       </c>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+164</v>
@@ -11929,7 +12165,7 @@
       </c>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+165</v>
@@ -11975,7 +12211,7 @@
       </c>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+166</v>
@@ -12021,7 +12257,7 @@
       </c>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99">
         <f t="shared" si="19"/>
         <v>1E+167</v>
@@ -12067,7 +12303,7 @@
       </c>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100">
         <f t="shared" si="19"/>
         <v>9.9999999999999993E+167</v>
@@ -12109,11 +12345,12 @@
         <v>9028</v>
       </c>
       <c r="L100">
+        <f>L68+1</f>
         <v>4</v>
       </c>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101">
         <f t="shared" si="19"/>
         <v>9.9999999999999993E+168</v>
@@ -12155,11 +12392,12 @@
         <v>9028</v>
       </c>
       <c r="L101">
+        <f t="shared" ref="L101:L123" si="36">L69+1</f>
         <v>4</v>
       </c>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="A102">
         <f t="shared" si="19"/>
         <v>9.999999999999999E+169</v>
@@ -12201,11 +12439,12 @@
         <v>9028</v>
       </c>
       <c r="L102">
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="17.25" thickBot="1">
       <c r="A103">
         <f t="shared" si="19"/>
         <v>9.9999999999999995E+170</v>
@@ -12247,18 +12486,939 @@
         <v>9028</v>
       </c>
       <c r="L103">
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="M103" s="7"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
+        <f t="shared" si="19"/>
+        <v>9.9999999999999991E+171</v>
+      </c>
+      <c r="B104">
+        <v>100</v>
+      </c>
+      <c r="C104" s="23">
+        <v>0</v>
+      </c>
+      <c r="D104" s="7">
+        <f t="shared" ref="D104:D123" si="37">100%-(E104+F104+G104+H104)</f>
+        <v>0.59579999999999966</v>
+      </c>
+      <c r="E104" s="7">
+        <f t="shared" si="22"/>
+        <v>0.35500000000000026</v>
+      </c>
+      <c r="F104" s="7">
+        <f t="shared" si="24"/>
+        <v>4.0000000000000022E-2</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" ref="G104:H104" si="38">G103+0.0001</f>
+        <v>6.100000000000003E-3</v>
+      </c>
+      <c r="H104" s="7">
+        <f t="shared" si="38"/>
+        <v>3.0999999999999986E-3</v>
+      </c>
+      <c r="I104" s="7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J104" s="9">
+        <f t="shared" si="34"/>
+        <v>59</v>
+      </c>
+      <c r="K104" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
+        <f t="shared" si="19"/>
+        <v>9.9999999999999988E+172</v>
+      </c>
+      <c r="B105">
+        <v>101</v>
+      </c>
+      <c r="C105" s="23">
+        <v>0</v>
+      </c>
+      <c r="D105" s="7">
+        <f t="shared" si="37"/>
+        <v>0.59009999999999974</v>
+      </c>
+      <c r="E105" s="7">
+        <f t="shared" si="22"/>
+        <v>0.36000000000000026</v>
+      </c>
+      <c r="F105" s="7">
+        <f t="shared" si="24"/>
+        <v>4.0500000000000022E-2</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" ref="G105:H105" si="39">G104+0.0001</f>
+        <v>6.2000000000000033E-3</v>
+      </c>
+      <c r="H105" s="7">
+        <f t="shared" si="39"/>
+        <v>3.1999999999999984E-3</v>
+      </c>
+      <c r="I105" s="7">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J105" s="9">
+        <f t="shared" si="34"/>
+        <v>59</v>
+      </c>
+      <c r="K105" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
+        <f t="shared" si="19"/>
+        <v>9.9999999999999985E+173</v>
+      </c>
+      <c r="B106">
+        <v>102</v>
+      </c>
+      <c r="C106" s="23">
+        <v>0</v>
+      </c>
+      <c r="D106" s="7">
+        <f t="shared" si="37"/>
+        <v>0.58439999999999959</v>
+      </c>
+      <c r="E106" s="7">
+        <f t="shared" si="22"/>
+        <v>0.36500000000000027</v>
+      </c>
+      <c r="F106" s="7">
+        <f t="shared" si="24"/>
+        <v>4.1000000000000023E-2</v>
+      </c>
+      <c r="G106" s="7">
+        <f t="shared" ref="G106:H106" si="40">G105+0.0001</f>
+        <v>6.3000000000000035E-3</v>
+      </c>
+      <c r="H106" s="7">
+        <f t="shared" si="40"/>
+        <v>3.2999999999999982E-3</v>
+      </c>
+      <c r="I106" s="7">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J106" s="9">
+        <f t="shared" si="34"/>
+        <v>59</v>
+      </c>
+      <c r="K106" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
+        <f t="shared" si="19"/>
+        <v>9.9999999999999994E+174</v>
+      </c>
+      <c r="B107">
+        <v>103</v>
+      </c>
+      <c r="C107" s="23">
+        <v>0</v>
+      </c>
+      <c r="D107" s="7">
+        <f t="shared" si="37"/>
+        <v>0.57869999999999966</v>
+      </c>
+      <c r="E107" s="7">
+        <f t="shared" si="22"/>
+        <v>0.37000000000000027</v>
+      </c>
+      <c r="F107" s="7">
+        <f t="shared" si="24"/>
+        <v>4.1500000000000023E-2</v>
+      </c>
+      <c r="G107" s="7">
+        <f t="shared" ref="G107:H107" si="41">G106+0.0001</f>
+        <v>6.4000000000000038E-3</v>
+      </c>
+      <c r="H107" s="7">
+        <f t="shared" si="41"/>
+        <v>3.3999999999999981E-3</v>
+      </c>
+      <c r="I107" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="J107" s="9">
+        <f t="shared" si="34"/>
+        <v>59</v>
+      </c>
+      <c r="K107" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <f t="shared" si="19"/>
+        <v>1E+176</v>
+      </c>
+      <c r="B108">
+        <v>104</v>
+      </c>
+      <c r="C108" s="23">
+        <v>0</v>
+      </c>
+      <c r="D108" s="7">
+        <f t="shared" si="37"/>
+        <v>0.57299999999999973</v>
+      </c>
+      <c r="E108" s="7">
+        <f t="shared" si="22"/>
+        <v>0.37500000000000028</v>
+      </c>
+      <c r="F108" s="7">
+        <f t="shared" si="24"/>
+        <v>4.2000000000000023E-2</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" ref="G108:H108" si="42">G107+0.0001</f>
+        <v>6.500000000000004E-3</v>
+      </c>
+      <c r="H108" s="7">
+        <f t="shared" si="42"/>
+        <v>3.4999999999999979E-3</v>
+      </c>
+      <c r="I108" s="7">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" si="34"/>
+        <v>65</v>
+      </c>
+      <c r="K108" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
+        <f t="shared" ref="A109:A123" si="43">A108*10</f>
+        <v>1E+177</v>
+      </c>
+      <c r="B109">
+        <v>105</v>
+      </c>
+      <c r="C109" s="23">
+        <v>0</v>
+      </c>
+      <c r="D109" s="7">
+        <f t="shared" si="37"/>
+        <v>0.56729999999999969</v>
+      </c>
+      <c r="E109" s="7">
+        <f t="shared" ref="E109:E123" si="44">E108+0.005</f>
+        <v>0.38000000000000028</v>
+      </c>
+      <c r="F109" s="7">
+        <f t="shared" si="24"/>
+        <v>4.2500000000000024E-2</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" ref="G109:H109" si="45">G108+0.0001</f>
+        <v>6.6000000000000043E-3</v>
+      </c>
+      <c r="H109" s="7">
+        <f t="shared" si="45"/>
+        <v>3.5999999999999977E-3</v>
+      </c>
+      <c r="I109" s="7">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J109" s="9">
+        <f t="shared" si="34"/>
+        <v>65</v>
+      </c>
+      <c r="K109" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="B110">
+        <v>106</v>
+      </c>
+      <c r="C110" s="23">
+        <v>0</v>
+      </c>
+      <c r="D110" s="7">
+        <f t="shared" si="37"/>
+        <v>0.56159999999999966</v>
+      </c>
+      <c r="E110" s="7">
+        <f t="shared" si="44"/>
+        <v>0.38500000000000029</v>
+      </c>
+      <c r="F110" s="7">
+        <f t="shared" ref="F110:F123" si="46">F109+0.0005</f>
+        <v>4.3000000000000024E-2</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" ref="G110:H110" si="47">G109+0.0001</f>
+        <v>6.7000000000000046E-3</v>
+      </c>
+      <c r="H110" s="7">
+        <f t="shared" si="47"/>
+        <v>3.6999999999999976E-3</v>
+      </c>
+      <c r="I110" s="7">
+        <v>2.3E-3</v>
+      </c>
+      <c r="J110" s="9">
+        <f t="shared" si="34"/>
+        <v>65</v>
+      </c>
+      <c r="K110" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+179</v>
+      </c>
+      <c r="B111">
+        <v>107</v>
+      </c>
+      <c r="C111" s="23">
+        <v>0</v>
+      </c>
+      <c r="D111" s="7">
+        <f t="shared" si="37"/>
+        <v>0.55589999999999962</v>
+      </c>
+      <c r="E111" s="7">
+        <f t="shared" si="44"/>
+        <v>0.39000000000000029</v>
+      </c>
+      <c r="F111" s="7">
+        <f t="shared" si="46"/>
+        <v>4.3500000000000025E-2</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" ref="G111:H111" si="48">G110+0.0001</f>
+        <v>6.8000000000000048E-3</v>
+      </c>
+      <c r="H111" s="7">
+        <f t="shared" si="48"/>
+        <v>3.7999999999999974E-3</v>
+      </c>
+      <c r="I111" s="7">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="J111" s="9">
+        <f t="shared" si="34"/>
+        <v>65</v>
+      </c>
+      <c r="K111" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+180</v>
+      </c>
+      <c r="B112">
+        <v>108</v>
+      </c>
+      <c r="C112" s="23">
+        <v>0</v>
+      </c>
+      <c r="D112" s="7">
+        <f t="shared" si="37"/>
+        <v>0.55019999999999958</v>
+      </c>
+      <c r="E112" s="7">
+        <f t="shared" si="44"/>
+        <v>0.3950000000000003</v>
+      </c>
+      <c r="F112" s="7">
+        <f t="shared" si="46"/>
+        <v>4.4000000000000025E-2</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" ref="G112:H112" si="49">G111+0.0001</f>
+        <v>6.9000000000000051E-3</v>
+      </c>
+      <c r="H112" s="7">
+        <f t="shared" si="49"/>
+        <v>3.8999999999999972E-3</v>
+      </c>
+      <c r="I112" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J112" s="9">
+        <f t="shared" si="34"/>
+        <v>65</v>
+      </c>
+      <c r="K112" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A113">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+181</v>
+      </c>
+      <c r="B113" s="14">
+        <v>109</v>
+      </c>
+      <c r="C113" s="23">
+        <v>0</v>
+      </c>
+      <c r="D113" s="7">
+        <f t="shared" si="37"/>
+        <v>0.54449999999999965</v>
+      </c>
+      <c r="E113" s="7">
+        <f t="shared" si="44"/>
+        <v>0.4000000000000003</v>
+      </c>
+      <c r="F113" s="7">
+        <f t="shared" si="46"/>
+        <v>4.4500000000000026E-2</v>
+      </c>
+      <c r="G113" s="7">
+        <f t="shared" ref="G113:H113" si="50">G112+0.0001</f>
+        <v>7.0000000000000053E-3</v>
+      </c>
+      <c r="H113" s="7">
+        <f t="shared" si="50"/>
+        <v>3.9999999999999975E-3</v>
+      </c>
+      <c r="I113" s="7">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J113" s="9">
+        <f t="shared" si="34"/>
+        <v>65</v>
+      </c>
+      <c r="K113" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="B114">
+        <v>110</v>
+      </c>
+      <c r="C114" s="23">
+        <v>0</v>
+      </c>
+      <c r="D114" s="7">
+        <f t="shared" si="37"/>
+        <v>0.53879999999999972</v>
+      </c>
+      <c r="E114" s="7">
+        <f t="shared" si="44"/>
+        <v>0.4050000000000003</v>
+      </c>
+      <c r="F114" s="7">
+        <f t="shared" si="46"/>
+        <v>4.5000000000000026E-2</v>
+      </c>
+      <c r="G114" s="7">
+        <f t="shared" ref="G114:H114" si="51">G113+0.0001</f>
+        <v>7.1000000000000056E-3</v>
+      </c>
+      <c r="H114" s="7">
+        <f t="shared" si="51"/>
+        <v>4.0999999999999977E-3</v>
+      </c>
+      <c r="I114" s="7">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="J114" s="9">
+        <f t="shared" si="34"/>
+        <v>65</v>
+      </c>
+      <c r="K114" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="B115">
+        <v>111</v>
+      </c>
+      <c r="C115" s="23">
+        <v>0</v>
+      </c>
+      <c r="D115" s="7">
+        <f t="shared" si="37"/>
+        <v>0.53309999999999969</v>
+      </c>
+      <c r="E115" s="7">
+        <f t="shared" si="44"/>
+        <v>0.41000000000000031</v>
+      </c>
+      <c r="F115" s="7">
+        <f t="shared" si="46"/>
+        <v>4.5500000000000027E-2</v>
+      </c>
+      <c r="G115" s="7">
+        <f t="shared" ref="G115:H115" si="52">G114+0.0001</f>
+        <v>7.2000000000000059E-3</v>
+      </c>
+      <c r="H115" s="7">
+        <f t="shared" si="52"/>
+        <v>4.199999999999998E-3</v>
+      </c>
+      <c r="I115" s="7">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J115" s="9">
+        <f t="shared" si="34"/>
+        <v>65</v>
+      </c>
+      <c r="K115" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <f t="shared" si="43"/>
+        <v>1E+184</v>
+      </c>
+      <c r="B116">
+        <v>112</v>
+      </c>
+      <c r="C116" s="23">
+        <v>0</v>
+      </c>
+      <c r="D116" s="7">
+        <f t="shared" si="37"/>
+        <v>0.52739999999999965</v>
+      </c>
+      <c r="E116" s="7">
+        <f t="shared" si="44"/>
+        <v>0.41500000000000031</v>
+      </c>
+      <c r="F116" s="7">
+        <f t="shared" si="46"/>
+        <v>4.6000000000000027E-2</v>
+      </c>
+      <c r="G116" s="7">
+        <f t="shared" ref="G116:H116" si="53">G115+0.0001</f>
+        <v>7.3000000000000061E-3</v>
+      </c>
+      <c r="H116" s="7">
+        <f t="shared" si="53"/>
+        <v>4.2999999999999983E-3</v>
+      </c>
+      <c r="I116" s="7">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J116" s="9">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+      <c r="K116" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="B117">
+        <v>113</v>
+      </c>
+      <c r="C117" s="23">
+        <v>0</v>
+      </c>
+      <c r="D117" s="7">
+        <f t="shared" si="37"/>
+        <v>0.52169999999999961</v>
+      </c>
+      <c r="E117" s="7">
+        <f t="shared" si="44"/>
+        <v>0.42000000000000032</v>
+      </c>
+      <c r="F117" s="7">
+        <f t="shared" si="46"/>
+        <v>4.6500000000000027E-2</v>
+      </c>
+      <c r="G117" s="7">
+        <f t="shared" ref="G117:H117" si="54">G116+0.0001</f>
+        <v>7.4000000000000064E-3</v>
+      </c>
+      <c r="H117" s="7">
+        <f t="shared" si="54"/>
+        <v>4.3999999999999985E-3</v>
+      </c>
+      <c r="I117" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J117" s="9">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+      <c r="K117" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="B118">
+        <v>114</v>
+      </c>
+      <c r="C118" s="23">
+        <v>0</v>
+      </c>
+      <c r="D118" s="7">
+        <f t="shared" si="37"/>
+        <v>0.51599999999999957</v>
+      </c>
+      <c r="E118" s="7">
+        <f t="shared" si="44"/>
+        <v>0.42500000000000032</v>
+      </c>
+      <c r="F118" s="7">
+        <f t="shared" si="46"/>
+        <v>4.7000000000000028E-2</v>
+      </c>
+      <c r="G118" s="7">
+        <f t="shared" ref="G118:H118" si="55">G117+0.0001</f>
+        <v>7.5000000000000067E-3</v>
+      </c>
+      <c r="H118" s="7">
+        <f t="shared" si="55"/>
+        <v>4.4999999999999988E-3</v>
+      </c>
+      <c r="I118" s="7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="J118" s="9">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+      <c r="K118" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999991E+186</v>
+      </c>
+      <c r="B119">
+        <v>115</v>
+      </c>
+      <c r="C119" s="23">
+        <v>0</v>
+      </c>
+      <c r="D119" s="7">
+        <f t="shared" si="37"/>
+        <v>0.51029999999999964</v>
+      </c>
+      <c r="E119" s="7">
+        <f t="shared" si="44"/>
+        <v>0.43000000000000033</v>
+      </c>
+      <c r="F119" s="7">
+        <f t="shared" si="46"/>
+        <v>4.7500000000000028E-2</v>
+      </c>
+      <c r="G119" s="7">
+        <f t="shared" ref="G119:H119" si="56">G118+0.0001</f>
+        <v>7.6000000000000069E-3</v>
+      </c>
+      <c r="H119" s="7">
+        <f t="shared" si="56"/>
+        <v>4.5999999999999991E-3</v>
+      </c>
+      <c r="I119" s="7">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J119" s="9">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+      <c r="K119" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999987E+187</v>
+      </c>
+      <c r="B120">
+        <v>116</v>
+      </c>
+      <c r="C120" s="23">
+        <v>0</v>
+      </c>
+      <c r="D120" s="7">
+        <f t="shared" si="37"/>
+        <v>0.50459999999999972</v>
+      </c>
+      <c r="E120" s="7">
+        <f t="shared" si="44"/>
+        <v>0.43500000000000033</v>
+      </c>
+      <c r="F120" s="7">
+        <f t="shared" si="46"/>
+        <v>4.8000000000000029E-2</v>
+      </c>
+      <c r="G120" s="7">
+        <f t="shared" ref="G120:H120" si="57">G119+0.0001</f>
+        <v>7.7000000000000072E-3</v>
+      </c>
+      <c r="H120" s="7">
+        <f t="shared" si="57"/>
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="I120" s="7">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J120" s="9">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+      <c r="K120" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <f t="shared" si="43"/>
+        <v>9.999999999999999E+188</v>
+      </c>
+      <c r="B121">
+        <v>117</v>
+      </c>
+      <c r="C121" s="23">
+        <v>0</v>
+      </c>
+      <c r="D121" s="7">
+        <f t="shared" si="37"/>
+        <v>0.49889999999999957</v>
+      </c>
+      <c r="E121" s="7">
+        <f t="shared" si="44"/>
+        <v>0.44000000000000034</v>
+      </c>
+      <c r="F121" s="7">
+        <f t="shared" si="46"/>
+        <v>4.8500000000000029E-2</v>
+      </c>
+      <c r="G121" s="7">
+        <f t="shared" ref="G121:H121" si="58">G120+0.0001</f>
+        <v>7.8000000000000074E-3</v>
+      </c>
+      <c r="H121" s="7">
+        <f t="shared" si="58"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I121" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J121" s="9">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+      <c r="K121" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999987E+189</v>
+      </c>
+      <c r="B122">
+        <v>118</v>
+      </c>
+      <c r="C122" s="23">
+        <v>0</v>
+      </c>
+      <c r="D122" s="7">
+        <f t="shared" si="37"/>
+        <v>0.49319999999999964</v>
+      </c>
+      <c r="E122" s="7">
+        <f t="shared" si="44"/>
+        <v>0.44500000000000034</v>
+      </c>
+      <c r="F122" s="7">
+        <f t="shared" si="46"/>
+        <v>4.900000000000003E-2</v>
+      </c>
+      <c r="G122" s="7">
+        <f t="shared" ref="G122:H122" si="59">G121+0.0001</f>
+        <v>7.9000000000000077E-3</v>
+      </c>
+      <c r="H122" s="7">
+        <f t="shared" si="59"/>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="I122" s="7">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J122" s="9">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+      <c r="K122" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A123">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999991E+190</v>
+      </c>
+      <c r="B123" s="14">
+        <v>119</v>
+      </c>
+      <c r="C123" s="23">
+        <v>0</v>
+      </c>
+      <c r="D123" s="7">
+        <f t="shared" si="37"/>
+        <v>0.4874999999999996</v>
+      </c>
+      <c r="E123" s="7">
+        <f t="shared" si="44"/>
+        <v>0.45000000000000034</v>
+      </c>
+      <c r="F123" s="7">
+        <f t="shared" si="46"/>
+        <v>4.950000000000003E-2</v>
+      </c>
+      <c r="G123" s="7">
+        <f t="shared" ref="G123:H123" si="60">G122+0.0001</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="H123" s="7">
+        <f t="shared" si="60"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I123" s="7">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="J123" s="9">
+        <f t="shared" si="34"/>
+        <v>71</v>
+      </c>
+      <c r="K123" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101">
+  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B43 B52:B53 B62:B63 B72:B73 B82:B83 B92:B93 B102:B103">
+  <conditionalFormatting sqref="B42:B43 B52:B53 B62:B63 B72:B73 B82:B83 B92:B93 B102:B103 B112:B113 B122:B123">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB867A1-A79B-4F40-995D-C33B5D532E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D52668-6885-416F-99CE-C42E66FF2D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3754,7 +3754,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B101" si="1">B49</f>
+        <f t="shared" ref="B50:B109" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D101" si="3">D77*10</f>
+        <f t="shared" ref="D78:D109" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -6774,6 +6774,478 @@
       </c>
       <c r="O101" s="1">
         <f>VLOOKUP(A101,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999991E+171</v>
+      </c>
+      <c r="E102">
+        <v>22000</v>
+      </c>
+      <c r="F102" s="10">
+        <f>VLOOKUP(A102,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="10">
+        <f>VLOOKUP(A102,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.59579999999999966</v>
+      </c>
+      <c r="H102" s="10">
+        <f>VLOOKUP(A102,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.35500000000000026</v>
+      </c>
+      <c r="I102" s="10">
+        <f>VLOOKUP(A102,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.0000000000000022E-2</v>
+      </c>
+      <c r="J102" s="10">
+        <f>VLOOKUP(A102,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.100000000000003E-3</v>
+      </c>
+      <c r="K102" s="10">
+        <f>VLOOKUP(A102,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.0999999999999986E-3</v>
+      </c>
+      <c r="L102" s="10">
+        <f>VLOOKUP(A102,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M102" s="9">
+        <f>VLOOKUP(A102,Balance1!$B:$K,9,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N102" s="1">
+        <f>VLOOKUP(A102,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O102" s="1">
+        <f>VLOOKUP(A102,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999988E+172</v>
+      </c>
+      <c r="E103">
+        <v>22200</v>
+      </c>
+      <c r="F103" s="10">
+        <f>VLOOKUP(A103,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="10">
+        <f>VLOOKUP(A103,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.59009999999999974</v>
+      </c>
+      <c r="H103" s="10">
+        <f>VLOOKUP(A103,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.36000000000000026</v>
+      </c>
+      <c r="I103" s="10">
+        <f>VLOOKUP(A103,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.0500000000000022E-2</v>
+      </c>
+      <c r="J103" s="10">
+        <f>VLOOKUP(A103,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.2000000000000033E-3</v>
+      </c>
+      <c r="K103" s="10">
+        <f>VLOOKUP(A103,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.1999999999999984E-3</v>
+      </c>
+      <c r="L103" s="10">
+        <f>VLOOKUP(A103,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="M103" s="9">
+        <f>VLOOKUP(A103,Balance1!$B:$K,9,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N103" s="1">
+        <f>VLOOKUP(A103,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O103" s="1">
+        <f>VLOOKUP(A103,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999985E+173</v>
+      </c>
+      <c r="E104">
+        <v>22400</v>
+      </c>
+      <c r="F104" s="10">
+        <f>VLOOKUP(A104,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="10">
+        <f>VLOOKUP(A104,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.58439999999999959</v>
+      </c>
+      <c r="H104" s="10">
+        <f>VLOOKUP(A104,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.36500000000000027</v>
+      </c>
+      <c r="I104" s="10">
+        <f>VLOOKUP(A104,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.1000000000000023E-2</v>
+      </c>
+      <c r="J104" s="10">
+        <f>VLOOKUP(A104,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.3000000000000035E-3</v>
+      </c>
+      <c r="K104" s="10">
+        <f>VLOOKUP(A104,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.2999999999999982E-3</v>
+      </c>
+      <c r="L104" s="10">
+        <f>VLOOKUP(A104,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="M104" s="9">
+        <f>VLOOKUP(A104,Balance1!$B:$K,9,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N104" s="1">
+        <f>VLOOKUP(A104,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O104" s="1">
+        <f>VLOOKUP(A104,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>4</v>
+      </c>
+      <c r="D105" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999994E+174</v>
+      </c>
+      <c r="E105">
+        <v>22600</v>
+      </c>
+      <c r="F105" s="10">
+        <f>VLOOKUP(A105,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="10">
+        <f>VLOOKUP(A105,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.57869999999999966</v>
+      </c>
+      <c r="H105" s="10">
+        <f>VLOOKUP(A105,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.37000000000000027</v>
+      </c>
+      <c r="I105" s="10">
+        <f>VLOOKUP(A105,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.1500000000000023E-2</v>
+      </c>
+      <c r="J105" s="10">
+        <f>VLOOKUP(A105,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.4000000000000038E-3</v>
+      </c>
+      <c r="K105" s="10">
+        <f>VLOOKUP(A105,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.3999999999999981E-3</v>
+      </c>
+      <c r="L105" s="10">
+        <f>VLOOKUP(A105,Balance1!$B:$K,8,FALSE)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="M105" s="9">
+        <f>VLOOKUP(A105,Balance1!$B:$K,9,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N105" s="1">
+        <f>VLOOKUP(A105,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O105" s="1">
+        <f>VLOOKUP(A105,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>4</v>
+      </c>
+      <c r="D106" s="26">
+        <f t="shared" si="3"/>
+        <v>1E+176</v>
+      </c>
+      <c r="E106">
+        <v>22800</v>
+      </c>
+      <c r="F106" s="10">
+        <f>VLOOKUP(A106,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="10">
+        <f>VLOOKUP(A106,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.57299999999999973</v>
+      </c>
+      <c r="H106" s="10">
+        <f>VLOOKUP(A106,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.37500000000000028</v>
+      </c>
+      <c r="I106" s="10">
+        <f>VLOOKUP(A106,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.2000000000000023E-2</v>
+      </c>
+      <c r="J106" s="10">
+        <f>VLOOKUP(A106,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.500000000000004E-3</v>
+      </c>
+      <c r="K106" s="10">
+        <f>VLOOKUP(A106,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.4999999999999979E-3</v>
+      </c>
+      <c r="L106" s="10">
+        <f>VLOOKUP(A106,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M106" s="9">
+        <f>VLOOKUP(A106,Balance1!$B:$K,9,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="N106" s="1">
+        <f>VLOOKUP(A106,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O106" s="1">
+        <f>VLOOKUP(A106,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4</v>
+      </c>
+      <c r="D107" s="26">
+        <f t="shared" si="3"/>
+        <v>1E+177</v>
+      </c>
+      <c r="E107">
+        <v>23000</v>
+      </c>
+      <c r="F107" s="10">
+        <f>VLOOKUP(A107,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="10">
+        <f>VLOOKUP(A107,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.56729999999999969</v>
+      </c>
+      <c r="H107" s="10">
+        <f>VLOOKUP(A107,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.38000000000000028</v>
+      </c>
+      <c r="I107" s="10">
+        <f>VLOOKUP(A107,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.2500000000000024E-2</v>
+      </c>
+      <c r="J107" s="10">
+        <f>VLOOKUP(A107,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.6000000000000043E-3</v>
+      </c>
+      <c r="K107" s="10">
+        <f>VLOOKUP(A107,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.5999999999999977E-3</v>
+      </c>
+      <c r="L107" s="10">
+        <f>VLOOKUP(A107,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="M107" s="9">
+        <f>VLOOKUP(A107,Balance1!$B:$K,9,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="N107" s="1">
+        <f>VLOOKUP(A107,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O107" s="1">
+        <f>VLOOKUP(A107,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>4</v>
+      </c>
+      <c r="D108" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="E108">
+        <v>23200</v>
+      </c>
+      <c r="F108" s="10">
+        <f>VLOOKUP(A108,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="10">
+        <f>VLOOKUP(A108,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.56159999999999966</v>
+      </c>
+      <c r="H108" s="10">
+        <f>VLOOKUP(A108,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.38500000000000029</v>
+      </c>
+      <c r="I108" s="10">
+        <f>VLOOKUP(A108,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.3000000000000024E-2</v>
+      </c>
+      <c r="J108" s="10">
+        <f>VLOOKUP(A108,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.7000000000000046E-3</v>
+      </c>
+      <c r="K108" s="10">
+        <f>VLOOKUP(A108,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.6999999999999976E-3</v>
+      </c>
+      <c r="L108" s="10">
+        <f>VLOOKUP(A108,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.3E-3</v>
+      </c>
+      <c r="M108" s="9">
+        <f>VLOOKUP(A108,Balance1!$B:$K,9,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="N108" s="1">
+        <f>VLOOKUP(A108,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O108" s="1">
+        <f>VLOOKUP(A108,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>4</v>
+      </c>
+      <c r="D109" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+179</v>
+      </c>
+      <c r="E109">
+        <v>23400</v>
+      </c>
+      <c r="F109" s="10">
+        <f>VLOOKUP(A109,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="10">
+        <f>VLOOKUP(A109,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.55589999999999962</v>
+      </c>
+      <c r="H109" s="10">
+        <f>VLOOKUP(A109,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.39000000000000029</v>
+      </c>
+      <c r="I109" s="10">
+        <f>VLOOKUP(A109,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.3500000000000025E-2</v>
+      </c>
+      <c r="J109" s="10">
+        <f>VLOOKUP(A109,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.8000000000000048E-3</v>
+      </c>
+      <c r="K109" s="10">
+        <f>VLOOKUP(A109,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.7999999999999974E-3</v>
+      </c>
+      <c r="L109" s="10">
+        <f>VLOOKUP(A109,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="M109" s="9">
+        <f>VLOOKUP(A109,Balance1!$B:$K,9,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="N109" s="1">
+        <f>VLOOKUP(A109,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O109" s="1">
+        <f>VLOOKUP(A109,Balance1!$B:$L,11,FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -6784,7 +7256,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D101">
+  <conditionalFormatting sqref="D2:E85 D86:D109">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D52668-6885-416F-99CE-C42E66FF2D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7CCEB-4234-40B0-B387-0CB05DE37190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,14 +995,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
@@ -1019,7 +1019,7 @@
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3749,12 +3749,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f t="shared" ref="B50:B109" si="1">B49</f>
+        <f t="shared" ref="B50:B114" si="1">B49</f>
         <v>1-1</v>
       </c>
       <c r="C50" s="1">
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D109" si="3">D77*10</f>
+        <f t="shared" ref="D78:D117" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -5420,7 +5420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7246,6 +7246,478 @@
       </c>
       <c r="O109" s="1">
         <f>VLOOKUP(A109,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>4</v>
+      </c>
+      <c r="D110" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+180</v>
+      </c>
+      <c r="E110">
+        <v>23600</v>
+      </c>
+      <c r="F110" s="10">
+        <f>VLOOKUP(A110,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="10">
+        <f>VLOOKUP(A110,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.55019999999999958</v>
+      </c>
+      <c r="H110" s="10">
+        <f>VLOOKUP(A110,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.3950000000000003</v>
+      </c>
+      <c r="I110" s="10">
+        <f>VLOOKUP(A110,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.4000000000000025E-2</v>
+      </c>
+      <c r="J110" s="10">
+        <f>VLOOKUP(A110,Balance1!$B:$K,6,FALSE)</f>
+        <v>6.9000000000000051E-3</v>
+      </c>
+      <c r="K110" s="10">
+        <f>VLOOKUP(A110,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.8999999999999972E-3</v>
+      </c>
+      <c r="L110" s="10">
+        <f>VLOOKUP(A110,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M110" s="9">
+        <f>VLOOKUP(A110,Balance1!$B:$K,9,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="N110" s="1">
+        <f>VLOOKUP(A110,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O110" s="1">
+        <f>VLOOKUP(A110,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4</v>
+      </c>
+      <c r="D111" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+181</v>
+      </c>
+      <c r="E111">
+        <v>23800</v>
+      </c>
+      <c r="F111" s="10">
+        <f>VLOOKUP(A111,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="10">
+        <f>VLOOKUP(A111,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.54449999999999965</v>
+      </c>
+      <c r="H111" s="10">
+        <f>VLOOKUP(A111,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.4000000000000003</v>
+      </c>
+      <c r="I111" s="10">
+        <f>VLOOKUP(A111,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.4500000000000026E-2</v>
+      </c>
+      <c r="J111" s="10">
+        <f>VLOOKUP(A111,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.0000000000000053E-3</v>
+      </c>
+      <c r="K111" s="10">
+        <f>VLOOKUP(A111,Balance1!$B:$K,7,FALSE)</f>
+        <v>3.9999999999999975E-3</v>
+      </c>
+      <c r="L111" s="10">
+        <f>VLOOKUP(A111,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="M111" s="9">
+        <f>VLOOKUP(A111,Balance1!$B:$K,9,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="N111" s="1">
+        <f>VLOOKUP(A111,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O111" s="1">
+        <f>VLOOKUP(A111,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C112" s="1">
+        <v>4</v>
+      </c>
+      <c r="D112" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="E112">
+        <v>24000</v>
+      </c>
+      <c r="F112" s="10">
+        <f>VLOOKUP(A112,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="10">
+        <f>VLOOKUP(A112,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.53879999999999972</v>
+      </c>
+      <c r="H112" s="10">
+        <f>VLOOKUP(A112,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.4050000000000003</v>
+      </c>
+      <c r="I112" s="10">
+        <f>VLOOKUP(A112,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.5000000000000026E-2</v>
+      </c>
+      <c r="J112" s="10">
+        <f>VLOOKUP(A112,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.1000000000000056E-3</v>
+      </c>
+      <c r="K112" s="10">
+        <f>VLOOKUP(A112,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.0999999999999977E-3</v>
+      </c>
+      <c r="L112" s="10">
+        <f>VLOOKUP(A112,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="M112" s="9">
+        <f>VLOOKUP(A112,Balance1!$B:$K,9,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="N112" s="1">
+        <f>VLOOKUP(A112,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O112" s="1">
+        <f>VLOOKUP(A112,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>4</v>
+      </c>
+      <c r="D113" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="E113">
+        <v>24200</v>
+      </c>
+      <c r="F113" s="10">
+        <f>VLOOKUP(A113,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="10">
+        <f>VLOOKUP(A113,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.53309999999999969</v>
+      </c>
+      <c r="H113" s="10">
+        <f>VLOOKUP(A113,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.41000000000000031</v>
+      </c>
+      <c r="I113" s="10">
+        <f>VLOOKUP(A113,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.5500000000000027E-2</v>
+      </c>
+      <c r="J113" s="10">
+        <f>VLOOKUP(A113,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.2000000000000059E-3</v>
+      </c>
+      <c r="K113" s="10">
+        <f>VLOOKUP(A113,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.199999999999998E-3</v>
+      </c>
+      <c r="L113" s="10">
+        <f>VLOOKUP(A113,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.8E-3</v>
+      </c>
+      <c r="M113" s="9">
+        <f>VLOOKUP(A113,Balance1!$B:$K,9,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="N113" s="1">
+        <f>VLOOKUP(A113,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O113" s="1">
+        <f>VLOOKUP(A113,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>4</v>
+      </c>
+      <c r="D114" s="26">
+        <f t="shared" si="3"/>
+        <v>1E+184</v>
+      </c>
+      <c r="E114">
+        <v>24400</v>
+      </c>
+      <c r="F114" s="10">
+        <f>VLOOKUP(A114,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="10">
+        <f>VLOOKUP(A114,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.52739999999999965</v>
+      </c>
+      <c r="H114" s="10">
+        <f>VLOOKUP(A114,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.41500000000000031</v>
+      </c>
+      <c r="I114" s="10">
+        <f>VLOOKUP(A114,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.6000000000000027E-2</v>
+      </c>
+      <c r="J114" s="10">
+        <f>VLOOKUP(A114,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.3000000000000061E-3</v>
+      </c>
+      <c r="K114" s="10">
+        <f>VLOOKUP(A114,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.2999999999999983E-3</v>
+      </c>
+      <c r="L114" s="10">
+        <f>VLOOKUP(A114,Balance1!$B:$K,8,FALSE)</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M114" s="9">
+        <f>VLOOKUP(A114,Balance1!$B:$K,9,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="N114" s="1">
+        <f>VLOOKUP(A114,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O114" s="1">
+        <f>VLOOKUP(A114,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="25" t="str">
+        <f t="shared" ref="B115:B117" si="4">B114</f>
+        <v>1-1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4</v>
+      </c>
+      <c r="D115" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="E115">
+        <v>24600</v>
+      </c>
+      <c r="F115" s="10">
+        <f>VLOOKUP(A115,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="10">
+        <f>VLOOKUP(A115,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.52169999999999961</v>
+      </c>
+      <c r="H115" s="10">
+        <f>VLOOKUP(A115,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.42000000000000032</v>
+      </c>
+      <c r="I115" s="10">
+        <f>VLOOKUP(A115,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.6500000000000027E-2</v>
+      </c>
+      <c r="J115" s="10">
+        <f>VLOOKUP(A115,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.4000000000000064E-3</v>
+      </c>
+      <c r="K115" s="10">
+        <f>VLOOKUP(A115,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.3999999999999985E-3</v>
+      </c>
+      <c r="L115" s="10">
+        <f>VLOOKUP(A115,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M115" s="9">
+        <f>VLOOKUP(A115,Balance1!$B:$K,9,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="N115" s="1">
+        <f>VLOOKUP(A115,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O115" s="1">
+        <f>VLOOKUP(A115,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>4</v>
+      </c>
+      <c r="D116" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="E116">
+        <v>24800</v>
+      </c>
+      <c r="F116" s="10">
+        <f>VLOOKUP(A116,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="10">
+        <f>VLOOKUP(A116,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.51599999999999957</v>
+      </c>
+      <c r="H116" s="10">
+        <f>VLOOKUP(A116,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.42500000000000032</v>
+      </c>
+      <c r="I116" s="10">
+        <f>VLOOKUP(A116,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.7000000000000028E-2</v>
+      </c>
+      <c r="J116" s="10">
+        <f>VLOOKUP(A116,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.5000000000000067E-3</v>
+      </c>
+      <c r="K116" s="10">
+        <f>VLOOKUP(A116,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.4999999999999988E-3</v>
+      </c>
+      <c r="L116" s="10">
+        <f>VLOOKUP(A116,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="M116" s="9">
+        <f>VLOOKUP(A116,Balance1!$B:$K,9,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="N116" s="1">
+        <f>VLOOKUP(A116,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O116" s="1">
+        <f>VLOOKUP(A116,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4</v>
+      </c>
+      <c r="D117" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999991E+186</v>
+      </c>
+      <c r="E117">
+        <v>25000</v>
+      </c>
+      <c r="F117" s="10">
+        <f>VLOOKUP(A117,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="10">
+        <f>VLOOKUP(A117,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.51029999999999964</v>
+      </c>
+      <c r="H117" s="10">
+        <f>VLOOKUP(A117,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.43000000000000033</v>
+      </c>
+      <c r="I117" s="10">
+        <f>VLOOKUP(A117,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.7500000000000028E-2</v>
+      </c>
+      <c r="J117" s="10">
+        <f>VLOOKUP(A117,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.6000000000000069E-3</v>
+      </c>
+      <c r="K117" s="10">
+        <f>VLOOKUP(A117,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.5999999999999991E-3</v>
+      </c>
+      <c r="L117" s="10">
+        <f>VLOOKUP(A117,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M117" s="9">
+        <f>VLOOKUP(A117,Balance1!$B:$K,9,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="N117" s="1">
+        <f>VLOOKUP(A117,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O117" s="1">
+        <f>VLOOKUP(A117,Balance1!$B:$L,11,FALSE)</f>
         <v>4</v>
       </c>
     </row>
@@ -7256,7 +7728,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D109">
+  <conditionalFormatting sqref="D2:E85 D86:D117">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7274,7 +7746,7 @@
       <selection activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
@@ -7290,7 +7762,7 @@
     <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>49</v>
       </c>
@@ -7316,7 +7788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -7356,7 +7828,7 @@
       <c r="M3" s="8"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -7401,7 +7873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -7447,7 +7919,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -7489,7 +7961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -7531,7 +8003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -7573,7 +8045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -7613,7 +8085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -7652,7 +8124,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -7724,7 +8196,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>8</v>
       </c>
@@ -7804,7 +8276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="17.25" thickBot="1">
+    <row r="13" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -7885,7 +8357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10</v>
       </c>
@@ -7967,7 +8439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
@@ -8049,7 +8521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>12</v>
       </c>
@@ -8131,7 +8603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>13</v>
       </c>
@@ -8213,7 +8685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
@@ -8295,7 +8767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>15</v>
       </c>
@@ -8352,7 +8824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>16</v>
       </c>
@@ -8389,7 +8861,7 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>17</v>
       </c>
@@ -8432,7 +8904,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18</v>
       </c>
@@ -8505,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="17.25" thickBot="1">
+    <row r="23" spans="2:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -8592,7 +9064,7 @@
         <v>7.8676557086167754E-6</v>
       </c>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>20</v>
       </c>
@@ -8679,7 +9151,7 @@
         <v>1.2588249133786841E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>21</v>
       </c>
@@ -8766,7 +9238,7 @@
         <v>2.0141198614058945E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>22</v>
       </c>
@@ -8853,7 +9325,7 @@
         <v>3.2225917782494312E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>23</v>
       </c>
@@ -8940,7 +9412,7 @@
         <v>0.51561468451990899</v>
       </c>
     </row>
-    <row r="28" spans="2:28">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>24</v>
       </c>
@@ -9027,7 +9499,7 @@
         <v>8.2498349523185439</v>
       </c>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>25</v>
       </c>
@@ -9114,7 +9586,7 @@
         <v>131.9973592370967</v>
       </c>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>26</v>
       </c>
@@ -9169,7 +9641,7 @@
         <v>263.99471847419341</v>
       </c>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>27</v>
       </c>
@@ -9210,7 +9682,7 @@
       </c>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>28</v>
       </c>
@@ -9247,7 +9719,7 @@
       </c>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:27" ht="17.25" thickBot="1">
+    <row r="33" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <v>29</v>
       </c>
@@ -9284,7 +9756,7 @@
       </c>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>30</v>
       </c>
@@ -9321,7 +9793,7 @@
       </c>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>31</v>
       </c>
@@ -9358,7 +9830,7 @@
       </c>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>32</v>
       </c>
@@ -9395,7 +9867,7 @@
       </c>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>33</v>
       </c>
@@ -9432,7 +9904,7 @@
       </c>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>34</v>
       </c>
@@ -9469,7 +9941,7 @@
       </c>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>35</v>
       </c>
@@ -9506,7 +9978,7 @@
       </c>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>36</v>
       </c>
@@ -9543,7 +10015,7 @@
       </c>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>37</v>
       </c>
@@ -9586,7 +10058,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="17.25" thickBot="1">
+    <row r="42" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.0000000000000002E+110</v>
       </c>
@@ -9635,7 +10107,7 @@
       <c r="Q42" s="4"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:27" ht="18" thickTop="1" thickBot="1">
+    <row r="43" spans="1:27" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.0000000000000002E+111</v>
       </c>
@@ -9690,7 +10162,7 @@
       </c>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>A43*10</f>
         <v>1.0000000000000001E+112</v>
@@ -9749,7 +10221,7 @@
       </c>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" ref="A45:A108" si="19">A44*10</f>
         <v>1.0000000000000002E+113</v>
@@ -9810,7 +10282,7 @@
       </c>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+114</v>
@@ -9871,7 +10343,7 @@
       </c>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+115</v>
@@ -9932,7 +10404,7 @@
       </c>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+116</v>
@@ -9997,7 +10469,7 @@
       <c r="Z48" s="22"/>
       <c r="AA48" s="22"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+117</v>
@@ -10058,7 +10530,7 @@
       </c>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+118</v>
@@ -10118,7 +10590,7 @@
         <v>1E+32</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+119</v>
@@ -10178,7 +10650,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+120</v>
@@ -10238,7 +10710,7 @@
         <v>1E+40</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="17.25" thickBot="1">
+    <row r="53" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+121</v>
@@ -10298,7 +10770,7 @@
         <v>1E+44</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+122</v>
@@ -10358,7 +10830,7 @@
         <v>1E+48</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+123</v>
@@ -10418,7 +10890,7 @@
         <v>1E+52</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+124</v>
@@ -10478,7 +10950,7 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+125</v>
@@ -10538,7 +11010,7 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+126</v>
@@ -10598,7 +11070,7 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+127</v>
@@ -10658,7 +11130,7 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+128</v>
@@ -10718,7 +11190,7 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="19"/>
         <v>1E+129</v>
@@ -10778,7 +11250,7 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+130</v>
@@ -10838,7 +11310,7 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="17.25" thickBot="1">
+    <row r="63" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+131</v>
@@ -10898,7 +11370,7 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+132</v>
@@ -10958,7 +11430,7 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+133</v>
@@ -11018,7 +11490,7 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+134</v>
@@ -11078,7 +11550,7 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+135</v>
@@ -11138,7 +11610,7 @@
         <v>1E+100</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+136</v>
@@ -11198,7 +11670,7 @@
         <v>1E+104</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+137</v>
@@ -11258,7 +11730,7 @@
         <v>1E+108</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+138</v>
@@ -11318,7 +11790,7 @@
         <v>1E+112</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+139</v>
@@ -11378,7 +11850,7 @@
         <v>1E+116</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="19"/>
         <v>1.0000000000000003E+140</v>
@@ -11437,7 +11909,7 @@
         <v>1E+120</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17.25" thickBot="1">
+    <row r="73" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+141</v>
@@ -11496,7 +11968,7 @@
         <v>1E+124</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+142</v>
@@ -11555,7 +12027,7 @@
         <v>1E+128</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+143</v>
@@ -11615,7 +12087,7 @@
         <v>1E+132</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+144</v>
@@ -11675,7 +12147,7 @@
         <v>1E+136</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="19"/>
         <v>1.0000000000000003E+145</v>
@@ -11735,7 +12207,7 @@
         <v>1E+140</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+146</v>
@@ -11795,7 +12267,7 @@
         <v>1E+144</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+147</v>
@@ -11855,7 +12327,7 @@
         <v>1E+148</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+148</v>
@@ -11901,7 +12373,7 @@
       </c>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+149</v>
@@ -11947,7 +12419,7 @@
       </c>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+150</v>
@@ -11993,7 +12465,7 @@
       </c>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" ht="17.25" thickBot="1">
+    <row r="83" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+151</v>
@@ -12039,7 +12511,7 @@
       </c>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+152</v>
@@ -12085,7 +12557,7 @@
       </c>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+153</v>
@@ -12131,7 +12603,7 @@
       </c>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+154</v>
@@ -12177,7 +12649,7 @@
       </c>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+155</v>
@@ -12223,7 +12695,7 @@
       </c>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+156</v>
@@ -12269,7 +12741,7 @@
       </c>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+157</v>
@@ -12315,7 +12787,7 @@
       </c>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+158</v>
@@ -12361,7 +12833,7 @@
       </c>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+159</v>
@@ -12407,7 +12879,7 @@
       </c>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+160</v>
@@ -12453,7 +12925,7 @@
       </c>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13" ht="17.25" thickBot="1">
+    <row r="93" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="19"/>
         <v>1.0000000000000002E+161</v>
@@ -12499,7 +12971,7 @@
       </c>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+162</v>
@@ -12545,7 +13017,7 @@
       </c>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+163</v>
@@ -12591,7 +13063,7 @@
       </c>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+164</v>
@@ -12637,7 +13109,7 @@
       </c>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+165</v>
@@ -12683,7 +13155,7 @@
       </c>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="19"/>
         <v>1.0000000000000001E+166</v>
@@ -12729,7 +13201,7 @@
       </c>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="19"/>
         <v>1E+167</v>
@@ -12775,7 +13247,7 @@
       </c>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="19"/>
         <v>9.9999999999999993E+167</v>
@@ -12822,7 +13294,7 @@
       </c>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="19"/>
         <v>9.9999999999999993E+168</v>
@@ -12869,7 +13341,7 @@
       </c>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="19"/>
         <v>9.999999999999999E+169</v>
@@ -12916,7 +13388,7 @@
       </c>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13" ht="17.25" thickBot="1">
+    <row r="103" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="19"/>
         <v>9.9999999999999995E+170</v>
@@ -12963,7 +13435,7 @@
       </c>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="19"/>
         <v>9.9999999999999991E+171</v>
@@ -13009,7 +13481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="19"/>
         <v>9.9999999999999988E+172</v>
@@ -13055,7 +13527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="19"/>
         <v>9.9999999999999985E+173</v>
@@ -13101,7 +13573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="19"/>
         <v>9.9999999999999994E+174</v>
@@ -13147,7 +13619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="19"/>
         <v>1E+176</v>
@@ -13193,7 +13665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" ref="A109:A123" si="43">A108*10</f>
         <v>1E+177</v>
@@ -13239,7 +13711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="43"/>
         <v>1.0000000000000001E+178</v>
@@ -13285,7 +13757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="43"/>
         <v>1.0000000000000001E+179</v>
@@ -13331,7 +13803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="43"/>
         <v>1.0000000000000001E+180</v>
@@ -13377,7 +13849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="17.25" thickBot="1">
+    <row r="113" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="43"/>
         <v>1.0000000000000001E+181</v>
@@ -13423,7 +13895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="43"/>
         <v>1.0000000000000001E+182</v>
@@ -13469,7 +13941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="43"/>
         <v>1.0000000000000001E+183</v>
@@ -13515,7 +13987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="43"/>
         <v>1E+184</v>
@@ -13561,7 +14033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="43"/>
         <v>9.9999999999999998E+184</v>
@@ -13607,7 +14079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="43"/>
         <v>9.9999999999999998E+185</v>
@@ -13653,7 +14125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="43"/>
         <v>9.9999999999999991E+186</v>
@@ -13699,7 +14171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="43"/>
         <v>9.9999999999999987E+187</v>
@@ -13745,7 +14217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="43"/>
         <v>9.999999999999999E+188</v>
@@ -13791,7 +14263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="43"/>
         <v>9.9999999999999987E+189</v>
@@ -13837,7 +14309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="17.25" thickBot="1">
+    <row r="123" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="43"/>
         <v>9.9999999999999991E+190</v>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7CCEB-4234-40B0-B387-0CB05DE37190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C780AA-023D-4711-9C94-8FFF377A3E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,38 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -995,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M111" sqref="M111"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5373,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D117" si="3">D77*10</f>
+        <f t="shared" ref="D78:D122" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -7549,7 +7580,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B117" si="4">B114</f>
+        <f t="shared" ref="B115:B122" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -7721,15 +7752,251 @@
         <v>4</v>
       </c>
     </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>4</v>
+      </c>
+      <c r="D118" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999987E+187</v>
+      </c>
+      <c r="E118">
+        <v>25200</v>
+      </c>
+      <c r="F118" s="10">
+        <f>VLOOKUP(A118,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="10">
+        <f>VLOOKUP(A118,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.50459999999999972</v>
+      </c>
+      <c r="H118" s="10">
+        <f>VLOOKUP(A118,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.43500000000000033</v>
+      </c>
+      <c r="I118" s="10">
+        <f>VLOOKUP(A118,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.8000000000000029E-2</v>
+      </c>
+      <c r="J118" s="10">
+        <f>VLOOKUP(A118,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.7000000000000072E-3</v>
+      </c>
+      <c r="K118" s="10">
+        <f>VLOOKUP(A118,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="L118" s="10">
+        <f>VLOOKUP(A118,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="M118" s="9">
+        <f>VLOOKUP(A118,Balance1!$B:$K,9,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="N118" s="1">
+        <f>VLOOKUP(A118,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O118" s="1">
+        <f>VLOOKUP(A118,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>4</v>
+      </c>
+      <c r="D119" s="26">
+        <f t="shared" si="3"/>
+        <v>9.999999999999999E+188</v>
+      </c>
+      <c r="E119">
+        <v>25400</v>
+      </c>
+      <c r="F119" s="10">
+        <f>VLOOKUP(A119,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="10">
+        <f>VLOOKUP(A119,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.49889999999999957</v>
+      </c>
+      <c r="H119" s="10">
+        <f>VLOOKUP(A119,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.44000000000000034</v>
+      </c>
+      <c r="I119" s="10">
+        <f>VLOOKUP(A119,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.8500000000000029E-2</v>
+      </c>
+      <c r="J119" s="10">
+        <f>VLOOKUP(A119,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.8000000000000074E-3</v>
+      </c>
+      <c r="K119" s="10">
+        <f>VLOOKUP(A119,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="L119" s="10">
+        <f>VLOOKUP(A119,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M119" s="9">
+        <f>VLOOKUP(A119,Balance1!$B:$K,9,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="N119" s="1">
+        <f>VLOOKUP(A119,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O119" s="1">
+        <f>VLOOKUP(A119,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>4</v>
+      </c>
+      <c r="D120" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999987E+189</v>
+      </c>
+      <c r="E120">
+        <v>25600</v>
+      </c>
+      <c r="F120" s="10">
+        <f>VLOOKUP(A120,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="10">
+        <f>VLOOKUP(A120,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.49319999999999964</v>
+      </c>
+      <c r="H120" s="10">
+        <f>VLOOKUP(A120,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.44500000000000034</v>
+      </c>
+      <c r="I120" s="10">
+        <f>VLOOKUP(A120,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.900000000000003E-2</v>
+      </c>
+      <c r="J120" s="10">
+        <f>VLOOKUP(A120,Balance1!$B:$K,6,FALSE)</f>
+        <v>7.9000000000000077E-3</v>
+      </c>
+      <c r="K120" s="10">
+        <f>VLOOKUP(A120,Balance1!$B:$K,7,FALSE)</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L120" s="10">
+        <f>VLOOKUP(A120,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M120" s="9">
+        <f>VLOOKUP(A120,Balance1!$B:$K,9,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="N120" s="1">
+        <f>VLOOKUP(A120,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O120" s="1">
+        <f>VLOOKUP(A120,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4</v>
+      </c>
+      <c r="D121" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999991E+190</v>
+      </c>
+      <c r="E121">
+        <v>25800</v>
+      </c>
+      <c r="F121" s="10">
+        <f>VLOOKUP(A121,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="10">
+        <f>VLOOKUP(A121,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.4874999999999996</v>
+      </c>
+      <c r="H121" s="10">
+        <f>VLOOKUP(A121,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.45000000000000034</v>
+      </c>
+      <c r="I121" s="10">
+        <f>VLOOKUP(A121,Balance1!$B:$K,5,FALSE)</f>
+        <v>4.950000000000003E-2</v>
+      </c>
+      <c r="J121" s="10">
+        <f>VLOOKUP(A121,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="K121" s="10">
+        <f>VLOOKUP(A121,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L121" s="10">
+        <f>VLOOKUP(A121,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="M121" s="9">
+        <f>VLOOKUP(A121,Balance1!$B:$K,9,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="N121" s="1">
+        <f>VLOOKUP(A121,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O121" s="1">
+        <f>VLOOKUP(A121,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:O1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D117">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="D2:E85 D86:D121">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14358,20 +14625,20 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B43 B52:B53 B62:B63 B72:B73 B82:B83 B92:B93 B102:B103 B112:B113 B122:B123">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$S$30=$Q$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$S$30&lt;&gt;$Q$5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C780AA-023D-4711-9C94-8FFF377A3E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636D24D-FB99-4D39-A183-F5799656F92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -595,38 +595,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1026,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5404,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D122" si="3">D77*10</f>
+        <f t="shared" ref="D78:D125" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -7580,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B122" si="4">B114</f>
+        <f t="shared" ref="B115:B125" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -7988,15 +7957,251 @@
         <v>4</v>
       </c>
     </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="E122">
+        <v>26000</v>
+      </c>
+      <c r="F122" s="10">
+        <f>VLOOKUP(A122,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="10">
+        <f>VLOOKUP(A122,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.48179999999999967</v>
+      </c>
+      <c r="H122" s="10">
+        <f>VLOOKUP(A122,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.45500000000000035</v>
+      </c>
+      <c r="I122" s="10">
+        <f>VLOOKUP(A122,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.0000000000000031E-2</v>
+      </c>
+      <c r="J122" s="10">
+        <f>VLOOKUP(A122,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.1000000000000065E-3</v>
+      </c>
+      <c r="K122" s="10">
+        <f>VLOOKUP(A122,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="L122" s="10">
+        <f>VLOOKUP(A122,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M122" s="9">
+        <f>VLOOKUP(A122,Balance1!$B:$K,9,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="N122" s="1">
+        <f>VLOOKUP(A122,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O122" s="1">
+        <f>VLOOKUP(A122,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C123" s="1">
+        <v>4</v>
+      </c>
+      <c r="D123" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999986E+192</v>
+      </c>
+      <c r="E123">
+        <v>26200</v>
+      </c>
+      <c r="F123" s="10">
+        <f>VLOOKUP(A123,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="10">
+        <f>VLOOKUP(A123,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.47609999999999963</v>
+      </c>
+      <c r="H123" s="10">
+        <f>VLOOKUP(A123,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.46000000000000035</v>
+      </c>
+      <c r="I123" s="10">
+        <f>VLOOKUP(A123,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.0500000000000031E-2</v>
+      </c>
+      <c r="J123" s="10">
+        <f>VLOOKUP(A123,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.2000000000000059E-3</v>
+      </c>
+      <c r="K123" s="10">
+        <f>VLOOKUP(A123,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="L123" s="10">
+        <f>VLOOKUP(A123,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.8E-3</v>
+      </c>
+      <c r="M123" s="9">
+        <f>VLOOKUP(A123,Balance1!$B:$K,9,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="N123" s="1">
+        <f>VLOOKUP(A123,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O123" s="1">
+        <f>VLOOKUP(A123,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4</v>
+      </c>
+      <c r="D124" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999978E+193</v>
+      </c>
+      <c r="E124">
+        <v>26400</v>
+      </c>
+      <c r="F124" s="10">
+        <f>VLOOKUP(A124,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="10">
+        <f>VLOOKUP(A124,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.47039999999999971</v>
+      </c>
+      <c r="H124" s="10">
+        <f>VLOOKUP(A124,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.46500000000000036</v>
+      </c>
+      <c r="I124" s="10">
+        <f>VLOOKUP(A124,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.1000000000000031E-2</v>
+      </c>
+      <c r="J124" s="10">
+        <f>VLOOKUP(A124,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.3000000000000053E-3</v>
+      </c>
+      <c r="K124" s="10">
+        <f>VLOOKUP(A124,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.3000000000000009E-3</v>
+      </c>
+      <c r="L124" s="10">
+        <f>VLOOKUP(A124,Balance1!$B:$K,8,FALSE)</f>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M124" s="9">
+        <f>VLOOKUP(A124,Balance1!$B:$K,9,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="N124" s="1">
+        <f>VLOOKUP(A124,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O124" s="1">
+        <f>VLOOKUP(A124,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4</v>
+      </c>
+      <c r="D125" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999985E+194</v>
+      </c>
+      <c r="E125">
+        <v>26600</v>
+      </c>
+      <c r="F125" s="10">
+        <f>VLOOKUP(A125,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="10">
+        <f>VLOOKUP(A125,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.46469999999999967</v>
+      </c>
+      <c r="H125" s="10">
+        <f>VLOOKUP(A125,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.47000000000000036</v>
+      </c>
+      <c r="I125" s="10">
+        <f>VLOOKUP(A125,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.1500000000000032E-2</v>
+      </c>
+      <c r="J125" s="10">
+        <f>VLOOKUP(A125,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.4000000000000047E-3</v>
+      </c>
+      <c r="K125" s="10">
+        <f>VLOOKUP(A125,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.4000000000000012E-3</v>
+      </c>
+      <c r="L125" s="10">
+        <f>VLOOKUP(A125,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M125" s="9">
+        <f>VLOOKUP(A125,Balance1!$B:$K,9,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="N125" s="1">
+        <f>VLOOKUP(A125,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O125" s="1">
+        <f>VLOOKUP(A125,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:O1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D121">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="D2:E85 D86:D125">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8007,10 +8212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
-  <dimension ref="A2:AB123"/>
+  <dimension ref="A2:AB145"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="N117" sqref="N117"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13227,7 +13432,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" ref="J93:J123" si="34">J85+6</f>
+        <f t="shared" ref="J93:J145" si="34">J85+6</f>
         <v>53</v>
       </c>
       <c r="K93" s="1">
@@ -13603,7 +13808,7 @@
         <v>9028</v>
       </c>
       <c r="L101">
-        <f t="shared" ref="L101:L123" si="36">L69+1</f>
+        <f t="shared" ref="L101:L145" si="36">L69+1</f>
         <v>4</v>
       </c>
       <c r="M101" s="7"/>
@@ -13934,7 +14139,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" ref="A109:A123" si="43">A108*10</f>
+        <f t="shared" ref="A109:A145" si="43">A108*10</f>
         <v>1E+177</v>
       </c>
       <c r="B109">
@@ -13948,7 +14153,7 @@
         <v>0.56729999999999969</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" ref="E109:E123" si="44">E108+0.005</f>
+        <f t="shared" ref="E109:E145" si="44">E108+0.005</f>
         <v>0.38000000000000028</v>
       </c>
       <c r="F109" s="7">
@@ -13998,7 +14203,7 @@
         <v>0.38500000000000029</v>
       </c>
       <c r="F110" s="7">
-        <f t="shared" ref="F110:F123" si="46">F109+0.0005</f>
+        <f t="shared" ref="F110:F145" si="46">F109+0.0005</f>
         <v>4.3000000000000024E-2</v>
       </c>
       <c r="G110" s="7">
@@ -14622,23 +14827,1035 @@
         <v>4</v>
       </c>
     </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="B124">
+        <v>120</v>
+      </c>
+      <c r="C124" s="23">
+        <v>0</v>
+      </c>
+      <c r="D124" s="7">
+        <f t="shared" ref="D124:D128" si="61">100%-(E124+F124+G124+H124)</f>
+        <v>0.48179999999999967</v>
+      </c>
+      <c r="E124" s="7">
+        <f t="shared" si="44"/>
+        <v>0.45500000000000035</v>
+      </c>
+      <c r="F124" s="7">
+        <f t="shared" si="46"/>
+        <v>5.0000000000000031E-2</v>
+      </c>
+      <c r="G124" s="7">
+        <f t="shared" ref="G124:H124" si="62">G123+0.0001</f>
+        <v>8.1000000000000065E-3</v>
+      </c>
+      <c r="H124" s="7">
+        <f t="shared" si="62"/>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="I124" s="7">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="J124" s="9">
+        <f t="shared" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="K124" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999986E+192</v>
+      </c>
+      <c r="B125">
+        <v>121</v>
+      </c>
+      <c r="C125" s="23">
+        <v>0</v>
+      </c>
+      <c r="D125" s="7">
+        <f t="shared" si="61"/>
+        <v>0.47609999999999963</v>
+      </c>
+      <c r="E125" s="7">
+        <f t="shared" si="44"/>
+        <v>0.46000000000000035</v>
+      </c>
+      <c r="F125" s="7">
+        <f t="shared" si="46"/>
+        <v>5.0500000000000031E-2</v>
+      </c>
+      <c r="G125" s="7">
+        <f t="shared" ref="G125:H125" si="63">G124+0.0001</f>
+        <v>8.2000000000000059E-3</v>
+      </c>
+      <c r="H125" s="7">
+        <f t="shared" si="63"/>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="I125" s="7">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J125" s="9">
+        <f t="shared" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="K125" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999978E+193</v>
+      </c>
+      <c r="B126">
+        <v>122</v>
+      </c>
+      <c r="C126" s="23">
+        <v>0</v>
+      </c>
+      <c r="D126" s="7">
+        <f t="shared" si="61"/>
+        <v>0.47039999999999971</v>
+      </c>
+      <c r="E126" s="7">
+        <f t="shared" si="44"/>
+        <v>0.46500000000000036</v>
+      </c>
+      <c r="F126" s="7">
+        <f t="shared" si="46"/>
+        <v>5.1000000000000031E-2</v>
+      </c>
+      <c r="G126" s="7">
+        <f t="shared" ref="G126:H126" si="64">G125+0.0001</f>
+        <v>8.3000000000000053E-3</v>
+      </c>
+      <c r="H126" s="7">
+        <f t="shared" si="64"/>
+        <v>5.3000000000000009E-3</v>
+      </c>
+      <c r="I126" s="7">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="J126" s="9">
+        <f t="shared" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="K126" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999985E+194</v>
+      </c>
+      <c r="B127">
+        <v>123</v>
+      </c>
+      <c r="C127" s="23">
+        <v>0</v>
+      </c>
+      <c r="D127" s="7">
+        <f t="shared" si="61"/>
+        <v>0.46469999999999967</v>
+      </c>
+      <c r="E127" s="7">
+        <f t="shared" si="44"/>
+        <v>0.47000000000000036</v>
+      </c>
+      <c r="F127" s="7">
+        <f t="shared" si="46"/>
+        <v>5.1500000000000032E-2</v>
+      </c>
+      <c r="G127" s="7">
+        <f t="shared" ref="G127:H127" si="65">G126+0.0001</f>
+        <v>8.4000000000000047E-3</v>
+      </c>
+      <c r="H127" s="7">
+        <f t="shared" si="65"/>
+        <v>5.4000000000000012E-3</v>
+      </c>
+      <c r="I127" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J127" s="9">
+        <f t="shared" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="K127" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="B128">
+        <v>124</v>
+      </c>
+      <c r="C128" s="23">
+        <v>0</v>
+      </c>
+      <c r="D128" s="7">
+        <f t="shared" si="61"/>
+        <v>0.45899999999999974</v>
+      </c>
+      <c r="E128" s="7">
+        <f t="shared" si="44"/>
+        <v>0.47500000000000037</v>
+      </c>
+      <c r="F128" s="7">
+        <f t="shared" si="46"/>
+        <v>5.2000000000000032E-2</v>
+      </c>
+      <c r="G128" s="7">
+        <f t="shared" ref="G128:H128" si="66">G127+0.0001</f>
+        <v>8.5000000000000041E-3</v>
+      </c>
+      <c r="H128" s="7">
+        <f t="shared" si="66"/>
+        <v>5.5000000000000014E-3</v>
+      </c>
+      <c r="I128" s="7">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="J128" s="9">
+        <f t="shared" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="K128" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="B129">
+        <v>125</v>
+      </c>
+      <c r="C129" s="23">
+        <v>0</v>
+      </c>
+      <c r="D129" s="7">
+        <f t="shared" ref="D129:D145" si="67">100%-(E129+F129+G129+H129)</f>
+        <v>0.45329999999999948</v>
+      </c>
+      <c r="E129" s="7">
+        <f t="shared" si="44"/>
+        <v>0.48000000000000037</v>
+      </c>
+      <c r="F129" s="7">
+        <f t="shared" si="46"/>
+        <v>5.2500000000000033E-2</v>
+      </c>
+      <c r="G129" s="7">
+        <f t="shared" ref="G129:H129" si="68">G128+0.0001</f>
+        <v>8.6000000000000035E-3</v>
+      </c>
+      <c r="H129" s="7">
+        <f t="shared" si="68"/>
+        <v>5.6000000000000017E-3</v>
+      </c>
+      <c r="I129" s="7">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="J129" s="9">
+        <f t="shared" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="K129" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="B130">
+        <v>126</v>
+      </c>
+      <c r="C130" s="23">
+        <v>0</v>
+      </c>
+      <c r="D130" s="7">
+        <f t="shared" si="67"/>
+        <v>0.44759999999999955</v>
+      </c>
+      <c r="E130" s="7">
+        <f t="shared" si="44"/>
+        <v>0.48500000000000038</v>
+      </c>
+      <c r="F130" s="7">
+        <f t="shared" si="46"/>
+        <v>5.3000000000000033E-2</v>
+      </c>
+      <c r="G130" s="7">
+        <f t="shared" ref="G130:H130" si="69">G129+0.0001</f>
+        <v>8.7000000000000029E-3</v>
+      </c>
+      <c r="H130" s="7">
+        <f t="shared" si="69"/>
+        <v>5.7000000000000019E-3</v>
+      </c>
+      <c r="I130" s="7">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J130" s="9">
+        <f t="shared" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="K130" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="B131">
+        <v>127</v>
+      </c>
+      <c r="C131" s="23">
+        <v>0</v>
+      </c>
+      <c r="D131" s="7">
+        <f t="shared" si="67"/>
+        <v>0.44189999999999952</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" si="44"/>
+        <v>0.49000000000000038</v>
+      </c>
+      <c r="F131" s="7">
+        <f t="shared" si="46"/>
+        <v>5.3500000000000034E-2</v>
+      </c>
+      <c r="G131" s="7">
+        <f t="shared" ref="G131:H131" si="70">G130+0.0001</f>
+        <v>8.8000000000000023E-3</v>
+      </c>
+      <c r="H131" s="7">
+        <f t="shared" si="70"/>
+        <v>5.8000000000000022E-3</v>
+      </c>
+      <c r="I131" s="7">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J131" s="9">
+        <f t="shared" si="34"/>
+        <v>77</v>
+      </c>
+      <c r="K131" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="B132">
+        <v>128</v>
+      </c>
+      <c r="C132" s="23">
+        <v>0</v>
+      </c>
+      <c r="D132" s="7">
+        <f t="shared" si="67"/>
+        <v>0.43619999999999959</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" si="44"/>
+        <v>0.49500000000000038</v>
+      </c>
+      <c r="F132" s="7">
+        <f t="shared" si="46"/>
+        <v>5.4000000000000034E-2</v>
+      </c>
+      <c r="G132" s="7">
+        <f t="shared" ref="G132:H132" si="71">G131+0.0001</f>
+        <v>8.9000000000000017E-3</v>
+      </c>
+      <c r="H132" s="7">
+        <f t="shared" si="71"/>
+        <v>5.9000000000000025E-3</v>
+      </c>
+      <c r="I132" s="7">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J132" s="9">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="K132" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <f t="shared" si="43"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="B133">
+        <v>129</v>
+      </c>
+      <c r="C133" s="23">
+        <v>0</v>
+      </c>
+      <c r="D133" s="7">
+        <f t="shared" si="67"/>
+        <v>0.43049999999999966</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" si="44"/>
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="F133" s="7">
+        <f t="shared" si="46"/>
+        <v>5.4500000000000035E-2</v>
+      </c>
+      <c r="G133" s="7">
+        <f t="shared" ref="G133:H133" si="72">G132+0.0001</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="H133" s="7">
+        <f t="shared" si="72"/>
+        <v>6.0000000000000027E-3</v>
+      </c>
+      <c r="I133" s="7">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="J133" s="9">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="K133" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f t="shared" si="43"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="B134">
+        <v>130</v>
+      </c>
+      <c r="C134" s="23">
+        <v>0</v>
+      </c>
+      <c r="D134" s="7">
+        <f t="shared" si="67"/>
+        <v>0.42479999999999962</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" si="44"/>
+        <v>0.50500000000000034</v>
+      </c>
+      <c r="F134" s="7">
+        <f t="shared" si="46"/>
+        <v>5.5000000000000035E-2</v>
+      </c>
+      <c r="G134" s="7">
+        <f t="shared" ref="G134:H134" si="73">G133+0.0001</f>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="H134" s="7">
+        <f t="shared" si="73"/>
+        <v>6.100000000000003E-3</v>
+      </c>
+      <c r="I134" s="7">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="J134" s="9">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="K134" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="B135">
+        <v>131</v>
+      </c>
+      <c r="C135" s="23">
+        <v>0</v>
+      </c>
+      <c r="D135" s="7">
+        <f t="shared" si="67"/>
+        <v>0.41909999999999969</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" si="44"/>
+        <v>0.51000000000000034</v>
+      </c>
+      <c r="F135" s="7">
+        <f t="shared" si="46"/>
+        <v>5.5500000000000035E-2</v>
+      </c>
+      <c r="G135" s="7">
+        <f t="shared" ref="G135:H135" si="74">G134+0.0001</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H135" s="7">
+        <f t="shared" si="74"/>
+        <v>6.2000000000000033E-3</v>
+      </c>
+      <c r="I135" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J135" s="9">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="K135" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="B136">
+        <v>132</v>
+      </c>
+      <c r="C136" s="23">
+        <v>0</v>
+      </c>
+      <c r="D136" s="7">
+        <f t="shared" si="67"/>
+        <v>0.41339999999999966</v>
+      </c>
+      <c r="E136" s="7">
+        <f t="shared" si="44"/>
+        <v>0.51500000000000035</v>
+      </c>
+      <c r="F136" s="7">
+        <f t="shared" si="46"/>
+        <v>5.6000000000000036E-2</v>
+      </c>
+      <c r="G136" s="7">
+        <f t="shared" ref="G136:H136" si="75">G135+0.0001</f>
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="H136" s="7">
+        <f t="shared" si="75"/>
+        <v>6.3000000000000035E-3</v>
+      </c>
+      <c r="I136" s="7">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="J136" s="9">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="K136" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f t="shared" si="43"/>
+        <v>1E+205</v>
+      </c>
+      <c r="B137">
+        <v>133</v>
+      </c>
+      <c r="C137" s="23">
+        <v>0</v>
+      </c>
+      <c r="D137" s="7">
+        <f t="shared" si="67"/>
+        <v>0.40769999999999973</v>
+      </c>
+      <c r="E137" s="7">
+        <f t="shared" si="44"/>
+        <v>0.52000000000000035</v>
+      </c>
+      <c r="F137" s="7">
+        <f t="shared" si="46"/>
+        <v>5.6500000000000036E-2</v>
+      </c>
+      <c r="G137" s="7">
+        <f t="shared" ref="G137:H137" si="76">G136+0.0001</f>
+        <v>9.3999999999999986E-3</v>
+      </c>
+      <c r="H137" s="7">
+        <f t="shared" si="76"/>
+        <v>6.4000000000000038E-3</v>
+      </c>
+      <c r="I137" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J137" s="9">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="K137" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f t="shared" si="43"/>
+        <v>1E+206</v>
+      </c>
+      <c r="B138">
+        <v>134</v>
+      </c>
+      <c r="C138" s="23">
+        <v>0</v>
+      </c>
+      <c r="D138" s="7">
+        <f t="shared" si="67"/>
+        <v>0.40199999999999969</v>
+      </c>
+      <c r="E138" s="7">
+        <f t="shared" si="44"/>
+        <v>0.52500000000000036</v>
+      </c>
+      <c r="F138" s="7">
+        <f t="shared" si="46"/>
+        <v>5.7000000000000037E-2</v>
+      </c>
+      <c r="G138" s="7">
+        <f t="shared" ref="G138:H138" si="77">G137+0.0001</f>
+        <v>9.499999999999998E-3</v>
+      </c>
+      <c r="H138" s="7">
+        <f t="shared" si="77"/>
+        <v>6.500000000000004E-3</v>
+      </c>
+      <c r="I138" s="7">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="J138" s="9">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="K138" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f t="shared" si="43"/>
+        <v>1E+207</v>
+      </c>
+      <c r="B139">
+        <v>135</v>
+      </c>
+      <c r="C139" s="23">
+        <v>0</v>
+      </c>
+      <c r="D139" s="7">
+        <f t="shared" si="67"/>
+        <v>0.39629999999999954</v>
+      </c>
+      <c r="E139" s="7">
+        <f t="shared" si="44"/>
+        <v>0.53000000000000036</v>
+      </c>
+      <c r="F139" s="7">
+        <f t="shared" si="46"/>
+        <v>5.7500000000000037E-2</v>
+      </c>
+      <c r="G139" s="7">
+        <f t="shared" ref="G139:H139" si="78">G138+0.0001</f>
+        <v>9.5999999999999974E-3</v>
+      </c>
+      <c r="H139" s="7">
+        <f t="shared" si="78"/>
+        <v>6.6000000000000043E-3</v>
+      </c>
+      <c r="I139" s="7">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J139" s="9">
+        <f t="shared" si="34"/>
+        <v>83</v>
+      </c>
+      <c r="K139" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="B140">
+        <v>136</v>
+      </c>
+      <c r="C140" s="23">
+        <v>0</v>
+      </c>
+      <c r="D140" s="7">
+        <f t="shared" si="67"/>
+        <v>0.3905999999999995</v>
+      </c>
+      <c r="E140" s="7">
+        <f t="shared" si="44"/>
+        <v>0.53500000000000036</v>
+      </c>
+      <c r="F140" s="7">
+        <f t="shared" si="46"/>
+        <v>5.8000000000000038E-2</v>
+      </c>
+      <c r="G140" s="7">
+        <f t="shared" ref="G140:H140" si="79">G139+0.0001</f>
+        <v>9.6999999999999968E-3</v>
+      </c>
+      <c r="H140" s="7">
+        <f t="shared" si="79"/>
+        <v>6.7000000000000046E-3</v>
+      </c>
+      <c r="I140" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="J140" s="9">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="K140" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="B141">
+        <v>137</v>
+      </c>
+      <c r="C141" s="23">
+        <v>0</v>
+      </c>
+      <c r="D141" s="7">
+        <f t="shared" si="67"/>
+        <v>0.38489999999999958</v>
+      </c>
+      <c r="E141" s="7">
+        <f t="shared" si="44"/>
+        <v>0.54000000000000037</v>
+      </c>
+      <c r="F141" s="7">
+        <f t="shared" si="46"/>
+        <v>5.8500000000000038E-2</v>
+      </c>
+      <c r="G141" s="7">
+        <f t="shared" ref="G141:H141" si="80">G140+0.0001</f>
+        <v>9.7999999999999962E-3</v>
+      </c>
+      <c r="H141" s="7">
+        <f t="shared" si="80"/>
+        <v>6.8000000000000048E-3</v>
+      </c>
+      <c r="I141" s="7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="J141" s="9">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="K141" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+210</v>
+      </c>
+      <c r="B142">
+        <v>138</v>
+      </c>
+      <c r="C142" s="23">
+        <v>0</v>
+      </c>
+      <c r="D142" s="7">
+        <f t="shared" si="67"/>
+        <v>0.37919999999999954</v>
+      </c>
+      <c r="E142" s="7">
+        <f t="shared" si="44"/>
+        <v>0.54500000000000037</v>
+      </c>
+      <c r="F142" s="7">
+        <f t="shared" si="46"/>
+        <v>5.9000000000000039E-2</v>
+      </c>
+      <c r="G142" s="7">
+        <f t="shared" ref="G142:H142" si="81">G141+0.0001</f>
+        <v>9.8999999999999956E-3</v>
+      </c>
+      <c r="H142" s="7">
+        <f t="shared" si="81"/>
+        <v>6.9000000000000051E-3</v>
+      </c>
+      <c r="I142" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="J142" s="9">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="K142" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+211</v>
+      </c>
+      <c r="B143">
+        <v>139</v>
+      </c>
+      <c r="C143" s="23">
+        <v>0</v>
+      </c>
+      <c r="D143" s="7">
+        <f t="shared" si="67"/>
+        <v>0.37349999999999961</v>
+      </c>
+      <c r="E143" s="7">
+        <f t="shared" si="44"/>
+        <v>0.55000000000000038</v>
+      </c>
+      <c r="F143" s="7">
+        <f t="shared" si="46"/>
+        <v>5.9500000000000039E-2</v>
+      </c>
+      <c r="G143" s="7">
+        <f t="shared" ref="G143:H143" si="82">G142+0.0001</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="H143" s="7">
+        <f t="shared" si="82"/>
+        <v>7.0000000000000053E-3</v>
+      </c>
+      <c r="I143" s="7">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="J143" s="9">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="K143" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+212</v>
+      </c>
+      <c r="B144">
+        <v>140</v>
+      </c>
+      <c r="C144" s="23">
+        <v>0</v>
+      </c>
+      <c r="D144" s="7">
+        <f t="shared" si="67"/>
+        <v>0.36779999999999957</v>
+      </c>
+      <c r="E144" s="7">
+        <f t="shared" si="44"/>
+        <v>0.55500000000000038</v>
+      </c>
+      <c r="F144" s="7">
+        <f t="shared" si="46"/>
+        <v>6.0000000000000039E-2</v>
+      </c>
+      <c r="G144" s="7">
+        <f t="shared" ref="G144:H144" si="83">G143+0.0001</f>
+        <v>1.0099999999999994E-2</v>
+      </c>
+      <c r="H144" s="7">
+        <f t="shared" si="83"/>
+        <v>7.1000000000000056E-3</v>
+      </c>
+      <c r="I144" s="7">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="J144" s="9">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="K144" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+213</v>
+      </c>
+      <c r="B145">
+        <v>141</v>
+      </c>
+      <c r="C145" s="23">
+        <v>0</v>
+      </c>
+      <c r="D145" s="7">
+        <f t="shared" si="67"/>
+        <v>0.36209999999999964</v>
+      </c>
+      <c r="E145" s="7">
+        <f t="shared" si="44"/>
+        <v>0.56000000000000039</v>
+      </c>
+      <c r="F145" s="7">
+        <f t="shared" si="46"/>
+        <v>6.050000000000004E-2</v>
+      </c>
+      <c r="G145" s="7">
+        <f t="shared" ref="G145:H145" si="84">G144+0.0001</f>
+        <v>1.0199999999999994E-2</v>
+      </c>
+      <c r="H145" s="7">
+        <f t="shared" si="84"/>
+        <v>7.2000000000000059E-3</v>
+      </c>
+      <c r="I145" s="7">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J145" s="9">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="K145" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121 B124:B145">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B43 B52:B53 B62:B63 B72:B73 B82:B83 B92:B93 B102:B103 B112:B113 B122:B123">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$S$30=$Q$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$S$30&lt;&gt;$Q$5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636D24D-FB99-4D39-A183-F5799656F92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA80DA6-CDBE-4538-8573-280B8124981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O125"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D125" si="3">D77*10</f>
+        <f t="shared" ref="D78:D133" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B125" si="4">B114</f>
+        <f t="shared" ref="B115:B133" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -8191,6 +8191,478 @@
       <c r="O125" s="1">
         <f>VLOOKUP(A125,Balance1!$B:$L,11,FALSE)</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4</v>
+      </c>
+      <c r="D126" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="E126">
+        <v>26800</v>
+      </c>
+      <c r="F126" s="10">
+        <f>VLOOKUP(A126,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="10">
+        <f>VLOOKUP(A126,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.45899999999999974</v>
+      </c>
+      <c r="H126" s="10">
+        <f>VLOOKUP(A126,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.47500000000000037</v>
+      </c>
+      <c r="I126" s="10">
+        <f>VLOOKUP(A126,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.2000000000000032E-2</v>
+      </c>
+      <c r="J126" s="10">
+        <f>VLOOKUP(A126,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.5000000000000041E-3</v>
+      </c>
+      <c r="K126" s="10">
+        <f>VLOOKUP(A126,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.5000000000000014E-3</v>
+      </c>
+      <c r="L126" s="10">
+        <f>VLOOKUP(A126,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M126" s="9">
+        <f>VLOOKUP(A126,Balance1!$B:$K,9,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="N126" s="1">
+        <f>VLOOKUP(A126,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O126" s="1">
+        <f>VLOOKUP(A126,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+      <c r="D127" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="E127">
+        <v>27000</v>
+      </c>
+      <c r="F127" s="10">
+        <f>VLOOKUP(A127,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="10">
+        <f>VLOOKUP(A127,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.45329999999999948</v>
+      </c>
+      <c r="H127" s="10">
+        <f>VLOOKUP(A127,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.48000000000000037</v>
+      </c>
+      <c r="I127" s="10">
+        <f>VLOOKUP(A127,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.2500000000000033E-2</v>
+      </c>
+      <c r="J127" s="10">
+        <f>VLOOKUP(A127,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.6000000000000035E-3</v>
+      </c>
+      <c r="K127" s="10">
+        <f>VLOOKUP(A127,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.6000000000000017E-3</v>
+      </c>
+      <c r="L127" s="10">
+        <f>VLOOKUP(A127,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="M127" s="9">
+        <f>VLOOKUP(A127,Balance1!$B:$K,9,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="N127" s="1">
+        <f>VLOOKUP(A127,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O127" s="1">
+        <f>VLOOKUP(A127,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>4</v>
+      </c>
+      <c r="D128" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="E128">
+        <v>27200</v>
+      </c>
+      <c r="F128" s="10">
+        <f>VLOOKUP(A128,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="10">
+        <f>VLOOKUP(A128,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.44759999999999955</v>
+      </c>
+      <c r="H128" s="10">
+        <f>VLOOKUP(A128,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.48500000000000038</v>
+      </c>
+      <c r="I128" s="10">
+        <f>VLOOKUP(A128,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.3000000000000033E-2</v>
+      </c>
+      <c r="J128" s="10">
+        <f>VLOOKUP(A128,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.7000000000000029E-3</v>
+      </c>
+      <c r="K128" s="10">
+        <f>VLOOKUP(A128,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.7000000000000019E-3</v>
+      </c>
+      <c r="L128" s="10">
+        <f>VLOOKUP(A128,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.3E-3</v>
+      </c>
+      <c r="M128" s="9">
+        <f>VLOOKUP(A128,Balance1!$B:$K,9,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="N128" s="1">
+        <f>VLOOKUP(A128,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O128" s="1">
+        <f>VLOOKUP(A128,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4</v>
+      </c>
+      <c r="D129" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="E129">
+        <v>27400</v>
+      </c>
+      <c r="F129" s="10">
+        <f>VLOOKUP(A129,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="10">
+        <f>VLOOKUP(A129,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.44189999999999952</v>
+      </c>
+      <c r="H129" s="10">
+        <f>VLOOKUP(A129,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.49000000000000038</v>
+      </c>
+      <c r="I129" s="10">
+        <f>VLOOKUP(A129,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.3500000000000034E-2</v>
+      </c>
+      <c r="J129" s="10">
+        <f>VLOOKUP(A129,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.8000000000000023E-3</v>
+      </c>
+      <c r="K129" s="10">
+        <f>VLOOKUP(A129,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.8000000000000022E-3</v>
+      </c>
+      <c r="L129" s="10">
+        <f>VLOOKUP(A129,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M129" s="9">
+        <f>VLOOKUP(A129,Balance1!$B:$K,9,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="N129" s="1">
+        <f>VLOOKUP(A129,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O129" s="1">
+        <f>VLOOKUP(A129,Balance1!$B:$L,11,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C130" s="1">
+        <v>4</v>
+      </c>
+      <c r="D130" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="E130">
+        <v>27600</v>
+      </c>
+      <c r="F130" s="10">
+        <f>VLOOKUP(A130,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="10">
+        <f>VLOOKUP(A130,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.43619999999999959</v>
+      </c>
+      <c r="H130" s="10">
+        <f>VLOOKUP(A130,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.49500000000000038</v>
+      </c>
+      <c r="I130" s="10">
+        <f>VLOOKUP(A130,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.4000000000000034E-2</v>
+      </c>
+      <c r="J130" s="10">
+        <f>VLOOKUP(A130,Balance1!$B:$K,6,FALSE)</f>
+        <v>8.9000000000000017E-3</v>
+      </c>
+      <c r="K130" s="10">
+        <f>VLOOKUP(A130,Balance1!$B:$K,7,FALSE)</f>
+        <v>5.9000000000000025E-3</v>
+      </c>
+      <c r="L130" s="10">
+        <f>VLOOKUP(A130,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M130" s="9">
+        <f>VLOOKUP(A130,Balance1!$B:$K,9,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="N130" s="1">
+        <f>VLOOKUP(A130,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O130" s="1">
+        <f>VLOOKUP(A130,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="26">
+        <f t="shared" si="3"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="E131">
+        <v>27800</v>
+      </c>
+      <c r="F131" s="10">
+        <f>VLOOKUP(A131,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="10">
+        <f>VLOOKUP(A131,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.43049999999999966</v>
+      </c>
+      <c r="H131" s="10">
+        <f>VLOOKUP(A131,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="I131" s="10">
+        <f>VLOOKUP(A131,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.4500000000000035E-2</v>
+      </c>
+      <c r="J131" s="10">
+        <f>VLOOKUP(A131,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="K131" s="10">
+        <f>VLOOKUP(A131,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.0000000000000027E-3</v>
+      </c>
+      <c r="L131" s="10">
+        <f>VLOOKUP(A131,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="M131" s="9">
+        <f>VLOOKUP(A131,Balance1!$B:$K,9,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="N131" s="1">
+        <f>VLOOKUP(A131,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O131" s="1">
+        <f>VLOOKUP(A131,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C132" s="1">
+        <v>4</v>
+      </c>
+      <c r="D132" s="26">
+        <f t="shared" si="3"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="E132">
+        <v>28000</v>
+      </c>
+      <c r="F132" s="10">
+        <f>VLOOKUP(A132,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="10">
+        <f>VLOOKUP(A132,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.42479999999999962</v>
+      </c>
+      <c r="H132" s="10">
+        <f>VLOOKUP(A132,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.50500000000000034</v>
+      </c>
+      <c r="I132" s="10">
+        <f>VLOOKUP(A132,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.5000000000000035E-2</v>
+      </c>
+      <c r="J132" s="10">
+        <f>VLOOKUP(A132,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="K132" s="10">
+        <f>VLOOKUP(A132,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.100000000000003E-3</v>
+      </c>
+      <c r="L132" s="10">
+        <f>VLOOKUP(A132,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="M132" s="9">
+        <f>VLOOKUP(A132,Balance1!$B:$K,9,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="N132" s="1">
+        <f>VLOOKUP(A132,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O132" s="1">
+        <f>VLOOKUP(A132,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C133" s="1">
+        <v>4</v>
+      </c>
+      <c r="D133" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="E133">
+        <v>28200</v>
+      </c>
+      <c r="F133" s="10">
+        <f>VLOOKUP(A133,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="10">
+        <f>VLOOKUP(A133,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.41909999999999969</v>
+      </c>
+      <c r="H133" s="10">
+        <f>VLOOKUP(A133,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.51000000000000034</v>
+      </c>
+      <c r="I133" s="10">
+        <f>VLOOKUP(A133,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.5500000000000035E-2</v>
+      </c>
+      <c r="J133" s="10">
+        <f>VLOOKUP(A133,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="K133" s="10">
+        <f>VLOOKUP(A133,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.2000000000000033E-3</v>
+      </c>
+      <c r="L133" s="10">
+        <f>VLOOKUP(A133,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="M133" s="9">
+        <f>VLOOKUP(A133,Balance1!$B:$K,9,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="N133" s="1">
+        <f>VLOOKUP(A133,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O133" s="1">
+        <f>VLOOKUP(A133,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8200,7 +8672,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D125">
+  <conditionalFormatting sqref="D2:E85 D86:D133">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA80DA6-CDBE-4538-8573-280B8124981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3C2F12-836F-4F84-99C7-22F375A7F8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable9" sheetId="1" r:id="rId1"/>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D133" si="3">D77*10</f>
+        <f t="shared" ref="D78:D137" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B133" si="4">B114</f>
+        <f t="shared" ref="B115:B137" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -8662,6 +8662,242 @@
       </c>
       <c r="O133" s="1">
         <f>VLOOKUP(A133,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>4</v>
+      </c>
+      <c r="D134" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="E134">
+        <v>28400</v>
+      </c>
+      <c r="F134" s="10">
+        <f>VLOOKUP(A134,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G134" s="10">
+        <f>VLOOKUP(A134,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.41339999999999966</v>
+      </c>
+      <c r="H134" s="10">
+        <f>VLOOKUP(A134,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.51500000000000035</v>
+      </c>
+      <c r="I134" s="10">
+        <f>VLOOKUP(A134,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.6000000000000036E-2</v>
+      </c>
+      <c r="J134" s="10">
+        <f>VLOOKUP(A134,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="K134" s="10">
+        <f>VLOOKUP(A134,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.3000000000000035E-3</v>
+      </c>
+      <c r="L134" s="10">
+        <f>VLOOKUP(A134,Balance1!$B:$K,8,FALSE)</f>
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="M134" s="9">
+        <f>VLOOKUP(A134,Balance1!$B:$K,9,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="N134" s="1">
+        <f>VLOOKUP(A134,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O134" s="1">
+        <f>VLOOKUP(A134,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>4</v>
+      </c>
+      <c r="D135" s="26">
+        <f t="shared" si="3"/>
+        <v>1E+205</v>
+      </c>
+      <c r="E135">
+        <v>28600</v>
+      </c>
+      <c r="F135" s="10">
+        <f>VLOOKUP(A135,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G135" s="10">
+        <f>VLOOKUP(A135,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.40769999999999973</v>
+      </c>
+      <c r="H135" s="10">
+        <f>VLOOKUP(A135,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.52000000000000035</v>
+      </c>
+      <c r="I135" s="10">
+        <f>VLOOKUP(A135,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.6500000000000036E-2</v>
+      </c>
+      <c r="J135" s="10">
+        <f>VLOOKUP(A135,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.3999999999999986E-3</v>
+      </c>
+      <c r="K135" s="10">
+        <f>VLOOKUP(A135,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.4000000000000038E-3</v>
+      </c>
+      <c r="L135" s="10">
+        <f>VLOOKUP(A135,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M135" s="9">
+        <f>VLOOKUP(A135,Balance1!$B:$K,9,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="N135" s="1">
+        <f>VLOOKUP(A135,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O135" s="1">
+        <f>VLOOKUP(A135,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C136" s="1">
+        <v>4</v>
+      </c>
+      <c r="D136" s="26">
+        <f t="shared" si="3"/>
+        <v>1E+206</v>
+      </c>
+      <c r="E136">
+        <v>28800</v>
+      </c>
+      <c r="F136" s="10">
+        <f>VLOOKUP(A136,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="10">
+        <f>VLOOKUP(A136,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.40199999999999969</v>
+      </c>
+      <c r="H136" s="10">
+        <f>VLOOKUP(A136,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.52500000000000036</v>
+      </c>
+      <c r="I136" s="10">
+        <f>VLOOKUP(A136,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.7000000000000037E-2</v>
+      </c>
+      <c r="J136" s="10">
+        <f>VLOOKUP(A136,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.499999999999998E-3</v>
+      </c>
+      <c r="K136" s="10">
+        <f>VLOOKUP(A136,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.500000000000004E-3</v>
+      </c>
+      <c r="L136" s="10">
+        <f>VLOOKUP(A136,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="M136" s="9">
+        <f>VLOOKUP(A136,Balance1!$B:$K,9,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="N136" s="1">
+        <f>VLOOKUP(A136,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O136" s="1">
+        <f>VLOOKUP(A136,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C137" s="1">
+        <v>4</v>
+      </c>
+      <c r="D137" s="26">
+        <f t="shared" si="3"/>
+        <v>1E+207</v>
+      </c>
+      <c r="E137">
+        <v>29000</v>
+      </c>
+      <c r="F137" s="10">
+        <f>VLOOKUP(A137,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="10">
+        <f>VLOOKUP(A137,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.39629999999999954</v>
+      </c>
+      <c r="H137" s="10">
+        <f>VLOOKUP(A137,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.53000000000000036</v>
+      </c>
+      <c r="I137" s="10">
+        <f>VLOOKUP(A137,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.7500000000000037E-2</v>
+      </c>
+      <c r="J137" s="10">
+        <f>VLOOKUP(A137,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.5999999999999974E-3</v>
+      </c>
+      <c r="K137" s="10">
+        <f>VLOOKUP(A137,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.6000000000000043E-3</v>
+      </c>
+      <c r="L137" s="10">
+        <f>VLOOKUP(A137,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="M137" s="9">
+        <f>VLOOKUP(A137,Balance1!$B:$K,9,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="N137" s="1">
+        <f>VLOOKUP(A137,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O137" s="1">
+        <f>VLOOKUP(A137,Balance1!$B:$L,11,FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -8672,7 +8908,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D133">
+  <conditionalFormatting sqref="D2:E85 D86:D137">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -8686,8 +8922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:AB145"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView topLeftCell="H114" workbookViewId="0">
+      <selection activeCell="AB145" sqref="AB145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3C2F12-836F-4F84-99C7-22F375A7F8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3ABADA-2F73-4A7E-9DC3-5A188A178D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O137"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K135" sqref="K135"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D137" si="3">D77*10</f>
+        <f t="shared" ref="D78:D141" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B137" si="4">B114</f>
+        <f t="shared" ref="B115:B141" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -8898,6 +8898,242 @@
       </c>
       <c r="O137" s="1">
         <f>VLOOKUP(A137,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C138" s="1">
+        <v>4</v>
+      </c>
+      <c r="D138" s="26">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="E138">
+        <v>29200</v>
+      </c>
+      <c r="F138" s="10">
+        <f>VLOOKUP(A138,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G138" s="10">
+        <f>VLOOKUP(A138,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.3905999999999995</v>
+      </c>
+      <c r="H138" s="10">
+        <f>VLOOKUP(A138,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.53500000000000036</v>
+      </c>
+      <c r="I138" s="10">
+        <f>VLOOKUP(A138,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.8000000000000038E-2</v>
+      </c>
+      <c r="J138" s="10">
+        <f>VLOOKUP(A138,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.6999999999999968E-3</v>
+      </c>
+      <c r="K138" s="10">
+        <f>VLOOKUP(A138,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.7000000000000046E-3</v>
+      </c>
+      <c r="L138" s="10">
+        <f>VLOOKUP(A138,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.3E-3</v>
+      </c>
+      <c r="M138" s="9">
+        <f>VLOOKUP(A138,Balance1!$B:$K,9,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="N138" s="1">
+        <f>VLOOKUP(A138,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O138" s="1">
+        <f>VLOOKUP(A138,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>4</v>
+      </c>
+      <c r="D139" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="E139">
+        <v>29400</v>
+      </c>
+      <c r="F139" s="10">
+        <f>VLOOKUP(A139,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="10">
+        <f>VLOOKUP(A139,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.38489999999999958</v>
+      </c>
+      <c r="H139" s="10">
+        <f>VLOOKUP(A139,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.54000000000000037</v>
+      </c>
+      <c r="I139" s="10">
+        <f>VLOOKUP(A139,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.8500000000000038E-2</v>
+      </c>
+      <c r="J139" s="10">
+        <f>VLOOKUP(A139,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.7999999999999962E-3</v>
+      </c>
+      <c r="K139" s="10">
+        <f>VLOOKUP(A139,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.8000000000000048E-3</v>
+      </c>
+      <c r="L139" s="10">
+        <f>VLOOKUP(A139,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="M139" s="9">
+        <f>VLOOKUP(A139,Balance1!$B:$K,9,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="N139" s="1">
+        <f>VLOOKUP(A139,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O139" s="1">
+        <f>VLOOKUP(A139,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>4</v>
+      </c>
+      <c r="D140" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+210</v>
+      </c>
+      <c r="E140">
+        <v>29600</v>
+      </c>
+      <c r="F140" s="10">
+        <f>VLOOKUP(A140,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="10">
+        <f>VLOOKUP(A140,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.37919999999999954</v>
+      </c>
+      <c r="H140" s="10">
+        <f>VLOOKUP(A140,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.54500000000000037</v>
+      </c>
+      <c r="I140" s="10">
+        <f>VLOOKUP(A140,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.9000000000000039E-2</v>
+      </c>
+      <c r="J140" s="10">
+        <f>VLOOKUP(A140,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.8999999999999956E-3</v>
+      </c>
+      <c r="K140" s="10">
+        <f>VLOOKUP(A140,Balance1!$B:$K,7,FALSE)</f>
+        <v>6.9000000000000051E-3</v>
+      </c>
+      <c r="L140" s="10">
+        <f>VLOOKUP(A140,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="M140" s="9">
+        <f>VLOOKUP(A140,Balance1!$B:$K,9,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="N140" s="1">
+        <f>VLOOKUP(A140,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O140" s="1">
+        <f>VLOOKUP(A140,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4</v>
+      </c>
+      <c r="D141" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+211</v>
+      </c>
+      <c r="E141">
+        <v>29800</v>
+      </c>
+      <c r="F141" s="10">
+        <f>VLOOKUP(A141,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="10">
+        <f>VLOOKUP(A141,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.37349999999999961</v>
+      </c>
+      <c r="H141" s="10">
+        <f>VLOOKUP(A141,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.55000000000000038</v>
+      </c>
+      <c r="I141" s="10">
+        <f>VLOOKUP(A141,Balance1!$B:$K,5,FALSE)</f>
+        <v>5.9500000000000039E-2</v>
+      </c>
+      <c r="J141" s="10">
+        <f>VLOOKUP(A141,Balance1!$B:$K,6,FALSE)</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="K141" s="10">
+        <f>VLOOKUP(A141,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.0000000000000053E-3</v>
+      </c>
+      <c r="L141" s="10">
+        <f>VLOOKUP(A141,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="M141" s="9">
+        <f>VLOOKUP(A141,Balance1!$B:$K,9,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="N141" s="1">
+        <f>VLOOKUP(A141,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O141" s="1">
+        <f>VLOOKUP(A141,Balance1!$B:$L,11,FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -8908,7 +9144,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D137">
+  <conditionalFormatting sqref="D2:E85 D86:D141">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -8922,8 +9158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:AB145"/>
   <sheetViews>
-    <sheetView topLeftCell="H114" workbookViewId="0">
-      <selection activeCell="AB145" sqref="AB145"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3ABADA-2F73-4A7E-9DC3-5A188A178D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAF5B77-0795-4C94-ACB3-9B8B5A8866EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -699,9 +699,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -739,7 +739,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -845,7 +845,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -987,7 +987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomLeft" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5373,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="26">
-        <f t="shared" ref="D78:D141" si="3">D77*10</f>
+        <f t="shared" ref="D78:D142" si="3">D77*10</f>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="E78">
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B141" si="4">B114</f>
+        <f t="shared" ref="B115:B145" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9134,6 +9134,242 @@
       </c>
       <c r="O141" s="1">
         <f>VLOOKUP(A141,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C142" s="1">
+        <v>4</v>
+      </c>
+      <c r="D142" s="26">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000001E+212</v>
+      </c>
+      <c r="E142">
+        <v>30000</v>
+      </c>
+      <c r="F142" s="10">
+        <f>VLOOKUP(A142,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G142" s="10">
+        <f>VLOOKUP(A142,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.36779999999999957</v>
+      </c>
+      <c r="H142" s="10">
+        <f>VLOOKUP(A142,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.55500000000000038</v>
+      </c>
+      <c r="I142" s="10">
+        <f>VLOOKUP(A142,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.0000000000000039E-2</v>
+      </c>
+      <c r="J142" s="10">
+        <f>VLOOKUP(A142,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.0099999999999994E-2</v>
+      </c>
+      <c r="K142" s="10">
+        <f>VLOOKUP(A142,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.1000000000000056E-3</v>
+      </c>
+      <c r="L142" s="10">
+        <f>VLOOKUP(A142,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M142" s="9">
+        <f>VLOOKUP(A142,Balance1!$B:$K,9,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="N142" s="1">
+        <f>VLOOKUP(A142,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O142" s="1">
+        <f>VLOOKUP(A142,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>4</v>
+      </c>
+      <c r="D143" s="26">
+        <f t="shared" ref="D143:D145" si="5">D142*10</f>
+        <v>1.0000000000000001E+213</v>
+      </c>
+      <c r="E143">
+        <v>30200</v>
+      </c>
+      <c r="F143" s="10">
+        <f>VLOOKUP(A143,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="10">
+        <f>VLOOKUP(A143,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.36209999999999964</v>
+      </c>
+      <c r="H143" s="10">
+        <f>VLOOKUP(A143,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.56000000000000039</v>
+      </c>
+      <c r="I143" s="10">
+        <f>VLOOKUP(A143,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.050000000000004E-2</v>
+      </c>
+      <c r="J143" s="10">
+        <f>VLOOKUP(A143,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.0199999999999994E-2</v>
+      </c>
+      <c r="K143" s="10">
+        <f>VLOOKUP(A143,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.2000000000000059E-3</v>
+      </c>
+      <c r="L143" s="10">
+        <f>VLOOKUP(A143,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="M143" s="9">
+        <f>VLOOKUP(A143,Balance1!$B:$K,9,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="N143" s="1">
+        <f>VLOOKUP(A143,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O143" s="1">
+        <f>VLOOKUP(A143,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C144" s="1">
+        <v>4</v>
+      </c>
+      <c r="D144" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+214</v>
+      </c>
+      <c r="E144">
+        <v>30400</v>
+      </c>
+      <c r="F144" s="10">
+        <f>VLOOKUP(A144,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G144" s="10">
+        <f>VLOOKUP(A144,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.35639999999999961</v>
+      </c>
+      <c r="H144" s="10">
+        <f>VLOOKUP(A144,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.56500000000000039</v>
+      </c>
+      <c r="I144" s="10">
+        <f>VLOOKUP(A144,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.100000000000004E-2</v>
+      </c>
+      <c r="J144" s="10">
+        <f>VLOOKUP(A144,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.0299999999999993E-2</v>
+      </c>
+      <c r="K144" s="10">
+        <f>VLOOKUP(A144,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.3000000000000061E-3</v>
+      </c>
+      <c r="L144" s="10">
+        <f>VLOOKUP(A144,Balance1!$B:$K,8,FALSE)</f>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="M144" s="9">
+        <f>VLOOKUP(A144,Balance1!$B:$K,9,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="N144" s="1">
+        <f>VLOOKUP(A144,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O144" s="1">
+        <f>VLOOKUP(A144,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>4</v>
+      </c>
+      <c r="D145" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+215</v>
+      </c>
+      <c r="E145">
+        <v>30600</v>
+      </c>
+      <c r="F145" s="10">
+        <f>VLOOKUP(A145,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="10">
+        <f>VLOOKUP(A145,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.35069999999999968</v>
+      </c>
+      <c r="H145" s="10">
+        <f>VLOOKUP(A145,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.5700000000000004</v>
+      </c>
+      <c r="I145" s="10">
+        <f>VLOOKUP(A145,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.1500000000000041E-2</v>
+      </c>
+      <c r="J145" s="10">
+        <f>VLOOKUP(A145,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.0399999999999993E-2</v>
+      </c>
+      <c r="K145" s="10">
+        <f>VLOOKUP(A145,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.4000000000000064E-3</v>
+      </c>
+      <c r="L145" s="10">
+        <f>VLOOKUP(A145,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M145" s="9">
+        <f>VLOOKUP(A145,Balance1!$B:$K,9,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="N145" s="1">
+        <f>VLOOKUP(A145,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O145" s="1">
+        <f>VLOOKUP(A145,Balance1!$B:$L,11,FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -9144,7 +9380,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D141">
+  <conditionalFormatting sqref="D2:E85 D86:D145">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9156,10 +9392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
-  <dimension ref="A2:AB145"/>
+  <dimension ref="A2:AB186"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14376,7 +14612,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" ref="J93:J145" si="34">J85+6</f>
+        <f t="shared" ref="J93:J156" si="34">J85+6</f>
         <v>53</v>
       </c>
       <c r="K93" s="1">
@@ -14752,7 +14988,7 @@
         <v>9028</v>
       </c>
       <c r="L101">
-        <f t="shared" ref="L101:L145" si="36">L69+1</f>
+        <f t="shared" ref="L101:L166" si="36">L69+1</f>
         <v>4</v>
       </c>
       <c r="M101" s="7"/>
@@ -15083,7 +15319,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" ref="A109:A145" si="43">A108*10</f>
+        <f t="shared" ref="A109:A172" si="43">A108*10</f>
         <v>1E+177</v>
       </c>
       <c r="B109">
@@ -15097,7 +15333,7 @@
         <v>0.56729999999999969</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" ref="E109:E145" si="44">E108+0.005</f>
+        <f t="shared" ref="E109:E172" si="44">E108+0.005</f>
         <v>0.38000000000000028</v>
       </c>
       <c r="F109" s="7">
@@ -15147,7 +15383,7 @@
         <v>0.38500000000000029</v>
       </c>
       <c r="F110" s="7">
-        <f t="shared" ref="F110:F145" si="46">F109+0.0005</f>
+        <f t="shared" ref="F110:F173" si="46">F109+0.0005</f>
         <v>4.3000000000000024E-2</v>
       </c>
       <c r="G110" s="7">
@@ -16783,9 +17019,1895 @@
         <v>5</v>
       </c>
     </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000002E+214</v>
+      </c>
+      <c r="B146">
+        <v>142</v>
+      </c>
+      <c r="C146" s="23">
+        <v>0</v>
+      </c>
+      <c r="D146" s="7">
+        <f t="shared" ref="D146:D174" si="85">100%-(E146+F146+G146+H146)</f>
+        <v>0.35639999999999961</v>
+      </c>
+      <c r="E146" s="7">
+        <f t="shared" si="44"/>
+        <v>0.56500000000000039</v>
+      </c>
+      <c r="F146" s="7">
+        <f t="shared" si="46"/>
+        <v>6.100000000000004E-2</v>
+      </c>
+      <c r="G146" s="7">
+        <f t="shared" ref="G146:H146" si="86">G145+0.0001</f>
+        <v>1.0299999999999993E-2</v>
+      </c>
+      <c r="H146" s="7">
+        <f t="shared" si="86"/>
+        <v>7.3000000000000061E-3</v>
+      </c>
+      <c r="I146" s="7">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="J146" s="9">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="K146" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+215</v>
+      </c>
+      <c r="B147">
+        <v>143</v>
+      </c>
+      <c r="C147" s="23">
+        <v>0</v>
+      </c>
+      <c r="D147" s="7">
+        <f t="shared" si="85"/>
+        <v>0.35069999999999968</v>
+      </c>
+      <c r="E147" s="7">
+        <f t="shared" si="44"/>
+        <v>0.5700000000000004</v>
+      </c>
+      <c r="F147" s="7">
+        <f t="shared" si="46"/>
+        <v>6.1500000000000041E-2</v>
+      </c>
+      <c r="G147" s="7">
+        <f t="shared" ref="G147:H147" si="87">G146+0.0001</f>
+        <v>1.0399999999999993E-2</v>
+      </c>
+      <c r="H147" s="7">
+        <f t="shared" si="87"/>
+        <v>7.4000000000000064E-3</v>
+      </c>
+      <c r="I147" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J147" s="9">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="K147" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f t="shared" si="43"/>
+        <v>1E+216</v>
+      </c>
+      <c r="B148">
+        <v>144</v>
+      </c>
+      <c r="C148" s="23">
+        <v>0</v>
+      </c>
+      <c r="D148" s="7">
+        <f t="shared" si="85"/>
+        <v>0.34499999999999953</v>
+      </c>
+      <c r="E148" s="7">
+        <f t="shared" si="44"/>
+        <v>0.5750000000000004</v>
+      </c>
+      <c r="F148" s="7">
+        <f t="shared" si="46"/>
+        <v>6.2000000000000041E-2</v>
+      </c>
+      <c r="G148" s="7">
+        <f t="shared" ref="G148:H148" si="88">G147+0.0001</f>
+        <v>1.0499999999999992E-2</v>
+      </c>
+      <c r="H148" s="7">
+        <f t="shared" si="88"/>
+        <v>7.5000000000000067E-3</v>
+      </c>
+      <c r="I148" s="7">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="J148" s="9">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="K148" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+217</v>
+      </c>
+      <c r="B149">
+        <v>145</v>
+      </c>
+      <c r="C149" s="23">
+        <v>0</v>
+      </c>
+      <c r="D149" s="7">
+        <f t="shared" si="85"/>
+        <v>0.3392999999999996</v>
+      </c>
+      <c r="E149" s="7">
+        <f t="shared" si="44"/>
+        <v>0.5800000000000004</v>
+      </c>
+      <c r="F149" s="7">
+        <f t="shared" si="46"/>
+        <v>6.2500000000000042E-2</v>
+      </c>
+      <c r="G149" s="7">
+        <f t="shared" ref="G149:H149" si="89">G148+0.0001</f>
+        <v>1.0599999999999991E-2</v>
+      </c>
+      <c r="H149" s="7">
+        <f t="shared" si="89"/>
+        <v>7.6000000000000069E-3</v>
+      </c>
+      <c r="I149" s="7">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="J149" s="9">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="K149" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="B150">
+        <v>146</v>
+      </c>
+      <c r="C150" s="23">
+        <v>0</v>
+      </c>
+      <c r="D150" s="7">
+        <f t="shared" si="85"/>
+        <v>0.33359999999999945</v>
+      </c>
+      <c r="E150" s="7">
+        <f t="shared" si="44"/>
+        <v>0.58500000000000041</v>
+      </c>
+      <c r="F150" s="7">
+        <f t="shared" si="46"/>
+        <v>6.3000000000000042E-2</v>
+      </c>
+      <c r="G150" s="7">
+        <f t="shared" ref="G150:H150" si="90">G149+0.0001</f>
+        <v>1.0699999999999991E-2</v>
+      </c>
+      <c r="H150" s="7">
+        <f t="shared" si="90"/>
+        <v>7.7000000000000072E-3</v>
+      </c>
+      <c r="I150" s="7">
+        <v>6.3E-3</v>
+      </c>
+      <c r="J150" s="9">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="K150" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+219</v>
+      </c>
+      <c r="B151">
+        <v>147</v>
+      </c>
+      <c r="C151" s="23">
+        <v>0</v>
+      </c>
+      <c r="D151" s="7">
+        <f t="shared" si="85"/>
+        <v>0.32789999999999953</v>
+      </c>
+      <c r="E151" s="7">
+        <f t="shared" si="44"/>
+        <v>0.59000000000000041</v>
+      </c>
+      <c r="F151" s="7">
+        <f t="shared" si="46"/>
+        <v>6.3500000000000043E-2</v>
+      </c>
+      <c r="G151" s="7">
+        <f t="shared" ref="G151:H151" si="91">G150+0.0001</f>
+        <v>1.079999999999999E-2</v>
+      </c>
+      <c r="H151" s="7">
+        <f t="shared" si="91"/>
+        <v>7.8000000000000074E-3</v>
+      </c>
+      <c r="I151" s="7">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="J151" s="9">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="K151" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="B152">
+        <v>148</v>
+      </c>
+      <c r="C152" s="23">
+        <v>0</v>
+      </c>
+      <c r="D152" s="7">
+        <f t="shared" si="85"/>
+        <v>0.32219999999999949</v>
+      </c>
+      <c r="E152" s="7">
+        <f t="shared" si="44"/>
+        <v>0.59500000000000042</v>
+      </c>
+      <c r="F152" s="7">
+        <f t="shared" si="46"/>
+        <v>6.4000000000000043E-2</v>
+      </c>
+      <c r="G152" s="7">
+        <f t="shared" ref="G152:H152" si="92">G151+0.0001</f>
+        <v>1.089999999999999E-2</v>
+      </c>
+      <c r="H152" s="7">
+        <f t="shared" si="92"/>
+        <v>7.9000000000000077E-3</v>
+      </c>
+      <c r="I152" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="J152" s="9">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="K152" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f t="shared" si="43"/>
+        <v>1E+221</v>
+      </c>
+      <c r="B153">
+        <v>149</v>
+      </c>
+      <c r="C153" s="23">
+        <v>0</v>
+      </c>
+      <c r="D153" s="7">
+        <f t="shared" si="85"/>
+        <v>0.31649999999999956</v>
+      </c>
+      <c r="E153" s="7">
+        <f t="shared" si="44"/>
+        <v>0.60000000000000042</v>
+      </c>
+      <c r="F153" s="7">
+        <f t="shared" si="46"/>
+        <v>6.4500000000000043E-2</v>
+      </c>
+      <c r="G153" s="7">
+        <f t="shared" ref="G153:H153" si="93">G152+0.0001</f>
+        <v>1.0999999999999989E-2</v>
+      </c>
+      <c r="H153" s="7">
+        <f t="shared" si="93"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="I153" s="7">
+        <v>6.6E-3</v>
+      </c>
+      <c r="J153" s="9">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="K153" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f t="shared" si="43"/>
+        <v>1E+222</v>
+      </c>
+      <c r="B154">
+        <v>150</v>
+      </c>
+      <c r="C154" s="23">
+        <v>0</v>
+      </c>
+      <c r="D154" s="7">
+        <f t="shared" si="85"/>
+        <v>0.31079999999999952</v>
+      </c>
+      <c r="E154" s="7">
+        <f t="shared" si="44"/>
+        <v>0.60500000000000043</v>
+      </c>
+      <c r="F154" s="7">
+        <f t="shared" si="46"/>
+        <v>6.5000000000000044E-2</v>
+      </c>
+      <c r="G154" s="7">
+        <f t="shared" ref="G154:H154" si="94">G153+0.0001</f>
+        <v>1.1099999999999988E-2</v>
+      </c>
+      <c r="H154" s="7">
+        <f t="shared" si="94"/>
+        <v>8.1000000000000065E-3</v>
+      </c>
+      <c r="I154" s="7">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J154" s="9">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="K154" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f t="shared" si="43"/>
+        <v>1E+223</v>
+      </c>
+      <c r="B155">
+        <v>151</v>
+      </c>
+      <c r="C155" s="23">
+        <v>0</v>
+      </c>
+      <c r="D155" s="7">
+        <f t="shared" si="85"/>
+        <v>0.30509999999999959</v>
+      </c>
+      <c r="E155" s="7">
+        <f t="shared" si="44"/>
+        <v>0.61000000000000043</v>
+      </c>
+      <c r="F155" s="7">
+        <f t="shared" si="46"/>
+        <v>6.5500000000000044E-2</v>
+      </c>
+      <c r="G155" s="7">
+        <f t="shared" ref="G155:H155" si="95">G154+0.0001</f>
+        <v>1.1199999999999988E-2</v>
+      </c>
+      <c r="H155" s="7">
+        <f t="shared" si="95"/>
+        <v>8.2000000000000059E-3</v>
+      </c>
+      <c r="I155" s="7">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="J155" s="9">
+        <f t="shared" si="34"/>
+        <v>95</v>
+      </c>
+      <c r="K155" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="B156">
+        <v>152</v>
+      </c>
+      <c r="C156" s="23">
+        <v>0</v>
+      </c>
+      <c r="D156" s="7">
+        <f t="shared" si="85"/>
+        <v>0.29939999999999956</v>
+      </c>
+      <c r="E156" s="7">
+        <f t="shared" si="44"/>
+        <v>0.61500000000000044</v>
+      </c>
+      <c r="F156" s="7">
+        <f t="shared" si="46"/>
+        <v>6.6000000000000045E-2</v>
+      </c>
+      <c r="G156" s="7">
+        <f t="shared" ref="G156:H156" si="96">G155+0.0001</f>
+        <v>1.1299999999999987E-2</v>
+      </c>
+      <c r="H156" s="7">
+        <f t="shared" si="96"/>
+        <v>8.3000000000000053E-3</v>
+      </c>
+      <c r="I156" s="7">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="J156" s="9">
+        <f t="shared" si="34"/>
+        <v>101</v>
+      </c>
+      <c r="K156" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="B157">
+        <v>153</v>
+      </c>
+      <c r="C157" s="23">
+        <v>0</v>
+      </c>
+      <c r="D157" s="7">
+        <f t="shared" si="85"/>
+        <v>0.29369999999999963</v>
+      </c>
+      <c r="E157" s="7">
+        <f t="shared" si="44"/>
+        <v>0.62000000000000044</v>
+      </c>
+      <c r="F157" s="7">
+        <f t="shared" si="46"/>
+        <v>6.6500000000000045E-2</v>
+      </c>
+      <c r="G157" s="7">
+        <f t="shared" ref="G157:H157" si="97">G156+0.0001</f>
+        <v>1.1399999999999987E-2</v>
+      </c>
+      <c r="H157" s="7">
+        <f t="shared" si="97"/>
+        <v>8.4000000000000047E-3</v>
+      </c>
+      <c r="I157" s="7">
+        <v>7.0000000000000097E-3</v>
+      </c>
+      <c r="J157" s="9">
+        <f t="shared" ref="J157:J186" si="98">J149+6</f>
+        <v>101</v>
+      </c>
+      <c r="K157" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="B158">
+        <v>154</v>
+      </c>
+      <c r="C158" s="23">
+        <v>0</v>
+      </c>
+      <c r="D158" s="7">
+        <f t="shared" si="85"/>
+        <v>0.28799999999999959</v>
+      </c>
+      <c r="E158" s="7">
+        <f t="shared" si="44"/>
+        <v>0.62500000000000044</v>
+      </c>
+      <c r="F158" s="7">
+        <f t="shared" si="46"/>
+        <v>6.7000000000000046E-2</v>
+      </c>
+      <c r="G158" s="7">
+        <f t="shared" ref="G158:H158" si="99">G157+0.0001</f>
+        <v>1.1499999999999986E-2</v>
+      </c>
+      <c r="H158" s="7">
+        <f t="shared" si="99"/>
+        <v>8.5000000000000041E-3</v>
+      </c>
+      <c r="I158" s="7">
+        <v>7.1000000000000099E-3</v>
+      </c>
+      <c r="J158" s="9">
+        <f t="shared" si="98"/>
+        <v>101</v>
+      </c>
+      <c r="K158" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="B159">
+        <v>155</v>
+      </c>
+      <c r="C159" s="23">
+        <v>0</v>
+      </c>
+      <c r="D159" s="7">
+        <f t="shared" si="85"/>
+        <v>0.28229999999999955</v>
+      </c>
+      <c r="E159" s="7">
+        <f t="shared" si="44"/>
+        <v>0.63000000000000045</v>
+      </c>
+      <c r="F159" s="7">
+        <f t="shared" si="46"/>
+        <v>6.7500000000000046E-2</v>
+      </c>
+      <c r="G159" s="7">
+        <f t="shared" ref="G159:H159" si="100">G158+0.0001</f>
+        <v>1.1599999999999985E-2</v>
+      </c>
+      <c r="H159" s="7">
+        <f t="shared" si="100"/>
+        <v>8.6000000000000035E-3</v>
+      </c>
+      <c r="I159" s="7">
+        <v>7.2000000000000102E-3</v>
+      </c>
+      <c r="J159" s="9">
+        <f t="shared" si="98"/>
+        <v>101</v>
+      </c>
+      <c r="K159" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="B160">
+        <v>156</v>
+      </c>
+      <c r="C160" s="23">
+        <v>0</v>
+      </c>
+      <c r="D160" s="7">
+        <f t="shared" si="85"/>
+        <v>0.27659999999999951</v>
+      </c>
+      <c r="E160" s="7">
+        <f t="shared" si="44"/>
+        <v>0.63500000000000045</v>
+      </c>
+      <c r="F160" s="7">
+        <f t="shared" si="46"/>
+        <v>6.8000000000000047E-2</v>
+      </c>
+      <c r="G160" s="7">
+        <f t="shared" ref="G160:H160" si="101">G159+0.0001</f>
+        <v>1.1699999999999985E-2</v>
+      </c>
+      <c r="H160" s="7">
+        <f t="shared" si="101"/>
+        <v>8.7000000000000029E-3</v>
+      </c>
+      <c r="I160" s="7">
+        <v>7.3000000000000096E-3</v>
+      </c>
+      <c r="J160" s="9">
+        <f t="shared" si="98"/>
+        <v>101</v>
+      </c>
+      <c r="K160" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999999E+228</v>
+      </c>
+      <c r="B161">
+        <v>157</v>
+      </c>
+      <c r="C161" s="23">
+        <v>0</v>
+      </c>
+      <c r="D161" s="7">
+        <f t="shared" si="85"/>
+        <v>0.27089999999999947</v>
+      </c>
+      <c r="E161" s="7">
+        <f t="shared" si="44"/>
+        <v>0.64000000000000046</v>
+      </c>
+      <c r="F161" s="7">
+        <f t="shared" si="46"/>
+        <v>6.8500000000000047E-2</v>
+      </c>
+      <c r="G161" s="7">
+        <f t="shared" ref="G161:H161" si="102">G160+0.0001</f>
+        <v>1.1799999999999984E-2</v>
+      </c>
+      <c r="H161" s="7">
+        <f t="shared" si="102"/>
+        <v>8.8000000000000023E-3</v>
+      </c>
+      <c r="I161" s="7">
+        <v>7.4000000000000099E-3</v>
+      </c>
+      <c r="J161" s="9">
+        <f t="shared" si="98"/>
+        <v>101</v>
+      </c>
+      <c r="K161" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="B162">
+        <v>158</v>
+      </c>
+      <c r="C162" s="23">
+        <v>0</v>
+      </c>
+      <c r="D162" s="7">
+        <f t="shared" si="85"/>
+        <v>0.26519999999999944</v>
+      </c>
+      <c r="E162" s="7">
+        <f t="shared" si="44"/>
+        <v>0.64500000000000046</v>
+      </c>
+      <c r="F162" s="7">
+        <f t="shared" si="46"/>
+        <v>6.9000000000000047E-2</v>
+      </c>
+      <c r="G162" s="7">
+        <f t="shared" ref="G162:H162" si="103">G161+0.0001</f>
+        <v>1.1899999999999984E-2</v>
+      </c>
+      <c r="H162" s="7">
+        <f t="shared" si="103"/>
+        <v>8.9000000000000017E-3</v>
+      </c>
+      <c r="I162" s="7">
+        <v>7.5000000000000101E-3</v>
+      </c>
+      <c r="J162" s="9">
+        <f t="shared" si="98"/>
+        <v>101</v>
+      </c>
+      <c r="K162" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999988E+230</v>
+      </c>
+      <c r="B163">
+        <v>159</v>
+      </c>
+      <c r="C163" s="23">
+        <v>0</v>
+      </c>
+      <c r="D163" s="7">
+        <f t="shared" si="85"/>
+        <v>0.25949999999999951</v>
+      </c>
+      <c r="E163" s="7">
+        <f t="shared" si="44"/>
+        <v>0.65000000000000047</v>
+      </c>
+      <c r="F163" s="7">
+        <f t="shared" si="46"/>
+        <v>6.9500000000000048E-2</v>
+      </c>
+      <c r="G163" s="7">
+        <f t="shared" ref="G163:H163" si="104">G162+0.0001</f>
+        <v>1.1999999999999983E-2</v>
+      </c>
+      <c r="H163" s="7">
+        <f t="shared" si="104"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="I163" s="7">
+        <v>7.6000000000000104E-3</v>
+      </c>
+      <c r="J163" s="9">
+        <f t="shared" si="98"/>
+        <v>101</v>
+      </c>
+      <c r="K163" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="B164">
+        <v>160</v>
+      </c>
+      <c r="C164" s="23">
+        <v>0</v>
+      </c>
+      <c r="D164" s="7">
+        <f t="shared" si="85"/>
+        <v>0.25379999999999947</v>
+      </c>
+      <c r="E164" s="7">
+        <f t="shared" si="44"/>
+        <v>0.65500000000000047</v>
+      </c>
+      <c r="F164" s="7">
+        <f t="shared" si="46"/>
+        <v>7.0000000000000048E-2</v>
+      </c>
+      <c r="G164" s="7">
+        <f t="shared" ref="G164:H164" si="105">G163+0.0001</f>
+        <v>1.2099999999999982E-2</v>
+      </c>
+      <c r="H164" s="7">
+        <f t="shared" si="105"/>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="I164" s="7">
+        <v>7.7000000000000098E-3</v>
+      </c>
+      <c r="J164" s="9">
+        <f t="shared" si="98"/>
+        <v>107</v>
+      </c>
+      <c r="K164" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f t="shared" si="43"/>
+        <v>9.9999999999999997E+232</v>
+      </c>
+      <c r="B165">
+        <v>161</v>
+      </c>
+      <c r="C165" s="23">
+        <v>0</v>
+      </c>
+      <c r="D165" s="7">
+        <f t="shared" si="85"/>
+        <v>0.24809999999999954</v>
+      </c>
+      <c r="E165" s="7">
+        <f t="shared" si="44"/>
+        <v>0.66000000000000048</v>
+      </c>
+      <c r="F165" s="7">
+        <f t="shared" si="46"/>
+        <v>7.0500000000000049E-2</v>
+      </c>
+      <c r="G165" s="7">
+        <f t="shared" ref="G165:H165" si="106">G164+0.0001</f>
+        <v>1.2199999999999982E-2</v>
+      </c>
+      <c r="H165" s="7">
+        <f t="shared" si="106"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="I165" s="7">
+        <v>7.8000000000000101E-3</v>
+      </c>
+      <c r="J165" s="9">
+        <f t="shared" si="98"/>
+        <v>107</v>
+      </c>
+      <c r="K165" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L165">
+        <f t="shared" ref="L165" si="107">L133+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f t="shared" si="43"/>
+        <v>1E+234</v>
+      </c>
+      <c r="B166">
+        <v>162</v>
+      </c>
+      <c r="C166" s="23">
+        <v>0</v>
+      </c>
+      <c r="D166" s="7">
+        <f t="shared" si="85"/>
+        <v>0.2423999999999995</v>
+      </c>
+      <c r="E166" s="7">
+        <f t="shared" si="44"/>
+        <v>0.66500000000000048</v>
+      </c>
+      <c r="F166" s="7">
+        <f t="shared" si="46"/>
+        <v>7.1000000000000049E-2</v>
+      </c>
+      <c r="G166" s="7">
+        <f t="shared" ref="G166:H166" si="108">G165+0.0001</f>
+        <v>1.2299999999999981E-2</v>
+      </c>
+      <c r="H166" s="7">
+        <f t="shared" si="108"/>
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="I166" s="7">
+        <v>7.9000000000000094E-3</v>
+      </c>
+      <c r="J166" s="9">
+        <f t="shared" si="98"/>
+        <v>107</v>
+      </c>
+      <c r="K166" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+235</v>
+      </c>
+      <c r="B167">
+        <v>163</v>
+      </c>
+      <c r="C167" s="23">
+        <v>0</v>
+      </c>
+      <c r="D167" s="7">
+        <f t="shared" si="85"/>
+        <v>0.23669999999999958</v>
+      </c>
+      <c r="E167" s="7">
+        <f t="shared" si="44"/>
+        <v>0.67000000000000048</v>
+      </c>
+      <c r="F167" s="7">
+        <f t="shared" si="46"/>
+        <v>7.150000000000005E-2</v>
+      </c>
+      <c r="G167" s="7">
+        <f t="shared" ref="G167:H167" si="109">G166+0.0001</f>
+        <v>1.239999999999998E-2</v>
+      </c>
+      <c r="H167" s="7">
+        <f t="shared" si="109"/>
+        <v>9.3999999999999986E-3</v>
+      </c>
+      <c r="I167" s="7">
+        <v>8.0000000000000106E-3</v>
+      </c>
+      <c r="J167" s="9">
+        <f t="shared" si="98"/>
+        <v>107</v>
+      </c>
+      <c r="K167" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L167">
+        <f t="shared" ref="L167:L186" si="110">L135+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="B168">
+        <v>164</v>
+      </c>
+      <c r="C168" s="23">
+        <v>0</v>
+      </c>
+      <c r="D168" s="7">
+        <f t="shared" si="85"/>
+        <v>0.23099999999999954</v>
+      </c>
+      <c r="E168" s="7">
+        <f t="shared" si="44"/>
+        <v>0.67500000000000049</v>
+      </c>
+      <c r="F168" s="7">
+        <f t="shared" si="46"/>
+        <v>7.200000000000005E-2</v>
+      </c>
+      <c r="G168" s="7">
+        <f t="shared" ref="G168:H168" si="111">G167+0.0001</f>
+        <v>1.249999999999998E-2</v>
+      </c>
+      <c r="H168" s="7">
+        <f t="shared" si="111"/>
+        <v>9.499999999999998E-3</v>
+      </c>
+      <c r="I168" s="7">
+        <v>8.10000000000001E-3</v>
+      </c>
+      <c r="J168" s="9">
+        <f t="shared" si="98"/>
+        <v>107</v>
+      </c>
+      <c r="K168" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+237</v>
+      </c>
+      <c r="B169">
+        <v>165</v>
+      </c>
+      <c r="C169" s="23">
+        <v>0</v>
+      </c>
+      <c r="D169" s="7">
+        <f t="shared" si="85"/>
+        <v>0.22529999999999961</v>
+      </c>
+      <c r="E169" s="7">
+        <f t="shared" si="44"/>
+        <v>0.68000000000000049</v>
+      </c>
+      <c r="F169" s="7">
+        <f t="shared" si="46"/>
+        <v>7.2500000000000051E-2</v>
+      </c>
+      <c r="G169" s="7">
+        <f t="shared" ref="G169:H169" si="112">G168+0.0001</f>
+        <v>1.2599999999999979E-2</v>
+      </c>
+      <c r="H169" s="7">
+        <f t="shared" si="112"/>
+        <v>9.5999999999999974E-3</v>
+      </c>
+      <c r="I169" s="7">
+        <v>8.2000000000000094E-3</v>
+      </c>
+      <c r="J169" s="9">
+        <f t="shared" si="98"/>
+        <v>107</v>
+      </c>
+      <c r="K169" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f t="shared" si="43"/>
+        <v>1E+238</v>
+      </c>
+      <c r="B170">
+        <v>166</v>
+      </c>
+      <c r="C170" s="23">
+        <v>0</v>
+      </c>
+      <c r="D170" s="7">
+        <f t="shared" si="85"/>
+        <v>0.21959999999999946</v>
+      </c>
+      <c r="E170" s="7">
+        <f t="shared" si="44"/>
+        <v>0.6850000000000005</v>
+      </c>
+      <c r="F170" s="7">
+        <f t="shared" si="46"/>
+        <v>7.3000000000000051E-2</v>
+      </c>
+      <c r="G170" s="7">
+        <f t="shared" ref="G170:H170" si="113">G169+0.0001</f>
+        <v>1.2699999999999979E-2</v>
+      </c>
+      <c r="H170" s="7">
+        <f t="shared" si="113"/>
+        <v>9.6999999999999968E-3</v>
+      </c>
+      <c r="I170" s="7">
+        <v>8.3000000000000105E-3</v>
+      </c>
+      <c r="J170" s="9">
+        <f t="shared" si="98"/>
+        <v>107</v>
+      </c>
+      <c r="K170" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+239</v>
+      </c>
+      <c r="B171">
+        <v>167</v>
+      </c>
+      <c r="C171" s="23">
+        <v>0</v>
+      </c>
+      <c r="D171" s="7">
+        <f t="shared" si="85"/>
+        <v>0.21389999999999953</v>
+      </c>
+      <c r="E171" s="7">
+        <f t="shared" si="44"/>
+        <v>0.6900000000000005</v>
+      </c>
+      <c r="F171" s="7">
+        <f t="shared" si="46"/>
+        <v>7.3500000000000051E-2</v>
+      </c>
+      <c r="G171" s="7">
+        <f t="shared" ref="G171:H171" si="114">G170+0.0001</f>
+        <v>1.2799999999999978E-2</v>
+      </c>
+      <c r="H171" s="7">
+        <f t="shared" si="114"/>
+        <v>9.7999999999999962E-3</v>
+      </c>
+      <c r="I171" s="7">
+        <v>8.4000000000000099E-3</v>
+      </c>
+      <c r="J171" s="9">
+        <f t="shared" si="98"/>
+        <v>107</v>
+      </c>
+      <c r="K171" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000002E+240</v>
+      </c>
+      <c r="B172">
+        <v>168</v>
+      </c>
+      <c r="C172" s="23">
+        <v>0</v>
+      </c>
+      <c r="D172" s="7">
+        <f t="shared" si="85"/>
+        <v>0.20819999999999939</v>
+      </c>
+      <c r="E172" s="7">
+        <f t="shared" si="44"/>
+        <v>0.69500000000000051</v>
+      </c>
+      <c r="F172" s="7">
+        <f t="shared" si="46"/>
+        <v>7.4000000000000052E-2</v>
+      </c>
+      <c r="G172" s="7">
+        <f t="shared" ref="G172:H172" si="115">G171+0.0001</f>
+        <v>1.2899999999999977E-2</v>
+      </c>
+      <c r="H172" s="7">
+        <f t="shared" si="115"/>
+        <v>9.8999999999999956E-3</v>
+      </c>
+      <c r="I172" s="7">
+        <v>8.5000000000000093E-3</v>
+      </c>
+      <c r="J172" s="9">
+        <f t="shared" si="98"/>
+        <v>113</v>
+      </c>
+      <c r="K172" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f t="shared" ref="A173:A186" si="116">A172*10</f>
+        <v>1.0000000000000002E+241</v>
+      </c>
+      <c r="B173">
+        <v>169</v>
+      </c>
+      <c r="C173" s="23">
+        <v>0</v>
+      </c>
+      <c r="D173" s="7">
+        <f t="shared" si="85"/>
+        <v>0.20249999999999946</v>
+      </c>
+      <c r="E173" s="7">
+        <f t="shared" ref="E173:E186" si="117">E172+0.005</f>
+        <v>0.70000000000000051</v>
+      </c>
+      <c r="F173" s="7">
+        <f t="shared" si="46"/>
+        <v>7.4500000000000052E-2</v>
+      </c>
+      <c r="G173" s="7">
+        <f t="shared" ref="G173:H173" si="118">G172+0.0001</f>
+        <v>1.2999999999999977E-2</v>
+      </c>
+      <c r="H173" s="7">
+        <f t="shared" si="118"/>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="I173" s="7">
+        <v>8.6000000000000104E-3</v>
+      </c>
+      <c r="J173" s="9">
+        <f t="shared" si="98"/>
+        <v>113</v>
+      </c>
+      <c r="K173" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000002E+242</v>
+      </c>
+      <c r="B174">
+        <v>170</v>
+      </c>
+      <c r="C174" s="23">
+        <v>0</v>
+      </c>
+      <c r="D174" s="7">
+        <f t="shared" si="85"/>
+        <v>0.19679999999999942</v>
+      </c>
+      <c r="E174" s="7">
+        <f t="shared" si="117"/>
+        <v>0.70500000000000052</v>
+      </c>
+      <c r="F174" s="7">
+        <f t="shared" ref="F174:F186" si="119">F173+0.0005</f>
+        <v>7.5000000000000053E-2</v>
+      </c>
+      <c r="G174" s="7">
+        <f t="shared" ref="G174:H174" si="120">G173+0.0001</f>
+        <v>1.3099999999999976E-2</v>
+      </c>
+      <c r="H174" s="7">
+        <f t="shared" si="120"/>
+        <v>1.0099999999999994E-2</v>
+      </c>
+      <c r="I174" s="7">
+        <v>8.7000000000000098E-3</v>
+      </c>
+      <c r="J174" s="9">
+        <f t="shared" si="98"/>
+        <v>113</v>
+      </c>
+      <c r="K174" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+243</v>
+      </c>
+      <c r="B175">
+        <v>171</v>
+      </c>
+      <c r="C175" s="23">
+        <v>0</v>
+      </c>
+      <c r="D175" s="7">
+        <f t="shared" ref="D175:D186" si="121">100%-(E175+F175+G175+H175)</f>
+        <v>0.19109999999999949</v>
+      </c>
+      <c r="E175" s="7">
+        <f t="shared" si="117"/>
+        <v>0.71000000000000052</v>
+      </c>
+      <c r="F175" s="7">
+        <f t="shared" si="119"/>
+        <v>7.5500000000000053E-2</v>
+      </c>
+      <c r="G175" s="7">
+        <f t="shared" ref="G175:H175" si="122">G174+0.0001</f>
+        <v>1.3199999999999976E-2</v>
+      </c>
+      <c r="H175" s="7">
+        <f t="shared" si="122"/>
+        <v>1.0199999999999994E-2</v>
+      </c>
+      <c r="I175" s="7">
+        <v>8.8000000000000092E-3</v>
+      </c>
+      <c r="J175" s="9">
+        <f t="shared" si="98"/>
+        <v>113</v>
+      </c>
+      <c r="K175" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="B176">
+        <v>172</v>
+      </c>
+      <c r="C176" s="23">
+        <v>0</v>
+      </c>
+      <c r="D176" s="7">
+        <f t="shared" si="121"/>
+        <v>0.18539999999999945</v>
+      </c>
+      <c r="E176" s="7">
+        <f t="shared" si="117"/>
+        <v>0.71500000000000052</v>
+      </c>
+      <c r="F176" s="7">
+        <f t="shared" si="119"/>
+        <v>7.6000000000000054E-2</v>
+      </c>
+      <c r="G176" s="7">
+        <f t="shared" ref="G176:H176" si="123">G175+0.0001</f>
+        <v>1.3299999999999975E-2</v>
+      </c>
+      <c r="H176" s="7">
+        <f t="shared" si="123"/>
+        <v>1.0299999999999993E-2</v>
+      </c>
+      <c r="I176" s="7">
+        <v>8.9000000000000103E-3</v>
+      </c>
+      <c r="J176" s="9">
+        <f t="shared" si="98"/>
+        <v>113</v>
+      </c>
+      <c r="K176" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <f t="shared" si="116"/>
+        <v>1E+245</v>
+      </c>
+      <c r="B177">
+        <v>173</v>
+      </c>
+      <c r="C177" s="23">
+        <v>0</v>
+      </c>
+      <c r="D177" s="7">
+        <f t="shared" si="121"/>
+        <v>0.17969999999999953</v>
+      </c>
+      <c r="E177" s="7">
+        <f t="shared" si="117"/>
+        <v>0.72000000000000053</v>
+      </c>
+      <c r="F177" s="7">
+        <f t="shared" si="119"/>
+        <v>7.6500000000000054E-2</v>
+      </c>
+      <c r="G177" s="7">
+        <f t="shared" ref="G177:H177" si="124">G176+0.0001</f>
+        <v>1.3399999999999974E-2</v>
+      </c>
+      <c r="H177" s="7">
+        <f t="shared" si="124"/>
+        <v>1.0399999999999993E-2</v>
+      </c>
+      <c r="I177" s="7">
+        <v>9.0000000000000097E-3</v>
+      </c>
+      <c r="J177" s="9">
+        <f t="shared" si="98"/>
+        <v>113</v>
+      </c>
+      <c r="K177" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="B178">
+        <v>174</v>
+      </c>
+      <c r="C178" s="23">
+        <v>0</v>
+      </c>
+      <c r="D178" s="7">
+        <f t="shared" si="121"/>
+        <v>0.17399999999999949</v>
+      </c>
+      <c r="E178" s="7">
+        <f t="shared" si="117"/>
+        <v>0.72500000000000053</v>
+      </c>
+      <c r="F178" s="7">
+        <f t="shared" si="119"/>
+        <v>7.7000000000000055E-2</v>
+      </c>
+      <c r="G178" s="7">
+        <f t="shared" ref="G178:H178" si="125">G177+0.0001</f>
+        <v>1.3499999999999974E-2</v>
+      </c>
+      <c r="H178" s="7">
+        <f t="shared" si="125"/>
+        <v>1.0499999999999992E-2</v>
+      </c>
+      <c r="I178" s="7">
+        <v>9.1000000000000109E-3</v>
+      </c>
+      <c r="J178" s="9">
+        <f t="shared" si="98"/>
+        <v>113</v>
+      </c>
+      <c r="K178" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+247</v>
+      </c>
+      <c r="B179">
+        <v>175</v>
+      </c>
+      <c r="C179" s="23">
+        <v>0</v>
+      </c>
+      <c r="D179" s="7">
+        <f t="shared" si="121"/>
+        <v>0.16829999999999956</v>
+      </c>
+      <c r="E179" s="7">
+        <f t="shared" si="117"/>
+        <v>0.73000000000000054</v>
+      </c>
+      <c r="F179" s="7">
+        <f t="shared" si="119"/>
+        <v>7.7500000000000055E-2</v>
+      </c>
+      <c r="G179" s="7">
+        <f t="shared" ref="G179:H179" si="126">G178+0.0001</f>
+        <v>1.3599999999999973E-2</v>
+      </c>
+      <c r="H179" s="7">
+        <f t="shared" si="126"/>
+        <v>1.0599999999999991E-2</v>
+      </c>
+      <c r="I179" s="7">
+        <v>9.2000000000000103E-3</v>
+      </c>
+      <c r="J179" s="9">
+        <f t="shared" si="98"/>
+        <v>113</v>
+      </c>
+      <c r="K179" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000002E+248</v>
+      </c>
+      <c r="B180">
+        <v>176</v>
+      </c>
+      <c r="C180" s="23">
+        <v>0</v>
+      </c>
+      <c r="D180" s="7">
+        <f t="shared" si="121"/>
+        <v>0.16259999999999941</v>
+      </c>
+      <c r="E180" s="7">
+        <f t="shared" si="117"/>
+        <v>0.73500000000000054</v>
+      </c>
+      <c r="F180" s="7">
+        <f t="shared" si="119"/>
+        <v>7.8000000000000055E-2</v>
+      </c>
+      <c r="G180" s="7">
+        <f t="shared" ref="G180:H180" si="127">G179+0.0001</f>
+        <v>1.3699999999999973E-2</v>
+      </c>
+      <c r="H180" s="7">
+        <f t="shared" si="127"/>
+        <v>1.0699999999999991E-2</v>
+      </c>
+      <c r="I180" s="7">
+        <v>9.3000000000000096E-3</v>
+      </c>
+      <c r="J180" s="9">
+        <f t="shared" si="98"/>
+        <v>119</v>
+      </c>
+      <c r="K180" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="B181">
+        <v>177</v>
+      </c>
+      <c r="C181" s="23">
+        <v>0</v>
+      </c>
+      <c r="D181" s="7">
+        <f t="shared" si="121"/>
+        <v>0.15689999999999948</v>
+      </c>
+      <c r="E181" s="7">
+        <f t="shared" si="117"/>
+        <v>0.74000000000000055</v>
+      </c>
+      <c r="F181" s="7">
+        <f t="shared" si="119"/>
+        <v>7.8500000000000056E-2</v>
+      </c>
+      <c r="G181" s="7">
+        <f t="shared" ref="G181:H181" si="128">G180+0.0001</f>
+        <v>1.3799999999999972E-2</v>
+      </c>
+      <c r="H181" s="7">
+        <f t="shared" si="128"/>
+        <v>1.079999999999999E-2</v>
+      </c>
+      <c r="I181" s="7">
+        <v>9.4000000000000108E-3</v>
+      </c>
+      <c r="J181" s="9">
+        <f t="shared" si="98"/>
+        <v>119</v>
+      </c>
+      <c r="K181" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="B182">
+        <v>178</v>
+      </c>
+      <c r="C182" s="23">
+        <v>0</v>
+      </c>
+      <c r="D182" s="7">
+        <f t="shared" si="121"/>
+        <v>0.15119999999999933</v>
+      </c>
+      <c r="E182" s="7">
+        <f t="shared" si="117"/>
+        <v>0.74500000000000055</v>
+      </c>
+      <c r="F182" s="7">
+        <f t="shared" si="119"/>
+        <v>7.9000000000000056E-2</v>
+      </c>
+      <c r="G182" s="7">
+        <f t="shared" ref="G182:H182" si="129">G181+0.0001</f>
+        <v>1.3899999999999971E-2</v>
+      </c>
+      <c r="H182" s="7">
+        <f t="shared" si="129"/>
+        <v>1.089999999999999E-2</v>
+      </c>
+      <c r="I182" s="7">
+        <v>9.5000000000000102E-3</v>
+      </c>
+      <c r="J182" s="9">
+        <f t="shared" si="98"/>
+        <v>119</v>
+      </c>
+      <c r="K182" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f t="shared" si="116"/>
+        <v>1E+251</v>
+      </c>
+      <c r="B183">
+        <v>179</v>
+      </c>
+      <c r="C183" s="23">
+        <v>0</v>
+      </c>
+      <c r="D183" s="7">
+        <f t="shared" si="121"/>
+        <v>0.14549999999999941</v>
+      </c>
+      <c r="E183" s="7">
+        <f t="shared" si="117"/>
+        <v>0.75000000000000056</v>
+      </c>
+      <c r="F183" s="7">
+        <f t="shared" si="119"/>
+        <v>7.9500000000000057E-2</v>
+      </c>
+      <c r="G183" s="7">
+        <f t="shared" ref="G183:H183" si="130">G182+0.0001</f>
+        <v>1.3999999999999971E-2</v>
+      </c>
+      <c r="H183" s="7">
+        <f t="shared" si="130"/>
+        <v>1.0999999999999989E-2</v>
+      </c>
+      <c r="I183" s="7">
+        <v>9.6000000000000096E-3</v>
+      </c>
+      <c r="J183" s="9">
+        <f t="shared" si="98"/>
+        <v>119</v>
+      </c>
+      <c r="K183" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="B184">
+        <v>180</v>
+      </c>
+      <c r="C184" s="23">
+        <v>0</v>
+      </c>
+      <c r="D184" s="7">
+        <f t="shared" si="121"/>
+        <v>0.13979999999999937</v>
+      </c>
+      <c r="E184" s="7">
+        <f t="shared" si="117"/>
+        <v>0.75500000000000056</v>
+      </c>
+      <c r="F184" s="7">
+        <f t="shared" si="119"/>
+        <v>8.0000000000000057E-2</v>
+      </c>
+      <c r="G184" s="7">
+        <f t="shared" ref="G184:H184" si="131">G183+0.0001</f>
+        <v>1.409999999999997E-2</v>
+      </c>
+      <c r="H184" s="7">
+        <f t="shared" si="131"/>
+        <v>1.1099999999999988E-2</v>
+      </c>
+      <c r="I184" s="7">
+        <v>9.7000000000000107E-3</v>
+      </c>
+      <c r="J184" s="9">
+        <f t="shared" si="98"/>
+        <v>119</v>
+      </c>
+      <c r="K184" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+253</v>
+      </c>
+      <c r="B185">
+        <v>181</v>
+      </c>
+      <c r="C185" s="23">
+        <v>0</v>
+      </c>
+      <c r="D185" s="7">
+        <f t="shared" si="121"/>
+        <v>0.13409999999999944</v>
+      </c>
+      <c r="E185" s="7">
+        <f t="shared" si="117"/>
+        <v>0.76000000000000056</v>
+      </c>
+      <c r="F185" s="7">
+        <f t="shared" si="119"/>
+        <v>8.0500000000000058E-2</v>
+      </c>
+      <c r="G185" s="7">
+        <f t="shared" ref="G185:H185" si="132">G184+0.0001</f>
+        <v>1.419999999999997E-2</v>
+      </c>
+      <c r="H185" s="7">
+        <f t="shared" si="132"/>
+        <v>1.1199999999999988E-2</v>
+      </c>
+      <c r="I185" s="7">
+        <v>9.8000000000000101E-3</v>
+      </c>
+      <c r="J185" s="9">
+        <f t="shared" si="98"/>
+        <v>119</v>
+      </c>
+      <c r="K185" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="B186">
+        <v>182</v>
+      </c>
+      <c r="C186" s="23">
+        <v>0</v>
+      </c>
+      <c r="D186" s="7">
+        <f t="shared" si="121"/>
+        <v>0.1283999999999994</v>
+      </c>
+      <c r="E186" s="7">
+        <f t="shared" si="117"/>
+        <v>0.76500000000000057</v>
+      </c>
+      <c r="F186" s="7">
+        <f t="shared" si="119"/>
+        <v>8.1000000000000058E-2</v>
+      </c>
+      <c r="G186" s="7">
+        <f t="shared" ref="G186:H186" si="133">G185+0.0001</f>
+        <v>1.4299999999999969E-2</v>
+      </c>
+      <c r="H186" s="7">
+        <f t="shared" si="133"/>
+        <v>1.1299999999999987E-2</v>
+      </c>
+      <c r="I186" s="7">
+        <v>9.9000000000000095E-3</v>
+      </c>
+      <c r="J186" s="9">
+        <f t="shared" si="98"/>
+        <v>119</v>
+      </c>
+      <c r="K186" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121 B124:B145">
+  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121 B124:B186">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C6=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAF5B77-0795-4C94-ACB3-9B8B5A8866EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B265BC7-7258-4A25-9E0F-88B2B05B4A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I143" sqref="I143"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B145" si="4">B114</f>
+        <f t="shared" ref="B115:B153" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D145" si="5">D142*10</f>
+        <f t="shared" ref="D143:D153" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -9370,6 +9370,478 @@
       </c>
       <c r="O145" s="1">
         <f>VLOOKUP(A145,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>4</v>
+      </c>
+      <c r="D146" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+216</v>
+      </c>
+      <c r="E146">
+        <v>30800</v>
+      </c>
+      <c r="F146" s="10">
+        <f>VLOOKUP(A146,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="10">
+        <f>VLOOKUP(A146,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.34499999999999953</v>
+      </c>
+      <c r="H146" s="10">
+        <f>VLOOKUP(A146,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.5750000000000004</v>
+      </c>
+      <c r="I146" s="10">
+        <f>VLOOKUP(A146,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.2000000000000041E-2</v>
+      </c>
+      <c r="J146" s="10">
+        <f>VLOOKUP(A146,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.0499999999999992E-2</v>
+      </c>
+      <c r="K146" s="10">
+        <f>VLOOKUP(A146,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.5000000000000067E-3</v>
+      </c>
+      <c r="L146" s="10">
+        <f>VLOOKUP(A146,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M146" s="9">
+        <f>VLOOKUP(A146,Balance1!$B:$K,9,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="N146" s="1">
+        <f>VLOOKUP(A146,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O146" s="1">
+        <f>VLOOKUP(A146,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>4</v>
+      </c>
+      <c r="D147" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+217</v>
+      </c>
+      <c r="E147">
+        <v>31000</v>
+      </c>
+      <c r="F147" s="10">
+        <f>VLOOKUP(A147,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="10">
+        <f>VLOOKUP(A147,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.3392999999999996</v>
+      </c>
+      <c r="H147" s="10">
+        <f>VLOOKUP(A147,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.5800000000000004</v>
+      </c>
+      <c r="I147" s="10">
+        <f>VLOOKUP(A147,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.2500000000000042E-2</v>
+      </c>
+      <c r="J147" s="10">
+        <f>VLOOKUP(A147,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.0599999999999991E-2</v>
+      </c>
+      <c r="K147" s="10">
+        <f>VLOOKUP(A147,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.6000000000000069E-3</v>
+      </c>
+      <c r="L147" s="10">
+        <f>VLOOKUP(A147,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="M147" s="9">
+        <f>VLOOKUP(A147,Balance1!$B:$K,9,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="N147" s="1">
+        <f>VLOOKUP(A147,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O147" s="1">
+        <f>VLOOKUP(A147,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C148" s="1">
+        <v>4</v>
+      </c>
+      <c r="D148" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="E148">
+        <v>31200</v>
+      </c>
+      <c r="F148" s="10">
+        <f>VLOOKUP(A148,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G148" s="10">
+        <f>VLOOKUP(A148,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.33359999999999945</v>
+      </c>
+      <c r="H148" s="10">
+        <f>VLOOKUP(A148,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.58500000000000041</v>
+      </c>
+      <c r="I148" s="10">
+        <f>VLOOKUP(A148,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.3000000000000042E-2</v>
+      </c>
+      <c r="J148" s="10">
+        <f>VLOOKUP(A148,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.0699999999999991E-2</v>
+      </c>
+      <c r="K148" s="10">
+        <f>VLOOKUP(A148,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.7000000000000072E-3</v>
+      </c>
+      <c r="L148" s="10">
+        <f>VLOOKUP(A148,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.3E-3</v>
+      </c>
+      <c r="M148" s="9">
+        <f>VLOOKUP(A148,Balance1!$B:$K,9,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="N148" s="1">
+        <f>VLOOKUP(A148,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O148" s="1">
+        <f>VLOOKUP(A148,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>4</v>
+      </c>
+      <c r="D149" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+219</v>
+      </c>
+      <c r="E149">
+        <v>31400</v>
+      </c>
+      <c r="F149" s="10">
+        <f>VLOOKUP(A149,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G149" s="10">
+        <f>VLOOKUP(A149,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.32789999999999953</v>
+      </c>
+      <c r="H149" s="10">
+        <f>VLOOKUP(A149,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.59000000000000041</v>
+      </c>
+      <c r="I149" s="10">
+        <f>VLOOKUP(A149,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.3500000000000043E-2</v>
+      </c>
+      <c r="J149" s="10">
+        <f>VLOOKUP(A149,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.079999999999999E-2</v>
+      </c>
+      <c r="K149" s="10">
+        <f>VLOOKUP(A149,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.8000000000000074E-3</v>
+      </c>
+      <c r="L149" s="10">
+        <f>VLOOKUP(A149,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="M149" s="9">
+        <f>VLOOKUP(A149,Balance1!$B:$K,9,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="N149" s="1">
+        <f>VLOOKUP(A149,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O149" s="1">
+        <f>VLOOKUP(A149,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>4</v>
+      </c>
+      <c r="D150" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="E150">
+        <v>31600</v>
+      </c>
+      <c r="F150" s="10">
+        <f>VLOOKUP(A150,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="10">
+        <f>VLOOKUP(A150,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.32219999999999949</v>
+      </c>
+      <c r="H150" s="10">
+        <f>VLOOKUP(A150,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.59500000000000042</v>
+      </c>
+      <c r="I150" s="10">
+        <f>VLOOKUP(A150,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.4000000000000043E-2</v>
+      </c>
+      <c r="J150" s="10">
+        <f>VLOOKUP(A150,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.089999999999999E-2</v>
+      </c>
+      <c r="K150" s="10">
+        <f>VLOOKUP(A150,Balance1!$B:$K,7,FALSE)</f>
+        <v>7.9000000000000077E-3</v>
+      </c>
+      <c r="L150" s="10">
+        <f>VLOOKUP(A150,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="M150" s="9">
+        <f>VLOOKUP(A150,Balance1!$B:$K,9,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="N150" s="1">
+        <f>VLOOKUP(A150,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O150" s="1">
+        <f>VLOOKUP(A150,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>4</v>
+      </c>
+      <c r="D151" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+221</v>
+      </c>
+      <c r="E151">
+        <v>31800</v>
+      </c>
+      <c r="F151" s="10">
+        <f>VLOOKUP(A151,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G151" s="10">
+        <f>VLOOKUP(A151,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.31649999999999956</v>
+      </c>
+      <c r="H151" s="10">
+        <f>VLOOKUP(A151,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.60000000000000042</v>
+      </c>
+      <c r="I151" s="10">
+        <f>VLOOKUP(A151,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.4500000000000043E-2</v>
+      </c>
+      <c r="J151" s="10">
+        <f>VLOOKUP(A151,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.0999999999999989E-2</v>
+      </c>
+      <c r="K151" s="10">
+        <f>VLOOKUP(A151,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="L151" s="10">
+        <f>VLOOKUP(A151,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.6E-3</v>
+      </c>
+      <c r="M151" s="9">
+        <f>VLOOKUP(A151,Balance1!$B:$K,9,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="N151" s="1">
+        <f>VLOOKUP(A151,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O151" s="1">
+        <f>VLOOKUP(A151,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4</v>
+      </c>
+      <c r="D152" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+222</v>
+      </c>
+      <c r="E152">
+        <v>32000</v>
+      </c>
+      <c r="F152" s="10">
+        <f>VLOOKUP(A152,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G152" s="10">
+        <f>VLOOKUP(A152,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.31079999999999952</v>
+      </c>
+      <c r="H152" s="10">
+        <f>VLOOKUP(A152,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.60500000000000043</v>
+      </c>
+      <c r="I152" s="10">
+        <f>VLOOKUP(A152,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.5000000000000044E-2</v>
+      </c>
+      <c r="J152" s="10">
+        <f>VLOOKUP(A152,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1099999999999988E-2</v>
+      </c>
+      <c r="K152" s="10">
+        <f>VLOOKUP(A152,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.1000000000000065E-3</v>
+      </c>
+      <c r="L152" s="10">
+        <f>VLOOKUP(A152,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="M152" s="9">
+        <f>VLOOKUP(A152,Balance1!$B:$K,9,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="N152" s="1">
+        <f>VLOOKUP(A152,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O152" s="1">
+        <f>VLOOKUP(A152,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C153" s="1">
+        <v>4</v>
+      </c>
+      <c r="D153" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+223</v>
+      </c>
+      <c r="E153">
+        <v>32200</v>
+      </c>
+      <c r="F153" s="10">
+        <f>VLOOKUP(A153,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="10">
+        <f>VLOOKUP(A153,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.30509999999999959</v>
+      </c>
+      <c r="H153" s="10">
+        <f>VLOOKUP(A153,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.61000000000000043</v>
+      </c>
+      <c r="I153" s="10">
+        <f>VLOOKUP(A153,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.5500000000000044E-2</v>
+      </c>
+      <c r="J153" s="10">
+        <f>VLOOKUP(A153,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1199999999999988E-2</v>
+      </c>
+      <c r="K153" s="10">
+        <f>VLOOKUP(A153,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.2000000000000059E-3</v>
+      </c>
+      <c r="L153" s="10">
+        <f>VLOOKUP(A153,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M153" s="9">
+        <f>VLOOKUP(A153,Balance1!$B:$K,9,FALSE)</f>
+        <v>95</v>
+      </c>
+      <c r="N153" s="1">
+        <f>VLOOKUP(A153,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O153" s="1">
+        <f>VLOOKUP(A153,Balance1!$B:$L,11,FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -9380,7 +9852,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D145">
+  <conditionalFormatting sqref="D2:E85 D86:D153">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9394,8 +9866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:AB186"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B265BC7-7258-4A25-9E0F-88B2B05B4A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EEFEC9-70D1-47AD-8C6C-3CFD2FB7F79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B153" si="4">B114</f>
+        <f t="shared" ref="B115:B157" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D153" si="5">D142*10</f>
+        <f t="shared" ref="D143:D157" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -9842,6 +9842,242 @@
       </c>
       <c r="O153" s="1">
         <f>VLOOKUP(A153,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C154" s="1">
+        <v>4</v>
+      </c>
+      <c r="D154" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="E154">
+        <v>32400</v>
+      </c>
+      <c r="F154" s="10">
+        <f>VLOOKUP(A154,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G154" s="10">
+        <f>VLOOKUP(A154,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.29939999999999956</v>
+      </c>
+      <c r="H154" s="10">
+        <f>VLOOKUP(A154,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.61500000000000044</v>
+      </c>
+      <c r="I154" s="10">
+        <f>VLOOKUP(A154,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.6000000000000045E-2</v>
+      </c>
+      <c r="J154" s="10">
+        <f>VLOOKUP(A154,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1299999999999987E-2</v>
+      </c>
+      <c r="K154" s="10">
+        <f>VLOOKUP(A154,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.3000000000000053E-3</v>
+      </c>
+      <c r="L154" s="10">
+        <f>VLOOKUP(A154,Balance1!$B:$K,8,FALSE)</f>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="M154" s="9">
+        <f>VLOOKUP(A154,Balance1!$B:$K,9,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="N154" s="1">
+        <f>VLOOKUP(A154,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O154" s="1">
+        <f>VLOOKUP(A154,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C155" s="1">
+        <v>4</v>
+      </c>
+      <c r="D155" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="E155">
+        <v>32600</v>
+      </c>
+      <c r="F155" s="10">
+        <f>VLOOKUP(A155,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G155" s="10">
+        <f>VLOOKUP(A155,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.29369999999999963</v>
+      </c>
+      <c r="H155" s="10">
+        <f>VLOOKUP(A155,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.62000000000000044</v>
+      </c>
+      <c r="I155" s="10">
+        <f>VLOOKUP(A155,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.6500000000000045E-2</v>
+      </c>
+      <c r="J155" s="10">
+        <f>VLOOKUP(A155,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1399999999999987E-2</v>
+      </c>
+      <c r="K155" s="10">
+        <f>VLOOKUP(A155,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.4000000000000047E-3</v>
+      </c>
+      <c r="L155" s="10">
+        <f>VLOOKUP(A155,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.0000000000000097E-3</v>
+      </c>
+      <c r="M155" s="9">
+        <f>VLOOKUP(A155,Balance1!$B:$K,9,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="N155" s="1">
+        <f>VLOOKUP(A155,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O155" s="1">
+        <f>VLOOKUP(A155,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C156" s="1">
+        <v>4</v>
+      </c>
+      <c r="D156" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="E156">
+        <v>32800</v>
+      </c>
+      <c r="F156" s="10">
+        <f>VLOOKUP(A156,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G156" s="10">
+        <f>VLOOKUP(A156,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.28799999999999959</v>
+      </c>
+      <c r="H156" s="10">
+        <f>VLOOKUP(A156,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.62500000000000044</v>
+      </c>
+      <c r="I156" s="10">
+        <f>VLOOKUP(A156,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.7000000000000046E-2</v>
+      </c>
+      <c r="J156" s="10">
+        <f>VLOOKUP(A156,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1499999999999986E-2</v>
+      </c>
+      <c r="K156" s="10">
+        <f>VLOOKUP(A156,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.5000000000000041E-3</v>
+      </c>
+      <c r="L156" s="10">
+        <f>VLOOKUP(A156,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.1000000000000099E-3</v>
+      </c>
+      <c r="M156" s="9">
+        <f>VLOOKUP(A156,Balance1!$B:$K,9,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="N156" s="1">
+        <f>VLOOKUP(A156,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O156" s="1">
+        <f>VLOOKUP(A156,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>4</v>
+      </c>
+      <c r="D157" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="E157">
+        <v>33000</v>
+      </c>
+      <c r="F157" s="10">
+        <f>VLOOKUP(A157,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G157" s="10">
+        <f>VLOOKUP(A157,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.28229999999999955</v>
+      </c>
+      <c r="H157" s="10">
+        <f>VLOOKUP(A157,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.63000000000000045</v>
+      </c>
+      <c r="I157" s="10">
+        <f>VLOOKUP(A157,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.7500000000000046E-2</v>
+      </c>
+      <c r="J157" s="10">
+        <f>VLOOKUP(A157,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1599999999999985E-2</v>
+      </c>
+      <c r="K157" s="10">
+        <f>VLOOKUP(A157,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.6000000000000035E-3</v>
+      </c>
+      <c r="L157" s="10">
+        <f>VLOOKUP(A157,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.2000000000000102E-3</v>
+      </c>
+      <c r="M157" s="9">
+        <f>VLOOKUP(A157,Balance1!$B:$K,9,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="N157" s="1">
+        <f>VLOOKUP(A157,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O157" s="1">
+        <f>VLOOKUP(A157,Balance1!$B:$L,11,FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -9852,7 +10088,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D153">
+  <conditionalFormatting sqref="D2:E85 D86:D157">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EEFEC9-70D1-47AD-8C6C-3CFD2FB7F79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FB8EC-B949-47CB-B4CA-209A24ED44C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:O161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O158" sqref="A158:O161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B157" si="4">B114</f>
+        <f t="shared" ref="B115:B161" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D157" si="5">D142*10</f>
+        <f t="shared" ref="D143:D161" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -10078,6 +10078,242 @@
       </c>
       <c r="O157" s="1">
         <f>VLOOKUP(A157,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>4</v>
+      </c>
+      <c r="D158" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="E158">
+        <v>33200</v>
+      </c>
+      <c r="F158" s="10">
+        <f>VLOOKUP(A158,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G158" s="10">
+        <f>VLOOKUP(A158,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.27659999999999951</v>
+      </c>
+      <c r="H158" s="10">
+        <f>VLOOKUP(A158,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.63500000000000045</v>
+      </c>
+      <c r="I158" s="10">
+        <f>VLOOKUP(A158,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.8000000000000047E-2</v>
+      </c>
+      <c r="J158" s="10">
+        <f>VLOOKUP(A158,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1699999999999985E-2</v>
+      </c>
+      <c r="K158" s="10">
+        <f>VLOOKUP(A158,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.7000000000000029E-3</v>
+      </c>
+      <c r="L158" s="10">
+        <f>VLOOKUP(A158,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.3000000000000096E-3</v>
+      </c>
+      <c r="M158" s="9">
+        <f>VLOOKUP(A158,Balance1!$B:$K,9,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="N158" s="1">
+        <f>VLOOKUP(A158,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O158" s="1">
+        <f>VLOOKUP(A158,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C159" s="1">
+        <v>4</v>
+      </c>
+      <c r="D159" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999999E+228</v>
+      </c>
+      <c r="E159">
+        <v>33400</v>
+      </c>
+      <c r="F159" s="10">
+        <f>VLOOKUP(A159,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G159" s="10">
+        <f>VLOOKUP(A159,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.27089999999999947</v>
+      </c>
+      <c r="H159" s="10">
+        <f>VLOOKUP(A159,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.64000000000000046</v>
+      </c>
+      <c r="I159" s="10">
+        <f>VLOOKUP(A159,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.8500000000000047E-2</v>
+      </c>
+      <c r="J159" s="10">
+        <f>VLOOKUP(A159,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1799999999999984E-2</v>
+      </c>
+      <c r="K159" s="10">
+        <f>VLOOKUP(A159,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.8000000000000023E-3</v>
+      </c>
+      <c r="L159" s="10">
+        <f>VLOOKUP(A159,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.4000000000000099E-3</v>
+      </c>
+      <c r="M159" s="9">
+        <f>VLOOKUP(A159,Balance1!$B:$K,9,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="N159" s="1">
+        <f>VLOOKUP(A159,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O159" s="1">
+        <f>VLOOKUP(A159,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>4</v>
+      </c>
+      <c r="D160" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="E160">
+        <v>33600</v>
+      </c>
+      <c r="F160" s="10">
+        <f>VLOOKUP(A160,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G160" s="10">
+        <f>VLOOKUP(A160,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.26519999999999944</v>
+      </c>
+      <c r="H160" s="10">
+        <f>VLOOKUP(A160,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.64500000000000046</v>
+      </c>
+      <c r="I160" s="10">
+        <f>VLOOKUP(A160,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.9000000000000047E-2</v>
+      </c>
+      <c r="J160" s="10">
+        <f>VLOOKUP(A160,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1899999999999984E-2</v>
+      </c>
+      <c r="K160" s="10">
+        <f>VLOOKUP(A160,Balance1!$B:$K,7,FALSE)</f>
+        <v>8.9000000000000017E-3</v>
+      </c>
+      <c r="L160" s="10">
+        <f>VLOOKUP(A160,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.5000000000000101E-3</v>
+      </c>
+      <c r="M160" s="9">
+        <f>VLOOKUP(A160,Balance1!$B:$K,9,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="N160" s="1">
+        <f>VLOOKUP(A160,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O160" s="1">
+        <f>VLOOKUP(A160,Balance1!$B:$L,11,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C161" s="1">
+        <v>4</v>
+      </c>
+      <c r="D161" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999988E+230</v>
+      </c>
+      <c r="E161">
+        <v>33800</v>
+      </c>
+      <c r="F161" s="10">
+        <f>VLOOKUP(A161,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G161" s="10">
+        <f>VLOOKUP(A161,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.25949999999999951</v>
+      </c>
+      <c r="H161" s="10">
+        <f>VLOOKUP(A161,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.65000000000000047</v>
+      </c>
+      <c r="I161" s="10">
+        <f>VLOOKUP(A161,Balance1!$B:$K,5,FALSE)</f>
+        <v>6.9500000000000048E-2</v>
+      </c>
+      <c r="J161" s="10">
+        <f>VLOOKUP(A161,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.1999999999999983E-2</v>
+      </c>
+      <c r="K161" s="10">
+        <f>VLOOKUP(A161,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="L161" s="10">
+        <f>VLOOKUP(A161,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.6000000000000104E-3</v>
+      </c>
+      <c r="M161" s="9">
+        <f>VLOOKUP(A161,Balance1!$B:$K,9,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="N161" s="1">
+        <f>VLOOKUP(A161,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O161" s="1">
+        <f>VLOOKUP(A161,Balance1!$B:$L,11,FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -10088,7 +10324,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D157">
+  <conditionalFormatting sqref="D2:E85 D86:D161">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FB8EC-B949-47CB-B4CA-209A24ED44C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3155A0-FA0A-4873-89EC-329BF2E7F5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O161"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O158" sqref="A158:O161"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M154" sqref="M154:M158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B161" si="4">B114</f>
+        <f t="shared" ref="B115:B165" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D161" si="5">D142*10</f>
+        <f t="shared" ref="D143:D165" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -10315,6 +10315,242 @@
       <c r="O161" s="1">
         <f>VLOOKUP(A161,Balance1!$B:$L,11,FALSE)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C162" s="1">
+        <v>4</v>
+      </c>
+      <c r="D162" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="E162">
+        <v>34000</v>
+      </c>
+      <c r="F162" s="10">
+        <f>VLOOKUP(A162,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="10">
+        <f>VLOOKUP(A162,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.25379999999999947</v>
+      </c>
+      <c r="H162" s="10">
+        <f>VLOOKUP(A162,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.65500000000000047</v>
+      </c>
+      <c r="I162" s="10">
+        <f>VLOOKUP(A162,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.0000000000000048E-2</v>
+      </c>
+      <c r="J162" s="10">
+        <f>VLOOKUP(A162,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.2099999999999982E-2</v>
+      </c>
+      <c r="K162" s="10">
+        <f>VLOOKUP(A162,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="L162" s="10">
+        <f>VLOOKUP(A162,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.7000000000000098E-3</v>
+      </c>
+      <c r="M162" s="9">
+        <f>VLOOKUP(A162,Balance1!$B:$K,9,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="N162" s="1">
+        <f>VLOOKUP(A162,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O162" s="1">
+        <f>VLOOKUP(A162,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4</v>
+      </c>
+      <c r="D163" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999997E+232</v>
+      </c>
+      <c r="E163">
+        <v>34200</v>
+      </c>
+      <c r="F163" s="10">
+        <f>VLOOKUP(A163,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G163" s="10">
+        <f>VLOOKUP(A163,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.24809999999999954</v>
+      </c>
+      <c r="H163" s="10">
+        <f>VLOOKUP(A163,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.66000000000000048</v>
+      </c>
+      <c r="I163" s="10">
+        <f>VLOOKUP(A163,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.0500000000000049E-2</v>
+      </c>
+      <c r="J163" s="10">
+        <f>VLOOKUP(A163,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.2199999999999982E-2</v>
+      </c>
+      <c r="K163" s="10">
+        <f>VLOOKUP(A163,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="L163" s="10">
+        <f>VLOOKUP(A163,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.8000000000000101E-3</v>
+      </c>
+      <c r="M163" s="9">
+        <f>VLOOKUP(A163,Balance1!$B:$K,9,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="N163" s="1">
+        <f>VLOOKUP(A163,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O163" s="1">
+        <f>VLOOKUP(A163,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>4</v>
+      </c>
+      <c r="D164" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+234</v>
+      </c>
+      <c r="E164">
+        <v>34400</v>
+      </c>
+      <c r="F164" s="10">
+        <f>VLOOKUP(A164,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G164" s="10">
+        <f>VLOOKUP(A164,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.2423999999999995</v>
+      </c>
+      <c r="H164" s="10">
+        <f>VLOOKUP(A164,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.66500000000000048</v>
+      </c>
+      <c r="I164" s="10">
+        <f>VLOOKUP(A164,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.1000000000000049E-2</v>
+      </c>
+      <c r="J164" s="10">
+        <f>VLOOKUP(A164,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.2299999999999981E-2</v>
+      </c>
+      <c r="K164" s="10">
+        <f>VLOOKUP(A164,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="L164" s="10">
+        <f>VLOOKUP(A164,Balance1!$B:$K,8,FALSE)</f>
+        <v>7.9000000000000094E-3</v>
+      </c>
+      <c r="M164" s="9">
+        <f>VLOOKUP(A164,Balance1!$B:$K,9,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="N164" s="1">
+        <f>VLOOKUP(A164,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O164" s="1">
+        <f>VLOOKUP(A164,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C165" s="1">
+        <v>4</v>
+      </c>
+      <c r="D165" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+235</v>
+      </c>
+      <c r="E165">
+        <v>34600</v>
+      </c>
+      <c r="F165" s="10">
+        <f>VLOOKUP(A165,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G165" s="10">
+        <f>VLOOKUP(A165,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.23669999999999958</v>
+      </c>
+      <c r="H165" s="10">
+        <f>VLOOKUP(A165,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.67000000000000048</v>
+      </c>
+      <c r="I165" s="10">
+        <f>VLOOKUP(A165,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.150000000000005E-2</v>
+      </c>
+      <c r="J165" s="10">
+        <f>VLOOKUP(A165,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.239999999999998E-2</v>
+      </c>
+      <c r="K165" s="10">
+        <f>VLOOKUP(A165,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.3999999999999986E-3</v>
+      </c>
+      <c r="L165" s="10">
+        <f>VLOOKUP(A165,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.0000000000000106E-3</v>
+      </c>
+      <c r="M165" s="9">
+        <f>VLOOKUP(A165,Balance1!$B:$K,9,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="N165" s="1">
+        <f>VLOOKUP(A165,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O165" s="1">
+        <f>VLOOKUP(A165,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10324,7 +10560,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D161">
+  <conditionalFormatting sqref="D2:E85 D86:D165">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3155A0-FA0A-4873-89EC-329BF2E7F5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD94F92-CA8B-490E-9127-382B95853BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O165"/>
+  <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M154" sqref="M154:M158"/>
+      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B165" si="4">B114</f>
+        <f t="shared" ref="B115:B169" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D165" si="5">D142*10</f>
+        <f t="shared" ref="D143:D169" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -10550,6 +10550,242 @@
       </c>
       <c r="O165" s="1">
         <f>VLOOKUP(A165,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C166" s="1">
+        <v>4</v>
+      </c>
+      <c r="D166" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="E166">
+        <v>34800</v>
+      </c>
+      <c r="F166" s="10">
+        <f>VLOOKUP(A166,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G166" s="10">
+        <f>VLOOKUP(A166,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.23099999999999954</v>
+      </c>
+      <c r="H166" s="10">
+        <f>VLOOKUP(A166,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.67500000000000049</v>
+      </c>
+      <c r="I166" s="10">
+        <f>VLOOKUP(A166,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.200000000000005E-2</v>
+      </c>
+      <c r="J166" s="10">
+        <f>VLOOKUP(A166,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.249999999999998E-2</v>
+      </c>
+      <c r="K166" s="10">
+        <f>VLOOKUP(A166,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.499999999999998E-3</v>
+      </c>
+      <c r="L166" s="10">
+        <f>VLOOKUP(A166,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.10000000000001E-3</v>
+      </c>
+      <c r="M166" s="9">
+        <f>VLOOKUP(A166,Balance1!$B:$K,9,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="N166" s="1">
+        <f>VLOOKUP(A166,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O166" s="1">
+        <f>VLOOKUP(A166,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
+      <c r="D167" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+237</v>
+      </c>
+      <c r="E167">
+        <v>35000</v>
+      </c>
+      <c r="F167" s="10">
+        <f>VLOOKUP(A167,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G167" s="10">
+        <f>VLOOKUP(A167,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.22529999999999961</v>
+      </c>
+      <c r="H167" s="10">
+        <f>VLOOKUP(A167,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.68000000000000049</v>
+      </c>
+      <c r="I167" s="10">
+        <f>VLOOKUP(A167,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.2500000000000051E-2</v>
+      </c>
+      <c r="J167" s="10">
+        <f>VLOOKUP(A167,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.2599999999999979E-2</v>
+      </c>
+      <c r="K167" s="10">
+        <f>VLOOKUP(A167,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.5999999999999974E-3</v>
+      </c>
+      <c r="L167" s="10">
+        <f>VLOOKUP(A167,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.2000000000000094E-3</v>
+      </c>
+      <c r="M167" s="9">
+        <f>VLOOKUP(A167,Balance1!$B:$K,9,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="N167" s="1">
+        <f>VLOOKUP(A167,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O167" s="1">
+        <f>VLOOKUP(A167,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C168" s="1">
+        <v>4</v>
+      </c>
+      <c r="D168" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+238</v>
+      </c>
+      <c r="E168">
+        <v>35200</v>
+      </c>
+      <c r="F168" s="10">
+        <f>VLOOKUP(A168,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G168" s="10">
+        <f>VLOOKUP(A168,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.21959999999999946</v>
+      </c>
+      <c r="H168" s="10">
+        <f>VLOOKUP(A168,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.6850000000000005</v>
+      </c>
+      <c r="I168" s="10">
+        <f>VLOOKUP(A168,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.3000000000000051E-2</v>
+      </c>
+      <c r="J168" s="10">
+        <f>VLOOKUP(A168,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.2699999999999979E-2</v>
+      </c>
+      <c r="K168" s="10">
+        <f>VLOOKUP(A168,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.6999999999999968E-3</v>
+      </c>
+      <c r="L168" s="10">
+        <f>VLOOKUP(A168,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.3000000000000105E-3</v>
+      </c>
+      <c r="M168" s="9">
+        <f>VLOOKUP(A168,Balance1!$B:$K,9,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="N168" s="1">
+        <f>VLOOKUP(A168,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O168" s="1">
+        <f>VLOOKUP(A168,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C169" s="1">
+        <v>4</v>
+      </c>
+      <c r="D169" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+239</v>
+      </c>
+      <c r="E169">
+        <v>35400</v>
+      </c>
+      <c r="F169" s="10">
+        <f>VLOOKUP(A169,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G169" s="10">
+        <f>VLOOKUP(A169,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.21389999999999953</v>
+      </c>
+      <c r="H169" s="10">
+        <f>VLOOKUP(A169,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.6900000000000005</v>
+      </c>
+      <c r="I169" s="10">
+        <f>VLOOKUP(A169,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.3500000000000051E-2</v>
+      </c>
+      <c r="J169" s="10">
+        <f>VLOOKUP(A169,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.2799999999999978E-2</v>
+      </c>
+      <c r="K169" s="10">
+        <f>VLOOKUP(A169,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.7999999999999962E-3</v>
+      </c>
+      <c r="L169" s="10">
+        <f>VLOOKUP(A169,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.4000000000000099E-3</v>
+      </c>
+      <c r="M169" s="9">
+        <f>VLOOKUP(A169,Balance1!$B:$K,9,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="N169" s="1">
+        <f>VLOOKUP(A169,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O169" s="1">
+        <f>VLOOKUP(A169,Balance1!$B:$L,11,FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -10560,7 +10796,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D165">
+  <conditionalFormatting sqref="D2:E85 D86:D169">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD94F92-CA8B-490E-9127-382B95853BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323296B1-645B-406C-ACCD-6F6101D4A53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D166" sqref="D166"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B169" si="4">B114</f>
+        <f t="shared" ref="B115:B173" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D169" si="5">D142*10</f>
+        <f t="shared" ref="D143:D173" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -10786,6 +10786,242 @@
       </c>
       <c r="O169" s="1">
         <f>VLOOKUP(A169,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>4</v>
+      </c>
+      <c r="D170" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+240</v>
+      </c>
+      <c r="E170">
+        <v>35600</v>
+      </c>
+      <c r="F170" s="10">
+        <f>VLOOKUP(A170,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G170" s="10">
+        <f>VLOOKUP(A170,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.20819999999999939</v>
+      </c>
+      <c r="H170" s="10">
+        <f>VLOOKUP(A170,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.69500000000000051</v>
+      </c>
+      <c r="I170" s="10">
+        <f>VLOOKUP(A170,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.4000000000000052E-2</v>
+      </c>
+      <c r="J170" s="10">
+        <f>VLOOKUP(A170,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.2899999999999977E-2</v>
+      </c>
+      <c r="K170" s="10">
+        <f>VLOOKUP(A170,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.8999999999999956E-3</v>
+      </c>
+      <c r="L170" s="10">
+        <f>VLOOKUP(A170,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.5000000000000093E-3</v>
+      </c>
+      <c r="M170" s="9">
+        <f>VLOOKUP(A170,Balance1!$B:$K,9,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="N170" s="1">
+        <f>VLOOKUP(A170,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O170" s="1">
+        <f>VLOOKUP(A170,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C171" s="1">
+        <v>4</v>
+      </c>
+      <c r="D171" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+241</v>
+      </c>
+      <c r="E171">
+        <v>35800</v>
+      </c>
+      <c r="F171" s="10">
+        <f>VLOOKUP(A171,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G171" s="10">
+        <f>VLOOKUP(A171,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.20249999999999946</v>
+      </c>
+      <c r="H171" s="10">
+        <f>VLOOKUP(A171,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.70000000000000051</v>
+      </c>
+      <c r="I171" s="10">
+        <f>VLOOKUP(A171,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.4500000000000052E-2</v>
+      </c>
+      <c r="J171" s="10">
+        <f>VLOOKUP(A171,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.2999999999999977E-2</v>
+      </c>
+      <c r="K171" s="10">
+        <f>VLOOKUP(A171,Balance1!$B:$K,7,FALSE)</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="L171" s="10">
+        <f>VLOOKUP(A171,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.6000000000000104E-3</v>
+      </c>
+      <c r="M171" s="9">
+        <f>VLOOKUP(A171,Balance1!$B:$K,9,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="N171" s="1">
+        <f>VLOOKUP(A171,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O171" s="1">
+        <f>VLOOKUP(A171,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>4</v>
+      </c>
+      <c r="D172" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+242</v>
+      </c>
+      <c r="E172">
+        <v>36000</v>
+      </c>
+      <c r="F172" s="10">
+        <f>VLOOKUP(A172,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G172" s="10">
+        <f>VLOOKUP(A172,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.19679999999999942</v>
+      </c>
+      <c r="H172" s="10">
+        <f>VLOOKUP(A172,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.70500000000000052</v>
+      </c>
+      <c r="I172" s="10">
+        <f>VLOOKUP(A172,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.5000000000000053E-2</v>
+      </c>
+      <c r="J172" s="10">
+        <f>VLOOKUP(A172,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3099999999999976E-2</v>
+      </c>
+      <c r="K172" s="10">
+        <f>VLOOKUP(A172,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.0099999999999994E-2</v>
+      </c>
+      <c r="L172" s="10">
+        <f>VLOOKUP(A172,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.7000000000000098E-3</v>
+      </c>
+      <c r="M172" s="9">
+        <f>VLOOKUP(A172,Balance1!$B:$K,9,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="N172" s="1">
+        <f>VLOOKUP(A172,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O172" s="1">
+        <f>VLOOKUP(A172,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C173" s="1">
+        <v>4</v>
+      </c>
+      <c r="D173" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+243</v>
+      </c>
+      <c r="E173">
+        <v>36200</v>
+      </c>
+      <c r="F173" s="10">
+        <f>VLOOKUP(A173,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G173" s="10">
+        <f>VLOOKUP(A173,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.19109999999999949</v>
+      </c>
+      <c r="H173" s="10">
+        <f>VLOOKUP(A173,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.71000000000000052</v>
+      </c>
+      <c r="I173" s="10">
+        <f>VLOOKUP(A173,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.5500000000000053E-2</v>
+      </c>
+      <c r="J173" s="10">
+        <f>VLOOKUP(A173,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3199999999999976E-2</v>
+      </c>
+      <c r="K173" s="10">
+        <f>VLOOKUP(A173,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.0199999999999994E-2</v>
+      </c>
+      <c r="L173" s="10">
+        <f>VLOOKUP(A173,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.8000000000000092E-3</v>
+      </c>
+      <c r="M173" s="9">
+        <f>VLOOKUP(A173,Balance1!$B:$K,9,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="N173" s="1">
+        <f>VLOOKUP(A173,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O173" s="1">
+        <f>VLOOKUP(A173,Balance1!$B:$L,11,FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -10796,7 +11032,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D169">
+  <conditionalFormatting sqref="D2:E85 D86:D173">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323296B1-645B-406C-ACCD-6F6101D4A53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA21AFA7-0F9A-4EB2-B49D-560895BB516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B173" si="4">B114</f>
+        <f t="shared" ref="B115:B177" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D173" si="5">D142*10</f>
+        <f t="shared" ref="D143:D177" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -11022,6 +11022,242 @@
       </c>
       <c r="O173" s="1">
         <f>VLOOKUP(A173,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C174" s="1">
+        <v>4</v>
+      </c>
+      <c r="D174" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="E174">
+        <v>36400</v>
+      </c>
+      <c r="F174" s="10">
+        <f>VLOOKUP(A174,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G174" s="10">
+        <f>VLOOKUP(A174,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.18539999999999945</v>
+      </c>
+      <c r="H174" s="10">
+        <f>VLOOKUP(A174,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.71500000000000052</v>
+      </c>
+      <c r="I174" s="10">
+        <f>VLOOKUP(A174,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.6000000000000054E-2</v>
+      </c>
+      <c r="J174" s="10">
+        <f>VLOOKUP(A174,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3299999999999975E-2</v>
+      </c>
+      <c r="K174" s="10">
+        <f>VLOOKUP(A174,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.0299999999999993E-2</v>
+      </c>
+      <c r="L174" s="10">
+        <f>VLOOKUP(A174,Balance1!$B:$K,8,FALSE)</f>
+        <v>8.9000000000000103E-3</v>
+      </c>
+      <c r="M174" s="9">
+        <f>VLOOKUP(A174,Balance1!$B:$K,9,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="N174" s="1">
+        <f>VLOOKUP(A174,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O174" s="1">
+        <f>VLOOKUP(A174,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>4</v>
+      </c>
+      <c r="D175" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+245</v>
+      </c>
+      <c r="E175">
+        <v>36600</v>
+      </c>
+      <c r="F175" s="10">
+        <f>VLOOKUP(A175,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G175" s="10">
+        <f>VLOOKUP(A175,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.17969999999999953</v>
+      </c>
+      <c r="H175" s="10">
+        <f>VLOOKUP(A175,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.72000000000000053</v>
+      </c>
+      <c r="I175" s="10">
+        <f>VLOOKUP(A175,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.6500000000000054E-2</v>
+      </c>
+      <c r="J175" s="10">
+        <f>VLOOKUP(A175,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3399999999999974E-2</v>
+      </c>
+      <c r="K175" s="10">
+        <f>VLOOKUP(A175,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.0399999999999993E-2</v>
+      </c>
+      <c r="L175" s="10">
+        <f>VLOOKUP(A175,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.0000000000000097E-3</v>
+      </c>
+      <c r="M175" s="9">
+        <f>VLOOKUP(A175,Balance1!$B:$K,9,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="N175" s="1">
+        <f>VLOOKUP(A175,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O175" s="1">
+        <f>VLOOKUP(A175,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C176" s="1">
+        <v>4</v>
+      </c>
+      <c r="D176" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="E176">
+        <v>36800</v>
+      </c>
+      <c r="F176" s="10">
+        <f>VLOOKUP(A176,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G176" s="10">
+        <f>VLOOKUP(A176,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.17399999999999949</v>
+      </c>
+      <c r="H176" s="10">
+        <f>VLOOKUP(A176,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.72500000000000053</v>
+      </c>
+      <c r="I176" s="10">
+        <f>VLOOKUP(A176,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.7000000000000055E-2</v>
+      </c>
+      <c r="J176" s="10">
+        <f>VLOOKUP(A176,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3499999999999974E-2</v>
+      </c>
+      <c r="K176" s="10">
+        <f>VLOOKUP(A176,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.0499999999999992E-2</v>
+      </c>
+      <c r="L176" s="10">
+        <f>VLOOKUP(A176,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.1000000000000109E-3</v>
+      </c>
+      <c r="M176" s="9">
+        <f>VLOOKUP(A176,Balance1!$B:$K,9,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="N176" s="1">
+        <f>VLOOKUP(A176,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O176" s="1">
+        <f>VLOOKUP(A176,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C177" s="1">
+        <v>4</v>
+      </c>
+      <c r="D177" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+247</v>
+      </c>
+      <c r="E177">
+        <v>37000</v>
+      </c>
+      <c r="F177" s="10">
+        <f>VLOOKUP(A177,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G177" s="10">
+        <f>VLOOKUP(A177,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.16829999999999956</v>
+      </c>
+      <c r="H177" s="10">
+        <f>VLOOKUP(A177,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.73000000000000054</v>
+      </c>
+      <c r="I177" s="10">
+        <f>VLOOKUP(A177,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.7500000000000055E-2</v>
+      </c>
+      <c r="J177" s="10">
+        <f>VLOOKUP(A177,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3599999999999973E-2</v>
+      </c>
+      <c r="K177" s="10">
+        <f>VLOOKUP(A177,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.0599999999999991E-2</v>
+      </c>
+      <c r="L177" s="10">
+        <f>VLOOKUP(A177,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.2000000000000103E-3</v>
+      </c>
+      <c r="M177" s="9">
+        <f>VLOOKUP(A177,Balance1!$B:$K,9,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="N177" s="1">
+        <f>VLOOKUP(A177,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O177" s="1">
+        <f>VLOOKUP(A177,Balance1!$B:$L,11,FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -11032,7 +11268,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D173">
+  <conditionalFormatting sqref="D2:E85 D86:D177">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -11046,7 +11282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
   <dimension ref="A2:AB186"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
+    <sheetView topLeftCell="A156" workbookViewId="0">
       <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA21AFA7-0F9A-4EB2-B49D-560895BB516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907F6CBD-8E31-4084-B906-251B3FF58482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7549,7 +7549,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
-        <f t="shared" ref="B115:B177" si="4">B114</f>
+        <f t="shared" ref="B115:B178" si="4">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115" s="1">
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D177" si="5">D142*10</f>
+        <f t="shared" ref="D143:D181" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -11258,6 +11258,242 @@
       </c>
       <c r="O177" s="1">
         <f>VLOOKUP(A177,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>1-1</v>
+      </c>
+      <c r="C178" s="1">
+        <v>4</v>
+      </c>
+      <c r="D178" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+248</v>
+      </c>
+      <c r="E178">
+        <v>37200</v>
+      </c>
+      <c r="F178" s="10">
+        <f>VLOOKUP(A178,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G178" s="10">
+        <f>VLOOKUP(A178,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.16259999999999941</v>
+      </c>
+      <c r="H178" s="10">
+        <f>VLOOKUP(A178,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.73500000000000054</v>
+      </c>
+      <c r="I178" s="10">
+        <f>VLOOKUP(A178,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.8000000000000055E-2</v>
+      </c>
+      <c r="J178" s="10">
+        <f>VLOOKUP(A178,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3699999999999973E-2</v>
+      </c>
+      <c r="K178" s="10">
+        <f>VLOOKUP(A178,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.0699999999999991E-2</v>
+      </c>
+      <c r="L178" s="10">
+        <f>VLOOKUP(A178,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.3000000000000096E-3</v>
+      </c>
+      <c r="M178" s="9">
+        <f>VLOOKUP(A178,Balance1!$B:$K,9,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="N178" s="1">
+        <f>VLOOKUP(A178,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O178" s="1">
+        <f>VLOOKUP(A178,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="25" t="str">
+        <f t="shared" ref="B179:B181" si="6">B178</f>
+        <v>1-1</v>
+      </c>
+      <c r="C179" s="1">
+        <v>4</v>
+      </c>
+      <c r="D179" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="E179">
+        <v>37400</v>
+      </c>
+      <c r="F179" s="10">
+        <f>VLOOKUP(A179,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G179" s="10">
+        <f>VLOOKUP(A179,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.15689999999999948</v>
+      </c>
+      <c r="H179" s="10">
+        <f>VLOOKUP(A179,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.74000000000000055</v>
+      </c>
+      <c r="I179" s="10">
+        <f>VLOOKUP(A179,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.8500000000000056E-2</v>
+      </c>
+      <c r="J179" s="10">
+        <f>VLOOKUP(A179,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3799999999999972E-2</v>
+      </c>
+      <c r="K179" s="10">
+        <f>VLOOKUP(A179,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.079999999999999E-2</v>
+      </c>
+      <c r="L179" s="10">
+        <f>VLOOKUP(A179,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.4000000000000108E-3</v>
+      </c>
+      <c r="M179" s="9">
+        <f>VLOOKUP(A179,Balance1!$B:$K,9,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="N179" s="1">
+        <f>VLOOKUP(A179,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O179" s="1">
+        <f>VLOOKUP(A179,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C180" s="1">
+        <v>4</v>
+      </c>
+      <c r="D180" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="E180">
+        <v>37600</v>
+      </c>
+      <c r="F180" s="10">
+        <f>VLOOKUP(A180,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G180" s="10">
+        <f>VLOOKUP(A180,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.15119999999999933</v>
+      </c>
+      <c r="H180" s="10">
+        <f>VLOOKUP(A180,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.74500000000000055</v>
+      </c>
+      <c r="I180" s="10">
+        <f>VLOOKUP(A180,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.9000000000000056E-2</v>
+      </c>
+      <c r="J180" s="10">
+        <f>VLOOKUP(A180,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3899999999999971E-2</v>
+      </c>
+      <c r="K180" s="10">
+        <f>VLOOKUP(A180,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.089999999999999E-2</v>
+      </c>
+      <c r="L180" s="10">
+        <f>VLOOKUP(A180,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.5000000000000102E-3</v>
+      </c>
+      <c r="M180" s="9">
+        <f>VLOOKUP(A180,Balance1!$B:$K,9,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="N180" s="1">
+        <f>VLOOKUP(A180,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O180" s="1">
+        <f>VLOOKUP(A180,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C181" s="1">
+        <v>4</v>
+      </c>
+      <c r="D181" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+251</v>
+      </c>
+      <c r="E181">
+        <v>37800</v>
+      </c>
+      <c r="F181" s="10">
+        <f>VLOOKUP(A181,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G181" s="10">
+        <f>VLOOKUP(A181,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.14549999999999941</v>
+      </c>
+      <c r="H181" s="10">
+        <f>VLOOKUP(A181,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.75000000000000056</v>
+      </c>
+      <c r="I181" s="10">
+        <f>VLOOKUP(A181,Balance1!$B:$K,5,FALSE)</f>
+        <v>7.9500000000000057E-2</v>
+      </c>
+      <c r="J181" s="10">
+        <f>VLOOKUP(A181,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.3999999999999971E-2</v>
+      </c>
+      <c r="K181" s="10">
+        <f>VLOOKUP(A181,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.0999999999999989E-2</v>
+      </c>
+      <c r="L181" s="10">
+        <f>VLOOKUP(A181,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.6000000000000096E-3</v>
+      </c>
+      <c r="M181" s="9">
+        <f>VLOOKUP(A181,Balance1!$B:$K,9,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="N181" s="1">
+        <f>VLOOKUP(A181,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O181" s="1">
+        <f>VLOOKUP(A181,Balance1!$B:$L,11,FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -11268,7 +11504,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D177">
+  <conditionalFormatting sqref="D2:E85 D86:D181">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907F6CBD-8E31-4084-B906-251B3FF58482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8D48D-5667-4BCB-ACB6-2425BF4EFD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -995,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M185" sqref="M185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9208,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D181" si="5">D142*10</f>
+        <f t="shared" ref="D143:D185" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -11325,7 +11325,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="25" t="str">
-        <f t="shared" ref="B179:B181" si="6">B178</f>
+        <f t="shared" ref="B179:B185" si="6">B178</f>
         <v>1-1</v>
       </c>
       <c r="C179" s="1">
@@ -11494,6 +11494,242 @@
       </c>
       <c r="O181" s="1">
         <f>VLOOKUP(A181,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4</v>
+      </c>
+      <c r="D182" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="E182">
+        <v>38000</v>
+      </c>
+      <c r="F182" s="10">
+        <f>VLOOKUP(A182,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G182" s="10">
+        <f>VLOOKUP(A182,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.13979999999999937</v>
+      </c>
+      <c r="H182" s="10">
+        <f>VLOOKUP(A182,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.75500000000000056</v>
+      </c>
+      <c r="I182" s="10">
+        <f>VLOOKUP(A182,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.0000000000000057E-2</v>
+      </c>
+      <c r="J182" s="10">
+        <f>VLOOKUP(A182,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.409999999999997E-2</v>
+      </c>
+      <c r="K182" s="10">
+        <f>VLOOKUP(A182,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1099999999999988E-2</v>
+      </c>
+      <c r="L182" s="10">
+        <f>VLOOKUP(A182,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.7000000000000107E-3</v>
+      </c>
+      <c r="M182" s="9">
+        <f>VLOOKUP(A182,Balance1!$B:$K,9,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="N182" s="1">
+        <f>VLOOKUP(A182,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O182" s="1">
+        <f>VLOOKUP(A182,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>4</v>
+      </c>
+      <c r="D183" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+253</v>
+      </c>
+      <c r="E183">
+        <v>38200</v>
+      </c>
+      <c r="F183" s="10">
+        <f>VLOOKUP(A183,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G183" s="10">
+        <f>VLOOKUP(A183,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.13409999999999944</v>
+      </c>
+      <c r="H183" s="10">
+        <f>VLOOKUP(A183,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.76000000000000056</v>
+      </c>
+      <c r="I183" s="10">
+        <f>VLOOKUP(A183,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.0500000000000058E-2</v>
+      </c>
+      <c r="J183" s="10">
+        <f>VLOOKUP(A183,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.419999999999997E-2</v>
+      </c>
+      <c r="K183" s="10">
+        <f>VLOOKUP(A183,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1199999999999988E-2</v>
+      </c>
+      <c r="L183" s="10">
+        <f>VLOOKUP(A183,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.8000000000000101E-3</v>
+      </c>
+      <c r="M183" s="9">
+        <f>VLOOKUP(A183,Balance1!$B:$K,9,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="N183" s="1">
+        <f>VLOOKUP(A183,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O183" s="1">
+        <f>VLOOKUP(A183,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C184" s="1">
+        <v>4</v>
+      </c>
+      <c r="D184" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="E184">
+        <v>38400</v>
+      </c>
+      <c r="F184" s="10">
+        <f>VLOOKUP(A184,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G184" s="10">
+        <f>VLOOKUP(A184,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.1283999999999994</v>
+      </c>
+      <c r="H184" s="10">
+        <f>VLOOKUP(A184,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.76500000000000057</v>
+      </c>
+      <c r="I184" s="10">
+        <f>VLOOKUP(A184,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.1000000000000058E-2</v>
+      </c>
+      <c r="J184" s="10">
+        <f>VLOOKUP(A184,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.4299999999999969E-2</v>
+      </c>
+      <c r="K184" s="10">
+        <f>VLOOKUP(A184,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1299999999999987E-2</v>
+      </c>
+      <c r="L184" s="10">
+        <f>VLOOKUP(A184,Balance1!$B:$K,8,FALSE)</f>
+        <v>9.9000000000000095E-3</v>
+      </c>
+      <c r="M184" s="9">
+        <f>VLOOKUP(A184,Balance1!$B:$K,9,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="N184" s="1">
+        <f>VLOOKUP(A184,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O184" s="1">
+        <f>VLOOKUP(A184,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C185" s="1">
+        <v>4</v>
+      </c>
+      <c r="D185" s="26">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999999E+254</v>
+      </c>
+      <c r="E185">
+        <v>38600</v>
+      </c>
+      <c r="F185" s="10">
+        <f>VLOOKUP(A185,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G185" s="10">
+        <f>VLOOKUP(A185,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.12269999999999948</v>
+      </c>
+      <c r="H185" s="10">
+        <f>VLOOKUP(A185,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.77000000000000057</v>
+      </c>
+      <c r="I185" s="10">
+        <f>VLOOKUP(A185,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.1500000000000059E-2</v>
+      </c>
+      <c r="J185" s="10">
+        <f>VLOOKUP(A185,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.4399999999999968E-2</v>
+      </c>
+      <c r="K185" s="10">
+        <f>VLOOKUP(A185,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1399999999999987E-2</v>
+      </c>
+      <c r="L185" s="10">
+        <f>VLOOKUP(A185,Balance1!$B:$K,8,FALSE)</f>
+        <v>0.01</v>
+      </c>
+      <c r="M185" s="9">
+        <f>VLOOKUP(A185,Balance1!$B:$K,9,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="N185" s="1">
+        <f>VLOOKUP(A185,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O185" s="1">
+        <f>VLOOKUP(A185,Balance1!$B:$L,11,FALSE)</f>
         <v>6</v>
       </c>
     </row>
@@ -11504,7 +11740,7 @@
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D181">
+  <conditionalFormatting sqref="D2:E85 D86:D185">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
@@ -11516,10 +11752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
-  <dimension ref="A2:AB186"/>
+  <dimension ref="A2:AB196"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19684,7 +19920,7 @@
         <v>7.0000000000000097E-3</v>
       </c>
       <c r="J157" s="9">
-        <f t="shared" ref="J157:J186" si="98">J149+6</f>
+        <f t="shared" ref="J157:J196" si="98">J149+6</f>
         <v>101</v>
       </c>
       <c r="K157" s="1">
@@ -20151,7 +20387,7 @@
         <v>9028</v>
       </c>
       <c r="L167">
-        <f t="shared" ref="L167:L186" si="110">L135+1</f>
+        <f t="shared" ref="L167:L196" si="110">L135+1</f>
         <v>6</v>
       </c>
     </row>
@@ -20387,7 +20623,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f t="shared" ref="A173:A186" si="116">A172*10</f>
+        <f t="shared" ref="A173:A196" si="116">A172*10</f>
         <v>1.0000000000000002E+241</v>
       </c>
       <c r="B173">
@@ -20401,7 +20637,7 @@
         <v>0.20249999999999946</v>
       </c>
       <c r="E173" s="7">
-        <f t="shared" ref="E173:E186" si="117">E172+0.005</f>
+        <f t="shared" ref="E173:E196" si="117">E172+0.005</f>
         <v>0.70000000000000051</v>
       </c>
       <c r="F173" s="7">
@@ -20451,7 +20687,7 @@
         <v>0.70500000000000052</v>
       </c>
       <c r="F174" s="7">
-        <f t="shared" ref="F174:F186" si="119">F173+0.0005</f>
+        <f t="shared" ref="F174:F196" si="119">F173+0.0005</f>
         <v>7.5000000000000053E-2</v>
       </c>
       <c r="G174" s="7">
@@ -21029,9 +21265,469 @@
         <v>6</v>
       </c>
     </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <f t="shared" si="116"/>
+        <v>9.9999999999999999E+254</v>
+      </c>
+      <c r="B187">
+        <v>183</v>
+      </c>
+      <c r="C187" s="23">
+        <v>0</v>
+      </c>
+      <c r="D187" s="7">
+        <f t="shared" ref="D187:D196" si="134">100%-(E187+F187+G187+H187)</f>
+        <v>0.12269999999999948</v>
+      </c>
+      <c r="E187" s="7">
+        <f t="shared" si="117"/>
+        <v>0.77000000000000057</v>
+      </c>
+      <c r="F187" s="7">
+        <f t="shared" si="119"/>
+        <v>8.1500000000000059E-2</v>
+      </c>
+      <c r="G187" s="7">
+        <f t="shared" ref="G187:H187" si="135">G186+0.0001</f>
+        <v>1.4399999999999968E-2</v>
+      </c>
+      <c r="H187" s="7">
+        <f t="shared" si="135"/>
+        <v>1.1399999999999987E-2</v>
+      </c>
+      <c r="I187" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="J187" s="9">
+        <f t="shared" si="98"/>
+        <v>119</v>
+      </c>
+      <c r="K187" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <f t="shared" si="116"/>
+        <v>1E+256</v>
+      </c>
+      <c r="B188">
+        <v>184</v>
+      </c>
+      <c r="C188" s="23">
+        <v>0</v>
+      </c>
+      <c r="D188" s="7">
+        <f t="shared" si="134"/>
+        <v>0.11699999999999944</v>
+      </c>
+      <c r="E188" s="7">
+        <f t="shared" si="117"/>
+        <v>0.77500000000000058</v>
+      </c>
+      <c r="F188" s="7">
+        <f t="shared" si="119"/>
+        <v>8.2000000000000059E-2</v>
+      </c>
+      <c r="G188" s="7">
+        <f t="shared" ref="G188:H188" si="136">G187+0.0001</f>
+        <v>1.4499999999999968E-2</v>
+      </c>
+      <c r="H188" s="7">
+        <f t="shared" si="136"/>
+        <v>1.1499999999999986E-2</v>
+      </c>
+      <c r="I188" s="7">
+        <v>1.01E-2</v>
+      </c>
+      <c r="J188" s="9">
+        <f t="shared" si="98"/>
+        <v>125</v>
+      </c>
+      <c r="K188" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <f t="shared" si="116"/>
+        <v>1E+257</v>
+      </c>
+      <c r="B189">
+        <v>185</v>
+      </c>
+      <c r="C189" s="23">
+        <v>0</v>
+      </c>
+      <c r="D189" s="7">
+        <f t="shared" si="134"/>
+        <v>0.11129999999999951</v>
+      </c>
+      <c r="E189" s="7">
+        <f t="shared" si="117"/>
+        <v>0.78000000000000058</v>
+      </c>
+      <c r="F189" s="7">
+        <f t="shared" si="119"/>
+        <v>8.2500000000000059E-2</v>
+      </c>
+      <c r="G189" s="7">
+        <f t="shared" ref="G189:H189" si="137">G188+0.0001</f>
+        <v>1.4599999999999967E-2</v>
+      </c>
+      <c r="H189" s="7">
+        <f t="shared" si="137"/>
+        <v>1.1599999999999985E-2</v>
+      </c>
+      <c r="I189" s="7">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="J189" s="9">
+        <f t="shared" si="98"/>
+        <v>125</v>
+      </c>
+      <c r="K189" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="B190">
+        <v>186</v>
+      </c>
+      <c r="C190" s="23">
+        <v>0</v>
+      </c>
+      <c r="D190" s="7">
+        <f t="shared" si="134"/>
+        <v>0.10559999999999947</v>
+      </c>
+      <c r="E190" s="7">
+        <f t="shared" si="117"/>
+        <v>0.78500000000000059</v>
+      </c>
+      <c r="F190" s="7">
+        <f t="shared" si="119"/>
+        <v>8.300000000000006E-2</v>
+      </c>
+      <c r="G190" s="7">
+        <f t="shared" ref="G190:H190" si="138">G189+0.0001</f>
+        <v>1.4699999999999967E-2</v>
+      </c>
+      <c r="H190" s="7">
+        <f t="shared" si="138"/>
+        <v>1.1699999999999985E-2</v>
+      </c>
+      <c r="I190" s="7">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J190" s="9">
+        <f t="shared" si="98"/>
+        <v>125</v>
+      </c>
+      <c r="K190" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+259</v>
+      </c>
+      <c r="B191">
+        <v>187</v>
+      </c>
+      <c r="C191" s="23">
+        <v>0</v>
+      </c>
+      <c r="D191" s="7">
+        <f t="shared" si="134"/>
+        <v>9.9899999999999434E-2</v>
+      </c>
+      <c r="E191" s="7">
+        <f t="shared" si="117"/>
+        <v>0.79000000000000059</v>
+      </c>
+      <c r="F191" s="7">
+        <f t="shared" si="119"/>
+        <v>8.350000000000006E-2</v>
+      </c>
+      <c r="G191" s="7">
+        <f t="shared" ref="G191:H191" si="139">G190+0.0001</f>
+        <v>1.4799999999999966E-2</v>
+      </c>
+      <c r="H191" s="7">
+        <f t="shared" si="139"/>
+        <v>1.1799999999999984E-2</v>
+      </c>
+      <c r="I191" s="7">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J191" s="9">
+        <f t="shared" si="98"/>
+        <v>125</v>
+      </c>
+      <c r="K191" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="B192">
+        <v>188</v>
+      </c>
+      <c r="C192" s="23">
+        <v>0</v>
+      </c>
+      <c r="D192" s="7">
+        <f t="shared" si="134"/>
+        <v>9.4199999999999395E-2</v>
+      </c>
+      <c r="E192" s="7">
+        <f t="shared" si="117"/>
+        <v>0.7950000000000006</v>
+      </c>
+      <c r="F192" s="7">
+        <f t="shared" si="119"/>
+        <v>8.4000000000000061E-2</v>
+      </c>
+      <c r="G192" s="7">
+        <f t="shared" ref="G192:H192" si="140">G191+0.0001</f>
+        <v>1.4899999999999965E-2</v>
+      </c>
+      <c r="H192" s="7">
+        <f t="shared" si="140"/>
+        <v>1.1899999999999984E-2</v>
+      </c>
+      <c r="I192" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="J192" s="9">
+        <f t="shared" si="98"/>
+        <v>125</v>
+      </c>
+      <c r="K192" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000001E+261</v>
+      </c>
+      <c r="B193">
+        <v>189</v>
+      </c>
+      <c r="C193" s="23">
+        <v>0</v>
+      </c>
+      <c r="D193" s="7">
+        <f t="shared" si="134"/>
+        <v>8.8499999999999357E-2</v>
+      </c>
+      <c r="E193" s="7">
+        <f t="shared" si="117"/>
+        <v>0.8000000000000006</v>
+      </c>
+      <c r="F193" s="7">
+        <f t="shared" si="119"/>
+        <v>8.4500000000000061E-2</v>
+      </c>
+      <c r="G193" s="7">
+        <f t="shared" ref="G193:H193" si="141">G192+0.0001</f>
+        <v>1.4999999999999965E-2</v>
+      </c>
+      <c r="H193" s="7">
+        <f t="shared" si="141"/>
+        <v>1.1999999999999983E-2</v>
+      </c>
+      <c r="I193" s="7">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J193" s="9">
+        <f t="shared" si="98"/>
+        <v>125</v>
+      </c>
+      <c r="K193" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000002E+262</v>
+      </c>
+      <c r="B194">
+        <v>190</v>
+      </c>
+      <c r="C194" s="23">
+        <v>0</v>
+      </c>
+      <c r="D194" s="7">
+        <f t="shared" si="134"/>
+        <v>8.2799999999999319E-2</v>
+      </c>
+      <c r="E194" s="7">
+        <f t="shared" si="117"/>
+        <v>0.8050000000000006</v>
+      </c>
+      <c r="F194" s="7">
+        <f t="shared" si="119"/>
+        <v>8.5000000000000062E-2</v>
+      </c>
+      <c r="G194" s="7">
+        <f t="shared" ref="G194:H194" si="142">G193+0.0001</f>
+        <v>1.5099999999999964E-2</v>
+      </c>
+      <c r="H194" s="7">
+        <f t="shared" si="142"/>
+        <v>1.2099999999999982E-2</v>
+      </c>
+      <c r="I194" s="7">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="J194" s="9">
+        <f t="shared" si="98"/>
+        <v>125</v>
+      </c>
+      <c r="K194" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000002E+263</v>
+      </c>
+      <c r="B195">
+        <v>191</v>
+      </c>
+      <c r="C195" s="23">
+        <v>0</v>
+      </c>
+      <c r="D195" s="7">
+        <f t="shared" si="134"/>
+        <v>7.7099999999999391E-2</v>
+      </c>
+      <c r="E195" s="7">
+        <f t="shared" si="117"/>
+        <v>0.81000000000000061</v>
+      </c>
+      <c r="F195" s="7">
+        <f t="shared" si="119"/>
+        <v>8.5500000000000062E-2</v>
+      </c>
+      <c r="G195" s="7">
+        <f t="shared" ref="G195:H195" si="143">G194+0.0001</f>
+        <v>1.5199999999999964E-2</v>
+      </c>
+      <c r="H195" s="7">
+        <f t="shared" si="143"/>
+        <v>1.2199999999999982E-2</v>
+      </c>
+      <c r="I195" s="7">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="J195" s="9">
+        <f t="shared" si="98"/>
+        <v>125</v>
+      </c>
+      <c r="K195" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="110"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000002E+264</v>
+      </c>
+      <c r="B196">
+        <v>192</v>
+      </c>
+      <c r="C196" s="23">
+        <v>0</v>
+      </c>
+      <c r="D196" s="7">
+        <f t="shared" si="134"/>
+        <v>7.1399999999999353E-2</v>
+      </c>
+      <c r="E196" s="7">
+        <f t="shared" si="117"/>
+        <v>0.81500000000000061</v>
+      </c>
+      <c r="F196" s="7">
+        <f t="shared" si="119"/>
+        <v>8.6000000000000063E-2</v>
+      </c>
+      <c r="G196" s="7">
+        <f t="shared" ref="G196:H196" si="144">G195+0.0001</f>
+        <v>1.5299999999999963E-2</v>
+      </c>
+      <c r="H196" s="7">
+        <f t="shared" si="144"/>
+        <v>1.2299999999999981E-2</v>
+      </c>
+      <c r="I196" s="7">
+        <v>1.09E-2</v>
+      </c>
+      <c r="J196" s="9">
+        <f t="shared" si="98"/>
+        <v>131</v>
+      </c>
+      <c r="K196" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121 B124:B186">
+  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121 B124:B196">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C6=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable9.xlsx
+++ b/Assets/06.Table/TowerTable9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8D48D-5667-4BCB-ACB6-2425BF4EFD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCAFB3A-FAF6-4BF1-89E9-645219734421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -595,7 +595,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -995,11 +1017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O185"/>
+  <dimension ref="A1:O197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M185" sqref="M185"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9208,7 +9230,7 @@
         <v>4</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" ref="D143:D185" si="5">D142*10</f>
+        <f t="shared" ref="D143:D197" si="5">D142*10</f>
         <v>1.0000000000000001E+213</v>
       </c>
       <c r="E143">
@@ -11325,7 +11347,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="25" t="str">
-        <f t="shared" ref="B179:B185" si="6">B178</f>
+        <f t="shared" ref="B179:B197" si="6">B178</f>
         <v>1-1</v>
       </c>
       <c r="C179" s="1">
@@ -11733,15 +11755,723 @@
         <v>6</v>
       </c>
     </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C186" s="1">
+        <v>4</v>
+      </c>
+      <c r="D186" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+256</v>
+      </c>
+      <c r="E186">
+        <v>38800</v>
+      </c>
+      <c r="F186" s="10">
+        <f>VLOOKUP(A186,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G186" s="10">
+        <f>VLOOKUP(A186,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.11699999999999944</v>
+      </c>
+      <c r="H186" s="10">
+        <f>VLOOKUP(A186,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.77500000000000058</v>
+      </c>
+      <c r="I186" s="10">
+        <f>VLOOKUP(A186,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.2000000000000059E-2</v>
+      </c>
+      <c r="J186" s="10">
+        <f>VLOOKUP(A186,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.4499999999999968E-2</v>
+      </c>
+      <c r="K186" s="10">
+        <f>VLOOKUP(A186,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1499999999999986E-2</v>
+      </c>
+      <c r="L186" s="10">
+        <f>VLOOKUP(A186,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.01E-2</v>
+      </c>
+      <c r="M186" s="9">
+        <f>VLOOKUP(A186,Balance1!$B:$K,9,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="N186" s="1">
+        <f>VLOOKUP(A186,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O186" s="1">
+        <f>VLOOKUP(A186,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C187" s="1">
+        <v>4</v>
+      </c>
+      <c r="D187" s="26">
+        <f t="shared" si="5"/>
+        <v>1E+257</v>
+      </c>
+      <c r="E187">
+        <v>39000</v>
+      </c>
+      <c r="F187" s="10">
+        <f>VLOOKUP(A187,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G187" s="10">
+        <f>VLOOKUP(A187,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.11129999999999951</v>
+      </c>
+      <c r="H187" s="10">
+        <f>VLOOKUP(A187,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.78000000000000058</v>
+      </c>
+      <c r="I187" s="10">
+        <f>VLOOKUP(A187,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.2500000000000059E-2</v>
+      </c>
+      <c r="J187" s="10">
+        <f>VLOOKUP(A187,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.4599999999999967E-2</v>
+      </c>
+      <c r="K187" s="10">
+        <f>VLOOKUP(A187,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1599999999999985E-2</v>
+      </c>
+      <c r="L187" s="10">
+        <f>VLOOKUP(A187,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="M187" s="9">
+        <f>VLOOKUP(A187,Balance1!$B:$K,9,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="N187" s="1">
+        <f>VLOOKUP(A187,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O187" s="1">
+        <f>VLOOKUP(A187,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C188" s="1">
+        <v>4</v>
+      </c>
+      <c r="D188" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="E188">
+        <v>39200</v>
+      </c>
+      <c r="F188" s="10">
+        <f>VLOOKUP(A188,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G188" s="10">
+        <f>VLOOKUP(A188,Balance1!$B:$K,3,FALSE)</f>
+        <v>0.10559999999999947</v>
+      </c>
+      <c r="H188" s="10">
+        <f>VLOOKUP(A188,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.78500000000000059</v>
+      </c>
+      <c r="I188" s="10">
+        <f>VLOOKUP(A188,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.300000000000006E-2</v>
+      </c>
+      <c r="J188" s="10">
+        <f>VLOOKUP(A188,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.4699999999999967E-2</v>
+      </c>
+      <c r="K188" s="10">
+        <f>VLOOKUP(A188,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1699999999999985E-2</v>
+      </c>
+      <c r="L188" s="10">
+        <f>VLOOKUP(A188,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.03E-2</v>
+      </c>
+      <c r="M188" s="9">
+        <f>VLOOKUP(A188,Balance1!$B:$K,9,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="N188" s="1">
+        <f>VLOOKUP(A188,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O188" s="1">
+        <f>VLOOKUP(A188,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C189" s="1">
+        <v>4</v>
+      </c>
+      <c r="D189" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+259</v>
+      </c>
+      <c r="E189">
+        <v>39400</v>
+      </c>
+      <c r="F189" s="10">
+        <f>VLOOKUP(A189,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G189" s="10">
+        <f>VLOOKUP(A189,Balance1!$B:$K,3,FALSE)</f>
+        <v>9.9899999999999434E-2</v>
+      </c>
+      <c r="H189" s="10">
+        <f>VLOOKUP(A189,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.79000000000000059</v>
+      </c>
+      <c r="I189" s="10">
+        <f>VLOOKUP(A189,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.350000000000006E-2</v>
+      </c>
+      <c r="J189" s="10">
+        <f>VLOOKUP(A189,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.4799999999999966E-2</v>
+      </c>
+      <c r="K189" s="10">
+        <f>VLOOKUP(A189,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1799999999999984E-2</v>
+      </c>
+      <c r="L189" s="10">
+        <f>VLOOKUP(A189,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.04E-2</v>
+      </c>
+      <c r="M189" s="9">
+        <f>VLOOKUP(A189,Balance1!$B:$K,9,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="N189" s="1">
+        <f>VLOOKUP(A189,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O189" s="1">
+        <f>VLOOKUP(A189,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C190" s="1">
+        <v>4</v>
+      </c>
+      <c r="D190" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="E190">
+        <v>39600</v>
+      </c>
+      <c r="F190" s="10">
+        <f>VLOOKUP(A190,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G190" s="10">
+        <f>VLOOKUP(A190,Balance1!$B:$K,3,FALSE)</f>
+        <v>9.4199999999999395E-2</v>
+      </c>
+      <c r="H190" s="10">
+        <f>VLOOKUP(A190,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.7950000000000006</v>
+      </c>
+      <c r="I190" s="10">
+        <f>VLOOKUP(A190,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.4000000000000061E-2</v>
+      </c>
+      <c r="J190" s="10">
+        <f>VLOOKUP(A190,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.4899999999999965E-2</v>
+      </c>
+      <c r="K190" s="10">
+        <f>VLOOKUP(A190,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1899999999999984E-2</v>
+      </c>
+      <c r="L190" s="10">
+        <f>VLOOKUP(A190,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M190" s="9">
+        <f>VLOOKUP(A190,Balance1!$B:$K,9,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="N190" s="1">
+        <f>VLOOKUP(A190,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O190" s="1">
+        <f>VLOOKUP(A190,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>4</v>
+      </c>
+      <c r="D191" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000001E+261</v>
+      </c>
+      <c r="E191">
+        <v>39800</v>
+      </c>
+      <c r="F191" s="10">
+        <f>VLOOKUP(A191,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G191" s="10">
+        <f>VLOOKUP(A191,Balance1!$B:$K,3,FALSE)</f>
+        <v>8.8499999999999357E-2</v>
+      </c>
+      <c r="H191" s="10">
+        <f>VLOOKUP(A191,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.8000000000000006</v>
+      </c>
+      <c r="I191" s="10">
+        <f>VLOOKUP(A191,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.4500000000000061E-2</v>
+      </c>
+      <c r="J191" s="10">
+        <f>VLOOKUP(A191,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.4999999999999965E-2</v>
+      </c>
+      <c r="K191" s="10">
+        <f>VLOOKUP(A191,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.1999999999999983E-2</v>
+      </c>
+      <c r="L191" s="10">
+        <f>VLOOKUP(A191,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.06E-2</v>
+      </c>
+      <c r="M191" s="9">
+        <f>VLOOKUP(A191,Balance1!$B:$K,9,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="N191" s="1">
+        <f>VLOOKUP(A191,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O191" s="1">
+        <f>VLOOKUP(A191,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C192" s="1">
+        <v>4</v>
+      </c>
+      <c r="D192" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+262</v>
+      </c>
+      <c r="E192">
+        <v>40000</v>
+      </c>
+      <c r="F192" s="10">
+        <f>VLOOKUP(A192,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G192" s="10">
+        <f>VLOOKUP(A192,Balance1!$B:$K,3,FALSE)</f>
+        <v>8.2799999999999319E-2</v>
+      </c>
+      <c r="H192" s="10">
+        <f>VLOOKUP(A192,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.8050000000000006</v>
+      </c>
+      <c r="I192" s="10">
+        <f>VLOOKUP(A192,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.5000000000000062E-2</v>
+      </c>
+      <c r="J192" s="10">
+        <f>VLOOKUP(A192,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.5099999999999964E-2</v>
+      </c>
+      <c r="K192" s="10">
+        <f>VLOOKUP(A192,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.2099999999999982E-2</v>
+      </c>
+      <c r="L192" s="10">
+        <f>VLOOKUP(A192,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="M192" s="9">
+        <f>VLOOKUP(A192,Balance1!$B:$K,9,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="N192" s="1">
+        <f>VLOOKUP(A192,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O192" s="1">
+        <f>VLOOKUP(A192,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C193" s="1">
+        <v>4</v>
+      </c>
+      <c r="D193" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+263</v>
+      </c>
+      <c r="E193">
+        <v>40200</v>
+      </c>
+      <c r="F193" s="10">
+        <f>VLOOKUP(A193,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G193" s="10">
+        <f>VLOOKUP(A193,Balance1!$B:$K,3,FALSE)</f>
+        <v>7.7099999999999391E-2</v>
+      </c>
+      <c r="H193" s="10">
+        <f>VLOOKUP(A193,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.81000000000000061</v>
+      </c>
+      <c r="I193" s="10">
+        <f>VLOOKUP(A193,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.5500000000000062E-2</v>
+      </c>
+      <c r="J193" s="10">
+        <f>VLOOKUP(A193,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.5199999999999964E-2</v>
+      </c>
+      <c r="K193" s="10">
+        <f>VLOOKUP(A193,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.2199999999999982E-2</v>
+      </c>
+      <c r="L193" s="10">
+        <f>VLOOKUP(A193,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="M193" s="9">
+        <f>VLOOKUP(A193,Balance1!$B:$K,9,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="N193" s="1">
+        <f>VLOOKUP(A193,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O193" s="1">
+        <f>VLOOKUP(A193,Balance1!$B:$L,11,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>4</v>
+      </c>
+      <c r="D194" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+264</v>
+      </c>
+      <c r="E194">
+        <v>40400</v>
+      </c>
+      <c r="F194" s="10">
+        <f>VLOOKUP(A194,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G194" s="10">
+        <f>VLOOKUP(A194,Balance1!$B:$K,3,FALSE)</f>
+        <v>7.1399999999999353E-2</v>
+      </c>
+      <c r="H194" s="10">
+        <f>VLOOKUP(A194,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.81500000000000061</v>
+      </c>
+      <c r="I194" s="10">
+        <f>VLOOKUP(A194,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.6000000000000063E-2</v>
+      </c>
+      <c r="J194" s="10">
+        <f>VLOOKUP(A194,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.5299999999999963E-2</v>
+      </c>
+      <c r="K194" s="10">
+        <f>VLOOKUP(A194,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.2299999999999981E-2</v>
+      </c>
+      <c r="L194" s="10">
+        <f>VLOOKUP(A194,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.09E-2</v>
+      </c>
+      <c r="M194" s="9">
+        <f>VLOOKUP(A194,Balance1!$B:$K,9,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="N194" s="1">
+        <f>VLOOKUP(A194,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O194" s="1">
+        <f>VLOOKUP(A194,Balance1!$B:$L,11,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C195" s="1">
+        <v>4</v>
+      </c>
+      <c r="D195" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E+265</v>
+      </c>
+      <c r="E195">
+        <v>40600</v>
+      </c>
+      <c r="F195" s="10">
+        <f>VLOOKUP(A195,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G195" s="10">
+        <f>VLOOKUP(A195,Balance1!$B:$K,3,FALSE)</f>
+        <v>6.5699999999999426E-2</v>
+      </c>
+      <c r="H195" s="10">
+        <f>VLOOKUP(A195,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.82000000000000062</v>
+      </c>
+      <c r="I195" s="10">
+        <f>VLOOKUP(A195,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.6500000000000063E-2</v>
+      </c>
+      <c r="J195" s="10">
+        <f>VLOOKUP(A195,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.5399999999999962E-2</v>
+      </c>
+      <c r="K195" s="10">
+        <f>VLOOKUP(A195,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.239999999999998E-2</v>
+      </c>
+      <c r="L195" s="10">
+        <f>VLOOKUP(A195,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M195" s="9">
+        <f>VLOOKUP(A195,Balance1!$B:$K,9,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="N195" s="1">
+        <f>VLOOKUP(A195,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O195" s="1">
+        <f>VLOOKUP(A195,Balance1!$B:$L,11,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C196" s="1">
+        <v>4</v>
+      </c>
+      <c r="D196" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000003E+266</v>
+      </c>
+      <c r="E196">
+        <v>40800</v>
+      </c>
+      <c r="F196" s="10">
+        <f>VLOOKUP(A196,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G196" s="10">
+        <f>VLOOKUP(A196,Balance1!$B:$K,3,FALSE)</f>
+        <v>5.9999999999999387E-2</v>
+      </c>
+      <c r="H196" s="10">
+        <f>VLOOKUP(A196,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.82500000000000062</v>
+      </c>
+      <c r="I196" s="10">
+        <f>VLOOKUP(A196,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.7000000000000063E-2</v>
+      </c>
+      <c r="J196" s="10">
+        <f>VLOOKUP(A196,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.5499999999999962E-2</v>
+      </c>
+      <c r="K196" s="10">
+        <f>VLOOKUP(A196,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.249999999999998E-2</v>
+      </c>
+      <c r="L196" s="10">
+        <f>VLOOKUP(A196,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.11E-2</v>
+      </c>
+      <c r="M196" s="9">
+        <f>VLOOKUP(A196,Balance1!$B:$K,9,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="N196" s="1">
+        <f>VLOOKUP(A196,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O196" s="1">
+        <f>VLOOKUP(A196,Balance1!$B:$L,11,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>1-1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>4</v>
+      </c>
+      <c r="D197" s="26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000003E+267</v>
+      </c>
+      <c r="E197">
+        <v>41000</v>
+      </c>
+      <c r="F197" s="10">
+        <f>VLOOKUP(A197,Balance1!$B:$K,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G197" s="10">
+        <f>VLOOKUP(A197,Balance1!$B:$K,3,FALSE)</f>
+        <v>5.429999999999946E-2</v>
+      </c>
+      <c r="H197" s="10">
+        <f>VLOOKUP(A197,Balance1!$B:$K,4,FALSE)</f>
+        <v>0.83000000000000063</v>
+      </c>
+      <c r="I197" s="10">
+        <f>VLOOKUP(A197,Balance1!$B:$K,5,FALSE)</f>
+        <v>8.7500000000000064E-2</v>
+      </c>
+      <c r="J197" s="10">
+        <f>VLOOKUP(A197,Balance1!$B:$K,6,FALSE)</f>
+        <v>1.5599999999999961E-2</v>
+      </c>
+      <c r="K197" s="10">
+        <f>VLOOKUP(A197,Balance1!$B:$K,7,FALSE)</f>
+        <v>1.2599999999999979E-2</v>
+      </c>
+      <c r="L197" s="10">
+        <f>VLOOKUP(A197,Balance1!$B:$K,8,FALSE)</f>
+        <v>1.12E-2</v>
+      </c>
+      <c r="M197" s="9">
+        <f>VLOOKUP(A197,Balance1!$B:$K,9,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="N197" s="1">
+        <f>VLOOKUP(A197,Balance1!$B:$K,10,FALSE)</f>
+        <v>9028</v>
+      </c>
+      <c r="O197" s="1">
+        <f>VLOOKUP(A197,Balance1!$B:$L,11,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:O1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW()-1,4)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E85 D86:D185">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="D2:E85 D86:D197">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11752,10 +12482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7A977-60BB-486E-90D4-DB4A9CD2847A}">
-  <dimension ref="A2:AB196"/>
+  <dimension ref="A2:AB208"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19920,7 +20650,7 @@
         <v>7.0000000000000097E-3</v>
       </c>
       <c r="J157" s="9">
-        <f t="shared" ref="J157:J196" si="98">J149+6</f>
+        <f t="shared" ref="J157:J208" si="98">J149+6</f>
         <v>101</v>
       </c>
       <c r="K157" s="1">
@@ -20387,7 +21117,7 @@
         <v>9028</v>
       </c>
       <c r="L167">
-        <f t="shared" ref="L167:L196" si="110">L135+1</f>
+        <f t="shared" ref="L167:L208" si="110">L135+1</f>
         <v>6</v>
       </c>
     </row>
@@ -20623,7 +21353,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f t="shared" ref="A173:A196" si="116">A172*10</f>
+        <f t="shared" ref="A173:A208" si="116">A172*10</f>
         <v>1.0000000000000002E+241</v>
       </c>
       <c r="B173">
@@ -20637,7 +21367,7 @@
         <v>0.20249999999999946</v>
       </c>
       <c r="E173" s="7">
-        <f t="shared" ref="E173:E196" si="117">E172+0.005</f>
+        <f t="shared" ref="E173:E208" si="117">E172+0.005</f>
         <v>0.70000000000000051</v>
       </c>
       <c r="F173" s="7">
@@ -20687,7 +21417,7 @@
         <v>0.70500000000000052</v>
       </c>
       <c r="F174" s="7">
-        <f t="shared" ref="F174:F196" si="119">F173+0.0005</f>
+        <f t="shared" ref="F174:F208" si="119">F173+0.0005</f>
         <v>7.5000000000000053E-2</v>
       </c>
       <c r="G174" s="7">
@@ -21725,24 +22455,581 @@
         <v>7</v>
       </c>
     </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000002E+265</v>
+      </c>
+      <c r="B197">
+        <v>193</v>
+      </c>
+      <c r="C197" s="23">
+        <v>0</v>
+      </c>
+      <c r="D197" s="7">
+        <f t="shared" ref="D197:D208" si="145">100%-(E197+F197+G197+H197)</f>
+        <v>6.5699999999999426E-2</v>
+      </c>
+      <c r="E197" s="7">
+        <f t="shared" si="117"/>
+        <v>0.82000000000000062</v>
+      </c>
+      <c r="F197" s="7">
+        <f t="shared" si="119"/>
+        <v>8.6500000000000063E-2</v>
+      </c>
+      <c r="G197" s="7">
+        <f t="shared" ref="G197:H197" si="146">G196+0.0001</f>
+        <v>1.5399999999999962E-2</v>
+      </c>
+      <c r="H197" s="7">
+        <f t="shared" si="146"/>
+        <v>1.239999999999998E-2</v>
+      </c>
+      <c r="I197" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J197" s="9">
+        <f t="shared" si="98"/>
+        <v>131</v>
+      </c>
+      <c r="K197" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+266</v>
+      </c>
+      <c r="B198">
+        <v>194</v>
+      </c>
+      <c r="C198" s="23">
+        <v>0</v>
+      </c>
+      <c r="D198" s="7">
+        <f t="shared" si="145"/>
+        <v>5.9999999999999387E-2</v>
+      </c>
+      <c r="E198" s="7">
+        <f t="shared" si="117"/>
+        <v>0.82500000000000062</v>
+      </c>
+      <c r="F198" s="7">
+        <f t="shared" si="119"/>
+        <v>8.7000000000000063E-2</v>
+      </c>
+      <c r="G198" s="7">
+        <f t="shared" ref="G198:H198" si="147">G197+0.0001</f>
+        <v>1.5499999999999962E-2</v>
+      </c>
+      <c r="H198" s="7">
+        <f t="shared" si="147"/>
+        <v>1.249999999999998E-2</v>
+      </c>
+      <c r="I198" s="7">
+        <v>1.11E-2</v>
+      </c>
+      <c r="J198" s="9">
+        <f t="shared" si="98"/>
+        <v>131</v>
+      </c>
+      <c r="K198" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+267</v>
+      </c>
+      <c r="B199">
+        <v>195</v>
+      </c>
+      <c r="C199" s="23">
+        <v>0</v>
+      </c>
+      <c r="D199" s="7">
+        <f t="shared" si="145"/>
+        <v>5.429999999999946E-2</v>
+      </c>
+      <c r="E199" s="7">
+        <f t="shared" si="117"/>
+        <v>0.83000000000000063</v>
+      </c>
+      <c r="F199" s="7">
+        <f t="shared" si="119"/>
+        <v>8.7500000000000064E-2</v>
+      </c>
+      <c r="G199" s="7">
+        <f t="shared" ref="G199:H199" si="148">G198+0.0001</f>
+        <v>1.5599999999999961E-2</v>
+      </c>
+      <c r="H199" s="7">
+        <f t="shared" si="148"/>
+        <v>1.2599999999999979E-2</v>
+      </c>
+      <c r="I199" s="7">
+        <v>1.12E-2</v>
+      </c>
+      <c r="J199" s="9">
+        <f t="shared" si="98"/>
+        <v>131</v>
+      </c>
+      <c r="K199" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+268</v>
+      </c>
+      <c r="B200">
+        <v>196</v>
+      </c>
+      <c r="C200" s="23">
+        <v>0</v>
+      </c>
+      <c r="D200" s="7">
+        <f t="shared" si="145"/>
+        <v>4.8599999999999421E-2</v>
+      </c>
+      <c r="E200" s="7">
+        <f t="shared" si="117"/>
+        <v>0.83500000000000063</v>
+      </c>
+      <c r="F200" s="7">
+        <f t="shared" si="119"/>
+        <v>8.8000000000000064E-2</v>
+      </c>
+      <c r="G200" s="7">
+        <f t="shared" ref="G200:H200" si="149">G199+0.0001</f>
+        <v>1.5699999999999961E-2</v>
+      </c>
+      <c r="H200" s="7">
+        <f t="shared" si="149"/>
+        <v>1.2699999999999979E-2</v>
+      </c>
+      <c r="I200" s="7">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="J200" s="9">
+        <f t="shared" si="98"/>
+        <v>131</v>
+      </c>
+      <c r="K200" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+269</v>
+      </c>
+      <c r="B201">
+        <v>197</v>
+      </c>
+      <c r="C201" s="23">
+        <v>0</v>
+      </c>
+      <c r="D201" s="7">
+        <f t="shared" si="145"/>
+        <v>4.2899999999999494E-2</v>
+      </c>
+      <c r="E201" s="7">
+        <f t="shared" si="117"/>
+        <v>0.84000000000000064</v>
+      </c>
+      <c r="F201" s="7">
+        <f t="shared" si="119"/>
+        <v>8.8500000000000065E-2</v>
+      </c>
+      <c r="G201" s="7">
+        <f t="shared" ref="G201:H201" si="150">G200+0.0001</f>
+        <v>1.579999999999996E-2</v>
+      </c>
+      <c r="H201" s="7">
+        <f t="shared" si="150"/>
+        <v>1.2799999999999978E-2</v>
+      </c>
+      <c r="I201" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="J201" s="9">
+        <f t="shared" si="98"/>
+        <v>131</v>
+      </c>
+      <c r="K201" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+270</v>
+      </c>
+      <c r="B202">
+        <v>198</v>
+      </c>
+      <c r="C202" s="23">
+        <v>0</v>
+      </c>
+      <c r="D202" s="7">
+        <f t="shared" si="145"/>
+        <v>3.7199999999999345E-2</v>
+      </c>
+      <c r="E202" s="7">
+        <f t="shared" si="117"/>
+        <v>0.84500000000000064</v>
+      </c>
+      <c r="F202" s="7">
+        <f t="shared" si="119"/>
+        <v>8.9000000000000065E-2</v>
+      </c>
+      <c r="G202" s="7">
+        <f t="shared" ref="G202:H202" si="151">G201+0.0001</f>
+        <v>1.5899999999999959E-2</v>
+      </c>
+      <c r="H202" s="7">
+        <f t="shared" si="151"/>
+        <v>1.2899999999999977E-2</v>
+      </c>
+      <c r="I202" s="7">
+        <v>1.15E-2</v>
+      </c>
+      <c r="J202" s="9">
+        <f t="shared" si="98"/>
+        <v>131</v>
+      </c>
+      <c r="K202" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+271</v>
+      </c>
+      <c r="B203">
+        <v>199</v>
+      </c>
+      <c r="C203" s="23">
+        <v>0</v>
+      </c>
+      <c r="D203" s="7">
+        <f t="shared" si="145"/>
+        <v>3.1499999999999306E-2</v>
+      </c>
+      <c r="E203" s="7">
+        <f t="shared" si="117"/>
+        <v>0.85000000000000064</v>
+      </c>
+      <c r="F203" s="7">
+        <f t="shared" si="119"/>
+        <v>8.9500000000000066E-2</v>
+      </c>
+      <c r="G203" s="7">
+        <f t="shared" ref="G203:H203" si="152">G202+0.0001</f>
+        <v>1.5999999999999959E-2</v>
+      </c>
+      <c r="H203" s="7">
+        <f t="shared" si="152"/>
+        <v>1.2999999999999977E-2</v>
+      </c>
+      <c r="I203" s="7">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="J203" s="9">
+        <f t="shared" si="98"/>
+        <v>131</v>
+      </c>
+      <c r="K203" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000004E+272</v>
+      </c>
+      <c r="B204">
+        <v>200</v>
+      </c>
+      <c r="C204" s="23">
+        <v>0</v>
+      </c>
+      <c r="D204" s="7">
+        <f t="shared" si="145"/>
+        <v>2.5799999999999268E-2</v>
+      </c>
+      <c r="E204" s="7">
+        <f t="shared" si="117"/>
+        <v>0.85500000000000065</v>
+      </c>
+      <c r="F204" s="7">
+        <f t="shared" si="119"/>
+        <v>9.0000000000000066E-2</v>
+      </c>
+      <c r="G204" s="7">
+        <f t="shared" ref="G204:H204" si="153">G203+0.0001</f>
+        <v>1.6099999999999958E-2</v>
+      </c>
+      <c r="H204" s="7">
+        <f t="shared" si="153"/>
+        <v>1.3099999999999976E-2</v>
+      </c>
+      <c r="I204" s="7">
+        <v>1.17E-2</v>
+      </c>
+      <c r="J204" s="9">
+        <f t="shared" si="98"/>
+        <v>137</v>
+      </c>
+      <c r="K204" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+273</v>
+      </c>
+      <c r="B205">
+        <v>201</v>
+      </c>
+      <c r="C205" s="23">
+        <v>0</v>
+      </c>
+      <c r="D205" s="7">
+        <f t="shared" si="145"/>
+        <v>2.0099999999999341E-2</v>
+      </c>
+      <c r="E205" s="7">
+        <f t="shared" si="117"/>
+        <v>0.86000000000000065</v>
+      </c>
+      <c r="F205" s="7">
+        <f t="shared" si="119"/>
+        <v>9.0500000000000067E-2</v>
+      </c>
+      <c r="G205" s="7">
+        <f t="shared" ref="G205:H205" si="154">G204+0.0001</f>
+        <v>1.6199999999999957E-2</v>
+      </c>
+      <c r="H205" s="7">
+        <f t="shared" si="154"/>
+        <v>1.3199999999999976E-2</v>
+      </c>
+      <c r="I205" s="7">
+        <v>1.18E-2</v>
+      </c>
+      <c r="J205" s="9">
+        <f t="shared" si="98"/>
+        <v>137</v>
+      </c>
+      <c r="K205" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+274</v>
+      </c>
+      <c r="B206">
+        <v>202</v>
+      </c>
+      <c r="C206" s="23">
+        <v>0</v>
+      </c>
+      <c r="D206" s="7">
+        <f t="shared" si="145"/>
+        <v>1.4399999999999302E-2</v>
+      </c>
+      <c r="E206" s="7">
+        <f t="shared" si="117"/>
+        <v>0.86500000000000066</v>
+      </c>
+      <c r="F206" s="7">
+        <f t="shared" si="119"/>
+        <v>9.1000000000000067E-2</v>
+      </c>
+      <c r="G206" s="7">
+        <f t="shared" ref="G206:H206" si="155">G205+0.0001</f>
+        <v>1.6299999999999957E-2</v>
+      </c>
+      <c r="H206" s="7">
+        <f t="shared" si="155"/>
+        <v>1.3299999999999975E-2</v>
+      </c>
+      <c r="I206" s="7">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="J206" s="9">
+        <f t="shared" si="98"/>
+        <v>137</v>
+      </c>
+      <c r="K206" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+275</v>
+      </c>
+      <c r="B207">
+        <v>203</v>
+      </c>
+      <c r="C207" s="23">
+        <v>0</v>
+      </c>
+      <c r="D207" s="7">
+        <f t="shared" si="145"/>
+        <v>8.6999999999993749E-3</v>
+      </c>
+      <c r="E207" s="7">
+        <f t="shared" si="117"/>
+        <v>0.87000000000000066</v>
+      </c>
+      <c r="F207" s="7">
+        <f t="shared" si="119"/>
+        <v>9.1500000000000067E-2</v>
+      </c>
+      <c r="G207" s="7">
+        <f t="shared" ref="G207:H207" si="156">G206+0.0001</f>
+        <v>1.6399999999999956E-2</v>
+      </c>
+      <c r="H207" s="7">
+        <f t="shared" si="156"/>
+        <v>1.3399999999999974E-2</v>
+      </c>
+      <c r="I207" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J207" s="9">
+        <f t="shared" si="98"/>
+        <v>137</v>
+      </c>
+      <c r="K207" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <f t="shared" si="116"/>
+        <v>1.0000000000000003E+276</v>
+      </c>
+      <c r="B208">
+        <v>204</v>
+      </c>
+      <c r="C208" s="23">
+        <v>0</v>
+      </c>
+      <c r="D208" s="7">
+        <f t="shared" si="145"/>
+        <v>2.9999999999993365E-3</v>
+      </c>
+      <c r="E208" s="7">
+        <f t="shared" si="117"/>
+        <v>0.87500000000000067</v>
+      </c>
+      <c r="F208" s="7">
+        <f t="shared" si="119"/>
+        <v>9.2000000000000068E-2</v>
+      </c>
+      <c r="G208" s="7">
+        <f t="shared" ref="G208:H208" si="157">G207+0.0001</f>
+        <v>1.6499999999999956E-2</v>
+      </c>
+      <c r="H208" s="7">
+        <f t="shared" si="157"/>
+        <v>1.3499999999999974E-2</v>
+      </c>
+      <c r="I208" s="7">
+        <v>1.21E-2</v>
+      </c>
+      <c r="J208" s="9">
+        <f t="shared" si="98"/>
+        <v>137</v>
+      </c>
+      <c r="K208" s="1">
+        <v>9028</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="110"/>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121 B124:B196">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="B4:B41 B44:B51 B54:B61 B64:B71 B74:B81 B84:B91 B94:B101 B104:B111 B114:B121 B124:B206">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B43 B52:B53 B62:B63 B72:B73 B82:B83 B92:B93 B102:B103 B112:B113 B122:B123">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$S$30=$Q$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$S$30&lt;&gt;$Q$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B207:B208">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>#REF!=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
